--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A637C-0460-4847-B3A0-CBF9EC60E10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC05749-E16F-49CE-B551-69878879CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MM!$A$1:$J$340</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$346</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="177">
   <si>
     <t>PROYECTO:</t>
   </si>
@@ -401,13 +401,7 @@
     <t xml:space="preserve">5TO PISO </t>
   </si>
   <si>
-    <t xml:space="preserve">SALA MULTIUSO </t>
-  </si>
-  <si>
     <t>CUARTO DE DATA</t>
-  </si>
-  <si>
-    <t>SALA DE REGIDORES</t>
   </si>
   <si>
     <t xml:space="preserve">RAMPA DE INGREO EN SOTANO  </t>
@@ -1324,6 +1318,15 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,15 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1676,10 +1670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J376"/>
+  <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A54" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,18 +1698,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -1733,29 +1727,29 @@
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
@@ -1831,10 +1825,10 @@
     </row>
     <row r="9" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="45"/>
@@ -1847,10 +1841,10 @@
     </row>
     <row r="10" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1863,10 +1857,10 @@
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>14</v>
@@ -2115,10 +2109,10 @@
     </row>
     <row r="26" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="24"/>
@@ -2131,10 +2125,10 @@
     </row>
     <row r="27" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>14</v>
@@ -2184,10 +2178,10 @@
     </row>
     <row r="30" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="24"/>
@@ -2235,10 +2229,10 @@
     </row>
     <row r="33" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>14</v>
@@ -2288,10 +2282,10 @@
     </row>
     <row r="36" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>14</v>
@@ -2341,10 +2335,10 @@
     </row>
     <row r="39" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>14</v>
@@ -2394,10 +2388,10 @@
     </row>
     <row r="42" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="45" t="s">
         <v>14</v>
@@ -2447,10 +2441,10 @@
     </row>
     <row r="45" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
@@ -2516,10 +2510,10 @@
     </row>
     <row r="49" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="63" t="s">
         <v>14</v>
@@ -2551,7 +2545,7 @@
     <row r="51" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94"/>
       <c r="B51" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="63"/>
       <c r="D51" s="45">
@@ -2569,10 +2563,10 @@
     </row>
     <row r="52" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C52" s="63" t="s">
         <v>14</v>
@@ -2604,7 +2598,7 @@
     <row r="54" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99"/>
       <c r="B54" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="24">
@@ -2674,7 +2668,7 @@
     <row r="58" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="99"/>
       <c r="B58" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24">
@@ -2707,8 +2701,8 @@
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
       <c r="J59" s="63">
-        <f>SUM(I59:I75)</f>
-        <v>6</v>
+        <f>SUM(D61:D71)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,7 +2732,10 @@
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
+      <c r="I61" s="24">
+        <f t="shared" ref="I61:I65" si="6">ROUND(PRODUCT(D61:G61),2)</f>
+        <v>3</v>
+      </c>
       <c r="J61" s="63"/>
     </row>
     <row r="62" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2752,7 +2749,7 @@
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="63"/>
     </row>
     <row r="63" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,12 +2758,17 @@
         <v>15</v>
       </c>
       <c r="C63" s="63"/>
-      <c r="D63" s="45"/>
+      <c r="D63" s="45">
+        <v>5</v>
+      </c>
       <c r="E63" s="45"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
+      <c r="I63" s="24">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="J63" s="63"/>
     </row>
     <row r="64" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2782,7 @@
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="63"/>
     </row>
     <row r="65" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2789,12 +2791,17 @@
         <v>15</v>
       </c>
       <c r="C65" s="63"/>
-      <c r="D65" s="45"/>
+      <c r="D65" s="45">
+        <v>6</v>
+      </c>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="I65" s="24">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="J65" s="63"/>
     </row>
     <row r="66" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,15 +2825,15 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24">
-        <f t="shared" ref="I67" si="6">ROUND(PRODUCT(D67:G67),2)</f>
-        <v>1</v>
+        <f t="shared" ref="I67" si="7">ROUND(PRODUCT(D67:G67),2)</f>
+        <v>5</v>
       </c>
       <c r="J67" s="24"/>
     </row>
@@ -2851,15 +2858,15 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24">
-        <f t="shared" ref="I69" si="7">ROUND(PRODUCT(D69:G69),2)</f>
-        <v>1</v>
+        <f t="shared" ref="I69" si="8">ROUND(PRODUCT(D69:G69),2)</f>
+        <v>5</v>
       </c>
       <c r="J69" s="24"/>
     </row>
@@ -2884,55 +2891,57 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24">
-        <f t="shared" ref="I71" si="8">ROUND(PRODUCT(D71:G71),2)</f>
-        <v>1</v>
+        <f t="shared" ref="I71" si="9">ROUND(PRODUCT(D71:G71),2)</f>
+        <v>5</v>
       </c>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
-      <c r="B72" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
+    <row r="72" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="63">
+        <f>SUM(I74:I86)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="99"/>
-      <c r="B73" s="98" t="s">
-        <v>18</v>
+      <c r="B73" s="97" t="s">
+        <v>13</v>
       </c>
       <c r="C73" s="24"/>
-      <c r="D73" s="24">
-        <v>1</v>
-      </c>
+      <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
-      <c r="I73" s="24">
-        <f t="shared" ref="I73" si="9">ROUND(PRODUCT(D73:G73),2)</f>
-        <v>1</v>
-      </c>
+      <c r="I73" s="24"/>
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="99"/>
       <c r="B74" s="98" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24">
@@ -2943,55 +2952,48 @@
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
       <c r="I74" s="24">
-        <f t="shared" ref="I74" si="10">ROUND(PRODUCT(D74:G74),2)</f>
+        <f>ROUND(PRODUCT(D74:G74),2)</f>
         <v>1</v>
       </c>
       <c r="J74" s="24"/>
     </row>
     <row r="75" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="99"/>
-      <c r="B75" s="98" t="s">
-        <v>125</v>
+      <c r="B75" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="C75" s="24"/>
-      <c r="D75" s="24">
-        <v>1</v>
-      </c>
+      <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
-      <c r="I75" s="24">
-        <f t="shared" ref="I75" si="11">ROUND(PRODUCT(D75:G75),2)</f>
-        <v>1</v>
-      </c>
+      <c r="I75" s="24"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="63">
-        <f>SUM(I78:I90)</f>
-        <v>12</v>
-      </c>
+    <row r="76" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="99"/>
+      <c r="B76" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24">
+        <v>2</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24">
+        <f t="shared" ref="I76" si="10">ROUND(PRODUCT(D76:G76),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="99"/>
       <c r="B77" s="97" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -3005,26 +3007,26 @@
     <row r="78" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="99"/>
       <c r="B78" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24">
-        <f>ROUND(PRODUCT(D78:G78),2)</f>
-        <v>1</v>
+        <f t="shared" ref="I78" si="11">ROUND(PRODUCT(D78:G78),2)</f>
+        <v>3</v>
       </c>
       <c r="J78" s="24"/>
     </row>
     <row r="79" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="99"/>
       <c r="B79" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
@@ -3038,7 +3040,7 @@
     <row r="80" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="99"/>
       <c r="B80" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24">
@@ -3057,7 +3059,7 @@
     <row r="81" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
       <c r="B81" s="97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -3071,11 +3073,11 @@
     <row r="82" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="99"/>
       <c r="B82" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -3083,14 +3085,14 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24">
         <f t="shared" ref="I82" si="13">ROUND(PRODUCT(D82:G82),2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" s="24"/>
     </row>
     <row r="83" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="99"/>
       <c r="B83" s="97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
@@ -3104,11 +3106,11 @@
     <row r="84" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="99"/>
       <c r="B84" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -3116,14 +3118,14 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24">
         <f t="shared" ref="I84" si="14">ROUND(PRODUCT(D84:G84),2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="99"/>
       <c r="B85" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -3137,26 +3139,28 @@
     <row r="86" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="99"/>
       <c r="B86" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24">
-        <f t="shared" ref="I86" si="15">ROUND(PRODUCT(D86:G86),2)</f>
-        <v>2</v>
+        <f t="shared" ref="I86:I176" si="15">ROUND(PRODUCT(D86:G86),2)</f>
+        <v>1</v>
       </c>
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
-      <c r="B87" s="97" t="s">
-        <v>121</v>
+      <c r="A87" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="107" t="s">
+        <v>175</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
@@ -3168,28 +3172,29 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
-      <c r="B88" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24">
-        <v>1</v>
-      </c>
+      <c r="A88" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
-      <c r="I88" s="24">
-        <f t="shared" ref="I88" si="16">ROUND(PRODUCT(D88:G88),2)</f>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24">
         <v>1</v>
       </c>
-      <c r="J88" s="24"/>
     </row>
     <row r="89" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
@@ -3203,9 +3208,9 @@
     <row r="90" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="99"/>
       <c r="B90" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="C90" s="63"/>
       <c r="D90" s="24">
         <v>1</v>
       </c>
@@ -3213,18 +3218,15 @@
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="24">
-        <f t="shared" ref="I90:I180" si="17">ROUND(PRODUCT(D90:G90),2)</f>
-        <v>1</v>
-      </c>
+      <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
     <row r="91" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="115" t="s">
-        <v>177</v>
+      <c r="A91" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="101" t="s">
+        <v>78</v>
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
@@ -3235,30 +3237,31 @@
       <c r="I91" s="24"/>
       <c r="J91" s="24"/>
     </row>
-    <row r="92" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="117" t="s">
-        <v>178</v>
+    <row r="92" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="103" t="s">
+        <v>79</v>
       </c>
       <c r="C92" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24">
-        <v>1</v>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="63">
+        <f>SUM(I94)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="116"/>
+      <c r="A93" s="99"/>
       <c r="B93" s="97" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
@@ -3274,23 +3277,23 @@
       <c r="B94" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="24">
-        <v>1</v>
-      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
+      <c r="I94" s="24">
+        <v>42</v>
+      </c>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="101" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="B95" s="104" t="s">
+        <v>80</v>
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
@@ -3299,14 +3302,14 @@
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
+      <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="102" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C96" s="63" t="s">
         <v>14</v>
@@ -3318,14 +3321,13 @@
       <c r="H96" s="45"/>
       <c r="I96" s="45"/>
       <c r="J96" s="63">
-        <f>SUM(I98)</f>
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="99"/>
       <c r="B97" s="97" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
@@ -3339,216 +3341,218 @@
     <row r="98" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="99"/>
       <c r="B98" s="98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="D98" s="24">
+        <v>1</v>
+      </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24">
-        <v>42</v>
+        <f t="shared" ref="I98" si="16">ROUND(PRODUCT(D98:G98),2)</f>
+        <v>1</v>
       </c>
       <c r="J98" s="24"/>
     </row>
-    <row r="99" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="40"/>
-    </row>
-    <row r="100" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" s="63" t="s">
+    <row r="99" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="63">
-        <v>1</v>
-      </c>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="99"/>
+      <c r="B100" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="99"/>
-      <c r="B101" s="97" t="s">
-        <v>117</v>
+      <c r="B101" s="98" t="s">
+        <v>123</v>
       </c>
       <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
+      <c r="D101" s="24">
+        <v>2</v>
+      </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
+      <c r="I101" s="24">
+        <f t="shared" ref="I101" si="17">ROUND(PRODUCT(D101:G101),2)</f>
+        <v>2</v>
+      </c>
       <c r="J101" s="24"/>
     </row>
-    <row r="102" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24">
+    <row r="102" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="63">
         <v>1</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24">
-        <f t="shared" ref="I102" si="18">ROUND(PRODUCT(D102:G102),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J102" s="24"/>
-    </row>
-    <row r="103" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="63">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="103" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="99"/>
+      <c r="B103" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
     </row>
     <row r="104" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="99"/>
-      <c r="B104" s="97" t="s">
-        <v>117</v>
+      <c r="B104" s="98" t="s">
+        <v>123</v>
       </c>
       <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="D104" s="24">
+        <v>1</v>
+      </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
+      <c r="I104" s="24">
+        <f t="shared" ref="I104" si="18">ROUND(PRODUCT(D104:G104),2)</f>
+        <v>1</v>
+      </c>
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
-      <c r="B105" s="98" t="s">
-        <v>124</v>
+      <c r="A105" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="101" t="s">
+        <v>84</v>
       </c>
       <c r="C105" s="24"/>
-      <c r="D105" s="24">
-        <v>2</v>
-      </c>
+      <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="24">
-        <f t="shared" ref="I105" si="19">ROUND(PRODUCT(D105:G105),2)</f>
-        <v>2</v>
-      </c>
+      <c r="I105" s="24"/>
       <c r="J105" s="24"/>
     </row>
-    <row r="106" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
-      <c r="B107" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
+    <row r="106" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+    </row>
+    <row r="107" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="63">
+        <f>SUM(I109:I121)</f>
+        <v>19395</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="99"/>
-      <c r="B108" s="98" t="s">
-        <v>124</v>
+      <c r="B108" s="97" t="s">
+        <v>13</v>
       </c>
       <c r="C108" s="24"/>
-      <c r="D108" s="24">
-        <v>1</v>
-      </c>
+      <c r="D108" s="24"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
-      <c r="I108" s="24">
-        <f t="shared" ref="I108" si="20">ROUND(PRODUCT(D108:G108),2)</f>
-        <v>1</v>
-      </c>
+      <c r="I108" s="24"/>
       <c r="J108" s="24"/>
     </row>
     <row r="109" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="101" t="s">
-        <v>84</v>
+      <c r="A109" s="99"/>
+      <c r="B109" s="98" t="s">
+        <v>15</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
+      <c r="F109" s="24">
+        <v>945</v>
+      </c>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
+      <c r="I109" s="24">
+        <f>ROUND(PRODUCT(D109:G109),2)</f>
+        <v>945</v>
+      </c>
       <c r="J109" s="24"/>
     </row>
     <row r="110" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="106" t="s">
-        <v>71</v>
+      <c r="A110" s="99"/>
+      <c r="B110" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
@@ -3559,31 +3563,29 @@
       <c r="I110" s="24"/>
       <c r="J110" s="24"/>
     </row>
-    <row r="111" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="63">
-        <f>SUM(I113:I125)</f>
-        <v>19395</v>
-      </c>
+    <row r="111" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="99"/>
+      <c r="B111" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24">
+        <v>2794</v>
+      </c>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24">
+        <f t="shared" ref="I111" si="19">ROUND(PRODUCT(D111:G111),2)</f>
+        <v>2794</v>
+      </c>
+      <c r="J111" s="24"/>
     </row>
     <row r="112" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="99"/>
       <c r="B112" s="97" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
@@ -3603,20 +3605,20 @@
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
       <c r="F113" s="24">
-        <v>945</v>
+        <v>4150</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
       <c r="I113" s="24">
-        <f>ROUND(PRODUCT(D113:G113),2)</f>
-        <v>945</v>
+        <f t="shared" ref="I113" si="20">ROUND(PRODUCT(D113:G113),2)</f>
+        <v>4150</v>
       </c>
       <c r="J113" s="24"/>
     </row>
     <row r="114" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="99"/>
       <c r="B114" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
@@ -3636,20 +3638,20 @@
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
       <c r="F115" s="24">
-        <v>2794</v>
+        <v>3246</v>
       </c>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
       <c r="I115" s="24">
         <f t="shared" ref="I115" si="21">ROUND(PRODUCT(D115:G115),2)</f>
-        <v>2794</v>
+        <v>3246</v>
       </c>
       <c r="J115" s="24"/>
     </row>
     <row r="116" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="99"/>
       <c r="B116" s="97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
@@ -3669,20 +3671,20 @@
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
       <c r="F117" s="24">
-        <v>4150</v>
+        <v>3780</v>
       </c>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24">
         <f t="shared" ref="I117" si="22">ROUND(PRODUCT(D117:G117),2)</f>
-        <v>4150</v>
+        <v>3780</v>
       </c>
       <c r="J117" s="24"/>
     </row>
     <row r="118" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="99"/>
       <c r="B118" s="97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
@@ -3702,20 +3704,20 @@
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24">
-        <v>3246</v>
+        <v>3328</v>
       </c>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
       <c r="I119" s="24">
         <f t="shared" ref="I119" si="23">ROUND(PRODUCT(D119:G119),2)</f>
-        <v>3246</v>
+        <v>3328</v>
       </c>
       <c r="J119" s="24"/>
     </row>
     <row r="120" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="99"/>
       <c r="B120" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
@@ -3729,26 +3731,28 @@
     <row r="121" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="99"/>
       <c r="B121" s="98" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
       <c r="F121" s="24">
-        <v>3780</v>
+        <v>1152</v>
       </c>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24">
-        <f t="shared" ref="I121" si="24">ROUND(PRODUCT(D121:G121),2)</f>
-        <v>3780</v>
+        <f>ROUND(PRODUCT(D121:G121),2)</f>
+        <v>1152</v>
       </c>
       <c r="J121" s="24"/>
     </row>
     <row r="122" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
-      <c r="B122" s="97" t="s">
-        <v>121</v>
+      <c r="A122" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="106" t="s">
+        <v>85</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
@@ -3759,29 +3763,30 @@
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
     </row>
-    <row r="123" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="99"/>
-      <c r="B123" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24">
-        <v>3328</v>
-      </c>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24">
-        <f t="shared" ref="I123" si="25">ROUND(PRODUCT(D123:G123),2)</f>
-        <v>3328</v>
-      </c>
-      <c r="J123" s="24"/>
+    <row r="123" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="63">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="99"/>
       <c r="B124" s="97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
@@ -3795,116 +3800,113 @@
     <row r="125" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="99"/>
       <c r="B125" s="98" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="24">
+        <v>2</v>
+      </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="24">
-        <v>1152</v>
-      </c>
+      <c r="F125" s="24"/>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
       <c r="I125" s="24">
-        <f>ROUND(PRODUCT(D125:G125),2)</f>
-        <v>1152</v>
+        <f t="shared" ref="I125" si="24">ROUND(PRODUCT(D125:G125),2)</f>
+        <v>2</v>
       </c>
       <c r="J125" s="24"/>
     </row>
-    <row r="126" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-    </row>
-    <row r="127" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C127" s="63" t="s">
+    <row r="126" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="63">
-        <v>2</v>
-      </c>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="63">
+        <f>SUM(I128:I140)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="99"/>
+      <c r="B127" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
     </row>
     <row r="128" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="99"/>
-      <c r="B128" s="97" t="s">
-        <v>117</v>
+      <c r="B128" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="D128" s="24">
+        <v>1</v>
+      </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
       <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
+      <c r="I128" s="24">
+        <f>ROUND(PRODUCT(D128:G128),2)</f>
+        <v>1</v>
+      </c>
       <c r="J128" s="24"/>
     </row>
     <row r="129" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="99"/>
-      <c r="B129" s="98" t="s">
-        <v>124</v>
+      <c r="B129" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="C129" s="24"/>
-      <c r="D129" s="24">
-        <v>2</v>
-      </c>
+      <c r="D129" s="24"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
-      <c r="I129" s="24">
-        <f t="shared" ref="I129" si="26">ROUND(PRODUCT(D129:G129),2)</f>
-        <v>2</v>
-      </c>
+      <c r="I129" s="24"/>
       <c r="J129" s="24"/>
     </row>
-    <row r="130" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="C130" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="63">
-        <f>SUM(I132:I144)</f>
-        <v>7</v>
-      </c>
+    <row r="130" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="99"/>
+      <c r="B130" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24">
+        <v>1</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24">
+        <f t="shared" ref="I130" si="25">ROUND(PRODUCT(D130:G130),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J130" s="24"/>
     </row>
     <row r="131" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="99"/>
       <c r="B131" s="97" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
@@ -3918,7 +3920,7 @@
     <row r="132" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="99"/>
       <c r="B132" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C132" s="24"/>
       <c r="D132" s="24">
@@ -3929,7 +3931,7 @@
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
       <c r="I132" s="24">
-        <f>ROUND(PRODUCT(D132:G132),2)</f>
+        <f t="shared" ref="I132" si="26">ROUND(PRODUCT(D132:G132),2)</f>
         <v>1</v>
       </c>
       <c r="J132" s="24"/>
@@ -3937,7 +3939,7 @@
     <row r="133" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="99"/>
       <c r="B133" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
@@ -3951,7 +3953,7 @@
     <row r="134" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="99"/>
       <c r="B134" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C134" s="24"/>
       <c r="D134" s="24">
@@ -3970,7 +3972,7 @@
     <row r="135" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="99"/>
       <c r="B135" s="97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
@@ -3984,7 +3986,7 @@
     <row r="136" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="99"/>
       <c r="B136" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="24">
@@ -4003,7 +4005,7 @@
     <row r="137" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="99"/>
       <c r="B137" s="97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
@@ -4017,7 +4019,7 @@
     <row r="138" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="99"/>
       <c r="B138" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C138" s="24"/>
       <c r="D138" s="24">
@@ -4036,7 +4038,7 @@
     <row r="139" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="99"/>
       <c r="B139" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
@@ -4050,7 +4052,7 @@
     <row r="140" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="99"/>
       <c r="B140" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C140" s="24"/>
       <c r="D140" s="24">
@@ -4067,9 +4069,11 @@
       <c r="J140" s="24"/>
     </row>
     <row r="141" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="99"/>
-      <c r="B141" s="97" t="s">
-        <v>121</v>
+      <c r="A141" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="106" t="s">
+        <v>86</v>
       </c>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
@@ -4080,29 +4084,30 @@
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
     </row>
-    <row r="142" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="99"/>
-      <c r="B142" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24">
-        <v>1</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24">
-        <f t="shared" ref="I142" si="31">ROUND(PRODUCT(D142:G142),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J142" s="24"/>
+    <row r="142" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="63">
+        <v>30</v>
+      </c>
     </row>
     <row r="143" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="99"/>
       <c r="B143" s="97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
@@ -4116,115 +4121,112 @@
     <row r="144" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="99"/>
       <c r="B144" s="98" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C144" s="24"/>
       <c r="D144" s="24">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
       <c r="I144" s="24">
-        <f t="shared" ref="I144" si="32">ROUND(PRODUCT(D144:G144),2)</f>
-        <v>1</v>
+        <f t="shared" ref="I144" si="31">ROUND(PRODUCT(D144:G144),2)</f>
+        <v>30</v>
       </c>
       <c r="J144" s="24"/>
     </row>
-    <row r="145" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-    </row>
-    <row r="146" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="B146" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C146" s="63" t="s">
+    <row r="145" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="45"/>
-      <c r="I146" s="45"/>
-      <c r="J146" s="63">
-        <v>30</v>
-      </c>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="63">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="99"/>
+      <c r="B146" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
     </row>
     <row r="147" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="99"/>
-      <c r="B147" s="97" t="s">
-        <v>117</v>
+      <c r="B147" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
+      <c r="D147" s="24">
+        <v>79</v>
+      </c>
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
       <c r="H147" s="24"/>
-      <c r="I147" s="24"/>
+      <c r="I147" s="24">
+        <f>ROUND(PRODUCT(D147:G147),2)</f>
+        <v>79</v>
+      </c>
       <c r="J147" s="24"/>
     </row>
     <row r="148" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="99"/>
-      <c r="B148" s="98" t="s">
-        <v>124</v>
+      <c r="B148" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="C148" s="24"/>
-      <c r="D148" s="24">
-        <v>30</v>
-      </c>
+      <c r="D148" s="24"/>
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
       <c r="H148" s="24"/>
-      <c r="I148" s="24">
-        <f t="shared" ref="I148" si="33">ROUND(PRODUCT(D148:G148),2)</f>
-        <v>30</v>
-      </c>
+      <c r="I148" s="24"/>
       <c r="J148" s="24"/>
     </row>
-    <row r="149" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="B149" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C149" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="63">
-        <v>1628</v>
-      </c>
+    <row r="149" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="99"/>
+      <c r="B149" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24">
+        <v>235</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24">
+        <f t="shared" ref="I149" si="32">ROUND(PRODUCT(D149:G149),2)</f>
+        <v>235</v>
+      </c>
+      <c r="J149" s="24"/>
     </row>
     <row r="150" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="99"/>
       <c r="B150" s="97" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
@@ -4238,26 +4240,26 @@
     <row r="151" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="99"/>
       <c r="B151" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C151" s="24"/>
       <c r="D151" s="24">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24">
-        <f>ROUND(PRODUCT(D151:G151),2)</f>
-        <v>79</v>
+        <f t="shared" ref="I151" si="33">ROUND(PRODUCT(D151:G151),2)</f>
+        <v>348</v>
       </c>
       <c r="J151" s="24"/>
     </row>
     <row r="152" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="99"/>
       <c r="B152" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
@@ -4271,11 +4273,11 @@
     <row r="153" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="99"/>
       <c r="B153" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C153" s="24"/>
       <c r="D153" s="24">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
@@ -4283,14 +4285,14 @@
       <c r="H153" s="24"/>
       <c r="I153" s="24">
         <f t="shared" ref="I153" si="34">ROUND(PRODUCT(D153:G153),2)</f>
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="J153" s="24"/>
     </row>
     <row r="154" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="99"/>
       <c r="B154" s="97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
@@ -4304,11 +4306,11 @@
     <row r="155" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="99"/>
       <c r="B155" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C155" s="24"/>
       <c r="D155" s="24">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="24"/>
@@ -4316,14 +4318,14 @@
       <c r="H155" s="24"/>
       <c r="I155" s="24">
         <f t="shared" ref="I155" si="35">ROUND(PRODUCT(D155:G155),2)</f>
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="J155" s="24"/>
     </row>
     <row r="156" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="99"/>
       <c r="B156" s="97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="24"/>
@@ -4337,11 +4339,11 @@
     <row r="157" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="99"/>
       <c r="B157" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C157" s="24"/>
       <c r="D157" s="24">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="24"/>
@@ -4349,14 +4351,14 @@
       <c r="H157" s="24"/>
       <c r="I157" s="24">
         <f t="shared" ref="I157" si="36">ROUND(PRODUCT(D157:G157),2)</f>
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="J157" s="24"/>
     </row>
     <row r="158" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="99"/>
       <c r="B158" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C158" s="24"/>
       <c r="D158" s="24"/>
@@ -4370,11 +4372,11 @@
     <row r="159" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="99"/>
       <c r="B159" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C159" s="24"/>
       <c r="D159" s="24">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
@@ -4382,101 +4384,101 @@
       <c r="H159" s="24"/>
       <c r="I159" s="24">
         <f t="shared" ref="I159" si="37">ROUND(PRODUCT(D159:G159),2)</f>
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="J159" s="24"/>
     </row>
-    <row r="160" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="99"/>
-      <c r="B160" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
+    <row r="160" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="45"/>
+      <c r="J160" s="63">
+        <f>SUM(I162:I174)</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="161" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="99"/>
-      <c r="B161" s="98" t="s">
-        <v>143</v>
+      <c r="B161" s="97" t="s">
+        <v>13</v>
       </c>
       <c r="C161" s="24"/>
-      <c r="D161" s="24">
-        <v>279</v>
-      </c>
+      <c r="D161" s="24"/>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
       <c r="H161" s="24"/>
-      <c r="I161" s="24">
-        <f t="shared" ref="I161" si="38">ROUND(PRODUCT(D161:G161),2)</f>
-        <v>279</v>
-      </c>
+      <c r="I161" s="24"/>
       <c r="J161" s="24"/>
     </row>
     <row r="162" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="99"/>
-      <c r="B162" s="97" t="s">
-        <v>122</v>
+      <c r="B162" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
+      <c r="D162" s="24">
+        <v>3</v>
+      </c>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
+      <c r="I162" s="24">
+        <f>ROUND(PRODUCT(D162:G162),2)</f>
+        <v>3</v>
+      </c>
       <c r="J162" s="24"/>
     </row>
     <row r="163" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="99"/>
-      <c r="B163" s="98" t="s">
-        <v>143</v>
+      <c r="B163" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="C163" s="24"/>
-      <c r="D163" s="24">
-        <v>97</v>
-      </c>
+      <c r="D163" s="24"/>
       <c r="E163" s="24"/>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24"/>
-      <c r="I163" s="24">
-        <f t="shared" ref="I163" si="39">ROUND(PRODUCT(D163:G163),2)</f>
-        <v>97</v>
-      </c>
+      <c r="I163" s="24"/>
       <c r="J163" s="24"/>
     </row>
-    <row r="164" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="B164" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="45"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="45"/>
-      <c r="J164" s="63">
-        <f>SUM(I166:I178)</f>
-        <v>46</v>
-      </c>
+    <row r="164" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="99"/>
+      <c r="B164" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24">
+        <v>6</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24">
+        <f t="shared" ref="I164" si="38">ROUND(PRODUCT(D164:G164),2)</f>
+        <v>6</v>
+      </c>
+      <c r="J164" s="24"/>
     </row>
     <row r="165" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="99"/>
       <c r="B165" s="97" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="C165" s="24"/>
       <c r="D165" s="24"/>
@@ -4490,26 +4492,26 @@
     <row r="166" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="99"/>
       <c r="B166" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C166" s="24"/>
       <c r="D166" s="24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
       <c r="I166" s="24">
-        <f>ROUND(PRODUCT(D166:G166),2)</f>
-        <v>3</v>
+        <f t="shared" ref="I166" si="39">ROUND(PRODUCT(D166:G166),2)</f>
+        <v>10</v>
       </c>
       <c r="J166" s="24"/>
     </row>
     <row r="167" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="99"/>
       <c r="B167" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C167" s="24"/>
       <c r="D167" s="24"/>
@@ -4523,11 +4525,11 @@
     <row r="168" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="99"/>
       <c r="B168" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
@@ -4535,14 +4537,14 @@
       <c r="H168" s="24"/>
       <c r="I168" s="24">
         <f t="shared" ref="I168" si="40">ROUND(PRODUCT(D168:G168),2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J168" s="24"/>
     </row>
     <row r="169" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="99"/>
       <c r="B169" s="97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C169" s="24"/>
       <c r="D169" s="24"/>
@@ -4556,11 +4558,11 @@
     <row r="170" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="99"/>
       <c r="B170" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C170" s="24"/>
       <c r="D170" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="24"/>
@@ -4568,14 +4570,14 @@
       <c r="H170" s="24"/>
       <c r="I170" s="24">
         <f t="shared" ref="I170" si="41">ROUND(PRODUCT(D170:G170),2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J170" s="24"/>
     </row>
     <row r="171" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="99"/>
       <c r="B171" s="97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="24"/>
@@ -4589,11 +4591,11 @@
     <row r="172" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="99"/>
       <c r="B172" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
@@ -4601,14 +4603,14 @@
       <c r="H172" s="24"/>
       <c r="I172" s="24">
         <f t="shared" ref="I172" si="42">ROUND(PRODUCT(D172:G172),2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J172" s="24"/>
     </row>
     <row r="173" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="99"/>
       <c r="B173" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
@@ -4622,11 +4624,11 @@
     <row r="174" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="99"/>
       <c r="B174" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C174" s="24"/>
       <c r="D174" s="24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="24"/>
@@ -4634,15 +4636,13 @@
       <c r="H174" s="24"/>
       <c r="I174" s="24">
         <f t="shared" ref="I174" si="43">ROUND(PRODUCT(D174:G174),2)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J174" s="24"/>
     </row>
     <row r="175" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="99"/>
-      <c r="B175" s="97" t="s">
-        <v>121</v>
-      </c>
+      <c r="A175" s="26"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="24"/>
       <c r="D175" s="24"/>
       <c r="E175" s="24"/>
@@ -4652,29 +4652,34 @@
       <c r="I175" s="24"/>
       <c r="J175" s="24"/>
     </row>
-    <row r="176" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="99"/>
-      <c r="B176" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24">
-        <v>8</v>
-      </c>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24">
-        <f t="shared" ref="I176" si="44">ROUND(PRODUCT(D176:G176),2)</f>
-        <v>8</v>
-      </c>
-      <c r="J176" s="24"/>
+    <row r="176" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="45"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="45"/>
+      <c r="G176" s="45"/>
+      <c r="H176" s="45"/>
+      <c r="I176" s="45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="63">
+        <f>SUM(I178:I196)</f>
+        <v>530</v>
+      </c>
     </row>
     <row r="177" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="99"/>
-      <c r="B177" s="97" t="s">
-        <v>122</v>
+      <c r="A177" s="28"/>
+      <c r="B177" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="24"/>
@@ -4686,27 +4691,27 @@
       <c r="J177" s="24"/>
     </row>
     <row r="178" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="99"/>
-      <c r="B178" s="98" t="s">
-        <v>143</v>
+      <c r="A178" s="28"/>
+      <c r="B178" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="24">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
       <c r="G178" s="24"/>
       <c r="H178" s="24"/>
       <c r="I178" s="24">
-        <f t="shared" ref="I178" si="45">ROUND(PRODUCT(D178:G178),2)</f>
-        <v>3</v>
+        <f>ROUND(PRODUCT(D178:G178),2)</f>
+        <v>30</v>
       </c>
       <c r="J178" s="24"/>
     </row>
     <row r="179" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
-      <c r="B179" s="37"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="24"/>
       <c r="D179" s="24"/>
       <c r="E179" s="24"/>
@@ -4716,66 +4721,56 @@
       <c r="I179" s="24"/>
       <c r="J179" s="24"/>
     </row>
-    <row r="180" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B180" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C180" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="45"/>
-      <c r="I180" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J180" s="63">
-        <f>SUM(I182:I200)</f>
-        <v>530</v>
-      </c>
+    <row r="180" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="28"/>
+      <c r="B180" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
     </row>
     <row r="181" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28"/>
-      <c r="B181" s="29" t="s">
-        <v>13</v>
+      <c r="B181" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
+      <c r="D181" s="24">
+        <v>74</v>
+      </c>
       <c r="E181" s="24"/>
       <c r="F181" s="24"/>
       <c r="G181" s="24"/>
       <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
+      <c r="I181" s="24">
+        <f t="shared" ref="I181" si="44">ROUND(PRODUCT(D181:G181),2)</f>
+        <v>74</v>
+      </c>
       <c r="J181" s="24"/>
     </row>
     <row r="182" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28"/>
-      <c r="B182" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="B182" s="30"/>
       <c r="C182" s="24"/>
-      <c r="D182" s="24">
-        <v>30</v>
-      </c>
+      <c r="D182" s="24"/>
       <c r="E182" s="24"/>
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
       <c r="H182" s="24"/>
-      <c r="I182" s="24">
-        <f>ROUND(PRODUCT(D182:G182),2)</f>
-        <v>30</v>
-      </c>
+      <c r="I182" s="24"/>
       <c r="J182" s="24"/>
     </row>
     <row r="183" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28"/>
-      <c r="B183" s="30"/>
+      <c r="B183" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="C183" s="24"/>
       <c r="D183" s="24"/>
       <c r="E183" s="24"/>
@@ -4787,40 +4782,40 @@
     </row>
     <row r="184" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28"/>
-      <c r="B184" s="29" t="s">
-        <v>117</v>
+      <c r="B184" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
+      <c r="D184" s="24">
+        <v>110</v>
+      </c>
       <c r="E184" s="24"/>
       <c r="F184" s="24"/>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
+      <c r="I184" s="24">
+        <f t="shared" ref="I184" si="45">ROUND(PRODUCT(D184:G184),2)</f>
+        <v>110</v>
+      </c>
       <c r="J184" s="24"/>
     </row>
     <row r="185" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28"/>
-      <c r="B185" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="B185" s="30"/>
       <c r="C185" s="24"/>
-      <c r="D185" s="24">
-        <v>74</v>
-      </c>
+      <c r="D185" s="24"/>
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
       <c r="H185" s="24"/>
-      <c r="I185" s="24">
-        <f t="shared" ref="I185" si="46">ROUND(PRODUCT(D185:G185),2)</f>
-        <v>74</v>
-      </c>
+      <c r="I185" s="24"/>
       <c r="J185" s="24"/>
     </row>
     <row r="186" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28"/>
-      <c r="B186" s="30"/>
+      <c r="B186" s="29" t="s">
+        <v>119</v>
+      </c>
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
       <c r="E186" s="24"/>
@@ -4832,40 +4827,40 @@
     </row>
     <row r="187" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="28"/>
-      <c r="B187" s="29" t="s">
-        <v>118</v>
+      <c r="B187" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
+      <c r="D187" s="24">
+        <v>80</v>
+      </c>
       <c r="E187" s="24"/>
       <c r="F187" s="24"/>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
-      <c r="I187" s="24"/>
+      <c r="I187" s="24">
+        <f t="shared" ref="I187" si="46">ROUND(PRODUCT(D187:G187),2)</f>
+        <v>80</v>
+      </c>
       <c r="J187" s="24"/>
     </row>
     <row r="188" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="28"/>
-      <c r="B188" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="B188" s="30"/>
       <c r="C188" s="24"/>
-      <c r="D188" s="24">
-        <v>110</v>
-      </c>
+      <c r="D188" s="24"/>
       <c r="E188" s="24"/>
       <c r="F188" s="24"/>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
-      <c r="I188" s="24">
-        <f t="shared" ref="I188" si="47">ROUND(PRODUCT(D188:G188),2)</f>
-        <v>110</v>
-      </c>
+      <c r="I188" s="24"/>
       <c r="J188" s="24"/>
     </row>
     <row r="189" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28"/>
-      <c r="B189" s="30"/>
+      <c r="B189" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="C189" s="24"/>
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
@@ -4877,40 +4872,40 @@
     </row>
     <row r="190" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28"/>
-      <c r="B190" s="29" t="s">
-        <v>119</v>
+      <c r="B190" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
+      <c r="D190" s="24">
+        <v>104</v>
+      </c>
       <c r="E190" s="24"/>
       <c r="F190" s="24"/>
       <c r="G190" s="24"/>
       <c r="H190" s="24"/>
-      <c r="I190" s="24"/>
+      <c r="I190" s="24">
+        <f t="shared" ref="I190" si="47">ROUND(PRODUCT(D190:G190),2)</f>
+        <v>104</v>
+      </c>
       <c r="J190" s="24"/>
     </row>
     <row r="191" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28"/>
-      <c r="B191" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="B191" s="30"/>
       <c r="C191" s="24"/>
-      <c r="D191" s="24">
-        <v>80</v>
-      </c>
+      <c r="D191" s="24"/>
       <c r="E191" s="24"/>
       <c r="F191" s="24"/>
       <c r="G191" s="24"/>
       <c r="H191" s="24"/>
-      <c r="I191" s="24">
-        <f t="shared" ref="I191" si="48">ROUND(PRODUCT(D191:G191),2)</f>
-        <v>80</v>
-      </c>
+      <c r="I191" s="24"/>
       <c r="J191" s="24"/>
     </row>
     <row r="192" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28"/>
-      <c r="B192" s="30"/>
+      <c r="B192" s="29" t="s">
+        <v>121</v>
+      </c>
       <c r="C192" s="24"/>
       <c r="D192" s="24"/>
       <c r="E192" s="24"/>
@@ -4922,40 +4917,40 @@
     </row>
     <row r="193" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28"/>
-      <c r="B193" s="29" t="s">
-        <v>120</v>
+      <c r="B193" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C193" s="24"/>
-      <c r="D193" s="24"/>
+      <c r="D193" s="24">
+        <v>98</v>
+      </c>
       <c r="E193" s="24"/>
       <c r="F193" s="24"/>
       <c r="G193" s="24"/>
       <c r="H193" s="24"/>
-      <c r="I193" s="24"/>
+      <c r="I193" s="24">
+        <f t="shared" ref="I193" si="48">ROUND(PRODUCT(D193:G193),2)</f>
+        <v>98</v>
+      </c>
       <c r="J193" s="24"/>
     </row>
     <row r="194" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="28"/>
-      <c r="B194" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="B194" s="30"/>
       <c r="C194" s="24"/>
-      <c r="D194" s="24">
-        <v>104</v>
-      </c>
+      <c r="D194" s="24"/>
       <c r="E194" s="24"/>
       <c r="F194" s="24"/>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
-      <c r="I194" s="24">
-        <f t="shared" ref="I194" si="49">ROUND(PRODUCT(D194:G194),2)</f>
-        <v>104</v>
-      </c>
+      <c r="I194" s="24"/>
       <c r="J194" s="24"/>
     </row>
     <row r="195" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="28"/>
-      <c r="B195" s="30"/>
+      <c r="B195" s="29" t="s">
+        <v>122</v>
+      </c>
       <c r="C195" s="24"/>
       <c r="D195" s="24"/>
       <c r="E195" s="24"/>
@@ -4967,40 +4962,42 @@
     </row>
     <row r="196" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="28"/>
-      <c r="B196" s="29" t="s">
-        <v>121</v>
+      <c r="B196" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
+      <c r="D196" s="24">
+        <v>34</v>
+      </c>
       <c r="E196" s="24"/>
       <c r="F196" s="24"/>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
-      <c r="I196" s="24"/>
+      <c r="I196" s="24">
+        <f t="shared" ref="I196" si="49">ROUND(PRODUCT(D196:G196),2)</f>
+        <v>34</v>
+      </c>
       <c r="J196" s="24"/>
     </row>
     <row r="197" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="28"/>
-      <c r="B197" s="30" t="s">
-        <v>127</v>
-      </c>
+      <c r="A197" s="26"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="24"/>
-      <c r="D197" s="24">
-        <v>98</v>
-      </c>
+      <c r="D197" s="24"/>
       <c r="E197" s="24"/>
       <c r="F197" s="24"/>
       <c r="G197" s="24"/>
       <c r="H197" s="24"/>
-      <c r="I197" s="24">
-        <f t="shared" ref="I197" si="50">ROUND(PRODUCT(D197:G197),2)</f>
-        <v>98</v>
-      </c>
+      <c r="I197" s="24"/>
       <c r="J197" s="24"/>
     </row>
     <row r="198" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="28"/>
-      <c r="B198" s="30"/>
+      <c r="A198" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B198" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="C198" s="24"/>
       <c r="D198" s="24"/>
       <c r="E198" s="24"/>
@@ -5008,94 +5005,104 @@
       <c r="G198" s="24"/>
       <c r="H198" s="24"/>
       <c r="I198" s="24"/>
-      <c r="J198" s="24"/>
-    </row>
-    <row r="199" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="28"/>
-      <c r="B199" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C199" s="24"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="24"/>
-      <c r="H199" s="24"/>
-      <c r="I199" s="24"/>
-      <c r="J199" s="24"/>
+      <c r="J198" s="38"/>
+    </row>
+    <row r="199" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C199" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="45"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="45"/>
+      <c r="G199" s="45"/>
+      <c r="H199" s="45"/>
+      <c r="I199" s="45"/>
+      <c r="J199" s="63">
+        <f>SUM(I201:I226)</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="200" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28"/>
-      <c r="B200" s="30" t="s">
-        <v>127</v>
+      <c r="B200" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="C200" s="24"/>
-      <c r="D200" s="24">
-        <v>34</v>
-      </c>
+      <c r="D200" s="24"/>
       <c r="E200" s="24"/>
       <c r="F200" s="24"/>
       <c r="G200" s="24"/>
       <c r="H200" s="24"/>
-      <c r="I200" s="24">
-        <f t="shared" ref="I200" si="51">ROUND(PRODUCT(D200:G200),2)</f>
-        <v>34</v>
-      </c>
+      <c r="I200" s="24"/>
       <c r="J200" s="24"/>
     </row>
     <row r="201" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="26"/>
-      <c r="B201" s="37"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="C201" s="24"/>
-      <c r="D201" s="24"/>
+      <c r="D201" s="24">
+        <v>3</v>
+      </c>
       <c r="E201" s="24"/>
       <c r="F201" s="24"/>
       <c r="G201" s="24"/>
       <c r="H201" s="24"/>
-      <c r="I201" s="24"/>
+      <c r="I201" s="24">
+        <f>ROUND(PRODUCT(D201:G201),2)</f>
+        <v>3</v>
+      </c>
       <c r="J201" s="24"/>
     </row>
     <row r="202" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B202" s="38" t="s">
-        <v>90</v>
+      <c r="A202" s="28"/>
+      <c r="B202" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
+      <c r="D202" s="24">
+        <v>1</v>
+      </c>
       <c r="E202" s="24"/>
       <c r="F202" s="24"/>
       <c r="G202" s="24"/>
       <c r="H202" s="24"/>
-      <c r="I202" s="24"/>
-      <c r="J202" s="38"/>
-    </row>
-    <row r="203" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B203" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C203" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="45"/>
-      <c r="E203" s="45"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="45"/>
-      <c r="H203" s="45"/>
-      <c r="I203" s="45"/>
-      <c r="J203" s="63">
-        <f>SUM(I205:I230)</f>
-        <v>41</v>
-      </c>
+      <c r="I202" s="24">
+        <f t="shared" ref="I202:I203" si="50">ROUND(PRODUCT(D202:G202),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J202" s="24"/>
+    </row>
+    <row r="203" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="28"/>
+      <c r="B203" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24">
+        <v>3</v>
+      </c>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="J203" s="24"/>
     </row>
     <row r="204" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28"/>
       <c r="B204" s="29" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="24"/>
@@ -5120,7 +5127,7 @@
       <c r="G205" s="24"/>
       <c r="H205" s="24"/>
       <c r="I205" s="24">
-        <f>ROUND(PRODUCT(D205:G205),2)</f>
+        <f t="shared" ref="I205:I208" si="51">ROUND(PRODUCT(D205:G205),2)</f>
         <v>3</v>
       </c>
       <c r="J205" s="24"/>
@@ -5128,7 +5135,7 @@
     <row r="206" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28"/>
       <c r="B206" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="24">
@@ -5139,7 +5146,7 @@
       <c r="G206" s="24"/>
       <c r="H206" s="24"/>
       <c r="I206" s="24">
-        <f t="shared" ref="I206:I207" si="52">ROUND(PRODUCT(D206:G206),2)</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="J206" s="24"/>
@@ -5147,78 +5154,78 @@
     <row r="207" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28"/>
       <c r="B207" s="30" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E207" s="24"/>
       <c r="F207" s="24"/>
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
       <c r="I207" s="24">
-        <f t="shared" si="52"/>
-        <v>3</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="J207" s="24"/>
     </row>
     <row r="208" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="28"/>
-      <c r="B208" s="29" t="s">
-        <v>117</v>
+      <c r="B208" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
+      <c r="D208" s="24">
+        <v>1</v>
+      </c>
       <c r="E208" s="24"/>
       <c r="F208" s="24"/>
       <c r="G208" s="24"/>
       <c r="H208" s="24"/>
-      <c r="I208" s="24"/>
+      <c r="I208" s="24">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
       <c r="J208" s="24"/>
     </row>
     <row r="209" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28"/>
-      <c r="B209" s="30" t="s">
-        <v>15</v>
+      <c r="B209" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C209" s="24"/>
-      <c r="D209" s="24">
-        <v>3</v>
-      </c>
+      <c r="D209" s="24"/>
       <c r="E209" s="24"/>
       <c r="F209" s="24"/>
       <c r="G209" s="24"/>
       <c r="H209" s="24"/>
-      <c r="I209" s="24">
-        <f t="shared" ref="I209:I212" si="53">ROUND(PRODUCT(D209:G209),2)</f>
-        <v>3</v>
-      </c>
+      <c r="I209" s="24"/>
       <c r="J209" s="24"/>
     </row>
     <row r="210" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28"/>
       <c r="B210" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210" s="24"/>
       <c r="F210" s="24"/>
       <c r="G210" s="24"/>
       <c r="H210" s="24"/>
       <c r="I210" s="24">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" ref="I210:I214" si="52">ROUND(PRODUCT(D210:G210),2)</f>
+        <v>3</v>
       </c>
       <c r="J210" s="24"/>
     </row>
     <row r="211" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28"/>
       <c r="B211" s="30" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="24">
@@ -5229,7 +5236,7 @@
       <c r="G211" s="24"/>
       <c r="H211" s="24"/>
       <c r="I211" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="J211" s="24"/>
@@ -5237,7 +5244,7 @@
     <row r="212" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28"/>
       <c r="B212" s="30" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="24">
@@ -5248,86 +5255,86 @@
       <c r="G212" s="24"/>
       <c r="H212" s="24"/>
       <c r="I212" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="J212" s="24"/>
     </row>
     <row r="213" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28"/>
-      <c r="B213" s="29" t="s">
-        <v>118</v>
+      <c r="B213" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C213" s="24"/>
-      <c r="D213" s="24"/>
+      <c r="D213" s="24">
+        <v>1</v>
+      </c>
       <c r="E213" s="24"/>
       <c r="F213" s="24"/>
       <c r="G213" s="24"/>
       <c r="H213" s="24"/>
-      <c r="I213" s="24"/>
+      <c r="I213" s="24">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
       <c r="J213" s="24"/>
     </row>
     <row r="214" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="28"/>
       <c r="B214" s="30" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214" s="24"/>
       <c r="F214" s="24"/>
       <c r="G214" s="24"/>
       <c r="H214" s="24"/>
       <c r="I214" s="24">
-        <f t="shared" ref="I214:I218" si="54">ROUND(PRODUCT(D214:G214),2)</f>
-        <v>3</v>
+        <f t="shared" si="52"/>
+        <v>6</v>
       </c>
       <c r="J214" s="24"/>
     </row>
     <row r="215" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28"/>
-      <c r="B215" s="30" t="s">
-        <v>143</v>
+      <c r="B215" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="C215" s="24"/>
-      <c r="D215" s="24">
-        <v>1</v>
-      </c>
+      <c r="D215" s="24"/>
       <c r="E215" s="24"/>
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
-      <c r="I215" s="24">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
+      <c r="I215" s="24"/>
       <c r="J215" s="24"/>
     </row>
     <row r="216" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28"/>
       <c r="B216" s="30" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C216" s="24"/>
       <c r="D216" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216" s="24"/>
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="24">
-        <f t="shared" si="54"/>
-        <v>1</v>
+        <f t="shared" ref="I216:I217" si="53">ROUND(PRODUCT(D216:G216),2)</f>
+        <v>3</v>
       </c>
       <c r="J216" s="24"/>
     </row>
     <row r="217" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28"/>
       <c r="B217" s="30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C217" s="24"/>
       <c r="D217" s="24">
@@ -5338,42 +5345,42 @@
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="J217" s="24"/>
     </row>
     <row r="218" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28"/>
-      <c r="B218" s="30" t="s">
-        <v>130</v>
+      <c r="B218" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="C218" s="24"/>
-      <c r="D218" s="24">
-        <v>6</v>
-      </c>
+      <c r="D218" s="24"/>
       <c r="E218" s="24"/>
       <c r="F218" s="24"/>
       <c r="G218" s="24"/>
       <c r="H218" s="24"/>
-      <c r="I218" s="24">
-        <f t="shared" si="54"/>
-        <v>6</v>
-      </c>
+      <c r="I218" s="24"/>
       <c r="J218" s="24"/>
     </row>
     <row r="219" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28"/>
-      <c r="B219" s="29" t="s">
-        <v>119</v>
+      <c r="B219" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C219" s="24"/>
-      <c r="D219" s="24"/>
+      <c r="D219" s="24">
+        <v>1</v>
+      </c>
       <c r="E219" s="24"/>
       <c r="F219" s="24"/>
       <c r="G219" s="24"/>
       <c r="H219" s="24"/>
-      <c r="I219" s="24"/>
+      <c r="I219" s="24">
+        <f t="shared" ref="I219:I220" si="54">ROUND(PRODUCT(D219:G219),2)</f>
+        <v>1</v>
+      </c>
       <c r="J219" s="24"/>
     </row>
     <row r="220" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5390,133 +5397,135 @@
       <c r="G220" s="24"/>
       <c r="H220" s="24"/>
       <c r="I220" s="24">
-        <f t="shared" ref="I220:I221" si="55">ROUND(PRODUCT(D220:G220),2)</f>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="J220" s="24"/>
     </row>
     <row r="221" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28"/>
-      <c r="B221" s="30" t="s">
-        <v>143</v>
+      <c r="B221" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="C221" s="24"/>
-      <c r="D221" s="24">
-        <v>1</v>
-      </c>
+      <c r="D221" s="24"/>
       <c r="E221" s="24"/>
       <c r="F221" s="24"/>
       <c r="G221" s="24"/>
       <c r="H221" s="24"/>
-      <c r="I221" s="24">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
+      <c r="I221" s="24"/>
       <c r="J221" s="24"/>
     </row>
     <row r="222" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28"/>
-      <c r="B222" s="29" t="s">
-        <v>120</v>
+      <c r="B222" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C222" s="24"/>
-      <c r="D222" s="24"/>
+      <c r="D222" s="24">
+        <v>1</v>
+      </c>
       <c r="E222" s="24"/>
       <c r="F222" s="24"/>
       <c r="G222" s="24"/>
       <c r="H222" s="24"/>
-      <c r="I222" s="24"/>
+      <c r="I222" s="24">
+        <f t="shared" ref="I222:I223" si="55">ROUND(PRODUCT(D222:G222),2)</f>
+        <v>1</v>
+      </c>
       <c r="J222" s="24"/>
     </row>
     <row r="223" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="28"/>
       <c r="B223" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E223" s="24"/>
       <c r="F223" s="24"/>
       <c r="G223" s="24"/>
       <c r="H223" s="24"/>
       <c r="I223" s="24">
-        <f t="shared" ref="I223:I224" si="56">ROUND(PRODUCT(D223:G223),2)</f>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>3</v>
       </c>
       <c r="J223" s="24"/>
     </row>
     <row r="224" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="28"/>
-      <c r="B224" s="30" t="s">
-        <v>15</v>
+      <c r="B224" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="C224" s="24"/>
-      <c r="D224" s="24">
-        <v>3</v>
-      </c>
+      <c r="D224" s="24"/>
       <c r="E224" s="24"/>
       <c r="F224" s="24"/>
       <c r="G224" s="24"/>
       <c r="H224" s="24"/>
-      <c r="I224" s="24">
-        <f t="shared" si="56"/>
-        <v>3</v>
-      </c>
+      <c r="I224" s="24"/>
       <c r="J224" s="24"/>
     </row>
     <row r="225" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="28"/>
-      <c r="B225" s="29" t="s">
-        <v>121</v>
+      <c r="B225" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
+      <c r="D225" s="24">
+        <v>1</v>
+      </c>
       <c r="E225" s="24"/>
       <c r="F225" s="24"/>
       <c r="G225" s="24"/>
       <c r="H225" s="24"/>
-      <c r="I225" s="24"/>
+      <c r="I225" s="24">
+        <f t="shared" ref="I225:I226" si="56">ROUND(PRODUCT(D225:G225),2)</f>
+        <v>1</v>
+      </c>
       <c r="J225" s="24"/>
     </row>
     <row r="226" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="28"/>
       <c r="B226" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E226" s="24"/>
       <c r="F226" s="24"/>
       <c r="G226" s="24"/>
       <c r="H226" s="24"/>
       <c r="I226" s="24">
-        <f t="shared" ref="I226:I227" si="57">ROUND(PRODUCT(D226:G226),2)</f>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>3</v>
       </c>
       <c r="J226" s="24"/>
     </row>
-    <row r="227" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="28"/>
-      <c r="B227" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C227" s="24"/>
-      <c r="D227" s="24">
-        <v>3</v>
-      </c>
-      <c r="E227" s="24"/>
-      <c r="F227" s="24"/>
-      <c r="G227" s="24"/>
-      <c r="H227" s="24"/>
-      <c r="I227" s="24">
-        <f t="shared" si="57"/>
-        <v>3</v>
-      </c>
-      <c r="J227" s="24"/>
+    <row r="227" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="45"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
+      <c r="G227" s="45"/>
+      <c r="H227" s="45"/>
+      <c r="I227" s="45"/>
+      <c r="J227" s="63">
+        <f>SUM(I229:I231)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="228" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="28"/>
@@ -5535,7 +5544,7 @@
     <row r="229" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="28"/>
       <c r="B229" s="30" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C229" s="24"/>
       <c r="D229" s="24">
@@ -5546,407 +5555,405 @@
       <c r="G229" s="24"/>
       <c r="H229" s="24"/>
       <c r="I229" s="24">
-        <f t="shared" ref="I229:I230" si="58">ROUND(PRODUCT(D229:G229),2)</f>
+        <f t="shared" ref="I229" si="57">ROUND(PRODUCT(D229:G229),2)</f>
         <v>1</v>
       </c>
       <c r="J229" s="24"/>
     </row>
     <row r="230" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="28"/>
-      <c r="B230" s="30" t="s">
-        <v>15</v>
+      <c r="B230" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="C230" s="24"/>
-      <c r="D230" s="24">
-        <v>3</v>
-      </c>
+      <c r="D230" s="24"/>
       <c r="E230" s="24"/>
       <c r="F230" s="24"/>
       <c r="G230" s="24"/>
       <c r="H230" s="24"/>
-      <c r="I230" s="24">
-        <f t="shared" si="58"/>
-        <v>3</v>
-      </c>
+      <c r="I230" s="24"/>
       <c r="J230" s="24"/>
     </row>
-    <row r="231" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B231" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C231" s="63" t="s">
+    <row r="231" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="28"/>
+      <c r="B231" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24">
+        <v>1</v>
+      </c>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="24">
+        <f t="shared" ref="I231" si="58">ROUND(PRODUCT(D231:G231),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J231" s="24"/>
+    </row>
+    <row r="232" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C232" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D231" s="45"/>
-      <c r="E231" s="45"/>
-      <c r="F231" s="45"/>
-      <c r="G231" s="45"/>
-      <c r="H231" s="45"/>
-      <c r="I231" s="45"/>
-      <c r="J231" s="63">
-        <f>SUM(I233:I235)</f>
+      <c r="D232" s="45"/>
+      <c r="E232" s="45"/>
+      <c r="F232" s="45"/>
+      <c r="G232" s="45"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
+      <c r="J232" s="63">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="28"/>
-      <c r="B232" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C232" s="24"/>
-      <c r="D232" s="24"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="24"/>
-      <c r="H232" s="24"/>
-      <c r="I232" s="24"/>
-      <c r="J232" s="24"/>
     </row>
     <row r="233" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="28"/>
-      <c r="B233" s="30" t="s">
-        <v>128</v>
+      <c r="B233" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C233" s="24"/>
-      <c r="D233" s="24">
-        <v>1</v>
-      </c>
+      <c r="D233" s="24"/>
       <c r="E233" s="24"/>
       <c r="F233" s="24"/>
       <c r="G233" s="24"/>
       <c r="H233" s="24"/>
-      <c r="I233" s="24">
-        <f t="shared" ref="I233" si="59">ROUND(PRODUCT(D233:G233),2)</f>
-        <v>1</v>
-      </c>
+      <c r="I233" s="24"/>
       <c r="J233" s="24"/>
     </row>
     <row r="234" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="28"/>
-      <c r="B234" s="29" t="s">
-        <v>134</v>
+      <c r="B234" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C234" s="24"/>
-      <c r="D234" s="24"/>
+      <c r="D234" s="24">
+        <v>2</v>
+      </c>
       <c r="E234" s="24"/>
       <c r="F234" s="24"/>
       <c r="G234" s="24"/>
       <c r="H234" s="24"/>
-      <c r="I234" s="24"/>
+      <c r="I234" s="24">
+        <f t="shared" ref="I234" si="59">ROUND(PRODUCT(D234:G234),2)</f>
+        <v>2</v>
+      </c>
       <c r="J234" s="24"/>
     </row>
-    <row r="235" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="28"/>
-      <c r="B235" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C235" s="24"/>
-      <c r="D235" s="24">
-        <v>1</v>
-      </c>
-      <c r="E235" s="24"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="24"/>
-      <c r="I235" s="24">
-        <f t="shared" ref="I235" si="60">ROUND(PRODUCT(D235:G235),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J235" s="24"/>
-    </row>
-    <row r="236" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B236" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C236" s="63" t="s">
+    <row r="235" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B235" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C235" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D236" s="45"/>
-      <c r="E236" s="45"/>
-      <c r="F236" s="45"/>
-      <c r="G236" s="45"/>
-      <c r="H236" s="45"/>
-      <c r="I236" s="45"/>
-      <c r="J236" s="63">
-        <v>2</v>
-      </c>
+      <c r="D235" s="45"/>
+      <c r="E235" s="45"/>
+      <c r="F235" s="45"/>
+      <c r="G235" s="45"/>
+      <c r="H235" s="45"/>
+      <c r="I235" s="45"/>
+      <c r="J235" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="28"/>
+      <c r="B236" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
     </row>
     <row r="237" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="28"/>
-      <c r="B237" s="29" t="s">
-        <v>118</v>
+      <c r="B237" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C237" s="24"/>
-      <c r="D237" s="24"/>
+      <c r="D237" s="24">
+        <v>4</v>
+      </c>
       <c r="E237" s="24"/>
       <c r="F237" s="24"/>
       <c r="G237" s="24"/>
       <c r="H237" s="24"/>
-      <c r="I237" s="24"/>
+      <c r="I237" s="24">
+        <f t="shared" ref="I237" si="60">ROUND(PRODUCT(D237:G237),2)</f>
+        <v>4</v>
+      </c>
       <c r="J237" s="24"/>
     </row>
-    <row r="238" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="28"/>
-      <c r="B238" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C238" s="24"/>
-      <c r="D238" s="24">
-        <v>2</v>
-      </c>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="24"/>
-      <c r="H238" s="24"/>
-      <c r="I238" s="24">
-        <f t="shared" ref="I238" si="61">ROUND(PRODUCT(D238:G238),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J238" s="24"/>
-    </row>
-    <row r="239" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B239" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C239" s="63" t="s">
+    <row r="238" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D239" s="45"/>
-      <c r="E239" s="45"/>
-      <c r="F239" s="45"/>
-      <c r="G239" s="45"/>
-      <c r="H239" s="45"/>
-      <c r="I239" s="45"/>
-      <c r="J239" s="63">
-        <v>4</v>
-      </c>
+      <c r="D238" s="45"/>
+      <c r="E238" s="45"/>
+      <c r="F238" s="45"/>
+      <c r="G238" s="45"/>
+      <c r="H238" s="45"/>
+      <c r="I238" s="45"/>
+      <c r="J238" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="28"/>
+      <c r="B239" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="24"/>
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
     </row>
     <row r="240" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="28"/>
-      <c r="B240" s="29" t="s">
-        <v>118</v>
+      <c r="B240" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C240" s="24"/>
-      <c r="D240" s="24"/>
+      <c r="D240" s="24">
+        <v>1</v>
+      </c>
       <c r="E240" s="24"/>
       <c r="F240" s="24"/>
       <c r="G240" s="24"/>
       <c r="H240" s="24"/>
-      <c r="I240" s="24"/>
+      <c r="I240" s="24">
+        <f t="shared" ref="I240" si="61">ROUND(PRODUCT(D240:G240),2)</f>
+        <v>1</v>
+      </c>
       <c r="J240" s="24"/>
     </row>
-    <row r="241" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="28"/>
-      <c r="B241" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C241" s="24"/>
-      <c r="D241" s="24">
-        <v>4</v>
-      </c>
-      <c r="E241" s="24"/>
-      <c r="F241" s="24"/>
-      <c r="G241" s="24"/>
-      <c r="H241" s="24"/>
-      <c r="I241" s="24">
-        <f t="shared" ref="I241" si="62">ROUND(PRODUCT(D241:G241),2)</f>
-        <v>4</v>
-      </c>
-      <c r="J241" s="24"/>
-    </row>
-    <row r="242" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B242" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C242" s="63" t="s">
+    <row r="241" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C241" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D242" s="45"/>
-      <c r="E242" s="45"/>
-      <c r="F242" s="45"/>
-      <c r="G242" s="45"/>
-      <c r="H242" s="45"/>
-      <c r="I242" s="45"/>
-      <c r="J242" s="63">
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="45"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="63">
         <v>1</v>
       </c>
+    </row>
+    <row r="242" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="28"/>
+      <c r="B242" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="24"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="24"/>
+      <c r="H242" s="24"/>
+      <c r="I242" s="24"/>
+      <c r="J242" s="24"/>
     </row>
     <row r="243" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28"/>
-      <c r="B243" s="29" t="s">
-        <v>118</v>
+      <c r="B243" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C243" s="24"/>
-      <c r="D243" s="24"/>
+      <c r="D243" s="24">
+        <v>1</v>
+      </c>
       <c r="E243" s="24"/>
       <c r="F243" s="24"/>
       <c r="G243" s="24"/>
       <c r="H243" s="24"/>
-      <c r="I243" s="24"/>
+      <c r="I243" s="24">
+        <f t="shared" ref="I243" si="62">ROUND(PRODUCT(D243:G243),2)</f>
+        <v>1</v>
+      </c>
       <c r="J243" s="24"/>
     </row>
-    <row r="244" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="28"/>
-      <c r="B244" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24">
-        <v>1</v>
-      </c>
-      <c r="E244" s="24"/>
-      <c r="F244" s="24"/>
-      <c r="G244" s="24"/>
-      <c r="H244" s="24"/>
-      <c r="I244" s="24">
-        <f t="shared" ref="I244" si="63">ROUND(PRODUCT(D244:G244),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J244" s="24"/>
-    </row>
-    <row r="245" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B245" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C245" s="63" t="s">
+    <row r="244" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C244" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D245" s="45"/>
-      <c r="E245" s="45"/>
-      <c r="F245" s="45"/>
-      <c r="G245" s="45"/>
-      <c r="H245" s="45"/>
-      <c r="I245" s="45"/>
-      <c r="J245" s="63">
-        <v>1</v>
-      </c>
+      <c r="D244" s="45"/>
+      <c r="E244" s="45"/>
+      <c r="F244" s="45"/>
+      <c r="G244" s="45"/>
+      <c r="H244" s="45"/>
+      <c r="I244" s="45"/>
+      <c r="J244" s="63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="28"/>
+      <c r="B245" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="24"/>
     </row>
     <row r="246" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="28"/>
-      <c r="B246" s="29" t="s">
-        <v>118</v>
+      <c r="B246" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C246" s="24"/>
-      <c r="D246" s="24"/>
+      <c r="D246" s="24">
+        <v>5</v>
+      </c>
       <c r="E246" s="24"/>
       <c r="F246" s="24"/>
       <c r="G246" s="24"/>
       <c r="H246" s="24"/>
-      <c r="I246" s="24"/>
+      <c r="I246" s="24">
+        <f t="shared" ref="I246" si="63">ROUND(PRODUCT(D246:G246),2)</f>
+        <v>5</v>
+      </c>
       <c r="J246" s="24"/>
     </row>
-    <row r="247" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="28"/>
-      <c r="B247" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C247" s="24"/>
-      <c r="D247" s="24">
-        <v>1</v>
-      </c>
-      <c r="E247" s="24"/>
-      <c r="F247" s="24"/>
-      <c r="G247" s="24"/>
-      <c r="H247" s="24"/>
-      <c r="I247" s="24">
-        <f t="shared" ref="I247" si="64">ROUND(PRODUCT(D247:G247),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J247" s="24"/>
-    </row>
-    <row r="248" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B248" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C248" s="63" t="s">
+    <row r="247" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C247" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D248" s="45"/>
-      <c r="E248" s="45"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="45"/>
-      <c r="H248" s="45"/>
-      <c r="I248" s="45"/>
-      <c r="J248" s="63">
-        <v>5</v>
-      </c>
+      <c r="D247" s="45"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="45"/>
+      <c r="G247" s="45"/>
+      <c r="H247" s="45"/>
+      <c r="I247" s="45"/>
+      <c r="J247" s="63">
+        <f>SUM(I249:I274)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="28"/>
+      <c r="B248" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="24"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
     </row>
     <row r="249" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="28"/>
-      <c r="B249" s="29" t="s">
-        <v>118</v>
+      <c r="B249" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="C249" s="24"/>
-      <c r="D249" s="24"/>
+      <c r="D249" s="24">
+        <v>3</v>
+      </c>
       <c r="E249" s="24"/>
       <c r="F249" s="24"/>
       <c r="G249" s="24"/>
       <c r="H249" s="24"/>
-      <c r="I249" s="24"/>
+      <c r="I249" s="24">
+        <f>ROUND(PRODUCT(D249:G249),2)</f>
+        <v>3</v>
+      </c>
       <c r="J249" s="24"/>
     </row>
     <row r="250" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="28"/>
       <c r="B250" s="30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C250" s="24"/>
       <c r="D250" s="24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E250" s="24"/>
       <c r="F250" s="24"/>
       <c r="G250" s="24"/>
       <c r="H250" s="24"/>
       <c r="I250" s="24">
-        <f t="shared" ref="I250" si="65">ROUND(PRODUCT(D250:G250),2)</f>
-        <v>5</v>
+        <f t="shared" ref="I250:I251" si="64">ROUND(PRODUCT(D250:G250),2)</f>
+        <v>8</v>
       </c>
       <c r="J250" s="24"/>
     </row>
-    <row r="251" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B251" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C251" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D251" s="45"/>
-      <c r="E251" s="45"/>
-      <c r="F251" s="45"/>
-      <c r="G251" s="45"/>
-      <c r="H251" s="45"/>
-      <c r="I251" s="45"/>
-      <c r="J251" s="63">
-        <f>SUM(I253:I278)</f>
-        <v>82</v>
-      </c>
+    <row r="251" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="28"/>
+      <c r="B251" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24">
+        <v>3</v>
+      </c>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
+      <c r="I251" s="24">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="J251" s="24"/>
     </row>
     <row r="252" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="28"/>
       <c r="B252" s="29" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
@@ -5971,7 +5978,7 @@
       <c r="G253" s="24"/>
       <c r="H253" s="24"/>
       <c r="I253" s="24">
-        <f>ROUND(PRODUCT(D253:G253),2)</f>
+        <f t="shared" ref="I253:I256" si="65">ROUND(PRODUCT(D253:G253),2)</f>
         <v>3</v>
       </c>
       <c r="J253" s="24"/>
@@ -5979,116 +5986,116 @@
     <row r="254" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28"/>
       <c r="B254" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E254" s="24"/>
       <c r="F254" s="24"/>
       <c r="G254" s="24"/>
       <c r="H254" s="24"/>
       <c r="I254" s="24">
-        <f t="shared" ref="I254:I255" si="66">ROUND(PRODUCT(D254:G254),2)</f>
-        <v>8</v>
+        <f t="shared" si="65"/>
+        <v>7</v>
       </c>
       <c r="J254" s="24"/>
     </row>
     <row r="255" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="28"/>
       <c r="B255" s="30" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E255" s="24"/>
       <c r="F255" s="24"/>
       <c r="G255" s="24"/>
       <c r="H255" s="24"/>
       <c r="I255" s="24">
-        <f t="shared" si="66"/>
-        <v>3</v>
+        <f t="shared" si="65"/>
+        <v>1</v>
       </c>
       <c r="J255" s="24"/>
     </row>
     <row r="256" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="28"/>
-      <c r="B256" s="29" t="s">
-        <v>117</v>
+      <c r="B256" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="C256" s="24"/>
-      <c r="D256" s="24"/>
+      <c r="D256" s="24">
+        <v>1</v>
+      </c>
       <c r="E256" s="24"/>
       <c r="F256" s="24"/>
       <c r="G256" s="24"/>
       <c r="H256" s="24"/>
-      <c r="I256" s="24"/>
+      <c r="I256" s="24">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
       <c r="J256" s="24"/>
     </row>
     <row r="257" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="28"/>
-      <c r="B257" s="30" t="s">
-        <v>15</v>
+      <c r="B257" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C257" s="24"/>
-      <c r="D257" s="24">
-        <v>3</v>
-      </c>
+      <c r="D257" s="24"/>
       <c r="E257" s="24"/>
       <c r="F257" s="24"/>
       <c r="G257" s="24"/>
       <c r="H257" s="24"/>
-      <c r="I257" s="24">
-        <f t="shared" ref="I257:I260" si="67">ROUND(PRODUCT(D257:G257),2)</f>
-        <v>3</v>
-      </c>
+      <c r="I257" s="24"/>
       <c r="J257" s="24"/>
     </row>
     <row r="258" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="28"/>
       <c r="B258" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E258" s="24"/>
       <c r="F258" s="24"/>
       <c r="G258" s="24"/>
       <c r="H258" s="24"/>
       <c r="I258" s="24">
-        <f t="shared" si="67"/>
-        <v>7</v>
+        <f t="shared" ref="I258:I262" si="66">ROUND(PRODUCT(D258:G258),2)</f>
+        <v>3</v>
       </c>
       <c r="J258" s="24"/>
     </row>
     <row r="259" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="28"/>
       <c r="B259" s="30" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E259" s="24"/>
       <c r="F259" s="24"/>
       <c r="G259" s="24"/>
       <c r="H259" s="24"/>
       <c r="I259" s="24">
-        <f t="shared" si="67"/>
-        <v>1</v>
+        <f t="shared" si="66"/>
+        <v>13</v>
       </c>
       <c r="J259" s="24"/>
     </row>
     <row r="260" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="28"/>
       <c r="B260" s="30" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="24">
@@ -6099,132 +6106,132 @@
       <c r="G260" s="24"/>
       <c r="H260" s="24"/>
       <c r="I260" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="J260" s="24"/>
     </row>
     <row r="261" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="28"/>
-      <c r="B261" s="29" t="s">
-        <v>118</v>
+      <c r="B261" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C261" s="24"/>
-      <c r="D261" s="24"/>
+      <c r="D261" s="24">
+        <v>1</v>
+      </c>
       <c r="E261" s="24"/>
       <c r="F261" s="24"/>
       <c r="G261" s="24"/>
       <c r="H261" s="24"/>
-      <c r="I261" s="24"/>
+      <c r="I261" s="24">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
       <c r="J261" s="24"/>
     </row>
     <row r="262" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="28"/>
       <c r="B262" s="30" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E262" s="24"/>
       <c r="F262" s="24"/>
       <c r="G262" s="24"/>
       <c r="H262" s="24"/>
       <c r="I262" s="24">
-        <f t="shared" ref="I262:I266" si="68">ROUND(PRODUCT(D262:G262),2)</f>
-        <v>3</v>
+        <f t="shared" si="66"/>
+        <v>6</v>
       </c>
       <c r="J262" s="24"/>
     </row>
     <row r="263" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="28"/>
-      <c r="B263" s="30" t="s">
-        <v>143</v>
+      <c r="B263" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="C263" s="24"/>
-      <c r="D263" s="24">
-        <v>13</v>
-      </c>
+      <c r="D263" s="24"/>
       <c r="E263" s="24"/>
       <c r="F263" s="24"/>
       <c r="G263" s="24"/>
       <c r="H263" s="24"/>
-      <c r="I263" s="24">
-        <f t="shared" si="68"/>
-        <v>13</v>
-      </c>
+      <c r="I263" s="24"/>
       <c r="J263" s="24"/>
     </row>
     <row r="264" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28"/>
       <c r="B264" s="30" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E264" s="24"/>
       <c r="F264" s="24"/>
       <c r="G264" s="24"/>
       <c r="H264" s="24"/>
       <c r="I264" s="24">
-        <f t="shared" si="68"/>
-        <v>1</v>
+        <f t="shared" ref="I264:I265" si="67">ROUND(PRODUCT(D264:G264),2)</f>
+        <v>3</v>
       </c>
       <c r="J264" s="24"/>
     </row>
     <row r="265" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28"/>
       <c r="B265" s="30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E265" s="24"/>
       <c r="F265" s="24"/>
       <c r="G265" s="24"/>
       <c r="H265" s="24"/>
       <c r="I265" s="24">
-        <f t="shared" si="68"/>
-        <v>1</v>
+        <f t="shared" si="67"/>
+        <v>5</v>
       </c>
       <c r="J265" s="24"/>
     </row>
     <row r="266" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28"/>
-      <c r="B266" s="30" t="s">
-        <v>130</v>
+      <c r="B266" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="C266" s="24"/>
-      <c r="D266" s="24">
-        <v>6</v>
-      </c>
+      <c r="D266" s="24"/>
       <c r="E266" s="24"/>
       <c r="F266" s="24"/>
       <c r="G266" s="24"/>
       <c r="H266" s="24"/>
-      <c r="I266" s="24">
-        <f t="shared" si="68"/>
-        <v>6</v>
-      </c>
+      <c r="I266" s="24"/>
       <c r="J266" s="24"/>
     </row>
     <row r="267" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28"/>
-      <c r="B267" s="29" t="s">
-        <v>119</v>
+      <c r="B267" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C267" s="24"/>
-      <c r="D267" s="24"/>
+      <c r="D267" s="24">
+        <v>5</v>
+      </c>
       <c r="E267" s="24"/>
       <c r="F267" s="24"/>
       <c r="G267" s="24"/>
       <c r="H267" s="24"/>
-      <c r="I267" s="24"/>
+      <c r="I267" s="24">
+        <f t="shared" ref="I267:I268" si="68">ROUND(PRODUCT(D267:G267),2)</f>
+        <v>5</v>
+      </c>
       <c r="J267" s="24"/>
     </row>
     <row r="268" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6241,138 +6248,133 @@
       <c r="G268" s="24"/>
       <c r="H268" s="24"/>
       <c r="I268" s="24">
-        <f t="shared" ref="I268:I269" si="69">ROUND(PRODUCT(D268:G268),2)</f>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="J268" s="24"/>
     </row>
     <row r="269" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
-      <c r="B269" s="30" t="s">
-        <v>143</v>
+      <c r="B269" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="C269" s="24"/>
-      <c r="D269" s="24">
-        <v>5</v>
-      </c>
+      <c r="D269" s="24"/>
       <c r="E269" s="24"/>
       <c r="F269" s="24"/>
       <c r="G269" s="24"/>
       <c r="H269" s="24"/>
-      <c r="I269" s="24">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
+      <c r="I269" s="24"/>
       <c r="J269" s="24"/>
     </row>
     <row r="270" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="29" t="s">
-        <v>120</v>
+      <c r="B270" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C270" s="24"/>
-      <c r="D270" s="24"/>
+      <c r="D270" s="24">
+        <v>5</v>
+      </c>
       <c r="E270" s="24"/>
       <c r="F270" s="24"/>
       <c r="G270" s="24"/>
       <c r="H270" s="24"/>
-      <c r="I270" s="24"/>
+      <c r="I270" s="24">
+        <f t="shared" ref="I270:I271" si="69">ROUND(PRODUCT(D270:G270),2)</f>
+        <v>5</v>
+      </c>
       <c r="J270" s="24"/>
     </row>
     <row r="271" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
       <c r="B271" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C271" s="24"/>
       <c r="D271" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E271" s="24"/>
       <c r="F271" s="24"/>
       <c r="G271" s="24"/>
       <c r="H271" s="24"/>
       <c r="I271" s="24">
-        <f t="shared" ref="I271:I272" si="70">ROUND(PRODUCT(D271:G271),2)</f>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>3</v>
       </c>
       <c r="J271" s="24"/>
     </row>
     <row r="272" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28"/>
-      <c r="B272" s="30" t="s">
-        <v>15</v>
+      <c r="B272" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="C272" s="24"/>
-      <c r="D272" s="24">
-        <v>3</v>
-      </c>
+      <c r="D272" s="24"/>
       <c r="E272" s="24"/>
       <c r="F272" s="24"/>
       <c r="G272" s="24"/>
       <c r="H272" s="24"/>
-      <c r="I272" s="24">
-        <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
+      <c r="I272" s="24"/>
       <c r="J272" s="24"/>
     </row>
     <row r="273" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="29" t="s">
-        <v>121</v>
+      <c r="B273" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C273" s="24"/>
-      <c r="D273" s="24"/>
+      <c r="D273" s="24">
+        <v>5</v>
+      </c>
       <c r="E273" s="24"/>
       <c r="F273" s="24"/>
       <c r="G273" s="24"/>
       <c r="H273" s="24"/>
-      <c r="I273" s="24"/>
+      <c r="I273" s="24">
+        <f t="shared" ref="I273:I274" si="70">ROUND(PRODUCT(D273:G273),2)</f>
+        <v>5</v>
+      </c>
       <c r="J273" s="24"/>
     </row>
     <row r="274" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
       <c r="B274" s="30" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E274" s="24"/>
       <c r="F274" s="24"/>
       <c r="G274" s="24"/>
       <c r="H274" s="24"/>
       <c r="I274" s="24">
-        <f t="shared" ref="I274:I275" si="71">ROUND(PRODUCT(D274:G274),2)</f>
-        <v>5</v>
+        <f t="shared" si="70"/>
+        <v>3</v>
       </c>
       <c r="J274" s="24"/>
     </row>
     <row r="275" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="28"/>
-      <c r="B275" s="30" t="s">
-        <v>15</v>
-      </c>
+      <c r="A275" s="26"/>
+      <c r="B275" s="37"/>
       <c r="C275" s="24"/>
-      <c r="D275" s="24">
-        <v>3</v>
-      </c>
+      <c r="D275" s="24"/>
       <c r="E275" s="24"/>
       <c r="F275" s="24"/>
       <c r="G275" s="24"/>
       <c r="H275" s="24"/>
-      <c r="I275" s="24">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
+      <c r="I275" s="24"/>
       <c r="J275" s="24"/>
     </row>
     <row r="276" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="28"/>
-      <c r="B276" s="29" t="s">
-        <v>122</v>
+      <c r="A276" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B276" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="24"/>
@@ -6383,823 +6385,826 @@
       <c r="I276" s="24"/>
       <c r="J276" s="24"/>
     </row>
-    <row r="277" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="28"/>
-      <c r="B277" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C277" s="24"/>
-      <c r="D277" s="24">
-        <v>5</v>
-      </c>
-      <c r="E277" s="24"/>
-      <c r="F277" s="24"/>
-      <c r="G277" s="24"/>
-      <c r="H277" s="24"/>
-      <c r="I277" s="24">
-        <f t="shared" ref="I277:I278" si="72">ROUND(PRODUCT(D277:G277),2)</f>
-        <v>5</v>
-      </c>
-      <c r="J277" s="24"/>
+    <row r="277" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C277" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="45"/>
+      <c r="E277" s="45"/>
+      <c r="F277" s="45"/>
+      <c r="G277" s="45"/>
+      <c r="H277" s="45"/>
+      <c r="I277" s="45"/>
+      <c r="J277" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28"/>
-      <c r="B278" s="30" t="s">
-        <v>15</v>
+      <c r="B278" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="C278" s="24"/>
-      <c r="D278" s="24">
-        <v>3</v>
-      </c>
+      <c r="D278" s="24"/>
       <c r="E278" s="24"/>
       <c r="F278" s="24"/>
       <c r="G278" s="24"/>
       <c r="H278" s="24"/>
-      <c r="I278" s="24">
-        <f t="shared" si="72"/>
-        <v>3</v>
-      </c>
+      <c r="I278" s="24"/>
       <c r="J278" s="24"/>
     </row>
     <row r="279" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="26"/>
-      <c r="B279" s="37"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="C279" s="24"/>
-      <c r="D279" s="24"/>
+      <c r="D279" s="24">
+        <v>1</v>
+      </c>
       <c r="E279" s="24"/>
       <c r="F279" s="24"/>
       <c r="G279" s="24"/>
       <c r="H279" s="24"/>
-      <c r="I279" s="24"/>
+      <c r="I279" s="24">
+        <f t="shared" ref="I279" si="71">ROUND(PRODUCT(D279:G279),2)</f>
+        <v>1</v>
+      </c>
       <c r="J279" s="24"/>
     </row>
-    <row r="280" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B280" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C280" s="24"/>
-      <c r="D280" s="24"/>
-      <c r="E280" s="24"/>
-      <c r="F280" s="24"/>
-      <c r="G280" s="24"/>
-      <c r="H280" s="24"/>
-      <c r="I280" s="24"/>
-      <c r="J280" s="24"/>
-    </row>
-    <row r="281" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B281" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C281" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="45"/>
-      <c r="E281" s="45"/>
-      <c r="F281" s="45"/>
-      <c r="G281" s="45"/>
-      <c r="H281" s="45"/>
-      <c r="I281" s="45"/>
-      <c r="J281" s="63">
-        <v>1</v>
-      </c>
+    <row r="280" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B280" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C280" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="45"/>
+      <c r="G280" s="45"/>
+      <c r="H280" s="45"/>
+      <c r="I280" s="45"/>
+      <c r="J280" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="28"/>
+      <c r="B281" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="24"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="24"/>
+      <c r="F281" s="24"/>
+      <c r="G281" s="24"/>
+      <c r="H281" s="24"/>
+      <c r="I281" s="24"/>
+      <c r="J281" s="24"/>
     </row>
     <row r="282" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28"/>
-      <c r="B282" s="29" t="s">
-        <v>13</v>
+      <c r="B282" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C282" s="24"/>
-      <c r="D282" s="24"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="24"/>
-      <c r="F282" s="24"/>
+      <c r="F282" s="24">
+        <v>150</v>
+      </c>
       <c r="G282" s="24"/>
       <c r="H282" s="24"/>
-      <c r="I282" s="24"/>
+      <c r="I282" s="24">
+        <f>ROUND(PRODUCT(E282:G282),2)</f>
+        <v>150</v>
+      </c>
       <c r="J282" s="24"/>
     </row>
-    <row r="283" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="28"/>
-      <c r="B283" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C283" s="24"/>
-      <c r="D283" s="24">
-        <v>1</v>
-      </c>
-      <c r="E283" s="24"/>
-      <c r="F283" s="24"/>
-      <c r="G283" s="24"/>
-      <c r="H283" s="24"/>
-      <c r="I283" s="24">
-        <f t="shared" ref="I283" si="73">ROUND(PRODUCT(D283:G283),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J283" s="24"/>
-    </row>
-    <row r="284" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B284" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C284" s="63" t="s">
+    <row r="283" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B283" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C283" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D284" s="45"/>
-      <c r="E284" s="45"/>
-      <c r="F284" s="45"/>
-      <c r="G284" s="45"/>
-      <c r="H284" s="45"/>
-      <c r="I284" s="45"/>
-      <c r="J284" s="63">
-        <v>150</v>
-      </c>
+      <c r="D283" s="45"/>
+      <c r="E283" s="45"/>
+      <c r="F283" s="45"/>
+      <c r="G283" s="45"/>
+      <c r="H283" s="45"/>
+      <c r="I283" s="45"/>
+      <c r="J283" s="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="28"/>
+      <c r="B284" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="24"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="24"/>
+      <c r="F284" s="24"/>
+      <c r="G284" s="24"/>
+      <c r="H284" s="24"/>
+      <c r="I284" s="24"/>
+      <c r="J284" s="24"/>
     </row>
     <row r="285" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28"/>
-      <c r="B285" s="29" t="s">
-        <v>13</v>
+      <c r="B285" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="48"/>
       <c r="E285" s="24"/>
-      <c r="F285" s="24"/>
+      <c r="F285" s="24">
+        <v>100</v>
+      </c>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
-      <c r="I285" s="24"/>
+      <c r="I285" s="24">
+        <f>ROUND(PRODUCT(E285:G285),2)</f>
+        <v>100</v>
+      </c>
       <c r="J285" s="24"/>
     </row>
-    <row r="286" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="28"/>
-      <c r="B286" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C286" s="24"/>
-      <c r="D286" s="48"/>
-      <c r="E286" s="24"/>
-      <c r="F286" s="24">
-        <v>150</v>
-      </c>
-      <c r="G286" s="24"/>
-      <c r="H286" s="24"/>
-      <c r="I286" s="24">
-        <f>ROUND(PRODUCT(E286:G286),2)</f>
-        <v>150</v>
-      </c>
-      <c r="J286" s="24"/>
-    </row>
-    <row r="287" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B287" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C287" s="63" t="s">
+    <row r="286" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B286" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C286" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D287" s="45"/>
-      <c r="E287" s="45"/>
-      <c r="F287" s="45"/>
-      <c r="G287" s="45"/>
-      <c r="H287" s="45"/>
-      <c r="I287" s="45"/>
-      <c r="J287" s="63">
-        <v>100</v>
-      </c>
+      <c r="D286" s="45"/>
+      <c r="E286" s="45"/>
+      <c r="F286" s="45"/>
+      <c r="G286" s="45"/>
+      <c r="H286" s="45"/>
+      <c r="I286" s="45"/>
+      <c r="J286" s="63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="28"/>
+      <c r="B287" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="24"/>
+      <c r="D287" s="48"/>
+      <c r="E287" s="24"/>
+      <c r="F287" s="24"/>
+      <c r="G287" s="24"/>
+      <c r="H287" s="24"/>
+      <c r="I287" s="24"/>
+      <c r="J287" s="24"/>
     </row>
     <row r="288" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28"/>
-      <c r="B288" s="29" t="s">
-        <v>13</v>
+      <c r="B288" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="48"/>
       <c r="E288" s="24"/>
-      <c r="F288" s="24"/>
+      <c r="F288" s="24">
+        <v>75</v>
+      </c>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
-      <c r="I288" s="24"/>
+      <c r="I288" s="24">
+        <f>ROUND(PRODUCT(E288:G288),2)</f>
+        <v>75</v>
+      </c>
       <c r="J288" s="24"/>
     </row>
-    <row r="289" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="28"/>
-      <c r="B289" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C289" s="24"/>
-      <c r="D289" s="48"/>
-      <c r="E289" s="24"/>
-      <c r="F289" s="24">
-        <v>100</v>
-      </c>
-      <c r="G289" s="24"/>
-      <c r="H289" s="24"/>
-      <c r="I289" s="24">
-        <f>ROUND(PRODUCT(E289:G289),2)</f>
-        <v>100</v>
-      </c>
-      <c r="J289" s="24"/>
-    </row>
-    <row r="290" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B290" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C290" s="63" t="s">
+    <row r="289" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B289" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C289" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D290" s="45"/>
-      <c r="E290" s="45"/>
-      <c r="F290" s="45"/>
-      <c r="G290" s="45"/>
-      <c r="H290" s="45"/>
-      <c r="I290" s="45"/>
-      <c r="J290" s="63">
-        <v>75</v>
-      </c>
+      <c r="D289" s="45"/>
+      <c r="E289" s="45"/>
+      <c r="F289" s="45"/>
+      <c r="G289" s="45"/>
+      <c r="H289" s="45"/>
+      <c r="I289" s="45"/>
+      <c r="J289" s="63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="28"/>
+      <c r="B290" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="24"/>
+      <c r="D290" s="48"/>
+      <c r="E290" s="24"/>
+      <c r="F290" s="24"/>
+      <c r="G290" s="24"/>
+      <c r="H290" s="24"/>
+      <c r="I290" s="24"/>
+      <c r="J290" s="24"/>
     </row>
     <row r="291" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28"/>
-      <c r="B291" s="29" t="s">
-        <v>13</v>
+      <c r="B291" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C291" s="24"/>
       <c r="D291" s="48"/>
       <c r="E291" s="24"/>
-      <c r="F291" s="24"/>
+      <c r="F291" s="24">
+        <v>30</v>
+      </c>
       <c r="G291" s="24"/>
       <c r="H291" s="24"/>
-      <c r="I291" s="24"/>
+      <c r="I291" s="24">
+        <f>ROUND(PRODUCT(E291:G291),2)</f>
+        <v>30</v>
+      </c>
       <c r="J291" s="24"/>
     </row>
-    <row r="292" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="28"/>
-      <c r="B292" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C292" s="24"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="24"/>
-      <c r="F292" s="24">
-        <v>75</v>
-      </c>
-      <c r="G292" s="24"/>
-      <c r="H292" s="24"/>
-      <c r="I292" s="24">
-        <f>ROUND(PRODUCT(E292:G292),2)</f>
-        <v>75</v>
-      </c>
-      <c r="J292" s="24"/>
-    </row>
-    <row r="293" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B293" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C293" s="63" t="s">
+    <row r="292" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B292" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D293" s="45"/>
-      <c r="E293" s="45"/>
-      <c r="F293" s="45"/>
-      <c r="G293" s="45"/>
-      <c r="H293" s="45"/>
-      <c r="I293" s="45"/>
-      <c r="J293" s="63">
-        <v>30</v>
-      </c>
+      <c r="D292" s="45"/>
+      <c r="E292" s="45"/>
+      <c r="F292" s="45"/>
+      <c r="G292" s="45"/>
+      <c r="H292" s="45"/>
+      <c r="I292" s="45"/>
+      <c r="J292" s="63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="28"/>
+      <c r="B293" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="24"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="24"/>
+      <c r="F293" s="24"/>
+      <c r="G293" s="24"/>
+      <c r="H293" s="24"/>
+      <c r="I293" s="24"/>
+      <c r="J293" s="24"/>
     </row>
     <row r="294" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
-      <c r="B294" s="29" t="s">
-        <v>13</v>
+      <c r="B294" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C294" s="24"/>
       <c r="D294" s="48"/>
       <c r="E294" s="24"/>
-      <c r="F294" s="24"/>
+      <c r="F294" s="24">
+        <v>150</v>
+      </c>
       <c r="G294" s="24"/>
       <c r="H294" s="24"/>
-      <c r="I294" s="24"/>
+      <c r="I294" s="24">
+        <f>ROUND(PRODUCT(E294:G294),2)</f>
+        <v>150</v>
+      </c>
       <c r="J294" s="24"/>
     </row>
-    <row r="295" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="28"/>
-      <c r="B295" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C295" s="24"/>
-      <c r="D295" s="48"/>
-      <c r="E295" s="24"/>
-      <c r="F295" s="24">
-        <v>30</v>
-      </c>
-      <c r="G295" s="24"/>
-      <c r="H295" s="24"/>
-      <c r="I295" s="24">
-        <f>ROUND(PRODUCT(E295:G295),2)</f>
-        <v>30</v>
-      </c>
-      <c r="J295" s="24"/>
-    </row>
-    <row r="296" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B296" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C296" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="45"/>
-      <c r="E296" s="45"/>
-      <c r="F296" s="45"/>
-      <c r="G296" s="45"/>
-      <c r="H296" s="45"/>
-      <c r="I296" s="45"/>
-      <c r="J296" s="63">
-        <v>150</v>
-      </c>
+    <row r="295" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B295" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C295" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="45"/>
+      <c r="E295" s="45"/>
+      <c r="F295" s="45"/>
+      <c r="G295" s="45"/>
+      <c r="H295" s="45"/>
+      <c r="I295" s="45"/>
+      <c r="J295" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="28"/>
+      <c r="B296" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="24"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="24"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
+      <c r="J296" s="24"/>
     </row>
     <row r="297" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="28"/>
-      <c r="B297" s="29" t="s">
-        <v>13</v>
+      <c r="B297" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C297" s="24"/>
-      <c r="D297" s="24"/>
+      <c r="D297" s="24">
+        <v>1</v>
+      </c>
       <c r="E297" s="24"/>
       <c r="F297" s="24"/>
       <c r="G297" s="24"/>
       <c r="H297" s="24"/>
-      <c r="I297" s="24"/>
+      <c r="I297" s="24">
+        <f t="shared" ref="I297" si="72">ROUND(PRODUCT(D297:G297),2)</f>
+        <v>1</v>
+      </c>
       <c r="J297" s="24"/>
     </row>
-    <row r="298" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="28"/>
-      <c r="B298" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C298" s="24"/>
-      <c r="D298" s="48"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="24">
-        <v>150</v>
-      </c>
-      <c r="G298" s="24"/>
-      <c r="H298" s="24"/>
-      <c r="I298" s="24">
-        <f>ROUND(PRODUCT(E298:G298),2)</f>
-        <v>150</v>
-      </c>
-      <c r="J298" s="24"/>
-    </row>
-    <row r="299" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B299" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C299" s="63" t="s">
+    <row r="298" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B298" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C298" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D299" s="45"/>
-      <c r="E299" s="45"/>
-      <c r="F299" s="45"/>
-      <c r="G299" s="45"/>
-      <c r="H299" s="45"/>
-      <c r="I299" s="45"/>
-      <c r="J299" s="63">
+      <c r="D298" s="45"/>
+      <c r="E298" s="45"/>
+      <c r="F298" s="45"/>
+      <c r="G298" s="45"/>
+      <c r="H298" s="45"/>
+      <c r="I298" s="45"/>
+      <c r="J298" s="63">
         <v>1</v>
       </c>
+    </row>
+    <row r="299" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="28"/>
+      <c r="B299" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="24"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="24"/>
+      <c r="F299" s="24"/>
+      <c r="G299" s="24"/>
+      <c r="H299" s="24"/>
+      <c r="I299" s="24"/>
+      <c r="J299" s="24"/>
     </row>
     <row r="300" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="28"/>
-      <c r="B300" s="29" t="s">
-        <v>13</v>
+      <c r="B300" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C300" s="24"/>
-      <c r="D300" s="24"/>
+      <c r="D300" s="24">
+        <v>1</v>
+      </c>
       <c r="E300" s="24"/>
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
       <c r="H300" s="24"/>
-      <c r="I300" s="24"/>
+      <c r="I300" s="24">
+        <f t="shared" ref="I300" si="73">ROUND(PRODUCT(D300:G300),2)</f>
+        <v>1</v>
+      </c>
       <c r="J300" s="24"/>
     </row>
-    <row r="301" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="28"/>
-      <c r="B301" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C301" s="24"/>
-      <c r="D301" s="24">
-        <v>1</v>
-      </c>
-      <c r="E301" s="24"/>
-      <c r="F301" s="24"/>
-      <c r="G301" s="24"/>
-      <c r="H301" s="24"/>
-      <c r="I301" s="24">
-        <f t="shared" ref="I301" si="74">ROUND(PRODUCT(D301:G301),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J301" s="24"/>
-    </row>
-    <row r="302" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B302" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C302" s="63" t="s">
+    <row r="301" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B301" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C301" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D302" s="45"/>
-      <c r="E302" s="45"/>
-      <c r="F302" s="45"/>
-      <c r="G302" s="45"/>
-      <c r="H302" s="45"/>
-      <c r="I302" s="45"/>
-      <c r="J302" s="63">
-        <v>1</v>
-      </c>
+      <c r="D301" s="45"/>
+      <c r="E301" s="45"/>
+      <c r="F301" s="45"/>
+      <c r="G301" s="45"/>
+      <c r="H301" s="45"/>
+      <c r="I301" s="45"/>
+      <c r="J301" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="28"/>
+      <c r="B302" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="24"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="24"/>
+      <c r="F302" s="24"/>
+      <c r="G302" s="24"/>
+      <c r="H302" s="24"/>
+      <c r="I302" s="24"/>
+      <c r="J302" s="24"/>
     </row>
     <row r="303" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="28"/>
-      <c r="B303" s="29" t="s">
-        <v>13</v>
+      <c r="B303" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C303" s="24"/>
-      <c r="D303" s="24"/>
+      <c r="D303" s="24">
+        <v>2</v>
+      </c>
       <c r="E303" s="24"/>
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
       <c r="H303" s="24"/>
-      <c r="I303" s="24"/>
+      <c r="I303" s="24">
+        <f t="shared" ref="I303" si="74">ROUND(PRODUCT(D303:G303),2)</f>
+        <v>2</v>
+      </c>
       <c r="J303" s="24"/>
     </row>
-    <row r="304" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="28"/>
-      <c r="B304" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C304" s="24"/>
-      <c r="D304" s="24">
-        <v>1</v>
-      </c>
-      <c r="E304" s="24"/>
-      <c r="F304" s="24"/>
-      <c r="G304" s="24"/>
-      <c r="H304" s="24"/>
-      <c r="I304" s="24">
-        <f t="shared" ref="I304" si="75">ROUND(PRODUCT(D304:G304),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J304" s="24"/>
-    </row>
-    <row r="305" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B305" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C305" s="63" t="s">
+    <row r="304" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B304" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C304" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D305" s="45"/>
-      <c r="E305" s="45"/>
-      <c r="F305" s="45"/>
-      <c r="G305" s="45"/>
-      <c r="H305" s="45"/>
-      <c r="I305" s="45"/>
-      <c r="J305" s="63">
-        <v>2</v>
-      </c>
+      <c r="D304" s="45"/>
+      <c r="E304" s="45"/>
+      <c r="F304" s="45"/>
+      <c r="G304" s="45"/>
+      <c r="H304" s="45"/>
+      <c r="I304" s="45"/>
+      <c r="J304" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="28"/>
+      <c r="B305" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="24"/>
+      <c r="D305" s="24"/>
+      <c r="E305" s="24"/>
+      <c r="F305" s="24"/>
+      <c r="G305" s="24"/>
+      <c r="H305" s="24"/>
+      <c r="I305" s="24"/>
+      <c r="J305" s="24"/>
     </row>
     <row r="306" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="28"/>
-      <c r="B306" s="29" t="s">
-        <v>13</v>
+      <c r="B306" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C306" s="24"/>
-      <c r="D306" s="24"/>
+      <c r="D306" s="24">
+        <v>14</v>
+      </c>
       <c r="E306" s="24"/>
       <c r="F306" s="24"/>
       <c r="G306" s="24"/>
       <c r="H306" s="24"/>
-      <c r="I306" s="24"/>
+      <c r="I306" s="24">
+        <f t="shared" ref="I306" si="75">ROUND(PRODUCT(D306:G306),2)</f>
+        <v>14</v>
+      </c>
       <c r="J306" s="24"/>
     </row>
-    <row r="307" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="28"/>
-      <c r="B307" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C307" s="24"/>
-      <c r="D307" s="24">
-        <v>2</v>
-      </c>
-      <c r="E307" s="24"/>
-      <c r="F307" s="24"/>
-      <c r="G307" s="24"/>
-      <c r="H307" s="24"/>
-      <c r="I307" s="24">
-        <f t="shared" ref="I307" si="76">ROUND(PRODUCT(D307:G307),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J307" s="24"/>
-    </row>
-    <row r="308" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B308" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C308" s="63" t="s">
+    <row r="307" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B307" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C307" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D308" s="45"/>
-      <c r="E308" s="45"/>
-      <c r="F308" s="45"/>
-      <c r="G308" s="45"/>
-      <c r="H308" s="45"/>
-      <c r="I308" s="45"/>
-      <c r="J308" s="63">
-        <v>14</v>
-      </c>
+      <c r="D307" s="45"/>
+      <c r="E307" s="45"/>
+      <c r="F307" s="45"/>
+      <c r="G307" s="45"/>
+      <c r="H307" s="45"/>
+      <c r="I307" s="45"/>
+      <c r="J307" s="63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="28"/>
+      <c r="B308" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="24"/>
+      <c r="D308" s="24"/>
+      <c r="E308" s="24"/>
+      <c r="F308" s="24"/>
+      <c r="G308" s="24"/>
+      <c r="H308" s="24"/>
+      <c r="I308" s="24"/>
+      <c r="J308" s="24"/>
     </row>
     <row r="309" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="28"/>
-      <c r="B309" s="29" t="s">
-        <v>13</v>
+      <c r="B309" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C309" s="24"/>
-      <c r="D309" s="24"/>
+      <c r="D309" s="24">
+        <v>28</v>
+      </c>
       <c r="E309" s="24"/>
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
       <c r="H309" s="24"/>
-      <c r="I309" s="24"/>
+      <c r="I309" s="24">
+        <f t="shared" ref="I309" si="76">ROUND(PRODUCT(D309:G309),2)</f>
+        <v>28</v>
+      </c>
       <c r="J309" s="24"/>
     </row>
-    <row r="310" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="28"/>
-      <c r="B310" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C310" s="24"/>
-      <c r="D310" s="24">
+    <row r="310" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B310" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C310" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E310" s="24"/>
-      <c r="F310" s="24"/>
-      <c r="G310" s="24"/>
-      <c r="H310" s="24"/>
-      <c r="I310" s="24">
-        <f t="shared" ref="I310" si="77">ROUND(PRODUCT(D310:G310),2)</f>
-        <v>14</v>
-      </c>
-      <c r="J310" s="24"/>
-    </row>
-    <row r="311" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B311" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C311" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" s="45"/>
-      <c r="E311" s="45"/>
-      <c r="F311" s="45"/>
-      <c r="G311" s="45"/>
-      <c r="H311" s="45"/>
-      <c r="I311" s="45"/>
-      <c r="J311" s="63">
-        <v>28</v>
-      </c>
+      <c r="D310" s="45"/>
+      <c r="E310" s="45"/>
+      <c r="F310" s="45"/>
+      <c r="G310" s="45"/>
+      <c r="H310" s="45"/>
+      <c r="I310" s="45"/>
+      <c r="J310" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="28"/>
+      <c r="B311" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" s="24"/>
+      <c r="D311" s="24"/>
+      <c r="E311" s="24"/>
+      <c r="F311" s="24"/>
+      <c r="G311" s="24"/>
+      <c r="H311" s="24"/>
+      <c r="I311" s="24"/>
+      <c r="J311" s="24"/>
     </row>
     <row r="312" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="28"/>
-      <c r="B312" s="29" t="s">
-        <v>13</v>
+      <c r="B312" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C312" s="24"/>
-      <c r="D312" s="24"/>
+      <c r="D312" s="24">
+        <v>4</v>
+      </c>
       <c r="E312" s="24"/>
       <c r="F312" s="24"/>
       <c r="G312" s="24"/>
       <c r="H312" s="24"/>
-      <c r="I312" s="24"/>
+      <c r="I312" s="24">
+        <f t="shared" ref="I312" si="77">ROUND(PRODUCT(D312:G312),2)</f>
+        <v>4</v>
+      </c>
       <c r="J312" s="24"/>
     </row>
-    <row r="313" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="28"/>
-      <c r="B313" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C313" s="24"/>
-      <c r="D313" s="24">
-        <v>28</v>
-      </c>
-      <c r="E313" s="24"/>
-      <c r="F313" s="24"/>
-      <c r="G313" s="24"/>
-      <c r="H313" s="24"/>
-      <c r="I313" s="24">
-        <f t="shared" ref="I313" si="78">ROUND(PRODUCT(D313:G313),2)</f>
-        <v>28</v>
-      </c>
-      <c r="J313" s="24"/>
-    </row>
-    <row r="314" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B314" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C314" s="63" t="s">
+    <row r="313" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B313" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C313" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="45"/>
-      <c r="E314" s="45"/>
-      <c r="F314" s="45"/>
-      <c r="G314" s="45"/>
-      <c r="H314" s="45"/>
-      <c r="I314" s="45"/>
-      <c r="J314" s="63">
-        <v>4</v>
-      </c>
+      <c r="D313" s="45"/>
+      <c r="E313" s="45"/>
+      <c r="F313" s="45"/>
+      <c r="G313" s="45"/>
+      <c r="H313" s="45"/>
+      <c r="I313" s="45"/>
+      <c r="J313" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="28"/>
+      <c r="B314" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="24"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="24"/>
+      <c r="F314" s="24"/>
+      <c r="G314" s="24"/>
+      <c r="H314" s="24"/>
+      <c r="I314" s="24"/>
+      <c r="J314" s="24"/>
     </row>
     <row r="315" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28"/>
-      <c r="B315" s="29" t="s">
-        <v>13</v>
+      <c r="B315" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C315" s="24"/>
-      <c r="D315" s="24"/>
+      <c r="D315" s="24">
+        <v>6</v>
+      </c>
       <c r="E315" s="24"/>
       <c r="F315" s="24"/>
       <c r="G315" s="24"/>
       <c r="H315" s="24"/>
-      <c r="I315" s="24"/>
+      <c r="I315" s="24">
+        <f t="shared" ref="I315" si="78">ROUND(PRODUCT(D315:G315),2)</f>
+        <v>6</v>
+      </c>
       <c r="J315" s="24"/>
     </row>
-    <row r="316" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="28"/>
-      <c r="B316" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C316" s="24"/>
-      <c r="D316" s="24">
-        <v>4</v>
-      </c>
-      <c r="E316" s="24"/>
-      <c r="F316" s="24"/>
-      <c r="G316" s="24"/>
-      <c r="H316" s="24"/>
-      <c r="I316" s="24">
-        <f t="shared" ref="I316" si="79">ROUND(PRODUCT(D316:G316),2)</f>
-        <v>4</v>
-      </c>
-      <c r="J316" s="24"/>
-    </row>
-    <row r="317" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B317" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C317" s="63" t="s">
+    <row r="316" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B316" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C316" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="45"/>
-      <c r="E317" s="45"/>
-      <c r="F317" s="45"/>
-      <c r="G317" s="45"/>
-      <c r="H317" s="45"/>
-      <c r="I317" s="45"/>
-      <c r="J317" s="63">
-        <v>6</v>
-      </c>
+      <c r="D316" s="45"/>
+      <c r="E316" s="45"/>
+      <c r="F316" s="45"/>
+      <c r="G316" s="45"/>
+      <c r="H316" s="45"/>
+      <c r="I316" s="45"/>
+      <c r="J316" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="28"/>
+      <c r="B317" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="24"/>
+      <c r="D317" s="24"/>
+      <c r="E317" s="24"/>
+      <c r="F317" s="24"/>
+      <c r="G317" s="24"/>
+      <c r="H317" s="24"/>
+      <c r="I317" s="24"/>
+      <c r="J317" s="24"/>
     </row>
     <row r="318" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
-      <c r="B318" s="29" t="s">
-        <v>13</v>
+      <c r="B318" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C318" s="24"/>
-      <c r="D318" s="24"/>
+      <c r="D318" s="24">
+        <v>2</v>
+      </c>
       <c r="E318" s="24"/>
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
       <c r="H318" s="24"/>
-      <c r="I318" s="24"/>
+      <c r="I318" s="24">
+        <f t="shared" ref="I318" si="79">ROUND(PRODUCT(D318:G318),2)</f>
+        <v>2</v>
+      </c>
       <c r="J318" s="24"/>
     </row>
-    <row r="319" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="28"/>
-      <c r="B319" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C319" s="24"/>
-      <c r="D319" s="24">
-        <v>6</v>
-      </c>
-      <c r="E319" s="24"/>
-      <c r="F319" s="24"/>
-      <c r="G319" s="24"/>
-      <c r="H319" s="24"/>
-      <c r="I319" s="24">
-        <f t="shared" ref="I319" si="80">ROUND(PRODUCT(D319:G319),2)</f>
-        <v>6</v>
-      </c>
-      <c r="J319" s="24"/>
-    </row>
-    <row r="320" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B320" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C320" s="63" t="s">
+    <row r="319" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B319" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C319" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D320" s="45"/>
-      <c r="E320" s="45"/>
-      <c r="F320" s="45"/>
-      <c r="G320" s="45"/>
-      <c r="H320" s="45"/>
-      <c r="I320" s="45"/>
-      <c r="J320" s="63">
-        <v>2</v>
-      </c>
+      <c r="D319" s="45"/>
+      <c r="E319" s="45"/>
+      <c r="F319" s="45"/>
+      <c r="G319" s="45"/>
+      <c r="H319" s="45"/>
+      <c r="I319" s="45"/>
+      <c r="J319" s="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="28"/>
+      <c r="B320" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="24"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
+      <c r="F320" s="24"/>
+      <c r="G320" s="24"/>
+      <c r="H320" s="24"/>
+      <c r="I320" s="24"/>
+      <c r="J320" s="24"/>
     </row>
     <row r="321" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
-      <c r="B321" s="29" t="s">
-        <v>13</v>
+      <c r="B321" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C321" s="24"/>
-      <c r="D321" s="24"/>
+      <c r="D321" s="24">
+        <v>7</v>
+      </c>
       <c r="E321" s="24"/>
       <c r="F321" s="24"/>
       <c r="G321" s="24"/>
       <c r="H321" s="24"/>
-      <c r="I321" s="24"/>
+      <c r="I321" s="24">
+        <f t="shared" ref="I321" si="80">ROUND(PRODUCT(D321:G321),2)</f>
+        <v>7</v>
+      </c>
       <c r="J321" s="24"/>
     </row>
     <row r="322" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="28"/>
-      <c r="B322" s="30" t="s">
-        <v>143</v>
+      <c r="A322" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B322" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="C322" s="24"/>
-      <c r="D322" s="24">
-        <v>2</v>
-      </c>
+      <c r="D322" s="24"/>
       <c r="E322" s="24"/>
       <c r="F322" s="24"/>
       <c r="G322" s="24"/>
       <c r="H322" s="24"/>
-      <c r="I322" s="24">
-        <f t="shared" ref="I322" si="81">ROUND(PRODUCT(D322:G322),2)</f>
-        <v>2</v>
-      </c>
+      <c r="I322" s="24"/>
       <c r="J322" s="24"/>
     </row>
     <row r="323" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B323" s="55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C323" s="63" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D323" s="45"/>
       <c r="E323" s="45"/>
@@ -7208,7 +7213,8 @@
       <c r="H323" s="45"/>
       <c r="I323" s="45"/>
       <c r="J323" s="63">
-        <v>7</v>
+        <f>SUM(I325:I338)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="324" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7228,28 +7234,26 @@
     <row r="325" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C325" s="24"/>
-      <c r="D325" s="24">
-        <v>7</v>
-      </c>
+      <c r="D325" s="24"/>
       <c r="E325" s="24"/>
-      <c r="F325" s="24"/>
+      <c r="F325" s="24">
+        <v>8</v>
+      </c>
       <c r="G325" s="24"/>
       <c r="H325" s="24"/>
       <c r="I325" s="24">
-        <f t="shared" ref="I325" si="82">ROUND(PRODUCT(D325:G325),2)</f>
-        <v>7</v>
+        <f>ROUND(PRODUCT(D325:G325),2)</f>
+        <v>8</v>
       </c>
       <c r="J325" s="24"/>
     </row>
     <row r="326" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B326" s="38" t="s">
-        <v>104</v>
+      <c r="A326" s="28"/>
+      <c r="B326" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="24"/>
@@ -7260,116 +7264,114 @@
       <c r="I326" s="24"/>
       <c r="J326" s="24"/>
     </row>
-    <row r="327" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B327" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C327" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="45"/>
-      <c r="E327" s="45"/>
-      <c r="F327" s="45"/>
-      <c r="G327" s="45"/>
-      <c r="H327" s="45"/>
-      <c r="I327" s="45"/>
-      <c r="J327" s="63">
-        <f>SUM(I329:I342)</f>
-        <v>67</v>
-      </c>
+    <row r="327" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="28"/>
+      <c r="B327" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C327" s="24"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="24"/>
+      <c r="F327" s="24">
+        <v>8</v>
+      </c>
+      <c r="G327" s="24"/>
+      <c r="H327" s="24"/>
+      <c r="I327" s="24">
+        <f t="shared" ref="I327:I328" si="81">ROUND(PRODUCT(D327:G327),2)</f>
+        <v>8</v>
+      </c>
+      <c r="J327" s="24"/>
     </row>
     <row r="328" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
-      <c r="B328" s="29" t="s">
-        <v>13</v>
+      <c r="B328" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
       <c r="E328" s="24"/>
-      <c r="F328" s="24"/>
+      <c r="F328" s="24">
+        <v>11</v>
+      </c>
       <c r="G328" s="24"/>
       <c r="H328" s="24"/>
-      <c r="I328" s="24"/>
+      <c r="I328" s="24">
+        <f t="shared" si="81"/>
+        <v>11</v>
+      </c>
       <c r="J328" s="24"/>
     </row>
     <row r="329" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
-      <c r="B329" s="30" t="s">
-        <v>143</v>
+      <c r="B329" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="24"/>
       <c r="E329" s="24"/>
-      <c r="F329" s="24">
-        <v>8</v>
-      </c>
+      <c r="F329" s="24"/>
       <c r="G329" s="24"/>
       <c r="H329" s="24"/>
-      <c r="I329" s="24">
-        <f>ROUND(PRODUCT(D329:G329),2)</f>
-        <v>8</v>
-      </c>
+      <c r="I329" s="24"/>
       <c r="J329" s="24"/>
     </row>
     <row r="330" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
-      <c r="B330" s="29" t="s">
-        <v>117</v>
+      <c r="B330" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="24"/>
       <c r="E330" s="24"/>
-      <c r="F330" s="24"/>
+      <c r="F330" s="24">
+        <v>8</v>
+      </c>
       <c r="G330" s="24"/>
       <c r="H330" s="24"/>
-      <c r="I330" s="24"/>
+      <c r="I330" s="24">
+        <f t="shared" ref="I330" si="82">ROUND(PRODUCT(D330:G330),2)</f>
+        <v>8</v>
+      </c>
       <c r="J330" s="24"/>
     </row>
     <row r="331" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
-      <c r="B331" s="30" t="s">
-        <v>143</v>
+      <c r="B331" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="24"/>
       <c r="E331" s="24"/>
-      <c r="F331" s="24">
-        <v>8</v>
-      </c>
+      <c r="F331" s="24"/>
       <c r="G331" s="24"/>
       <c r="H331" s="24"/>
-      <c r="I331" s="24">
-        <f t="shared" ref="I331:I332" si="83">ROUND(PRODUCT(D331:G331),2)</f>
-        <v>8</v>
-      </c>
+      <c r="I331" s="24"/>
       <c r="J331" s="24"/>
     </row>
     <row r="332" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="30" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="24"/>
       <c r="E332" s="24"/>
       <c r="F332" s="24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G332" s="24"/>
       <c r="H332" s="24"/>
       <c r="I332" s="24">
-        <f t="shared" si="83"/>
-        <v>11</v>
+        <f t="shared" ref="I332" si="83">ROUND(PRODUCT(D332:G332),2)</f>
+        <v>8</v>
       </c>
       <c r="J332" s="24"/>
     </row>
     <row r="333" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
-      <c r="B333" s="29" t="s">
-        <v>118</v>
+      <c r="B333" s="56" t="s">
+        <v>120</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="24"/>
@@ -7383,7 +7385,7 @@
     <row r="334" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C334" s="24"/>
       <c r="D334" s="24"/>
@@ -7402,7 +7404,7 @@
     <row r="335" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C335" s="24"/>
       <c r="D335" s="24"/>
@@ -7416,7 +7418,7 @@
     <row r="336" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="24"/>
@@ -7434,8 +7436,8 @@
     </row>
     <row r="337" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
-      <c r="B337" s="56" t="s">
-        <v>120</v>
+      <c r="B337" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="C337" s="24"/>
       <c r="D337" s="24"/>
@@ -7449,7 +7451,7 @@
     <row r="338" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="24"/>
@@ -7460,15 +7462,17 @@
       <c r="G338" s="24"/>
       <c r="H338" s="24"/>
       <c r="I338" s="24">
-        <f t="shared" ref="I338" si="86">ROUND(PRODUCT(D338:G338),2)</f>
+        <f>ROUND(PRODUCT(D338:G338),2)</f>
         <v>8</v>
       </c>
       <c r="J338" s="24"/>
     </row>
     <row r="339" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="28"/>
-      <c r="B339" s="29" t="s">
-        <v>121</v>
+      <c r="A339" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B339" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="C339" s="24"/>
       <c r="D339" s="24"/>
@@ -7480,128 +7484,108 @@
       <c r="J339" s="24"/>
     </row>
     <row r="340" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="28"/>
-      <c r="B340" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C340" s="24"/>
-      <c r="D340" s="24"/>
-      <c r="E340" s="24"/>
-      <c r="F340" s="24">
-        <v>8</v>
-      </c>
-      <c r="G340" s="24"/>
-      <c r="H340" s="24"/>
-      <c r="I340" s="24">
-        <f t="shared" ref="I340" si="87">ROUND(PRODUCT(D340:G340),2)</f>
-        <v>8</v>
-      </c>
-      <c r="J340" s="24"/>
+      <c r="A340" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B340" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D340" s="45"/>
+      <c r="E340" s="45"/>
+      <c r="F340" s="45"/>
+      <c r="G340" s="45"/>
+      <c r="H340" s="45"/>
+      <c r="I340" s="45"/>
+      <c r="J340" s="63">
+        <f>SUM(I341:I342)</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="341" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="28"/>
-      <c r="B341" s="29" t="s">
-        <v>122</v>
+      <c r="A341" s="52"/>
+      <c r="B341" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="C341" s="24"/>
-      <c r="D341" s="24"/>
-      <c r="E341" s="24"/>
-      <c r="F341" s="24"/>
-      <c r="G341" s="24"/>
-      <c r="H341" s="24"/>
-      <c r="I341" s="24"/>
+      <c r="D341" s="48"/>
+      <c r="E341" s="48"/>
+      <c r="F341" s="48"/>
+      <c r="G341" s="48"/>
+      <c r="H341" s="48"/>
+      <c r="I341" s="48"/>
       <c r="J341" s="24"/>
     </row>
     <row r="342" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="28"/>
-      <c r="B342" s="30" t="s">
-        <v>143</v>
+      <c r="A342" s="41"/>
+      <c r="B342" s="42" t="s">
+        <v>142</v>
       </c>
       <c r="C342" s="24"/>
-      <c r="D342" s="24"/>
+      <c r="D342" s="24">
+        <v>2</v>
+      </c>
       <c r="E342" s="24"/>
       <c r="F342" s="24">
-        <v>8</v>
+        <v>5000</v>
       </c>
       <c r="G342" s="24"/>
       <c r="H342" s="24"/>
       <c r="I342" s="24">
-        <f>ROUND(PRODUCT(D342:G342),2)</f>
-        <v>8</v>
+        <f>D342*F342</f>
+        <v>10000</v>
       </c>
       <c r="J342" s="24"/>
     </row>
-    <row r="343" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B343" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C343" s="24"/>
-      <c r="D343" s="24"/>
-      <c r="E343" s="24"/>
-      <c r="F343" s="24"/>
-      <c r="G343" s="24"/>
-      <c r="H343" s="24"/>
-      <c r="I343" s="24"/>
-      <c r="J343" s="24"/>
-    </row>
-    <row r="344" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B344" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C344" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D344" s="45"/>
-      <c r="E344" s="45"/>
-      <c r="F344" s="45"/>
-      <c r="G344" s="45"/>
-      <c r="H344" s="45"/>
-      <c r="I344" s="45"/>
-      <c r="J344" s="63">
-        <f>SUM(I345:I346)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="52"/>
-      <c r="B345" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C345" s="24"/>
-      <c r="D345" s="48"/>
-      <c r="E345" s="48"/>
-      <c r="F345" s="48"/>
-      <c r="G345" s="48"/>
-      <c r="H345" s="48"/>
-      <c r="I345" s="48"/>
-      <c r="J345" s="24"/>
-    </row>
-    <row r="346" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
-      <c r="B346" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C346" s="24"/>
-      <c r="D346" s="24">
-        <v>2</v>
-      </c>
-      <c r="E346" s="24"/>
-      <c r="F346" s="24">
-        <v>5000</v>
-      </c>
-      <c r="G346" s="24"/>
-      <c r="H346" s="24"/>
-      <c r="I346" s="24">
-        <f>D346*F346</f>
-        <v>10000</v>
-      </c>
-      <c r="J346" s="24"/>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="6"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="6"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
@@ -7914,54 +7898,6 @@
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
-      <c r="B373" s="5"/>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6"/>
-      <c r="E373" s="6"/>
-      <c r="F373" s="6"/>
-      <c r="G373" s="6"/>
-      <c r="H373" s="6"/>
-      <c r="I373" s="6"/>
-      <c r="J373" s="6"/>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
-      <c r="B374" s="5"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="6"/>
-      <c r="E374" s="6"/>
-      <c r="F374" s="6"/>
-      <c r="G374" s="6"/>
-      <c r="H374" s="6"/>
-      <c r="I374" s="6"/>
-      <c r="J374" s="6"/>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="B375" s="5"/>
-      <c r="C375" s="6"/>
-      <c r="D375" s="6"/>
-      <c r="E375" s="6"/>
-      <c r="F375" s="6"/>
-      <c r="G375" s="6"/>
-      <c r="H375" s="6"/>
-      <c r="I375" s="6"/>
-      <c r="J375" s="6"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="B376" s="5"/>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
-      <c r="E376" s="6"/>
-      <c r="F376" s="6"/>
-      <c r="G376" s="6"/>
-      <c r="H376" s="6"/>
-      <c r="I376" s="6"/>
-      <c r="J376" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7975,9 +7911,9 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="160" max="9" man="1"/>
-    <brk id="239" max="9" man="1"/>
-    <brk id="318" max="9" man="1"/>
+    <brk id="156" max="9" man="1"/>
+    <brk id="235" max="9" man="1"/>
+    <brk id="314" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8009,18 +7945,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
+      <c r="A1" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -8038,29 +7974,29 @@
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
@@ -8152,7 +8088,7 @@
     </row>
     <row r="10" spans="1:10" s="53" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>71</v>
@@ -8168,10 +8104,10 @@
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="78">
@@ -8225,10 +8161,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="78">
         <v>10000</v>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D8B05-EAA9-467E-A7C4-18E5E6E3D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5797046-938D-425A-B030-275FD0A40DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
@@ -1121,30 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,6 +1148,30 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1494,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A105" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,18 +1519,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -1542,35 +1542,35 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="75"/>
-      <c r="J2" s="112"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
@@ -1582,7 +1582,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="75"/>
-      <c r="J5" s="112"/>
+      <c r="J5" s="104"/>
     </row>
     <row r="6" spans="1:10" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -1642,7 +1642,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="113"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
@@ -1658,7 +1658,7 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="74"/>
-      <c r="J9" s="110"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
@@ -1674,7 +1674,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="110"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
@@ -1692,7 +1692,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="73"/>
-      <c r="J11" s="110">
+      <c r="J11" s="102">
         <f t="shared" ref="J11" si="0">SUM(I12:I27)</f>
         <v>32</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="73"/>
-      <c r="J27" s="110">
+      <c r="J27" s="102">
         <v>2</v>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="73"/>
-      <c r="J28" s="110"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
@@ -2117,7 +2117,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
       <c r="I36" s="73"/>
-      <c r="J36" s="110"/>
+      <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="85"/>
@@ -2131,7 +2131,7 @@
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
       <c r="I37" s="73"/>
-      <c r="J37" s="110">
+      <c r="J37" s="102">
         <v>2</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J38" s="110"/>
+      <c r="J38" s="102"/>
     </row>
     <row r="39" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="85" t="s">
@@ -2274,7 +2274,7 @@
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="73"/>
-      <c r="J45" s="110"/>
+      <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94"/>
@@ -2330,7 +2330,7 @@
       <c r="J48" s="73"/>
     </row>
     <row r="49" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="109" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="86" t="s">
@@ -2345,7 +2345,7 @@
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="73"/>
-      <c r="J49" s="110">
+      <c r="J49" s="102">
         <v>2</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="73"/>
-      <c r="J50" s="110"/>
+      <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="89"/>
@@ -2380,10 +2380,10 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J51" s="110"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="109" t="s">
         <v>113</v>
       </c>
       <c r="B52" s="86" t="s">
@@ -2452,10 +2452,10 @@
       <c r="J55" s="73"/>
     </row>
     <row r="56" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="B56" s="106" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="58" t="s">
@@ -2467,7 +2467,7 @@
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="74"/>
-      <c r="J56" s="110">
+      <c r="J56" s="102">
         <f>SUM(D58,I58)</f>
         <v>2</v>
       </c>
@@ -2506,10 +2506,10 @@
       <c r="J58" s="73"/>
     </row>
     <row r="59" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="106" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -2521,7 +2521,7 @@
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="74"/>
-      <c r="J59" s="110">
+      <c r="J59" s="102">
         <f>SUM(D61:D75)</f>
         <v>34</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="74"/>
-      <c r="J60" s="110"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="97"/>
@@ -2557,7 +2557,7 @@
         <f t="shared" ref="I61:I65" si="6">ROUND(PRODUCT(D61:G61),2)</f>
         <v>4</v>
       </c>
-      <c r="J61" s="110"/>
+      <c r="J61" s="102"/>
     </row>
     <row r="62" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="97"/>
@@ -2571,7 +2571,7 @@
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="73"/>
-      <c r="J62" s="110"/>
+      <c r="J62" s="102"/>
     </row>
     <row r="63" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="97"/>
@@ -2590,7 +2590,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J63" s="110"/>
+      <c r="J63" s="102"/>
     </row>
     <row r="64" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="97"/>
@@ -2604,7 +2604,7 @@
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="73"/>
-      <c r="J64" s="110"/>
+      <c r="J64" s="102"/>
     </row>
     <row r="65" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="97"/>
@@ -2623,7 +2623,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J65" s="110"/>
+      <c r="J65" s="102"/>
     </row>
     <row r="66" spans="1:10" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="94"/>
@@ -2796,10 +2796,10 @@
       <c r="J75" s="73"/>
     </row>
     <row r="76" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="116" t="s">
+      <c r="A76" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="115" t="s">
+      <c r="B76" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C76" s="58" t="s">
@@ -2811,7 +2811,7 @@
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
       <c r="I76" s="74"/>
-      <c r="J76" s="110">
+      <c r="J76" s="102">
         <f>SUM(I78:I90)</f>
         <v>12</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="A96" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="118" t="s">
+      <c r="B96" s="110" t="s">
         <v>47</v>
       </c>
       <c r="C96" s="24"/>
@@ -3146,10 +3146,10 @@
       <c r="J96" s="73"/>
     </row>
     <row r="97" spans="1:10" s="49" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="116" t="s">
+      <c r="A97" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="114" t="s">
+      <c r="B97" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="58" t="s">
@@ -3161,7 +3161,7 @@
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
       <c r="I97" s="74"/>
-      <c r="J97" s="110">
+      <c r="J97" s="102">
         <f>SUM(I99:I109)</f>
         <v>10000</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="A110" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B110" s="118" t="s">
+      <c r="B110" s="110" t="s">
         <v>55</v>
       </c>
       <c r="C110" s="24"/>
@@ -3384,7 +3384,7 @@
       <c r="A111" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="106" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="58" t="s">
@@ -3396,7 +3396,7 @@
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
       <c r="I111" s="74"/>
-      <c r="J111" s="110">
+      <c r="J111" s="102">
         <v>30</v>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       <c r="A114" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B114" s="119" t="s">
+      <c r="B114" s="111" t="s">
         <v>118</v>
       </c>
       <c r="C114" s="58" t="s">
@@ -3449,7 +3449,7 @@
       <c r="G114" s="41"/>
       <c r="H114" s="41"/>
       <c r="I114" s="74"/>
-      <c r="J114" s="110">
+      <c r="J114" s="102">
         <v>1628</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       <c r="G130" s="41"/>
       <c r="H130" s="41"/>
       <c r="I130" s="74"/>
-      <c r="J130" s="110">
+      <c r="J130" s="102">
         <v>1</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="G133" s="41"/>
       <c r="H133" s="41"/>
       <c r="I133" s="74"/>
-      <c r="J133" s="110">
+      <c r="J133" s="102">
         <v>150</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="24"/>
-      <c r="D134" s="111"/>
+      <c r="D134" s="103"/>
       <c r="E134" s="24"/>
       <c r="F134" s="73"/>
       <c r="G134" s="24"/>
@@ -3793,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="C135" s="24"/>
-      <c r="D135" s="111"/>
+      <c r="D135" s="103"/>
       <c r="E135" s="24"/>
       <c r="F135" s="73">
         <v>150</v>
@@ -3822,7 +3822,7 @@
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
       <c r="I136" s="74"/>
-      <c r="J136" s="110">
+      <c r="J136" s="102">
         <v>100</v>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="C137" s="24"/>
-      <c r="D137" s="111"/>
+      <c r="D137" s="103"/>
       <c r="E137" s="24"/>
       <c r="F137" s="73"/>
       <c r="G137" s="24"/>
@@ -3846,7 +3846,7 @@
         <v>81</v>
       </c>
       <c r="C138" s="24"/>
-      <c r="D138" s="111"/>
+      <c r="D138" s="103"/>
       <c r="E138" s="24"/>
       <c r="F138" s="73">
         <v>100</v>
@@ -3875,7 +3875,7 @@
       <c r="G139" s="41"/>
       <c r="H139" s="41"/>
       <c r="I139" s="74"/>
-      <c r="J139" s="110">
+      <c r="J139" s="102">
         <v>75</v>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="24"/>
-      <c r="D140" s="111"/>
+      <c r="D140" s="103"/>
       <c r="E140" s="24"/>
       <c r="F140" s="73"/>
       <c r="G140" s="24"/>
@@ -3899,7 +3899,7 @@
         <v>81</v>
       </c>
       <c r="C141" s="24"/>
-      <c r="D141" s="111"/>
+      <c r="D141" s="103"/>
       <c r="E141" s="24"/>
       <c r="F141" s="73">
         <v>75</v>
@@ -3928,7 +3928,7 @@
       <c r="G142" s="41"/>
       <c r="H142" s="41"/>
       <c r="I142" s="74"/>
-      <c r="J142" s="110">
+      <c r="J142" s="102">
         <v>30</v>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="C143" s="24"/>
-      <c r="D143" s="111"/>
+      <c r="D143" s="103"/>
       <c r="E143" s="24"/>
       <c r="F143" s="73"/>
       <c r="G143" s="24"/>
@@ -3952,7 +3952,7 @@
         <v>81</v>
       </c>
       <c r="C144" s="24"/>
-      <c r="D144" s="111"/>
+      <c r="D144" s="103"/>
       <c r="E144" s="24"/>
       <c r="F144" s="73">
         <v>30</v>
@@ -3981,7 +3981,7 @@
       <c r="G145" s="41"/>
       <c r="H145" s="41"/>
       <c r="I145" s="74"/>
-      <c r="J145" s="110">
+      <c r="J145" s="102">
         <v>150</v>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
         <v>81</v>
       </c>
       <c r="C147" s="24"/>
-      <c r="D147" s="111"/>
+      <c r="D147" s="103"/>
       <c r="E147" s="24"/>
       <c r="F147" s="73">
         <v>150</v>
@@ -4034,7 +4034,7 @@
       <c r="G148" s="41"/>
       <c r="H148" s="41"/>
       <c r="I148" s="74"/>
-      <c r="J148" s="110">
+      <c r="J148" s="102">
         <v>1</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
       <c r="I151" s="74"/>
-      <c r="J151" s="110">
+      <c r="J151" s="102">
         <v>1</v>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       <c r="G154" s="41"/>
       <c r="H154" s="41"/>
       <c r="I154" s="74"/>
-      <c r="J154" s="110">
+      <c r="J154" s="102">
         <v>2</v>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       <c r="G157" s="41"/>
       <c r="H157" s="41"/>
       <c r="I157" s="74"/>
-      <c r="J157" s="110">
+      <c r="J157" s="102">
         <v>14</v>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
       <c r="I160" s="74"/>
-      <c r="J160" s="110">
+      <c r="J160" s="102">
         <v>28</v>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       <c r="G163" s="41"/>
       <c r="H163" s="41"/>
       <c r="I163" s="74"/>
-      <c r="J163" s="110">
+      <c r="J163" s="102">
         <v>4</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="G166" s="41"/>
       <c r="H166" s="41"/>
       <c r="I166" s="74"/>
-      <c r="J166" s="110">
+      <c r="J166" s="102">
         <v>6</v>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       <c r="G169" s="41"/>
       <c r="H169" s="41"/>
       <c r="I169" s="74"/>
-      <c r="J169" s="110">
+      <c r="J169" s="102">
         <v>2</v>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       <c r="G172" s="41"/>
       <c r="H172" s="41"/>
       <c r="I172" s="74"/>
-      <c r="J172" s="110">
+      <c r="J172" s="102">
         <v>7</v>
       </c>
     </row>
@@ -4900,18 +4900,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -4929,29 +4929,29 @@
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352DB359-A6B1-47EE-87E1-58C39F61F397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008FFF1-50B5-4C53-A15B-22BE786CCA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
@@ -941,6 +941,114 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,63 +1058,6 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,57 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1388,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A62" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,114 +1413,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="82" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="93"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="94"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -1552,7 +1552,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="95"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
@@ -1568,7 +1568,7 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="95"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
@@ -1586,7 +1586,7 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="52"/>
-      <c r="J11" s="95">
+      <c r="J11" s="90">
         <f t="shared" ref="J11" si="0">SUM(I12:I27)</f>
         <v>32</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="95">
+      <c r="J27" s="90">
         <v>2</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
       <c r="I28" s="52"/>
-      <c r="J28" s="95"/>
+      <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
@@ -2011,7 +2011,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="I36" s="52"/>
-      <c r="J36" s="95"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
@@ -2025,7 +2025,7 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="52"/>
-      <c r="J37" s="95">
+      <c r="J37" s="90">
         <v>2</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J38" s="95"/>
+      <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
@@ -2168,7 +2168,7 @@
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="52"/>
-      <c r="J45" s="95"/>
+      <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
@@ -2239,7 +2239,7 @@
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
       <c r="I49" s="52"/>
-      <c r="J49" s="95">
+      <c r="J49" s="90">
         <v>2</v>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
       <c r="I50" s="52"/>
-      <c r="J50" s="95"/>
+      <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
@@ -2274,7 +2274,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J51" s="95"/>
+      <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
@@ -2361,7 +2361,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="I56" s="48"/>
-      <c r="J56" s="95">
+      <c r="J56" s="90">
         <f>SUM(D58,I58)</f>
         <v>2</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
       <c r="I59" s="48"/>
-      <c r="J59" s="95">
+      <c r="J59" s="90">
         <f>SUM(D61:D75)</f>
         <v>34</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
       <c r="I60" s="48"/>
-      <c r="J60" s="95"/>
+      <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
@@ -2451,7 +2451,7 @@
         <f t="shared" ref="I61:I65" si="6">ROUND(PRODUCT(D61:G61),2)</f>
         <v>4</v>
       </c>
-      <c r="J61" s="95"/>
+      <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
@@ -2465,7 +2465,7 @@
       <c r="G62" s="55"/>
       <c r="H62" s="55"/>
       <c r="I62" s="52"/>
-      <c r="J62" s="95"/>
+      <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
@@ -2484,7 +2484,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J63" s="95"/>
+      <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
@@ -2498,7 +2498,7 @@
       <c r="G64" s="55"/>
       <c r="H64" s="55"/>
       <c r="I64" s="52"/>
-      <c r="J64" s="95"/>
+      <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="67"/>
@@ -2517,7 +2517,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J65" s="95"/>
+      <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
@@ -2705,7 +2705,7 @@
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
       <c r="I76" s="48"/>
-      <c r="J76" s="95">
+      <c r="J76" s="90">
         <f>SUM(I78:I90)</f>
         <v>12</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="A92" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="107" t="s">
         <v>74</v>
       </c>
       <c r="C92" s="47" t="s">
@@ -3055,7 +3055,7 @@
       <c r="G97" s="55"/>
       <c r="H97" s="55"/>
       <c r="I97" s="48"/>
-      <c r="J97" s="95">
+      <c r="J97" s="90">
         <v>30</v>
       </c>
     </row>
@@ -3108,8 +3108,9 @@
       <c r="G100" s="55"/>
       <c r="H100" s="55"/>
       <c r="I100" s="48"/>
-      <c r="J100" s="95">
-        <v>1628</v>
+      <c r="J100" s="90">
+        <f>SUM(D102:D114)</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,7 +3200,7 @@
       </c>
       <c r="C106" s="51"/>
       <c r="D106" s="52">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E106" s="51"/>
       <c r="F106" s="52"/>
@@ -3207,7 +3208,7 @@
       <c r="H106" s="51"/>
       <c r="I106" s="52">
         <f t="shared" ref="I106" si="18">ROUND(PRODUCT(D106:G106),2)</f>
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J106" s="52"/>
     </row>
@@ -3232,7 +3233,7 @@
       </c>
       <c r="C108" s="51"/>
       <c r="D108" s="52">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="E108" s="51"/>
       <c r="F108" s="52"/>
@@ -3240,7 +3241,7 @@
       <c r="H108" s="51"/>
       <c r="I108" s="52">
         <f t="shared" ref="I108" si="19">ROUND(PRODUCT(D108:G108),2)</f>
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="J108" s="52"/>
     </row>
@@ -3331,7 +3332,7 @@
       </c>
       <c r="C114" s="51"/>
       <c r="D114" s="52">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E114" s="51"/>
       <c r="F114" s="52"/>
@@ -3339,7 +3340,7 @@
       <c r="H114" s="51"/>
       <c r="I114" s="52">
         <f t="shared" ref="I114" si="22">ROUND(PRODUCT(D114:G114),2)</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J114" s="52"/>
     </row>
@@ -3747,136 +3748,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="100"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="91"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="103">
+      <c r="A8" s="95">
         <v>6</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="96" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="105"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="106">
+      <c r="A9" s="98">
         <v>6.9</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="99" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="51"/>
@@ -3886,13 +3887,13 @@
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="108"/>
+      <c r="J9" s="100"/>
     </row>
     <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="101" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="51"/>
@@ -3905,10 +3906,10 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="51"/>
@@ -3920,7 +3921,7 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="52">
-        <f t="shared" ref="I11:I14" si="0">ROUND(PRODUCT(D11:G11),2)</f>
+        <f t="shared" ref="I11" si="0">ROUND(PRODUCT(D11:G11),2)</f>
         <v>330</v>
       </c>
       <c r="J11" s="52">
@@ -3928,10 +3929,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="104" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="51"/>
@@ -3974,7 +3975,7 @@
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="95">
+      <c r="J14" s="90">
         <f>SUM(I16:I26)</f>
         <v>10000</v>
       </c>
@@ -4179,7 +4180,7 @@
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71"/>
-      <c r="B27" s="113"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
@@ -4187,10 +4188,10 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="113"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="67"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008FFF1-50B5-4C53-A15B-22BE786CCA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AC99D-CD3E-4CAC-91E1-A39D4B67E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView minimized="1" xWindow="5265" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -83,18 +83,6 @@
     <t>AUDITORIO</t>
   </si>
   <si>
-    <t>05.05</t>
-  </si>
-  <si>
-    <t>05.06</t>
-  </si>
-  <si>
-    <t>05.06.01</t>
-  </si>
-  <si>
-    <t>05.06.02</t>
-  </si>
-  <si>
     <t>05.06.04</t>
   </si>
   <si>
@@ -291,6 +279,18 @@
   </si>
   <si>
     <t>04.09.03.02</t>
+  </si>
+  <si>
+    <t>04.06</t>
+  </si>
+  <si>
+    <t>04.05</t>
+  </si>
+  <si>
+    <t>04.06.01</t>
+  </si>
+  <si>
+    <t>04.06.02</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+      <selection activeCell="A55" sqref="A55:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="110" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
@@ -1538,98 +1538,101 @@
       <c r="I8" s="44"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="52"/>
-      <c r="J10" s="90"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="55" t="s">
+      <c r="J10" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="90"/>
+    </row>
+    <row r="12" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48">
+        <v>2</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="52">
+        <f t="shared" ref="I12" si="0">ROUND(PRODUCT(D12:G12),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="90">
-        <f t="shared" ref="J11" si="0">SUM(I12:I27)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="52">
-        <v>8</v>
-      </c>
+      <c r="D13" s="52"/>
       <c r="E13" s="51"/>
       <c r="F13" s="52"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="52">
-        <f t="shared" ref="I13:I25" si="1">ROUND(PRODUCT(D13:G13),2)</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="55"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="52"/>
       <c r="E14" s="51"/>
       <c r="F14" s="52"/>
@@ -1639,280 +1642,279 @@
       <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="55"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="52"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="52">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="I15" si="1">ROUND(PRODUCT(D15:G15),2)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+    <row r="16" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="90"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="52">
-        <v>4</v>
-      </c>
+      <c r="A17" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="51"/>
       <c r="F17" s="52"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="52">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55"/>
+      <c r="A18" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="52"/>
       <c r="E18" s="51"/>
       <c r="F18" s="52"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="J18" s="90">
+        <f t="shared" ref="J18" si="2">SUM(I19:I34)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="57" t="s">
-        <v>15</v>
+      <c r="B19" s="56" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="55"/>
-      <c r="D19" s="52">
-        <v>4</v>
-      </c>
+      <c r="D19" s="52"/>
       <c r="E19" s="51"/>
       <c r="F19" s="52"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="52">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="I19" s="52"/>
       <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
-      <c r="B20" s="56" t="s">
-        <v>37</v>
+      <c r="B20" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="55"/>
-      <c r="D20" s="52"/>
+      <c r="D20" s="52">
+        <v>8</v>
+      </c>
       <c r="E20" s="51"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="52">
+        <f t="shared" ref="I20:I32" si="3">ROUND(PRODUCT(D20:G20),2)</f>
+        <v>8</v>
+      </c>
       <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="57" t="s">
-        <v>15</v>
+      <c r="B21" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="55"/>
-      <c r="D21" s="52">
-        <v>4</v>
-      </c>
+      <c r="D21" s="52"/>
       <c r="E21" s="51"/>
       <c r="F21" s="52"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="52">
-        <f t="shared" si="1"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="52">
         <v>4</v>
       </c>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="52"/>
       <c r="E22" s="51"/>
       <c r="F22" s="52"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="I22" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="57" t="s">
-        <v>15</v>
+      <c r="A23" s="53"/>
+      <c r="B23" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="C23" s="55"/>
-      <c r="D23" s="52">
-        <v>4</v>
-      </c>
+      <c r="D23" s="52"/>
       <c r="E23" s="51"/>
       <c r="F23" s="52"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="52">
-        <f t="shared" si="1"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="52">
         <v>4</v>
       </c>
-      <c r="J23" s="52"/>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="52"/>
       <c r="E24" s="51"/>
       <c r="F24" s="52"/>
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="57" t="s">
-        <v>15</v>
+      <c r="A25" s="53"/>
+      <c r="B25" s="56" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="55"/>
-      <c r="D25" s="52">
-        <v>4</v>
-      </c>
+      <c r="D25" s="52"/>
       <c r="E25" s="51"/>
       <c r="F25" s="52"/>
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="52">
-        <f t="shared" si="1"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="52">
         <v>4</v>
       </c>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="52"/>
       <c r="E26" s="51"/>
       <c r="F26" s="52"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J26" s="52"/>
     </row>
-    <row r="27" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="56" t="s">
-        <v>39</v>
+      <c r="B28" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="55"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="90"/>
-    </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="57" t="s">
-        <v>16</v>
+      <c r="D28" s="52">
+        <v>4</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="55"/>
-      <c r="D29" s="48">
-        <v>2</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="52">
-        <f t="shared" ref="I29:I44" si="2">ROUND(PRODUCT(D29:G29),2)</f>
-        <v>2</v>
-      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
       <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>59</v>
+      <c r="A30" s="58"/>
+      <c r="B30" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="55"/>
-      <c r="D30" s="52"/>
+      <c r="D30" s="52">
+        <v>4</v>
+      </c>
       <c r="E30" s="51"/>
       <c r="F30" s="52"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52">
-        <v>2</v>
-      </c>
+      <c r="I30" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="52"/>
@@ -1924,154 +1926,154 @@
       <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="52"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
       <c r="I32" s="52">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J32" s="52"/>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="55"/>
       <c r="D33" s="52"/>
       <c r="E33" s="51"/>
       <c r="F33" s="52"/>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
       <c r="I33" s="52"/>
-      <c r="J33" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="90"/>
+    </row>
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="52">
-        <v>1</v>
-      </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="48"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="48">
+        <v>2</v>
+      </c>
       <c r="E36" s="55"/>
       <c r="F36" s="48"/>
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="90"/>
-    </row>
-    <row r="37" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56" t="s">
-        <v>39</v>
+      <c r="I36" s="52">
+        <f t="shared" ref="I36:I51" si="4">ROUND(PRODUCT(D36:G36),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="55"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="52"/>
-      <c r="J37" s="90">
+      <c r="J37" s="52">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="48">
+      <c r="C39" s="55"/>
+      <c r="D39" s="52">
         <v>2</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="52">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="52"/>
       <c r="E39" s="51"/>
       <c r="F39" s="52"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
+      <c r="I39" s="52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="55"/>
+      <c r="A40" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>14</v>
+      </c>
       <c r="D40" s="52"/>
       <c r="E40" s="51"/>
       <c r="F40" s="52"/>
@@ -2079,103 +2081,105 @@
       <c r="H40" s="51"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
-      <c r="B41" s="57" t="s">
-        <v>16</v>
+      <c r="B41" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="55"/>
-      <c r="D41" s="52">
-        <v>4</v>
-      </c>
+      <c r="D41" s="52"/>
       <c r="E41" s="51"/>
       <c r="F41" s="52"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
-      <c r="I41" s="52">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="I41" s="52"/>
       <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="52">
+        <v>1</v>
+      </c>
       <c r="E42" s="51"/>
       <c r="F42" s="52"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
+      <c r="I42" s="52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="J42" s="52"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-    </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="90"/>
+    </row>
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="52">
-        <v>6</v>
-      </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="52">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J44" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="55"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="48">
+        <v>2</v>
+      </c>
       <c r="E45" s="55"/>
       <c r="F45" s="48"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="55"/>
+      <c r="A46" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>14</v>
+      </c>
       <c r="D46" s="52"/>
       <c r="E46" s="51"/>
       <c r="F46" s="52"/>
@@ -2185,123 +2189,115 @@
       <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="52">
-        <v>10</v>
-      </c>
+      <c r="A47" s="53"/>
+      <c r="B47" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="51"/>
       <c r="F47" s="52"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
-      <c r="I47" s="52">
-        <f t="shared" ref="I47:I51" si="3">ROUND(PRODUCT(D47:G47),2)</f>
-        <v>10</v>
-      </c>
+      <c r="I47" s="52"/>
       <c r="J47" s="52">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="52">
+        <v>4</v>
+      </c>
       <c r="E48" s="51"/>
       <c r="F48" s="52"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="52">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="J48" s="52"/>
     </row>
-    <row r="49" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>71</v>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>62</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="52"/>
-      <c r="J49" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
       <c r="B50" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
+        <v>35</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="52"/>
-      <c r="J50" s="90"/>
-    </row>
-    <row r="51" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
       <c r="B51" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48">
-        <v>2</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+        <v>16</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="52">
+        <v>6</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="52">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J51" s="90"/>
-    </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J51" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
       <c r="I52" s="52"/>
-      <c r="J52" s="52">
-        <v>1</v>
-      </c>
+      <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="C53" s="55"/>
       <c r="D53" s="52"/>
       <c r="E53" s="51"/>
       <c r="F53" s="52"/>
@@ -2313,28 +2309,32 @@
     <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>14</v>
+      </c>
       <c r="D54" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E54" s="51"/>
       <c r="F54" s="52"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
       <c r="I54" s="52">
-        <f t="shared" ref="I54" si="4">ROUND(PRODUCT(D54:G54),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="52"/>
+        <f t="shared" ref="I54" si="5">ROUND(PRODUCT(D54:G54),2)</f>
+        <v>10</v>
+      </c>
+      <c r="J54" s="52">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="56" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>14</v>
@@ -2369,7 +2369,7 @@
     <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -2383,7 +2383,7 @@
     <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C58" s="51"/>
       <c r="D58" s="52">
@@ -2394,17 +2394,17 @@
       <c r="G58" s="51"/>
       <c r="H58" s="51"/>
       <c r="I58" s="52">
-        <f t="shared" ref="I58" si="5">ROUND(PRODUCT(D58:G58),2)</f>
+        <f t="shared" ref="I58" si="6">ROUND(PRODUCT(D58:G58),2)</f>
         <v>1</v>
       </c>
       <c r="J58" s="52"/>
     </row>
     <row r="59" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>14</v>
@@ -2448,7 +2448,7 @@
       <c r="G61" s="55"/>
       <c r="H61" s="55"/>
       <c r="I61" s="52">
-        <f t="shared" ref="I61:I65" si="6">ROUND(PRODUCT(D61:G61),2)</f>
+        <f t="shared" ref="I61:I65" si="7">ROUND(PRODUCT(D61:G61),2)</f>
         <v>4</v>
       </c>
       <c r="J61" s="90"/>
@@ -2456,7 +2456,7 @@
     <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="67"/>
       <c r="B62" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" s="47"/>
       <c r="D62" s="48"/>
@@ -2481,7 +2481,7 @@
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
       <c r="I63" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="J63" s="90"/>
@@ -2489,7 +2489,7 @@
     <row r="64" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="67"/>
       <c r="B64" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C64" s="47"/>
       <c r="D64" s="48"/>
@@ -2514,7 +2514,7 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="I65" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J65" s="90"/>
@@ -2522,7 +2522,7 @@
     <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="B66" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -2547,7 +2547,7 @@
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
       <c r="I67" s="52">
-        <f t="shared" ref="I67" si="7">ROUND(PRODUCT(D67:G67),2)</f>
+        <f t="shared" ref="I67" si="8">ROUND(PRODUCT(D67:G67),2)</f>
         <v>6</v>
       </c>
       <c r="J67" s="52"/>
@@ -2555,7 +2555,7 @@
     <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
       <c r="B68" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -2580,7 +2580,7 @@
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
       <c r="I69" s="52">
-        <f t="shared" ref="I69" si="8">ROUND(PRODUCT(D69:G69),2)</f>
+        <f t="shared" ref="I69" si="9">ROUND(PRODUCT(D69:G69),2)</f>
         <v>5</v>
       </c>
       <c r="J69" s="52"/>
@@ -2588,7 +2588,7 @@
     <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
       <c r="B70" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -2613,7 +2613,7 @@
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
       <c r="I71" s="52">
-        <f t="shared" ref="I71:I75" si="9">ROUND(PRODUCT(D71:G71),2)</f>
+        <f t="shared" ref="I71:I75" si="10">ROUND(PRODUCT(D71:G71),2)</f>
         <v>5</v>
       </c>
       <c r="J71" s="52"/>
@@ -2621,7 +2621,7 @@
     <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
       <c r="B72" s="56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -2646,7 +2646,7 @@
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
       <c r="I73" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J73" s="52"/>
@@ -2654,7 +2654,7 @@
     <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
       <c r="B74" s="57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="52">
@@ -2665,7 +2665,7 @@
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
       <c r="I74" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J74" s="52"/>
@@ -2673,7 +2673,7 @@
     <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="58"/>
       <c r="B75" s="57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C75" s="51"/>
       <c r="D75" s="52">
@@ -2684,17 +2684,17 @@
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
       <c r="I75" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J75" s="52"/>
     </row>
     <row r="76" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>14</v>
@@ -2727,7 +2727,7 @@
     <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
       <c r="B78" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C78" s="51"/>
       <c r="D78" s="52">
@@ -2746,7 +2746,7 @@
     <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
       <c r="B79" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -2760,7 +2760,7 @@
     <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
       <c r="B80" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C80" s="51"/>
       <c r="D80" s="52">
@@ -2771,7 +2771,7 @@
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
       <c r="I80" s="52">
-        <f t="shared" ref="I80" si="10">ROUND(PRODUCT(D80:G80),2)</f>
+        <f t="shared" ref="I80" si="11">ROUND(PRODUCT(D80:G80),2)</f>
         <v>2</v>
       </c>
       <c r="J80" s="52"/>
@@ -2779,7 +2779,7 @@
     <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
       <c r="B81" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -2793,7 +2793,7 @@
     <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
       <c r="B82" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C82" s="51"/>
       <c r="D82" s="52">
@@ -2804,7 +2804,7 @@
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
       <c r="I82" s="52">
-        <f t="shared" ref="I82" si="11">ROUND(PRODUCT(D82:G82),2)</f>
+        <f t="shared" ref="I82" si="12">ROUND(PRODUCT(D82:G82),2)</f>
         <v>3</v>
       </c>
       <c r="J82" s="52"/>
@@ -2812,7 +2812,7 @@
     <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="58"/>
       <c r="B83" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -2826,7 +2826,7 @@
     <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
       <c r="B84" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C84" s="51"/>
       <c r="D84" s="52">
@@ -2837,7 +2837,7 @@
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
       <c r="I84" s="52">
-        <f t="shared" ref="I84" si="12">ROUND(PRODUCT(D84:G84),2)</f>
+        <f t="shared" ref="I84" si="13">ROUND(PRODUCT(D84:G84),2)</f>
         <v>2</v>
       </c>
       <c r="J84" s="52"/>
@@ -2845,7 +2845,7 @@
     <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
       <c r="B85" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -2859,7 +2859,7 @@
     <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
       <c r="B86" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C86" s="51"/>
       <c r="D86" s="52">
@@ -2870,7 +2870,7 @@
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
       <c r="I86" s="52">
-        <f t="shared" ref="I86" si="13">ROUND(PRODUCT(D86:G86),2)</f>
+        <f t="shared" ref="I86" si="14">ROUND(PRODUCT(D86:G86),2)</f>
         <v>2</v>
       </c>
       <c r="J86" s="52"/>
@@ -2878,7 +2878,7 @@
     <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -2892,7 +2892,7 @@
     <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -2903,7 +2903,7 @@
       <c r="G88" s="51"/>
       <c r="H88" s="51"/>
       <c r="I88" s="52">
-        <f t="shared" ref="I88" si="14">ROUND(PRODUCT(D88:G88),2)</f>
+        <f t="shared" ref="I88" si="15">ROUND(PRODUCT(D88:G88),2)</f>
         <v>1</v>
       </c>
       <c r="J88" s="52"/>
@@ -2911,7 +2911,7 @@
     <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -2925,7 +2925,7 @@
     <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
       <c r="B90" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C90" s="51"/>
       <c r="D90" s="52">
@@ -2936,17 +2936,17 @@
       <c r="G90" s="51"/>
       <c r="H90" s="51"/>
       <c r="I90" s="52">
-        <f t="shared" ref="I90" si="15">ROUND(PRODUCT(D90:G90),2)</f>
+        <f t="shared" ref="I90" si="16">ROUND(PRODUCT(D90:G90),2)</f>
         <v>1</v>
       </c>
       <c r="J90" s="52"/>
     </row>
     <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="69" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B91" s="69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -2959,10 +2959,10 @@
     </row>
     <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B92" s="107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>14</v>
@@ -2980,7 +2980,7 @@
     <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="70"/>
       <c r="B93" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C93" s="51"/>
       <c r="D93" s="52"/>
@@ -2994,7 +2994,7 @@
     <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="52">
@@ -3009,10 +3009,10 @@
     </row>
     <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C95" s="51"/>
       <c r="D95" s="52"/>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B96" s="72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C96" s="51"/>
       <c r="D96" s="52"/>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="97" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>14</v>
@@ -3062,7 +3062,7 @@
     <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
       <c r="B98" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C98" s="51"/>
       <c r="D98" s="52"/>
@@ -3076,7 +3076,7 @@
     <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="58"/>
       <c r="B99" s="57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C99" s="51"/>
       <c r="D99" s="52">
@@ -3087,17 +3087,17 @@
       <c r="G99" s="51"/>
       <c r="H99" s="51"/>
       <c r="I99" s="52">
-        <f t="shared" ref="I99" si="16">ROUND(PRODUCT(D99:G99),2)</f>
+        <f t="shared" ref="I99" si="17">ROUND(PRODUCT(D99:G99),2)</f>
         <v>30</v>
       </c>
       <c r="J99" s="52"/>
     </row>
     <row r="100" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B100" s="73" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>14</v>
@@ -3130,7 +3130,7 @@
     <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="58"/>
       <c r="B102" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C102" s="51"/>
       <c r="D102" s="52">
@@ -3149,7 +3149,7 @@
     <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="58"/>
       <c r="B103" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -3163,7 +3163,7 @@
     <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="58"/>
       <c r="B104" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C104" s="51"/>
       <c r="D104" s="52">
@@ -3174,7 +3174,7 @@
       <c r="G104" s="51"/>
       <c r="H104" s="51"/>
       <c r="I104" s="52">
-        <f t="shared" ref="I104" si="17">ROUND(PRODUCT(D104:G104),2)</f>
+        <f t="shared" ref="I104" si="18">ROUND(PRODUCT(D104:G104),2)</f>
         <v>235</v>
       </c>
       <c r="J104" s="52"/>
@@ -3182,7 +3182,7 @@
     <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="58"/>
       <c r="B105" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -3196,7 +3196,7 @@
     <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="58"/>
       <c r="B106" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C106" s="51"/>
       <c r="D106" s="52">
@@ -3207,7 +3207,7 @@
       <c r="G106" s="51"/>
       <c r="H106" s="51"/>
       <c r="I106" s="52">
-        <f t="shared" ref="I106" si="18">ROUND(PRODUCT(D106:G106),2)</f>
+        <f t="shared" ref="I106" si="19">ROUND(PRODUCT(D106:G106),2)</f>
         <v>345</v>
       </c>
       <c r="J106" s="52"/>
@@ -3215,7 +3215,7 @@
     <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="58"/>
       <c r="B107" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C107" s="51"/>
       <c r="D107" s="52"/>
@@ -3229,7 +3229,7 @@
     <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="58"/>
       <c r="B108" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C108" s="51"/>
       <c r="D108" s="52">
@@ -3240,7 +3240,7 @@
       <c r="G108" s="51"/>
       <c r="H108" s="51"/>
       <c r="I108" s="52">
-        <f t="shared" ref="I108" si="19">ROUND(PRODUCT(D108:G108),2)</f>
+        <f t="shared" ref="I108" si="20">ROUND(PRODUCT(D108:G108),2)</f>
         <v>150</v>
       </c>
       <c r="J108" s="52"/>
@@ -3248,7 +3248,7 @@
     <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="58"/>
       <c r="B109" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
@@ -3262,7 +3262,7 @@
     <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="58"/>
       <c r="B110" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C110" s="51"/>
       <c r="D110" s="52">
@@ -3273,7 +3273,7 @@
       <c r="G110" s="51"/>
       <c r="H110" s="51"/>
       <c r="I110" s="52">
-        <f t="shared" ref="I110" si="20">ROUND(PRODUCT(D110:G110),2)</f>
+        <f t="shared" ref="I110" si="21">ROUND(PRODUCT(D110:G110),2)</f>
         <v>317</v>
       </c>
       <c r="J110" s="52"/>
@@ -3281,7 +3281,7 @@
     <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
       <c r="B111" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
@@ -3295,7 +3295,7 @@
     <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
       <c r="B112" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C112" s="51"/>
       <c r="D112" s="52">
@@ -3306,7 +3306,7 @@
       <c r="G112" s="51"/>
       <c r="H112" s="51"/>
       <c r="I112" s="52">
-        <f t="shared" ref="I112" si="21">ROUND(PRODUCT(D112:G112),2)</f>
+        <f t="shared" ref="I112" si="22">ROUND(PRODUCT(D112:G112),2)</f>
         <v>279</v>
       </c>
       <c r="J112" s="52"/>
@@ -3314,7 +3314,7 @@
     <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="58"/>
       <c r="B113" s="56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C113" s="51"/>
       <c r="D113" s="52"/>
@@ -3328,7 +3328,7 @@
     <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="58"/>
       <c r="B114" s="57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C114" s="51"/>
       <c r="D114" s="52">
@@ -3339,7 +3339,7 @@
       <c r="G114" s="51"/>
       <c r="H114" s="51"/>
       <c r="I114" s="52">
-        <f t="shared" ref="I114" si="22">ROUND(PRODUCT(D114:G114),2)</f>
+        <f t="shared" ref="I114" si="23">ROUND(PRODUCT(D114:G114),2)</f>
         <v>95</v>
       </c>
       <c r="J114" s="52"/>
@@ -3725,11 +3725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3912A-C8F7-4029-AE54-522015EA0FE3}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3749,7 +3749,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="113" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -3862,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="44"/>
@@ -3878,7 +3878,7 @@
         <v>6.9</v>
       </c>
       <c r="B9" s="99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52"/>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52">
@@ -3930,10 +3930,10 @@
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52"/>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>12</v>
@@ -4016,7 +4016,7 @@
     <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
@@ -4049,7 +4049,7 @@
     <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
@@ -4082,7 +4082,7 @@
     <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
       <c r="B21" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
@@ -4115,7 +4115,7 @@
     <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
       <c r="B23" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -4148,7 +4148,7 @@
     <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
       <c r="B25" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AC99D-CD3E-4CAC-91E1-A39D4B67E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A7A38F-55A1-4655-9C94-A096B7B27EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5265" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MM!$A$1:$J$340</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>PROYECTO:</t>
   </si>
@@ -98,9 +98,6 @@
     <t>CABLE F/UTP CAT 6A</t>
   </si>
   <si>
-    <t>SISTEMA DE PROCESAMIENTO Y ALMACENAMIENTO CENTRALIZADO</t>
-  </si>
-  <si>
     <t>SISTEMA DE CONECTIVIDAD Y SEGURIDAD INFORMÁTICA</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
   </si>
   <si>
     <t>SISTEMA DE CABLEADO ESTRUCTURADO Y CENTRO DE DATOS</t>
-  </si>
-  <si>
-    <t>PATCH PANEL</t>
-  </si>
-  <si>
-    <t>PATCH CORD CAT 6A LSZH, 14 PIES</t>
   </si>
   <si>
     <t>SEMISOTANO</t>
@@ -166,29 +157,10 @@
     <t>SISTEMA DE SONIDO AMBIENTAL Y PERIFONEO.</t>
   </si>
   <si>
-    <t>SISTEMA DE SONIDO PARA AUDITORIO</t>
-  </si>
-  <si>
     <t>6.9.1</t>
   </si>
   <si>
     <t>04.02</t>
-  </si>
-  <si>
-    <t>04.02.06</t>
-  </si>
-  <si>
-    <t>APARATOS/DISPOSITIVOS DE SISTEMA DE NOTIFICACIÓN DE EMERGENCIAS Y
-AUDIO EVACUACIÓN</t>
-  </si>
-  <si>
-    <t>04.02.06.04</t>
-  </si>
-  <si>
-    <t>PARLANTE AMBIENTAL</t>
-  </si>
-  <si>
-    <t>04.02.07</t>
   </si>
   <si>
     <t>04.02.07.01</t>
@@ -242,9 +214,6 @@
     <t>04.01.02</t>
   </si>
   <si>
-    <t xml:space="preserve">      RACK/GABINETE DE TELECOMUNICACIONES</t>
-  </si>
-  <si>
     <t xml:space="preserve">         GABINETE PRINCIPAL DE COMUNICACIONES (DATA CENTER)</t>
   </si>
   <si>
@@ -254,16 +223,10 @@
     <t>SALA DE REGIDORES</t>
   </si>
   <si>
-    <t>ETIQUETA IDENTIFICADORA PARA PUNTO DE RED 0.12MM X .10CM</t>
-  </si>
-  <si>
     <t>04.09.02</t>
   </si>
   <si>
     <t>04.09.02.01</t>
-  </si>
-  <si>
-    <t>04.09</t>
   </si>
   <si>
     <t>04.09.01</t>
@@ -272,25 +235,58 @@
     <t>04.09.01.01</t>
   </si>
   <si>
-    <t>04.09.03</t>
-  </si>
-  <si>
-    <t>04.09.03.01</t>
-  </si>
-  <si>
-    <t>04.09.03.02</t>
-  </si>
-  <si>
     <t>04.06</t>
-  </si>
-  <si>
-    <t>04.05</t>
   </si>
   <si>
     <t>04.06.01</t>
   </si>
   <si>
     <t>04.06.02</t>
+  </si>
+  <si>
+    <t>SOLUCIONES DE TECNOLOGÍA DE INFORMACIÓN Y COMUNICACIÓN (TIC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SISTEMA DE PROCESAMIENTO Y ALMACENAMIENTO CENTRALIZADO</t>
+  </si>
+  <si>
+    <t>04.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARLANTE AMBIENTAL </t>
+  </si>
+  <si>
+    <t>04.02.01</t>
+  </si>
+  <si>
+    <t>SISTEMA DE ENERGIA ELECTRICA PARA CUARTO DE TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>04.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         INSUMOS PARA INSTALACIONES ELECTRICAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         HERRAMIENTAS MANUALES</t>
+  </si>
+  <si>
+    <t>CUARTO DE TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>04.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SISTEMA DE SONIDO PARA AUDITORIO</t>
+  </si>
+  <si>
+    <t>RACK/GABINETE DE TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>04.02.02</t>
+  </si>
+  <si>
+    <t>SISTEMA DE  ACCESO INALAMBRICO Y CONECTIVIDAD</t>
   </si>
 </sst>
 </file>
@@ -301,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,15 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -597,6 +584,28 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="72"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,7 +732,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -844,20 +853,17 @@
     <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,180 +872,168 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1049,23 +1043,56 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="40"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1386,10 +1413,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD61"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,2296 +1440,2759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="112"/>
+      <c r="A1" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="77" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="89"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="A9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="90">
+      <c r="D10" s="47"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="90"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48">
+      <c r="A12" s="59"/>
+      <c r="B12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47">
         <v>2</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="52">
+      <c r="E12" s="52"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="49">
         <f t="shared" ref="I12" si="0">ROUND(PRODUCT(D12:G12),2)</f>
         <v>2</v>
       </c>
-      <c r="J12" s="90"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52">
+      <c r="D13" s="49"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="52">
+      <c r="A15" s="55"/>
+      <c r="B15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="49">
         <v>1</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49">
         <f t="shared" ref="I15" si="1">ROUND(PRODUCT(D15:G15),2)</f>
         <v>1</v>
       </c>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="85">
+        <f>SUM(D19,I19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49">
+        <f t="shared" ref="I19" si="2">ROUND(PRODUCT(D19:G19),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="85">
+        <f>SUM(I22:I34)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49">
+        <v>1</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49">
+        <f>ROUND(PRODUCT(D22:G22),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49">
+        <v>2</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49">
+        <f t="shared" ref="I24" si="3">ROUND(PRODUCT(D24:G24),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="49"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49">
+        <f t="shared" ref="I26" si="4">ROUND(PRODUCT(D26:G26),2)</f>
+        <v>3</v>
+      </c>
+      <c r="J26" s="49"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49">
+        <v>2</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49">
+        <f t="shared" ref="I28" si="5">ROUND(PRODUCT(D28:G28),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49">
+        <v>2</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49">
+        <f t="shared" ref="I30" si="6">ROUND(PRODUCT(D30:G30),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49">
+        <v>1</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49">
+        <f t="shared" ref="I32" si="7">ROUND(PRODUCT(D32:G32),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="49"/>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49">
+        <v>1</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49">
+        <f t="shared" ref="I34" si="8">ROUND(PRODUCT(D34:G34),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="49"/>
+    </row>
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="49">
+        <v>1</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="85">
+        <f>SUM(D42:D56)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="85"/>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47">
+        <v>4</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="49">
+        <f t="shared" ref="I42" si="9">ROUND(PRODUCT(D42:G42),2)</f>
+        <v>4</v>
+      </c>
+      <c r="J42" s="85"/>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="85"/>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47">
+        <v>5</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="49">
+        <f t="shared" ref="I44" si="10">ROUND(PRODUCT(D44:G44),2)</f>
+        <v>5</v>
+      </c>
+      <c r="J44" s="85"/>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="85"/>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47">
+        <v>6</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="49">
+        <f t="shared" ref="I46" si="11">ROUND(PRODUCT(D46:G46),2)</f>
+        <v>6</v>
+      </c>
+      <c r="J46" s="85"/>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49">
+        <v>6</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49">
+        <f t="shared" ref="I48" si="12">ROUND(PRODUCT(D48:G48),2)</f>
+        <v>6</v>
+      </c>
+      <c r="J48" s="49"/>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49">
+        <v>5</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49">
+        <f t="shared" ref="I50" si="13">ROUND(PRODUCT(D50:G50),2)</f>
+        <v>5</v>
+      </c>
+      <c r="J50" s="49"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49">
+        <v>5</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49">
+        <f t="shared" ref="I52" si="14">ROUND(PRODUCT(D52:G52),2)</f>
+        <v>5</v>
+      </c>
+      <c r="J52" s="49"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49">
+        <v>1</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49">
+        <f t="shared" ref="I54:I56" si="15">ROUND(PRODUCT(D54:G54),2)</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="49"/>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49">
+        <v>1</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="49"/>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49">
+        <v>1</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="49"/>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="B59" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49">
+        <v>1</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49">
+        <v>1</v>
+      </c>
+      <c r="J59" s="49"/>
+    </row>
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+    </row>
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49">
+        <v>1</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49">
+        <v>1</v>
+      </c>
+      <c r="J61" s="49"/>
+    </row>
+    <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="85"/>
+    </row>
+    <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="85"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="85">
+        <f>SUM(I65:I79)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="49">
+        <v>8</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49">
+        <f t="shared" ref="I66:I78" si="16">ROUND(PRODUCT(D66:G66),2)</f>
+        <v>8</v>
+      </c>
+      <c r="J66" s="49"/>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+      <c r="B67" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="B68" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="49">
+        <v>4</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J68" s="49"/>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="49">
+        <v>4</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J70" s="49"/>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="49">
+        <v>4</v>
+      </c>
+      <c r="E72" s="48"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J72" s="49"/>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
+      <c r="B73" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50"/>
+      <c r="B74" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="49">
+        <v>4</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J74" s="49"/>
+    </row>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+    </row>
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
+      <c r="B76" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="52"/>
+      <c r="D76" s="49">
+        <v>4</v>
+      </c>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J76" s="49"/>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+    </row>
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="49">
+        <v>4</v>
+      </c>
+      <c r="E78" s="48"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="49">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J78" s="49"/>
+    </row>
+    <row r="79" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="47"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50"/>
+      <c r="B80" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="52"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="85"/>
+    </row>
+    <row r="81" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50"/>
+      <c r="B81" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="47">
+        <v>2</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="49">
+        <f t="shared" ref="I81:I96" si="17">ROUND(PRODUCT(D81:G81),2)</f>
+        <v>2</v>
+      </c>
+      <c r="J81" s="49"/>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="90"/>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="C82" s="52"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+      <c r="B83" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="D84" s="49">
+        <v>2</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="49">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="J84" s="49"/>
+    </row>
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B85" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="90"/>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="C85" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="49"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+      <c r="B86" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+    </row>
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50"/>
+      <c r="B87" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="49">
+        <v>1</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="49">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="49"/>
+    </row>
+    <row r="88" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B88" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C88" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="90">
-        <f t="shared" ref="J18" si="2">SUM(I19:I34)</f>
+      <c r="D88" s="47"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="85"/>
+    </row>
+    <row r="89" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="B89" s="53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="52">
-        <v>8</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52">
-        <f t="shared" ref="I20:I32" si="3">ROUND(PRODUCT(D20:G20),2)</f>
-        <v>8</v>
-      </c>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="52">
+      <c r="C89" s="52"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+      <c r="B90" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="47">
+        <v>2</v>
+      </c>
+      <c r="E90" s="52"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="49">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="J90" s="85"/>
+    </row>
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+    </row>
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
+      <c r="B92" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="52"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49">
         <v>4</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
+      <c r="B93" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="49">
         <v>4</v>
       </c>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="52">
+      <c r="E93" s="48"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="49">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J24" s="52"/>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="56" t="s">
+      <c r="J93" s="49"/>
+    </row>
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+    </row>
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+      <c r="B95" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="52">
-        <v>4</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J26" s="52"/>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="52">
-        <v>4</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="56" t="s">
+      <c r="C95" s="52"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+    </row>
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
+      <c r="B96" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="52"/>
+      <c r="D96" s="49">
+        <v>6</v>
+      </c>
+      <c r="E96" s="48"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="49">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="J96" s="49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="52">
-        <v>4</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="52">
-        <v>4</v>
-      </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="55" t="s">
+      <c r="C97" s="52"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="85"/>
+    </row>
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="52"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+    </row>
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="90"/>
-    </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="48">
-        <v>2</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="52">
-        <f t="shared" ref="I36:I51" si="4">ROUND(PRODUCT(D36:G36),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="52">
-        <v>2</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="52">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="90"/>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="48">
-        <v>2</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="52">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J45" s="90"/>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="52">
-        <v>4</v>
-      </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-    </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="52">
-        <v>6</v>
-      </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="52">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J51" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="90"/>
-    </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="52">
+      <c r="D99" s="49">
         <v>10</v>
       </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="52">
-        <f t="shared" ref="I54" si="5">ROUND(PRODUCT(D54:G54),2)</f>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="49">
+        <f t="shared" ref="I99" si="18">ROUND(PRODUCT(D99:G99),2)</f>
         <v>10</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J99" s="49">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-    </row>
-    <row r="56" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="90">
-        <f>SUM(D58,I58)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-    </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52">
-        <v>1</v>
-      </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52">
-        <f t="shared" ref="I58" si="6">ROUND(PRODUCT(D58:G58),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J58" s="52"/>
-    </row>
-    <row r="59" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="90">
-        <f>SUM(D61:D75)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="90"/>
-    </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="48">
-        <v>4</v>
-      </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="52">
-        <f t="shared" ref="I61:I65" si="7">ROUND(PRODUCT(D61:G61),2)</f>
-        <v>4</v>
-      </c>
-      <c r="J61" s="90"/>
-    </row>
-    <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="90"/>
-    </row>
-    <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48">
-        <v>5</v>
-      </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="52">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="J63" s="90"/>
-    </row>
-    <row r="64" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="90"/>
-    </row>
-    <row r="65" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48">
-        <v>6</v>
-      </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="52">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="J65" s="90"/>
-    </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-    </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="52">
-        <v>6</v>
-      </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="52">
-        <f t="shared" ref="I67" si="8">ROUND(PRODUCT(D67:G67),2)</f>
-        <v>6</v>
-      </c>
-      <c r="J67" s="52"/>
-    </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-    </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="52">
-        <v>5</v>
-      </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="52">
-        <f t="shared" ref="I69" si="9">ROUND(PRODUCT(D69:G69),2)</f>
-        <v>5</v>
-      </c>
-      <c r="J69" s="52"/>
-    </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-    </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="52">
-        <v>5</v>
-      </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52">
-        <f t="shared" ref="I71:I75" si="10">ROUND(PRODUCT(D71:G71),2)</f>
-        <v>5</v>
-      </c>
-      <c r="J71" s="52"/>
-    </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-    </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52">
-        <v>1</v>
-      </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J73" s="52"/>
-    </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="52">
-        <v>1</v>
-      </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="52">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J74" s="52"/>
-    </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="52">
-        <v>1</v>
-      </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="52">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J75" s="52"/>
-    </row>
-    <row r="76" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="90">
-        <f>SUM(I78:I90)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-    </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52">
-        <v>1</v>
-      </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52">
-        <f>ROUND(PRODUCT(D78:G78),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J78" s="52"/>
-    </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-    </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
-      <c r="B80" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="52">
-        <v>2</v>
-      </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52">
-        <f t="shared" ref="I80" si="11">ROUND(PRODUCT(D80:G80),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J80" s="52"/>
-    </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
-      <c r="B81" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-    </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
-      <c r="B82" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="52">
-        <v>3</v>
-      </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="52">
-        <f t="shared" ref="I82" si="12">ROUND(PRODUCT(D82:G82),2)</f>
-        <v>3</v>
-      </c>
-      <c r="J82" s="52"/>
-    </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
-      <c r="B83" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-    </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
-      <c r="B84" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52">
-        <v>2</v>
-      </c>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="52">
-        <f t="shared" ref="I84" si="13">ROUND(PRODUCT(D84:G84),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J84" s="52"/>
-    </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-      <c r="B85" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-    </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
-      <c r="B86" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52">
-        <v>2</v>
-      </c>
-      <c r="E86" s="51"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="52">
-        <f t="shared" ref="I86" si="14">ROUND(PRODUCT(D86:G86),2)</f>
-        <v>2</v>
-      </c>
-      <c r="J86" s="52"/>
-    </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-      <c r="B87" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-    </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
-      <c r="B88" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52">
-        <v>1</v>
-      </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="52">
-        <f t="shared" ref="I88" si="15">ROUND(PRODUCT(D88:G88),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J88" s="52"/>
-    </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
-    </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-      <c r="B90" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="52">
-        <v>1</v>
-      </c>
-      <c r="E90" s="51"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="52">
-        <f t="shared" ref="I90" si="16">ROUND(PRODUCT(D90:G90),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J90" s="52"/>
-    </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-    </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
-      <c r="B93" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="51"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
-    </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="52">
-        <v>1</v>
-      </c>
-      <c r="E94" s="51"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-    </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-    </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-    </row>
-    <row r="97" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="51"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-    </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-      <c r="B99" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="52">
-        <v>30</v>
-      </c>
-      <c r="E99" s="51"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="52">
-        <f t="shared" ref="I99" si="17">ROUND(PRODUCT(D99:G99),2)</f>
-        <v>30</v>
-      </c>
-      <c r="J99" s="52"/>
-    </row>
-    <row r="100" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="48"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="90">
-        <f>SUM(D102:D114)</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
-      <c r="B101" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+    </row>
+    <row r="101" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="60"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="85"/>
     </row>
     <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
-      <c r="B102" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="52">
-        <v>79</v>
-      </c>
-      <c r="E102" s="51"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52">
-        <f>ROUND(PRODUCT(D102:G102),2)</f>
-        <v>79</v>
-      </c>
-      <c r="J102" s="52"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
     </row>
     <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-      <c r="B103" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-    </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
-      <c r="B104" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="51"/>
-      <c r="D104" s="52">
-        <v>235</v>
-      </c>
-      <c r="E104" s="51"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="52">
-        <f t="shared" ref="I104" si="18">ROUND(PRODUCT(D104:G104),2)</f>
-        <v>235</v>
-      </c>
-      <c r="J104" s="52"/>
-    </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
-      <c r="B105" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-    </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
-      <c r="B106" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="52">
-        <v>345</v>
-      </c>
-      <c r="E106" s="51"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="52">
-        <f t="shared" ref="I106" si="19">ROUND(PRODUCT(D106:G106),2)</f>
-        <v>345</v>
-      </c>
-      <c r="J106" s="52"/>
-    </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-      <c r="B107" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
-    </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
-      <c r="B108" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="51"/>
-      <c r="D108" s="52">
-        <v>150</v>
-      </c>
-      <c r="E108" s="51"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="52">
-        <f t="shared" ref="I108" si="20">ROUND(PRODUCT(D108:G108),2)</f>
-        <v>150</v>
-      </c>
-      <c r="J108" s="52"/>
-    </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
-      <c r="B109" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
-    </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-      <c r="B110" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="52">
-        <v>317</v>
-      </c>
-      <c r="E110" s="51"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="52">
-        <f t="shared" ref="I110" si="21">ROUND(PRODUCT(D110:G110),2)</f>
-        <v>317</v>
-      </c>
-      <c r="J110" s="52"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+    </row>
+    <row r="104" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="60"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="85"/>
+    </row>
+    <row r="105" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="62"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="85"/>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="62"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="85"/>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="62"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="85"/>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="62"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="85"/>
+    </row>
+    <row r="109" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="62"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="85"/>
+    </row>
+    <row r="110" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="62"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="85"/>
     </row>
     <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-      <c r="B111" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
     </row>
     <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="52">
-        <v>279</v>
-      </c>
-      <c r="E112" s="51"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="52">
-        <f t="shared" ref="I112" si="22">ROUND(PRODUCT(D112:G112),2)</f>
-        <v>279</v>
-      </c>
-      <c r="J112" s="52"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
     </row>
     <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
-      <c r="B113" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
     </row>
     <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
-      <c r="B114" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="52">
-        <v>95</v>
-      </c>
-      <c r="E114" s="51"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="52">
-        <f t="shared" ref="I114" si="23">ROUND(PRODUCT(D114:G114),2)</f>
-        <v>95</v>
-      </c>
-      <c r="J114" s="52"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="39"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="39"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="39"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="39"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="39"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="39"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="39"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="39"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="39"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="39"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="39"/>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="39"/>
-      <c r="J135" s="39"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="39"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="39"/>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="39"/>
-      <c r="J138" s="39"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="39"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="39"/>
-      <c r="J141" s="39"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="39"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="39"/>
-      <c r="J143" s="39"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="39"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+    </row>
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+    </row>
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="55"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+    </row>
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="55"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+    </row>
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="55"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+    </row>
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="55"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+    </row>
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="55"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+    </row>
+    <row r="121" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="60"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="85"/>
+    </row>
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="55"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
+    </row>
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="55"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49"/>
+    </row>
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="55"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="49"/>
+    </row>
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="55"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
+    </row>
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="49"/>
+      <c r="J126" s="49"/>
+    </row>
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="55"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="49"/>
+    </row>
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="55"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
+    </row>
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="55"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="49"/>
+    </row>
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="55"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="49"/>
+    </row>
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="55"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="49"/>
+    </row>
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="55"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="49"/>
+    </row>
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="55"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="49"/>
+    </row>
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="55"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="49"/>
+    </row>
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="55"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
+    </row>
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
+    </row>
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="65"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="49"/>
+    </row>
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="65"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="49"/>
+    </row>
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="55"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="49"/>
+    </row>
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="56"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="49"/>
+      <c r="J140" s="49"/>
+    </row>
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="66"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="48"/>
+      <c r="I141" s="49"/>
+      <c r="J141" s="49"/>
+    </row>
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="62"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="85"/>
+    </row>
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="55"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="49"/>
+      <c r="J143" s="49"/>
+    </row>
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="55"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="49"/>
+      <c r="J144" s="49"/>
+    </row>
+    <row r="145" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="62"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="85"/>
+    </row>
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="55"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="49"/>
+    </row>
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="55"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
+    </row>
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+    </row>
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="55"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+    </row>
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="55"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="49"/>
+      <c r="J150" s="49"/>
+    </row>
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="55"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="49"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="49"/>
+      <c r="J151" s="49"/>
+    </row>
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="55"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="49"/>
+      <c r="J152" s="49"/>
+    </row>
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="55"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="49"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="49"/>
+      <c r="J153" s="49"/>
+    </row>
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="55"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="49"/>
+      <c r="J154" s="49"/>
+    </row>
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="55"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="49"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="49"/>
+      <c r="J155" s="49"/>
+    </row>
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="55"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="49"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="49"/>
+      <c r="J156" s="49"/>
+    </row>
+    <row r="157" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="55"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="49"/>
+      <c r="J157" s="49"/>
+    </row>
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="55"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="49"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="49"/>
+    </row>
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="55"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="48"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="39"/>
+      <c r="J160" s="39"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="39"/>
+      <c r="J161" s="39"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="39"/>
+      <c r="J162" s="39"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="39"/>
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="39"/>
+      <c r="J164" s="39"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="39"/>
+      <c r="J165" s="39"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="39"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="39"/>
+      <c r="J167" s="39"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="39"/>
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="39"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="39"/>
+      <c r="J169" s="39"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="39"/>
+      <c r="J170" s="39"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="39"/>
+      <c r="J171" s="39"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="39"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="39"/>
+      <c r="J173" s="39"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="39"/>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="39"/>
+      <c r="J176" s="39"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="39"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="39"/>
+      <c r="J177" s="39"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="39"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="39"/>
+      <c r="J178" s="39"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="39"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="39"/>
+      <c r="J180" s="39"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="39"/>
+      <c r="J181" s="39"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="39"/>
+      <c r="J182" s="39"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="39"/>
+      <c r="J183" s="39"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="39"/>
+      <c r="J184" s="39"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="39"/>
+      <c r="J185" s="39"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="39"/>
+      <c r="J186" s="39"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="39"/>
+      <c r="J187" s="39"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="39"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="39"/>
+      <c r="J188" s="39"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="39"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="39"/>
+      <c r="J189" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3716,7 +4206,7 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="111" max="9" man="1"/>
+    <brk id="156" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3725,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3912A-C8F7-4029-AE54-522015EA0FE3}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -3748,459 +4238,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="81"/>
+    </row>
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="90">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="92"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="93">
+        <v>6.9</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="95"/>
+    </row>
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="95">
-        <v>6</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="97"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
-        <v>6.9</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="100"/>
-    </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="55"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52">
+      <c r="A11" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49">
         <v>330</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49">
         <f t="shared" ref="I11" si="0">ROUND(PRODUCT(D11:G11),2)</f>
         <v>330</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="49">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="90">
+      <c r="D14" s="47"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="85">
         <f>SUM(I16:I26)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52">
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49">
         <v>200</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49">
         <f>ROUND(PRODUCT(D16:G16),2)</f>
         <v>200</v>
       </c>
-      <c r="J16" s="52"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="57" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52">
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49">
         <v>300</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49">
         <f t="shared" ref="I18" si="1">ROUND(PRODUCT(D18:G18),2)</f>
         <v>300</v>
       </c>
-      <c r="J18" s="52"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52">
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49">
         <v>3000</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49">
         <f t="shared" ref="I20" si="2">ROUND(PRODUCT(D20:G20),2)</f>
         <v>3000</v>
       </c>
-      <c r="J20" s="52"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49">
         <v>2500</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49">
         <f t="shared" ref="I22" si="3">ROUND(PRODUCT(D22:G22),2)</f>
         <v>2500</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52">
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49">
         <v>1500</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52">
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49">
         <f t="shared" ref="I24" si="4">ROUND(PRODUCT(D24:G24),2)</f>
         <v>1500</v>
       </c>
-      <c r="J24" s="52"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52">
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49">
         <v>2500</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52">
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49">
         <f t="shared" ref="I26" si="5">ROUND(PRODUCT(D26:G26),2)</f>
         <v>2500</v>
       </c>
-      <c r="J26" s="52"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="105"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="100"/>
     </row>
     <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="55"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A7A38F-55A1-4655-9C94-A096B7B27EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC24F48-6C2A-4C14-8833-1EB2A926D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -1037,30 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1093,6 +1069,30 @@
     <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1415,8 +1415,8 @@
   </sheetPr>
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,18 +1440,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
@@ -1469,29 +1469,29 @@
       <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="69"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
@@ -1569,7 +1569,7 @@
       <c r="A9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="103" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="48"/>
@@ -2011,7 +2011,7 @@
       <c r="A35" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="109" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="48"/>
@@ -2074,10 +2074,10 @@
       <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="110" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="46"/>
@@ -2380,7 +2380,7 @@
       <c r="J56" s="49"/>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="104" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -2397,7 +2397,7 @@
     </row>
     <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="105" t="s">
         <v>77</v>
       </c>
       <c r="C58" s="48"/>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="48"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="105" t="s">
         <v>78</v>
       </c>
       <c r="C60" s="48"/>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="106" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="48"/>
@@ -2478,10 +2478,10 @@
       <c r="J62" s="85"/>
     </row>
     <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="108" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="46"/>
@@ -4215,11 +4215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3912A-C8F7-4029-AE54-522015EA0FE3}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,18 +4238,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
@@ -4267,29 +4267,29 @@
       <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="69"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC24F48-6C2A-4C14-8833-1EB2A926D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D2D68-7A4D-4EAF-B1FC-4623E5EC4F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
     <sheet name="MM" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PN!$A$6:$J$159</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">MM!$A$1:$J$340</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$159</definedName>
   </definedNames>
@@ -25,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>PROYECTO:</t>
   </si>
@@ -262,9 +272,6 @@
     <t>SISTEMA DE ENERGIA ELECTRICA PARA CUARTO DE TELECOMUNICACIONES</t>
   </si>
   <si>
-    <t>04.02.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">         INSUMOS PARA INSTALACIONES ELECTRICAS </t>
   </si>
   <si>
@@ -283,10 +290,13 @@
     <t>RACK/GABINETE DE TELECOMUNICACIONES</t>
   </si>
   <si>
-    <t>04.02.02</t>
+    <t>SISTEMA DE  ACCESO INALAMBRICO Y CONECTIVIDAD</t>
   </si>
   <si>
-    <t>SISTEMA DE  ACCESO INALAMBRICO Y CONECTIVIDAD</t>
+    <t>04.07.01</t>
+  </si>
+  <si>
+    <t>04.07.02</t>
   </si>
 </sst>
 </file>
@@ -1415,31 +1425,31 @@
   </sheetPr>
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="114" t="s">
         <v>39</v>
       </c>
@@ -1453,7 +1463,7 @@
       <c r="I1" s="115"/>
       <c r="J1" s="116"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
@@ -1465,7 +1475,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="73"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1491,7 @@
       <c r="I3" s="112"/>
       <c r="J3" s="113"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="69"/>
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
@@ -1493,7 +1503,7 @@
       <c r="I4" s="112"/>
       <c r="J4" s="113"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="74"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -1505,7 +1515,7 @@
       <c r="I5" s="72"/>
       <c r="J5" s="73"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -1549,7 +1559,7 @@
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>4</v>
       </c>
@@ -1565,7 +1575,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="84"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>72</v>
       </c>
@@ -1581,7 +1591,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>58</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="51"/>
       <c r="C11" s="46"/>
@@ -1613,7 +1623,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="54" t="s">
         <v>33</v>
@@ -1632,7 +1642,7 @@
       </c>
       <c r="J12" s="85"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>59</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="53" t="s">
         <v>27</v>
@@ -1666,7 +1676,7 @@
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" s="54" t="s">
         <v>33</v>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1711,7 @@
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>68</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -1736,7 +1746,7 @@
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="54" t="s">
         <v>33</v>
@@ -1755,7 +1765,7 @@
       </c>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
         <v>17</v>
       </c>
@@ -1776,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="53" t="s">
         <v>13</v>
@@ -1790,7 +1800,7 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" s="54" t="s">
         <v>35</v>
@@ -1809,7 +1819,7 @@
       </c>
       <c r="J22" s="49"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55"/>
       <c r="B23" s="53" t="s">
         <v>27</v>
@@ -1823,7 +1833,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55"/>
       <c r="B24" s="54" t="s">
         <v>35</v>
@@ -1842,7 +1852,7 @@
       </c>
       <c r="J24" s="49"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
       <c r="B25" s="53" t="s">
         <v>28</v>
@@ -1856,7 +1866,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55"/>
       <c r="B26" s="54" t="s">
         <v>35</v>
@@ -1875,7 +1885,7 @@
       </c>
       <c r="J26" s="49"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55"/>
       <c r="B27" s="53" t="s">
         <v>29</v>
@@ -1889,7 +1899,7 @@
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55"/>
       <c r="B28" s="54" t="s">
         <v>35</v>
@@ -1908,7 +1918,7 @@
       </c>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55"/>
       <c r="B29" s="53" t="s">
         <v>30</v>
@@ -1922,7 +1932,7 @@
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55"/>
       <c r="B30" s="54" t="s">
         <v>35</v>
@@ -1941,7 +1951,7 @@
       </c>
       <c r="J30" s="49"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55"/>
       <c r="B31" s="53" t="s">
         <v>31</v>
@@ -1955,7 +1965,7 @@
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55"/>
       <c r="B32" s="54" t="s">
         <v>35</v>
@@ -1974,7 +1984,7 @@
       </c>
       <c r="J32" s="49"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55"/>
       <c r="B33" s="53" t="s">
         <v>32</v>
@@ -1988,7 +1998,7 @@
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
       <c r="B34" s="54" t="s">
         <v>35</v>
@@ -2007,12 +2017,12 @@
       </c>
       <c r="J34" s="49"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="99" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="49"/>
@@ -2023,7 +2033,7 @@
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="53" t="s">
         <v>27</v>
@@ -2057,7 +2067,7 @@
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" s="54" t="s">
         <v>33</v>
@@ -2073,12 +2083,12 @@
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="111" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B39" s="110" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="49"/>
@@ -2089,7 +2099,7 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>69</v>
       </c>
@@ -2110,7 +2120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="53" t="s">
         <v>13</v>
@@ -2124,7 +2134,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="85"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62"/>
       <c r="B42" s="54" t="s">
         <v>15</v>
@@ -2143,7 +2153,7 @@
       </c>
       <c r="J42" s="85"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
       <c r="B43" s="53" t="s">
         <v>27</v>
@@ -2157,7 +2167,7 @@
       <c r="I43" s="49"/>
       <c r="J43" s="85"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62"/>
       <c r="B44" s="54" t="s">
         <v>15</v>
@@ -2176,7 +2186,7 @@
       </c>
       <c r="J44" s="85"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="62"/>
       <c r="B45" s="53" t="s">
         <v>28</v>
@@ -2190,7 +2200,7 @@
       <c r="I45" s="49"/>
       <c r="J45" s="85"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
       <c r="B46" s="54" t="s">
         <v>15</v>
@@ -2209,7 +2219,7 @@
       </c>
       <c r="J46" s="85"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55"/>
       <c r="B47" s="53" t="s">
         <v>29</v>
@@ -2223,7 +2233,7 @@
       <c r="I47" s="49"/>
       <c r="J47" s="49"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55"/>
       <c r="B48" s="54" t="s">
         <v>15</v>
@@ -2242,7 +2252,7 @@
       </c>
       <c r="J48" s="49"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55"/>
       <c r="B49" s="53" t="s">
         <v>30</v>
@@ -2256,7 +2266,7 @@
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="55"/>
       <c r="B50" s="54" t="s">
         <v>15</v>
@@ -2275,7 +2285,7 @@
       </c>
       <c r="J50" s="49"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55"/>
       <c r="B51" s="53" t="s">
         <v>31</v>
@@ -2289,7 +2299,7 @@
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55"/>
       <c r="B52" s="54" t="s">
         <v>15</v>
@@ -2308,7 +2318,7 @@
       </c>
       <c r="J52" s="49"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55"/>
       <c r="B53" s="53" t="s">
         <v>32</v>
@@ -2322,7 +2332,7 @@
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55"/>
       <c r="B54" s="54" t="s">
         <v>16</v>
@@ -2341,7 +2351,7 @@
       </c>
       <c r="J54" s="49"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55"/>
       <c r="B55" s="54" t="s">
         <v>61</v>
@@ -2360,7 +2370,7 @@
       </c>
       <c r="J55" s="49"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55"/>
       <c r="B56" s="54" t="s">
         <v>62</v>
@@ -2379,9 +2389,9 @@
       </c>
       <c r="J56" s="49"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="104" t="s">
-        <v>76</v>
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="104">
+        <v>4.07</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>75</v>
@@ -2395,12 +2405,16 @@
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="60" t="s">
+        <v>83</v>
+      </c>
       <c r="B58" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="48"/>
+        <v>76</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>14</v>
+      </c>
       <c r="D58" s="49"/>
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
@@ -2411,10 +2425,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55"/>
       <c r="B59" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="49">
@@ -2429,10 +2443,12 @@
       </c>
       <c r="J59" s="49"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="60" t="s">
+        <v>84</v>
+      </c>
       <c r="B60" s="105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="49"/>
@@ -2443,10 +2459,10 @@
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55"/>
       <c r="B61" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="48"/>
       <c r="D61" s="49">
@@ -2461,7 +2477,7 @@
       </c>
       <c r="J61" s="49"/>
     </row>
-    <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>42</v>
       </c>
@@ -2477,12 +2493,12 @@
       <c r="I62" s="47"/>
       <c r="J62" s="85"/>
     </row>
-    <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="108" t="s">
         <v>80</v>
-      </c>
-      <c r="B63" s="108" t="s">
-        <v>81</v>
       </c>
       <c r="C63" s="46"/>
       <c r="D63" s="47"/>
@@ -2493,7 +2509,7 @@
       <c r="I63" s="47"/>
       <c r="J63" s="85"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>74</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50"/>
       <c r="B65" s="53" t="s">
         <v>13</v>
@@ -2528,7 +2544,7 @@
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50"/>
       <c r="B66" s="54" t="s">
         <v>15</v>
@@ -2547,7 +2563,7 @@
       </c>
       <c r="J66" s="49"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="50"/>
       <c r="B67" s="53" t="s">
         <v>27</v>
@@ -2561,7 +2577,7 @@
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50"/>
       <c r="B68" s="54" t="s">
         <v>15</v>
@@ -2580,7 +2596,7 @@
       </c>
       <c r="J68" s="49"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50"/>
       <c r="B69" s="53" t="s">
         <v>28</v>
@@ -2594,7 +2610,7 @@
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="50"/>
       <c r="B70" s="54" t="s">
         <v>15</v>
@@ -2613,7 +2629,7 @@
       </c>
       <c r="J70" s="49"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
       <c r="B71" s="53" t="s">
         <v>29</v>
@@ -2627,7 +2643,7 @@
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50"/>
       <c r="B72" s="54" t="s">
         <v>15</v>
@@ -2646,7 +2662,7 @@
       </c>
       <c r="J72" s="49"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50"/>
       <c r="B73" s="53" t="s">
         <v>30</v>
@@ -2660,7 +2676,7 @@
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50"/>
       <c r="B74" s="54" t="s">
         <v>15</v>
@@ -2679,7 +2695,7 @@
       </c>
       <c r="J74" s="49"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="53" t="s">
         <v>31</v>
@@ -2693,7 +2709,7 @@
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55"/>
       <c r="B76" s="54" t="s">
         <v>15</v>
@@ -2712,7 +2728,7 @@
       </c>
       <c r="J76" s="49"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55"/>
       <c r="B77" s="53" t="s">
         <v>32</v>
@@ -2726,7 +2742,7 @@
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55"/>
       <c r="B78" s="54" t="s">
         <v>15</v>
@@ -2745,7 +2761,7 @@
       </c>
       <c r="J78" s="49"/>
     </row>
-    <row r="79" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50" t="s">
         <v>43</v>
       </c>
@@ -2765,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="50"/>
       <c r="B80" s="53" t="s">
         <v>32</v>
@@ -2779,7 +2795,7 @@
       <c r="I80" s="49"/>
       <c r="J80" s="85"/>
     </row>
-    <row r="81" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="50"/>
       <c r="B81" s="54" t="s">
         <v>16</v>
@@ -2798,7 +2814,7 @@
       </c>
       <c r="J81" s="49"/>
     </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="50" t="s">
         <v>45</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="50"/>
       <c r="B83" s="53" t="s">
         <v>32</v>
@@ -2830,7 +2846,7 @@
       <c r="I83" s="49"/>
       <c r="J83" s="49"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="50"/>
       <c r="B84" s="54" t="s">
         <v>16</v>
@@ -2849,7 +2865,7 @@
       </c>
       <c r="J84" s="49"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50" t="s">
         <v>47</v>
       </c>
@@ -2869,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="50"/>
       <c r="B86" s="53" t="s">
         <v>32</v>
@@ -2883,7 +2899,7 @@
       <c r="I86" s="49"/>
       <c r="J86" s="49"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="50"/>
       <c r="B87" s="54" t="s">
         <v>16</v>
@@ -2902,7 +2918,7 @@
       </c>
       <c r="J87" s="49"/>
     </row>
-    <row r="88" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="s">
         <v>49</v>
       </c>
@@ -2920,7 +2936,7 @@
       <c r="I88" s="49"/>
       <c r="J88" s="85"/>
     </row>
-    <row r="89" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="50"/>
       <c r="B89" s="53" t="s">
         <v>32</v>
@@ -2936,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="50"/>
       <c r="B90" s="54" t="s">
         <v>16</v>
@@ -2955,7 +2971,7 @@
       </c>
       <c r="J90" s="85"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +2989,7 @@
       <c r="I91" s="49"/>
       <c r="J91" s="49"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="50"/>
       <c r="B92" s="53" t="s">
         <v>32</v>
@@ -2989,7 +3005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="50"/>
       <c r="B93" s="54" t="s">
         <v>16</v>
@@ -3008,7 +3024,7 @@
       </c>
       <c r="J93" s="49"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="50" t="s">
         <v>53</v>
       </c>
@@ -3026,7 +3042,7 @@
       <c r="I94" s="49"/>
       <c r="J94" s="49"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="50"/>
       <c r="B95" s="53" t="s">
         <v>32</v>
@@ -3040,7 +3056,7 @@
       <c r="I95" s="49"/>
       <c r="J95" s="49"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="50"/>
       <c r="B96" s="54" t="s">
         <v>16</v>
@@ -3061,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="50" t="s">
         <v>55</v>
       </c>
@@ -3077,7 +3093,7 @@
       <c r="I97" s="49"/>
       <c r="J97" s="85"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="53" t="s">
         <v>32</v>
@@ -3091,7 +3107,7 @@
       <c r="I98" s="49"/>
       <c r="J98" s="49"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="55"/>
       <c r="B99" s="54" t="s">
         <v>16</v>
@@ -3114,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="56"/>
       <c r="B100" s="57"/>
       <c r="C100" s="48"/>
@@ -3126,7 +3142,7 @@
       <c r="I100" s="49"/>
       <c r="J100" s="49"/>
     </row>
-    <row r="101" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60"/>
       <c r="B101" s="61"/>
       <c r="C101" s="46"/>
@@ -3138,7 +3154,7 @@
       <c r="I101" s="47"/>
       <c r="J101" s="85"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="55"/>
       <c r="B102" s="53"/>
       <c r="C102" s="48"/>
@@ -3150,7 +3166,7 @@
       <c r="I102" s="49"/>
       <c r="J102" s="49"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="55"/>
       <c r="B103" s="54"/>
       <c r="C103" s="48"/>
@@ -3162,7 +3178,7 @@
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
     </row>
-    <row r="104" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="60"/>
       <c r="B104" s="61"/>
       <c r="C104" s="46"/>
@@ -3174,7 +3190,7 @@
       <c r="I104" s="47"/>
       <c r="J104" s="85"/>
     </row>
-    <row r="105" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="62"/>
       <c r="B105" s="53"/>
       <c r="C105" s="46"/>
@@ -3186,7 +3202,7 @@
       <c r="I105" s="47"/>
       <c r="J105" s="85"/>
     </row>
-    <row r="106" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="62"/>
       <c r="B106" s="54"/>
       <c r="C106" s="46"/>
@@ -3198,7 +3214,7 @@
       <c r="I106" s="49"/>
       <c r="J106" s="85"/>
     </row>
-    <row r="107" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="62"/>
       <c r="B107" s="53"/>
       <c r="C107" s="46"/>
@@ -3210,7 +3226,7 @@
       <c r="I107" s="49"/>
       <c r="J107" s="85"/>
     </row>
-    <row r="108" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="62"/>
       <c r="B108" s="54"/>
       <c r="C108" s="46"/>
@@ -3222,7 +3238,7 @@
       <c r="I108" s="49"/>
       <c r="J108" s="85"/>
     </row>
-    <row r="109" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="62"/>
       <c r="B109" s="53"/>
       <c r="C109" s="46"/>
@@ -3234,7 +3250,7 @@
       <c r="I109" s="49"/>
       <c r="J109" s="85"/>
     </row>
-    <row r="110" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="62"/>
       <c r="B110" s="54"/>
       <c r="C110" s="46"/>
@@ -3246,7 +3262,7 @@
       <c r="I110" s="49"/>
       <c r="J110" s="85"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="55"/>
       <c r="B111" s="53"/>
       <c r="C111" s="48"/>
@@ -3258,7 +3274,7 @@
       <c r="I111" s="49"/>
       <c r="J111" s="49"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="55"/>
       <c r="B112" s="54"/>
       <c r="C112" s="48"/>
@@ -3270,7 +3286,7 @@
       <c r="I112" s="49"/>
       <c r="J112" s="49"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="55"/>
       <c r="B113" s="53"/>
       <c r="C113" s="48"/>
@@ -3282,7 +3298,7 @@
       <c r="I113" s="49"/>
       <c r="J113" s="49"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="55"/>
       <c r="B114" s="54"/>
       <c r="C114" s="48"/>
@@ -3294,7 +3310,7 @@
       <c r="I114" s="49"/>
       <c r="J114" s="49"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="55"/>
       <c r="B115" s="53"/>
       <c r="C115" s="48"/>
@@ -3306,7 +3322,7 @@
       <c r="I115" s="49"/>
       <c r="J115" s="49"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="55"/>
       <c r="B116" s="54"/>
       <c r="C116" s="48"/>
@@ -3318,7 +3334,7 @@
       <c r="I116" s="49"/>
       <c r="J116" s="49"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="55"/>
       <c r="B117" s="53"/>
       <c r="C117" s="48"/>
@@ -3330,7 +3346,7 @@
       <c r="I117" s="49"/>
       <c r="J117" s="49"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="55"/>
       <c r="B118" s="54"/>
       <c r="C118" s="48"/>
@@ -3342,7 +3358,7 @@
       <c r="I118" s="49"/>
       <c r="J118" s="49"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="55"/>
       <c r="B119" s="54"/>
       <c r="C119" s="48"/>
@@ -3354,7 +3370,7 @@
       <c r="I119" s="49"/>
       <c r="J119" s="49"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="55"/>
       <c r="B120" s="54"/>
       <c r="C120" s="48"/>
@@ -3366,7 +3382,7 @@
       <c r="I120" s="49"/>
       <c r="J120" s="49"/>
     </row>
-    <row r="121" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="60"/>
       <c r="B121" s="63"/>
       <c r="C121" s="46"/>
@@ -3378,7 +3394,7 @@
       <c r="I121" s="47"/>
       <c r="J121" s="85"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="55"/>
       <c r="B122" s="53"/>
       <c r="C122" s="48"/>
@@ -3390,7 +3406,7 @@
       <c r="I122" s="49"/>
       <c r="J122" s="49"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="55"/>
       <c r="B123" s="54"/>
       <c r="C123" s="48"/>
@@ -3402,7 +3418,7 @@
       <c r="I123" s="49"/>
       <c r="J123" s="49"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="55"/>
       <c r="B124" s="53"/>
       <c r="C124" s="48"/>
@@ -3414,7 +3430,7 @@
       <c r="I124" s="49"/>
       <c r="J124" s="49"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="55"/>
       <c r="B125" s="54"/>
       <c r="C125" s="48"/>
@@ -3426,7 +3442,7 @@
       <c r="I125" s="49"/>
       <c r="J125" s="49"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="55"/>
       <c r="B126" s="53"/>
       <c r="C126" s="48"/>
@@ -3438,7 +3454,7 @@
       <c r="I126" s="49"/>
       <c r="J126" s="49"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="55"/>
       <c r="B127" s="54"/>
       <c r="C127" s="48"/>
@@ -3450,7 +3466,7 @@
       <c r="I127" s="49"/>
       <c r="J127" s="49"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="55"/>
       <c r="B128" s="53"/>
       <c r="C128" s="48"/>
@@ -3462,7 +3478,7 @@
       <c r="I128" s="49"/>
       <c r="J128" s="49"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="55"/>
       <c r="B129" s="54"/>
       <c r="C129" s="48"/>
@@ -3474,7 +3490,7 @@
       <c r="I129" s="49"/>
       <c r="J129" s="49"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="55"/>
       <c r="B130" s="53"/>
       <c r="C130" s="48"/>
@@ -3486,7 +3502,7 @@
       <c r="I130" s="49"/>
       <c r="J130" s="49"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="55"/>
       <c r="B131" s="54"/>
       <c r="C131" s="48"/>
@@ -3498,7 +3514,7 @@
       <c r="I131" s="49"/>
       <c r="J131" s="49"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="55"/>
       <c r="B132" s="53"/>
       <c r="C132" s="48"/>
@@ -3510,7 +3526,7 @@
       <c r="I132" s="49"/>
       <c r="J132" s="49"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="55"/>
       <c r="B133" s="54"/>
       <c r="C133" s="48"/>
@@ -3522,7 +3538,7 @@
       <c r="I133" s="49"/>
       <c r="J133" s="49"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="55"/>
       <c r="B134" s="53"/>
       <c r="C134" s="48"/>
@@ -3534,7 +3550,7 @@
       <c r="I134" s="49"/>
       <c r="J134" s="49"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="55"/>
       <c r="B135" s="54"/>
       <c r="C135" s="48"/>
@@ -3546,7 +3562,7 @@
       <c r="I135" s="49"/>
       <c r="J135" s="49"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64"/>
       <c r="B136" s="64"/>
       <c r="C136" s="48"/>
@@ -3558,7 +3574,7 @@
       <c r="I136" s="49"/>
       <c r="J136" s="49"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="65"/>
       <c r="B137" s="102"/>
       <c r="C137" s="46"/>
@@ -3570,7 +3586,7 @@
       <c r="I137" s="49"/>
       <c r="J137" s="49"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="65"/>
       <c r="B138" s="53"/>
       <c r="C138" s="48"/>
@@ -3582,7 +3598,7 @@
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="55"/>
       <c r="B139" s="54"/>
       <c r="C139" s="46"/>
@@ -3594,7 +3610,7 @@
       <c r="I139" s="49"/>
       <c r="J139" s="49"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="56"/>
       <c r="B140" s="57"/>
       <c r="C140" s="48"/>
@@ -3606,7 +3622,7 @@
       <c r="I140" s="49"/>
       <c r="J140" s="49"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="66"/>
       <c r="B141" s="67"/>
       <c r="C141" s="48"/>
@@ -3618,7 +3634,7 @@
       <c r="I141" s="49"/>
       <c r="J141" s="49"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="62"/>
       <c r="B142" s="61"/>
       <c r="C142" s="46"/>
@@ -3630,7 +3646,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="85"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="55"/>
       <c r="B143" s="53"/>
       <c r="C143" s="48"/>
@@ -3642,7 +3658,7 @@
       <c r="I143" s="49"/>
       <c r="J143" s="49"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="55"/>
       <c r="B144" s="54"/>
       <c r="C144" s="48"/>
@@ -3654,7 +3670,7 @@
       <c r="I144" s="49"/>
       <c r="J144" s="49"/>
     </row>
-    <row r="145" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="62"/>
       <c r="B145" s="68"/>
       <c r="C145" s="46"/>
@@ -3666,7 +3682,7 @@
       <c r="I145" s="47"/>
       <c r="J145" s="85"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="55"/>
       <c r="B146" s="53"/>
       <c r="C146" s="48"/>
@@ -3678,7 +3694,7 @@
       <c r="I146" s="49"/>
       <c r="J146" s="49"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="55"/>
       <c r="B147" s="54"/>
       <c r="C147" s="48"/>
@@ -3690,7 +3706,7 @@
       <c r="I147" s="49"/>
       <c r="J147" s="49"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="55"/>
       <c r="B148" s="53"/>
       <c r="C148" s="48"/>
@@ -3702,7 +3718,7 @@
       <c r="I148" s="49"/>
       <c r="J148" s="49"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="55"/>
       <c r="B149" s="54"/>
       <c r="C149" s="48"/>
@@ -3714,7 +3730,7 @@
       <c r="I149" s="49"/>
       <c r="J149" s="49"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="55"/>
       <c r="B150" s="53"/>
       <c r="C150" s="48"/>
@@ -3726,7 +3742,7 @@
       <c r="I150" s="49"/>
       <c r="J150" s="49"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="55"/>
       <c r="B151" s="54"/>
       <c r="C151" s="48"/>
@@ -3738,7 +3754,7 @@
       <c r="I151" s="49"/>
       <c r="J151" s="49"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="55"/>
       <c r="B152" s="53"/>
       <c r="C152" s="48"/>
@@ -3750,7 +3766,7 @@
       <c r="I152" s="49"/>
       <c r="J152" s="49"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="55"/>
       <c r="B153" s="54"/>
       <c r="C153" s="48"/>
@@ -3762,7 +3778,7 @@
       <c r="I153" s="49"/>
       <c r="J153" s="49"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="55"/>
       <c r="B154" s="53"/>
       <c r="C154" s="48"/>
@@ -3774,7 +3790,7 @@
       <c r="I154" s="49"/>
       <c r="J154" s="49"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="55"/>
       <c r="B155" s="54"/>
       <c r="C155" s="48"/>
@@ -3786,7 +3802,7 @@
       <c r="I155" s="49"/>
       <c r="J155" s="49"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="55"/>
       <c r="B156" s="53"/>
       <c r="C156" s="48"/>
@@ -3798,7 +3814,7 @@
       <c r="I156" s="49"/>
       <c r="J156" s="49"/>
     </row>
-    <row r="157" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="55"/>
       <c r="B157" s="54"/>
       <c r="C157" s="48"/>
@@ -3810,7 +3826,7 @@
       <c r="I157" s="49"/>
       <c r="J157" s="49"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="55"/>
       <c r="B158" s="53"/>
       <c r="C158" s="48"/>
@@ -3822,7 +3838,7 @@
       <c r="I158" s="49"/>
       <c r="J158" s="49"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="55"/>
       <c r="B159" s="54"/>
       <c r="C159" s="48"/>
@@ -3834,7 +3850,7 @@
       <c r="I159" s="49"/>
       <c r="J159" s="49"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
@@ -3846,7 +3862,7 @@
       <c r="I160" s="39"/>
       <c r="J160" s="39"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
@@ -3858,7 +3874,7 @@
       <c r="I161" s="39"/>
       <c r="J161" s="39"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
@@ -3870,7 +3886,7 @@
       <c r="I162" s="39"/>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
@@ -3882,7 +3898,7 @@
       <c r="I163" s="39"/>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
@@ -3894,7 +3910,7 @@
       <c r="I164" s="39"/>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
@@ -3906,7 +3922,7 @@
       <c r="I165" s="39"/>
       <c r="J165" s="39"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
@@ -3918,7 +3934,7 @@
       <c r="I166" s="39"/>
       <c r="J166" s="39"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
@@ -3930,7 +3946,7 @@
       <c r="I167" s="39"/>
       <c r="J167" s="39"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
@@ -3942,7 +3958,7 @@
       <c r="I168" s="39"/>
       <c r="J168" s="39"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
@@ -3954,7 +3970,7 @@
       <c r="I169" s="39"/>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
@@ -3966,7 +3982,7 @@
       <c r="I170" s="39"/>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
@@ -3978,7 +3994,7 @@
       <c r="I171" s="39"/>
       <c r="J171" s="39"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
@@ -3990,7 +4006,7 @@
       <c r="I172" s="39"/>
       <c r="J172" s="39"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -4002,7 +4018,7 @@
       <c r="I173" s="39"/>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
@@ -4014,7 +4030,7 @@
       <c r="I174" s="39"/>
       <c r="J174" s="39"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
@@ -4026,7 +4042,7 @@
       <c r="I175" s="39"/>
       <c r="J175" s="39"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
@@ -4038,7 +4054,7 @@
       <c r="I176" s="39"/>
       <c r="J176" s="39"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
@@ -4050,7 +4066,7 @@
       <c r="I177" s="39"/>
       <c r="J177" s="39"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
@@ -4062,7 +4078,7 @@
       <c r="I178" s="39"/>
       <c r="J178" s="39"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
@@ -4074,7 +4090,7 @@
       <c r="I179" s="39"/>
       <c r="J179" s="39"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
@@ -4086,7 +4102,7 @@
       <c r="I180" s="39"/>
       <c r="J180" s="39"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -4098,7 +4114,7 @@
       <c r="I181" s="39"/>
       <c r="J181" s="39"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
@@ -4110,7 +4126,7 @@
       <c r="I182" s="39"/>
       <c r="J182" s="39"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
@@ -4122,7 +4138,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="39"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
@@ -4134,7 +4150,7 @@
       <c r="I184" s="39"/>
       <c r="J184" s="39"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
@@ -4146,7 +4162,7 @@
       <c r="I185" s="39"/>
       <c r="J185" s="39"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
@@ -4158,7 +4174,7 @@
       <c r="I186" s="39"/>
       <c r="J186" s="39"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
@@ -4170,7 +4186,7 @@
       <c r="I187" s="39"/>
       <c r="J187" s="39"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
@@ -4182,7 +4198,7 @@
       <c r="I188" s="39"/>
       <c r="J188" s="39"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
@@ -4195,6 +4211,7 @@
       <c r="J189" s="39"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:J159" xr:uid="{5B0B1A2D-50B0-4651-90F6-F7D39D697E9C}"/>
   <mergeCells count="2">
     <mergeCell ref="B3:J4"/>
     <mergeCell ref="A1:J1"/>
@@ -4222,22 +4239,22 @@
       <selection pane="bottomRight" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="117" t="s">
         <v>38</v>
       </c>
@@ -4251,7 +4268,7 @@
       <c r="I1" s="118"/>
       <c r="J1" s="119"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
@@ -4263,7 +4280,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="87"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
@@ -4279,7 +4296,7 @@
       <c r="I3" s="112"/>
       <c r="J3" s="113"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="69"/>
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
@@ -4291,7 +4308,7 @@
       <c r="I4" s="112"/>
       <c r="J4" s="113"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="74"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -4303,7 +4320,7 @@
       <c r="I5" s="72"/>
       <c r="J5" s="87"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
@@ -4335,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="80"/>
       <c r="C7" s="81"/>
@@ -4347,7 +4364,7 @@
       <c r="I7" s="82"/>
       <c r="J7" s="81"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="90">
         <v>6</v>
       </c>
@@ -4363,7 +4380,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="92"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="93">
         <v>6.9</v>
       </c>
@@ -4379,7 +4396,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="95"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
         <v>41</v>
       </c>
@@ -4395,7 +4412,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="97" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +4435,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="99" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4450,7 @@
       <c r="H12" s="48"/>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
         <v>65</v>
       </c>
@@ -4449,7 +4466,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>66</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" s="53" t="s">
         <v>13</v>
@@ -4484,7 +4501,7 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="54" t="s">
         <v>15</v>
@@ -4503,7 +4520,7 @@
       </c>
       <c r="J16" s="49"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="53" t="s">
         <v>27</v>
@@ -4517,7 +4534,7 @@
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="54" t="s">
         <v>15</v>
@@ -4536,7 +4553,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="53" t="s">
         <v>28</v>
@@ -4550,7 +4567,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55"/>
       <c r="B20" s="54" t="s">
         <v>15</v>
@@ -4569,7 +4586,7 @@
       </c>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55"/>
       <c r="B21" s="53" t="s">
         <v>29</v>
@@ -4583,7 +4600,7 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" s="54" t="s">
         <v>15</v>
@@ -4602,7 +4619,7 @@
       </c>
       <c r="J22" s="49"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55"/>
       <c r="B23" s="53" t="s">
         <v>30</v>
@@ -4616,7 +4633,7 @@
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55"/>
       <c r="B24" s="54" t="s">
         <v>15</v>
@@ -4635,7 +4652,7 @@
       </c>
       <c r="J24" s="49"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55"/>
       <c r="B25" s="53" t="s">
         <v>31</v>
@@ -4649,7 +4666,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55"/>
       <c r="B26" s="54" t="s">
         <v>15</v>
@@ -4668,7 +4685,7 @@
       </c>
       <c r="J26" s="49"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="66"/>
       <c r="B27" s="100"/>
       <c r="C27" s="48"/>
@@ -4680,7 +4697,7 @@
       <c r="I27" s="49"/>
       <c r="J27" s="100"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="101"/>
       <c r="B28" s="62"/>
       <c r="C28" s="52"/>
@@ -4692,7 +4709,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="52"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="15"/>
@@ -4704,7 +4721,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="15"/>
@@ -4716,7 +4733,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -4728,7 +4745,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -4740,7 +4757,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
@@ -4752,7 +4769,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15"/>
@@ -4764,7 +4781,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -4776,7 +4793,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="15"/>
@@ -4788,7 +4805,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
@@ -4800,7 +4817,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="32"/>
       <c r="C38" s="27"/>
@@ -4812,7 +4829,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="15"/>
@@ -4824,7 +4841,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="15"/>
@@ -4836,7 +4853,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="32"/>
       <c r="C41" s="27"/>
@@ -4848,7 +4865,7 @@
       <c r="I41" s="37"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="15"/>
@@ -4860,7 +4877,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="15"/>
@@ -4872,7 +4889,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="32"/>
       <c r="C44" s="27"/>
@@ -4884,7 +4901,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="15"/>
@@ -4896,7 +4913,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="15"/>
@@ -4908,7 +4925,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="27"/>
@@ -4920,7 +4937,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="15"/>
@@ -4932,7 +4949,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="15"/>
@@ -4944,7 +4961,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="32"/>
       <c r="C50" s="27"/>
@@ -4956,7 +4973,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="15"/>
@@ -4968,7 +4985,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="15"/>
@@ -4980,7 +4997,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="32"/>
       <c r="C53" s="27"/>
@@ -4992,7 +5009,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
@@ -5004,7 +5021,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="15"/>
@@ -5016,7 +5033,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="32"/>
       <c r="C56" s="27"/>
@@ -5028,7 +5045,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="15"/>
@@ -5040,7 +5057,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
       <c r="C58" s="15"/>
@@ -5052,7 +5069,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -5064,7 +5081,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15"/>
@@ -5076,7 +5093,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="32"/>
       <c r="C61" s="27"/>
@@ -5088,7 +5105,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="15"/>
@@ -5100,7 +5117,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="19"/>
       <c r="C63" s="15"/>
@@ -5112,7 +5129,7 @@
       <c r="I63" s="37"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15"/>
@@ -5124,7 +5141,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="15"/>
@@ -5136,7 +5153,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="32"/>
       <c r="C66" s="27"/>
@@ -5148,7 +5165,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="15"/>
@@ -5160,7 +5177,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="15"/>
@@ -5172,7 +5189,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="15"/>
@@ -5184,7 +5201,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="15"/>
@@ -5196,7 +5213,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="15"/>
@@ -5208,7 +5225,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="15"/>
@@ -5220,7 +5237,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="15"/>
@@ -5232,7 +5249,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="15"/>
@@ -5244,7 +5261,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="15"/>
@@ -5256,7 +5273,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="15"/>
@@ -5268,7 +5285,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="15"/>
@@ -5280,7 +5297,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="15"/>
@@ -5292,7 +5309,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="15"/>
@@ -5304,7 +5321,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="15"/>
@@ -5316,7 +5333,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
@@ -5328,7 +5345,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="27"/>
@@ -5340,7 +5357,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="15"/>
@@ -5352,7 +5369,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="15"/>
@@ -5364,7 +5381,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="15"/>
@@ -5376,7 +5393,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="15"/>
@@ -5388,7 +5405,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="15"/>
@@ -5400,7 +5417,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="15"/>
@@ -5412,7 +5429,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="15"/>
@@ -5424,7 +5441,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -5436,7 +5453,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="15"/>
@@ -5448,7 +5465,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -5460,7 +5477,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="15"/>
@@ -5472,7 +5489,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -5484,7 +5501,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="15"/>
@@ -5496,7 +5513,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>
@@ -5508,7 +5525,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="32"/>
       <c r="C97" s="27"/>
@@ -5520,7 +5537,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="15"/>
@@ -5532,7 +5549,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -5544,7 +5561,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="15"/>
@@ -5556,7 +5573,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
@@ -5568,7 +5585,7 @@
       <c r="I101" s="37"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="15"/>
@@ -5580,7 +5597,7 @@
       <c r="I102" s="37"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="15"/>
@@ -5592,7 +5609,7 @@
       <c r="I103" s="37"/>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="15"/>
@@ -5604,7 +5621,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="15"/>
@@ -5616,7 +5633,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="15"/>
@@ -5628,7 +5645,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="15"/>
@@ -5640,7 +5657,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="15"/>
@@ -5652,7 +5669,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="15"/>
@@ -5664,7 +5681,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="15"/>
@@ -5676,7 +5693,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="15"/>
@@ -5688,7 +5705,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34"/>
       <c r="B112" s="32"/>
       <c r="C112" s="27"/>
@@ -5700,7 +5717,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="15"/>
@@ -5712,7 +5729,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="15"/>
@@ -5724,7 +5741,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="15"/>
@@ -5736,7 +5753,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="32"/>
       <c r="C116" s="27"/>
@@ -5748,7 +5765,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="15"/>
@@ -5760,7 +5777,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="15"/>
@@ -5772,7 +5789,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="15"/>
@@ -5784,7 +5801,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="15"/>
@@ -5796,7 +5813,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="15"/>
@@ -5808,7 +5825,7 @@
       <c r="I121" s="37"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="15"/>
@@ -5820,7 +5837,7 @@
       <c r="I122" s="37"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="15"/>
@@ -5832,7 +5849,7 @@
       <c r="I123" s="37"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="15"/>
@@ -5844,7 +5861,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="34"/>
       <c r="B125" s="32"/>
       <c r="C125" s="27"/>
@@ -5856,7 +5873,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="34"/>
       <c r="B126" s="18"/>
       <c r="C126" s="15"/>
@@ -5868,7 +5885,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="15"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="34"/>
       <c r="B127" s="19"/>
       <c r="C127" s="15"/>
@@ -5880,7 +5897,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="15"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="34"/>
       <c r="B128" s="18"/>
       <c r="C128" s="15"/>
@@ -5892,7 +5909,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="34"/>
       <c r="B129" s="19"/>
       <c r="C129" s="15"/>
@@ -5904,7 +5921,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="34"/>
       <c r="B130" s="18"/>
       <c r="C130" s="15"/>
@@ -5916,7 +5933,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="34"/>
       <c r="B131" s="19"/>
       <c r="C131" s="15"/>
@@ -5928,7 +5945,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="18"/>
       <c r="C132" s="15"/>
@@ -5940,7 +5957,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="34"/>
       <c r="B133" s="19"/>
       <c r="C133" s="15"/>
@@ -5952,7 +5969,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34"/>
       <c r="B134" s="18"/>
       <c r="C134" s="15"/>
@@ -5964,7 +5981,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="34"/>
       <c r="B135" s="19"/>
       <c r="C135" s="15"/>
@@ -5976,7 +5993,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
       <c r="C136" s="15"/>
@@ -5988,7 +6005,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="19"/>
       <c r="C137" s="15"/>
@@ -6000,7 +6017,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="18"/>
       <c r="C138" s="15"/>
@@ -6012,7 +6029,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="19"/>
       <c r="C139" s="15"/>
@@ -6024,7 +6041,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="B140" s="23"/>
       <c r="C140" s="15"/>
@@ -6036,7 +6053,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="24"/>
       <c r="C141" s="15"/>
@@ -6048,7 +6065,7 @@
       <c r="I141" s="37"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="32"/>
       <c r="C142" s="27"/>
@@ -6060,7 +6077,7 @@
       <c r="I142" s="37"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="15"/>
@@ -6072,7 +6089,7 @@
       <c r="I143" s="37"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="19"/>
       <c r="C144" s="15"/>
@@ -6084,7 +6101,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="15"/>
@@ -6096,7 +6113,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="15"/>
@@ -6108,7 +6125,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="15"/>
@@ -6120,7 +6137,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
@@ -6132,7 +6149,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="15"/>
@@ -6144,7 +6161,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="15"/>
@@ -6156,7 +6173,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="15"/>
@@ -6168,7 +6185,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="15"/>
@@ -6180,7 +6197,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="15"/>
@@ -6192,7 +6209,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="15"/>
@@ -6204,7 +6221,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="15"/>
@@ -6216,7 +6233,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="19"/>
       <c r="C156" s="15"/>
@@ -6228,7 +6245,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34"/>
       <c r="B157" s="32"/>
       <c r="C157" s="27"/>
@@ -6240,7 +6257,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="15"/>
@@ -6252,7 +6269,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="19"/>
       <c r="C159" s="15"/>
@@ -6264,7 +6281,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32"/>
       <c r="B160" s="18"/>
       <c r="C160" s="27"/>
@@ -6276,7 +6293,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="19"/>
       <c r="C161" s="15"/>
@@ -6288,7 +6305,7 @@
       <c r="I161" s="37"/>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="15"/>
@@ -6300,7 +6317,7 @@
       <c r="I162" s="37"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="15"/>
@@ -6312,7 +6329,7 @@
       <c r="I163" s="37"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="15"/>
@@ -6324,7 +6341,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="15"/>
@@ -6336,7 +6353,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="15"/>
@@ -6348,7 +6365,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
       <c r="B167" s="19"/>
       <c r="C167" s="15"/>
@@ -6360,7 +6377,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="15"/>
@@ -6372,7 +6389,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="19"/>
       <c r="C169" s="15"/>
@@ -6384,7 +6401,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="15"/>
@@ -6396,7 +6413,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="15"/>
@@ -6408,7 +6425,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="34"/>
       <c r="B172" s="32"/>
       <c r="C172" s="27"/>
@@ -6420,7 +6437,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25"/>
       <c r="B173" s="18"/>
       <c r="C173" s="15"/>
@@ -6432,7 +6449,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="15"/>
@@ -6444,7 +6461,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="15"/>
@@ -6456,7 +6473,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="15"/>
@@ -6468,7 +6485,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="15"/>
@@ -6480,7 +6497,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="15"/>
@@ -6492,7 +6509,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25"/>
       <c r="B179" s="18"/>
       <c r="C179" s="15"/>
@@ -6504,7 +6521,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="15"/>
@@ -6516,7 +6533,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="15"/>
@@ -6528,7 +6545,7 @@
       <c r="I181" s="37"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="15"/>
@@ -6540,7 +6557,7 @@
       <c r="I182" s="37"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="15"/>
@@ -6552,7 +6569,7 @@
       <c r="I183" s="37"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="15"/>
@@ -6564,7 +6581,7 @@
       <c r="I184" s="37"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="15"/>
@@ -6576,7 +6593,7 @@
       <c r="I185" s="37"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25"/>
       <c r="B186" s="19"/>
       <c r="C186" s="15"/>
@@ -6588,7 +6605,7 @@
       <c r="I186" s="37"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="34"/>
       <c r="B187" s="32"/>
       <c r="C187" s="35"/>
@@ -6600,7 +6617,7 @@
       <c r="I187" s="38"/>
       <c r="J187" s="35"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="15"/>
@@ -6612,7 +6629,7 @@
       <c r="I188" s="37"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="19"/>
       <c r="C189" s="15"/>
@@ -6624,7 +6641,7 @@
       <c r="I189" s="37"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="15"/>
@@ -6636,7 +6653,7 @@
       <c r="I190" s="37"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="19"/>
       <c r="C191" s="15"/>
@@ -6648,7 +6665,7 @@
       <c r="I191" s="37"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="15"/>
@@ -6660,7 +6677,7 @@
       <c r="I192" s="37"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="25"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15"/>
@@ -6672,7 +6689,7 @@
       <c r="I193" s="37"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="25"/>
       <c r="B194" s="18"/>
       <c r="C194" s="15"/>
@@ -6684,7 +6701,7 @@
       <c r="I194" s="37"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="19"/>
       <c r="C195" s="15"/>
@@ -6696,7 +6713,7 @@
       <c r="I195" s="37"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="15"/>
@@ -6708,7 +6725,7 @@
       <c r="I196" s="37"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="19"/>
       <c r="C197" s="15"/>
@@ -6720,7 +6737,7 @@
       <c r="I197" s="37"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="15"/>
@@ -6732,7 +6749,7 @@
       <c r="I198" s="37"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="19"/>
       <c r="C199" s="15"/>
@@ -6744,7 +6761,7 @@
       <c r="I199" s="37"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="25"/>
       <c r="B200" s="18"/>
       <c r="C200" s="15"/>
@@ -6756,7 +6773,7 @@
       <c r="I200" s="37"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="25"/>
       <c r="B201" s="19"/>
       <c r="C201" s="15"/>
@@ -6768,7 +6785,7 @@
       <c r="I201" s="37"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="34"/>
       <c r="B202" s="32"/>
       <c r="C202" s="27"/>
@@ -6780,7 +6797,7 @@
       <c r="I202" s="37"/>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="15"/>
@@ -6792,7 +6809,7 @@
       <c r="I203" s="37"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="19"/>
       <c r="C204" s="15"/>
@@ -6804,7 +6821,7 @@
       <c r="I204" s="37"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="15"/>
@@ -6816,7 +6833,7 @@
       <c r="I205" s="37"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="19"/>
       <c r="C206" s="15"/>
@@ -6828,7 +6845,7 @@
       <c r="I206" s="37"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="25"/>
       <c r="B207" s="18"/>
       <c r="C207" s="15"/>
@@ -6840,7 +6857,7 @@
       <c r="I207" s="37"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="25"/>
       <c r="B208" s="19"/>
       <c r="C208" s="15"/>
@@ -6852,7 +6869,7 @@
       <c r="I208" s="37"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="15"/>
@@ -6864,7 +6881,7 @@
       <c r="I209" s="37"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="19"/>
       <c r="C210" s="15"/>
@@ -6876,7 +6893,7 @@
       <c r="I210" s="37"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="15"/>
@@ -6888,7 +6905,7 @@
       <c r="I211" s="37"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="19"/>
       <c r="C212" s="15"/>
@@ -6900,7 +6917,7 @@
       <c r="I212" s="37"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="15"/>
@@ -6912,7 +6929,7 @@
       <c r="I213" s="37"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="B214" s="19"/>
       <c r="C214" s="15"/>
@@ -6924,7 +6941,7 @@
       <c r="I214" s="37"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="B215" s="18"/>
       <c r="C215" s="15"/>
@@ -6936,7 +6953,7 @@
       <c r="I215" s="37"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="26"/>
       <c r="B216" s="19"/>
       <c r="C216" s="15"/>
@@ -6948,7 +6965,7 @@
       <c r="I216" s="37"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="34"/>
       <c r="B217" s="32"/>
       <c r="C217" s="27"/>
@@ -6960,7 +6977,7 @@
       <c r="I217" s="37"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="15"/>
@@ -6972,7 +6989,7 @@
       <c r="I218" s="37"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="19"/>
       <c r="C219" s="15"/>
@@ -6984,7 +7001,7 @@
       <c r="I219" s="37"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="15"/>
@@ -6996,7 +7013,7 @@
       <c r="I220" s="37"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="25"/>
       <c r="B221" s="19"/>
       <c r="C221" s="15"/>
@@ -7008,7 +7025,7 @@
       <c r="I221" s="37"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="26"/>
       <c r="B222" s="18"/>
       <c r="C222" s="15"/>
@@ -7021,7 +7038,7 @@
       <c r="J222" s="27"/>
       <c r="K222" s="28"/>
     </row>
-    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -7033,7 +7050,7 @@
       <c r="I223" s="37"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="15"/>
@@ -7045,7 +7062,7 @@
       <c r="I224" s="37"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="19"/>
       <c r="C225" s="15"/>
@@ -7057,7 +7074,7 @@
       <c r="I225" s="37"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="15"/>
@@ -7069,7 +7086,7 @@
       <c r="I226" s="37"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="19"/>
       <c r="C227" s="15"/>
@@ -7081,7 +7098,7 @@
       <c r="I227" s="37"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="25"/>
       <c r="B228" s="18"/>
       <c r="C228" s="15"/>
@@ -7093,7 +7110,7 @@
       <c r="I228" s="37"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="25"/>
       <c r="B229" s="19"/>
       <c r="C229" s="15"/>
@@ -7105,7 +7122,7 @@
       <c r="I229" s="37"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="15"/>
@@ -7117,7 +7134,7 @@
       <c r="I230" s="37"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="19"/>
       <c r="C231" s="15"/>
@@ -7129,7 +7146,7 @@
       <c r="I231" s="37"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
       <c r="B232" s="24"/>
       <c r="C232" s="15"/>
@@ -7141,7 +7158,7 @@
       <c r="I232" s="37"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="34"/>
       <c r="B233" s="32"/>
       <c r="C233" s="27"/>
@@ -7153,7 +7170,7 @@
       <c r="I233" s="37"/>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="15"/>
@@ -7165,7 +7182,7 @@
       <c r="I234" s="37"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="25"/>
       <c r="B235" s="19"/>
       <c r="C235" s="15"/>
@@ -7177,7 +7194,7 @@
       <c r="I235" s="37"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="25"/>
       <c r="B236" s="18"/>
       <c r="C236" s="15"/>
@@ -7189,7 +7206,7 @@
       <c r="I236" s="37"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="19"/>
       <c r="C237" s="15"/>
@@ -7201,7 +7218,7 @@
       <c r="I237" s="37"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="15"/>
@@ -7213,7 +7230,7 @@
       <c r="I238" s="37"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="19"/>
       <c r="C239" s="15"/>
@@ -7225,7 +7242,7 @@
       <c r="I239" s="37"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="34"/>
       <c r="B240" s="32"/>
       <c r="C240" s="27"/>
@@ -7237,7 +7254,7 @@
       <c r="I240" s="37"/>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="15"/>
@@ -7249,7 +7266,7 @@
       <c r="I241" s="37"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" s="19"/>
       <c r="C242" s="15"/>
@@ -7261,7 +7278,7 @@
       <c r="I242" s="37"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" s="18"/>
       <c r="C243" s="15"/>
@@ -7273,7 +7290,7 @@
       <c r="I243" s="37"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="19"/>
       <c r="C244" s="15"/>
@@ -7285,7 +7302,7 @@
       <c r="I244" s="37"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="15"/>
@@ -7297,7 +7314,7 @@
       <c r="I245" s="37"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="19"/>
       <c r="C246" s="15"/>
@@ -7309,7 +7326,7 @@
       <c r="I246" s="37"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="15"/>
@@ -7321,7 +7338,7 @@
       <c r="I247" s="37"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="29"/>
       <c r="B248" s="19"/>
       <c r="C248" s="15"/>
@@ -7333,7 +7350,7 @@
       <c r="I248" s="37"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="26"/>
       <c r="B249" s="18"/>
       <c r="C249" s="15"/>
@@ -7345,7 +7362,7 @@
       <c r="I249" s="37"/>
       <c r="J249" s="27"/>
     </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" s="19"/>
       <c r="C250" s="15"/>
@@ -7357,7 +7374,7 @@
       <c r="I250" s="37"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="15"/>
@@ -7369,7 +7386,7 @@
       <c r="I251" s="37"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="19"/>
       <c r="C252" s="15"/>
@@ -7381,7 +7398,7 @@
       <c r="I252" s="37"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="15"/>
@@ -7393,7 +7410,7 @@
       <c r="I253" s="37"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="19"/>
       <c r="C254" s="15"/>
@@ -7405,7 +7422,7 @@
       <c r="I254" s="37"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
@@ -7417,7 +7434,7 @@
       <c r="I255" s="37"/>
       <c r="J255" s="27"/>
     </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="34"/>
       <c r="B256" s="32"/>
       <c r="C256" s="27"/>
@@ -7429,7 +7446,7 @@
       <c r="I256" s="37"/>
       <c r="J256" s="27"/>
     </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" s="18"/>
       <c r="C257" s="15"/>
@@ -7441,7 +7458,7 @@
       <c r="I257" s="37"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="29"/>
       <c r="B258" s="19"/>
       <c r="C258" s="15"/>
@@ -7453,7 +7470,7 @@
       <c r="I258" s="37"/>
       <c r="J258" s="30"/>
     </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="34"/>
       <c r="B259" s="32"/>
       <c r="C259" s="27"/>
@@ -7465,7 +7482,7 @@
       <c r="I259" s="37"/>
       <c r="J259" s="27"/>
     </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="26"/>
       <c r="B260" s="18"/>
       <c r="C260" s="15"/>
@@ -7477,7 +7494,7 @@
       <c r="I260" s="37"/>
       <c r="J260" s="27"/>
     </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="26"/>
       <c r="B261" s="19"/>
       <c r="C261" s="15"/>
@@ -7489,7 +7506,7 @@
       <c r="I261" s="37"/>
       <c r="J261" s="27"/>
     </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="34"/>
       <c r="B262" s="32"/>
       <c r="C262" s="27"/>
@@ -7501,7 +7518,7 @@
       <c r="I262" s="37"/>
       <c r="J262" s="27"/>
     </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="26"/>
       <c r="B263" s="18"/>
       <c r="C263" s="15"/>
@@ -7513,7 +7530,7 @@
       <c r="I263" s="37"/>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
       <c r="B264" s="19"/>
       <c r="C264" s="15"/>
@@ -7525,7 +7542,7 @@
       <c r="I264" s="37"/>
       <c r="J264" s="27"/>
     </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" s="18"/>
       <c r="C265" s="15"/>
@@ -7537,7 +7554,7 @@
       <c r="I265" s="37"/>
       <c r="J265" s="27"/>
     </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" s="19"/>
       <c r="C266" s="15"/>
@@ -7549,7 +7566,7 @@
       <c r="I266" s="37"/>
       <c r="J266" s="27"/>
     </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" s="18"/>
       <c r="C267" s="15"/>
@@ -7561,7 +7578,7 @@
       <c r="I267" s="37"/>
       <c r="J267" s="27"/>
     </row>
-    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="6"/>
@@ -7573,7 +7590,7 @@
       <c r="I268" s="37"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="18"/>
       <c r="C269" s="6"/>
@@ -7585,7 +7602,7 @@
       <c r="I269" s="37"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="6"/>
@@ -7597,7 +7614,7 @@
       <c r="I270" s="37"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="18"/>
       <c r="C271" s="6"/>
@@ -7609,7 +7626,7 @@
       <c r="I271" s="37"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="6"/>
@@ -7621,7 +7638,7 @@
       <c r="I272" s="37"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="18"/>
       <c r="C273" s="6"/>
@@ -7633,7 +7650,7 @@
       <c r="I273" s="37"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="6"/>
@@ -7645,7 +7662,7 @@
       <c r="I274" s="37"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="18"/>
       <c r="C275" s="6"/>
@@ -7657,7 +7674,7 @@
       <c r="I275" s="37"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="6"/>
@@ -7669,7 +7686,7 @@
       <c r="I276" s="37"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="34"/>
       <c r="B277" s="32"/>
       <c r="C277" s="12"/>
@@ -7681,7 +7698,7 @@
       <c r="I277" s="37"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="18"/>
       <c r="C278" s="6"/>
@@ -7693,7 +7710,7 @@
       <c r="I278" s="37"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="6"/>
@@ -7705,7 +7722,7 @@
       <c r="I279" s="37"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="18"/>
       <c r="C280" s="6"/>
@@ -7717,7 +7734,7 @@
       <c r="I280" s="37"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="6"/>
@@ -7729,7 +7746,7 @@
       <c r="I281" s="37"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="B282" s="18"/>
       <c r="C282" s="6"/>
@@ -7741,7 +7758,7 @@
       <c r="I282" s="37"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="6"/>
@@ -7753,7 +7770,7 @@
       <c r="I283" s="37"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="18"/>
       <c r="C284" s="6"/>
@@ -7765,7 +7782,7 @@
       <c r="I284" s="37"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="6"/>
@@ -7777,7 +7794,7 @@
       <c r="I285" s="37"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="18"/>
       <c r="C286" s="6"/>
@@ -7789,7 +7806,7 @@
       <c r="I286" s="37"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="6"/>
@@ -7801,7 +7818,7 @@
       <c r="I287" s="37"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="18"/>
       <c r="C288" s="6"/>
@@ -7813,7 +7830,7 @@
       <c r="I288" s="37"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="6"/>
@@ -7825,7 +7842,7 @@
       <c r="I289" s="37"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="18"/>
       <c r="C290" s="4"/>
@@ -7837,7 +7854,7 @@
       <c r="I290" s="37"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="4"/>
@@ -7849,7 +7866,7 @@
       <c r="I291" s="37"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="34"/>
       <c r="B292" s="32"/>
       <c r="C292" s="12"/>
@@ -7861,7 +7878,7 @@
       <c r="I292" s="37"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="18"/>
       <c r="C293" s="4"/>
@@ -7873,7 +7890,7 @@
       <c r="I293" s="37"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="19"/>
       <c r="C294" s="4"/>
@@ -7885,7 +7902,7 @@
       <c r="I294" s="37"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="18"/>
       <c r="C295" s="4"/>
@@ -7897,7 +7914,7 @@
       <c r="I295" s="37"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="19"/>
       <c r="C296" s="10"/>
@@ -7909,7 +7926,7 @@
       <c r="I296" s="37"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="18"/>
       <c r="C297" s="4"/>
@@ -7921,7 +7938,7 @@
       <c r="I297" s="37"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="6"/>
@@ -7933,7 +7950,7 @@
       <c r="I298" s="37"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="18"/>
       <c r="C299" s="4"/>
@@ -7945,7 +7962,7 @@
       <c r="I299" s="37"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="19"/>
       <c r="C300" s="4"/>
@@ -7957,7 +7974,7 @@
       <c r="I300" s="37"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="18"/>
       <c r="C301" s="4"/>
@@ -7969,7 +7986,7 @@
       <c r="I301" s="37"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="19"/>
       <c r="C302" s="4"/>
@@ -7981,7 +7998,7 @@
       <c r="I302" s="37"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="18"/>
       <c r="C303" s="4"/>
@@ -7993,7 +8010,7 @@
       <c r="I303" s="37"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
       <c r="B304" s="19"/>
       <c r="C304" s="4"/>
@@ -8005,7 +8022,7 @@
       <c r="I304" s="37"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
       <c r="B305" s="18"/>
       <c r="C305" s="4"/>
@@ -8017,7 +8034,7 @@
       <c r="I305" s="37"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="19"/>
       <c r="C306" s="4"/>
@@ -8029,7 +8046,7 @@
       <c r="I306" s="37"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="34"/>
       <c r="B307" s="32"/>
       <c r="C307" s="12"/>
@@ -8041,7 +8058,7 @@
       <c r="I307" s="37"/>
       <c r="J307" s="12"/>
     </row>
-    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
@@ -8053,7 +8070,7 @@
       <c r="I308" s="37"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="19"/>
       <c r="C309" s="4"/>
@@ -8065,7 +8082,7 @@
       <c r="I309" s="37"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
       <c r="B310" s="24"/>
       <c r="C310" s="4"/>
@@ -8077,7 +8094,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="34"/>
       <c r="B311" s="32"/>
       <c r="C311" s="12"/>
@@ -8089,7 +8106,7 @@
       <c r="I311" s="37"/>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="18"/>
       <c r="C312" s="4"/>
@@ -8101,7 +8118,7 @@
       <c r="I312" s="37"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="19"/>
       <c r="C313" s="4"/>
@@ -8113,7 +8130,7 @@
       <c r="I313" s="37"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="18"/>
       <c r="C314" s="4"/>
@@ -8125,7 +8142,7 @@
       <c r="I314" s="37"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="19"/>
       <c r="C315" s="4"/>
@@ -8137,7 +8154,7 @@
       <c r="I315" s="37"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="18"/>
       <c r="C316" s="4"/>
@@ -8149,7 +8166,7 @@
       <c r="I316" s="37"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="19"/>
       <c r="C317" s="4"/>
@@ -8161,7 +8178,7 @@
       <c r="I317" s="37"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="18"/>
       <c r="C318" s="4"/>
@@ -8173,7 +8190,7 @@
       <c r="I318" s="37"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="19"/>
       <c r="C319" s="4"/>
@@ -8185,7 +8202,7 @@
       <c r="I319" s="37"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="18"/>
       <c r="C320" s="4"/>
@@ -8197,7 +8214,7 @@
       <c r="I320" s="37"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="19"/>
       <c r="C321" s="4"/>
@@ -8209,7 +8226,7 @@
       <c r="I321" s="37"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="18"/>
       <c r="C322" s="4"/>
@@ -8221,7 +8238,7 @@
       <c r="I322" s="37"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="19"/>
       <c r="C323" s="4"/>
@@ -8233,7 +8250,7 @@
       <c r="I323" s="37"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="18"/>
       <c r="C324" s="4"/>
@@ -8245,7 +8262,7 @@
       <c r="I324" s="37"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="19"/>
       <c r="C325" s="4"/>
@@ -8257,7 +8274,7 @@
       <c r="I325" s="37"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="34"/>
       <c r="B326" s="32"/>
       <c r="C326" s="12"/>
@@ -8269,7 +8286,7 @@
       <c r="I326" s="37"/>
       <c r="J326" s="12"/>
     </row>
-    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="18"/>
       <c r="C327" s="4"/>
@@ -8281,7 +8298,7 @@
       <c r="I327" s="37"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="19"/>
       <c r="C328" s="4"/>
@@ -8293,7 +8310,7 @@
       <c r="I328" s="37"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="18"/>
       <c r="C329" s="4"/>
@@ -8305,7 +8322,7 @@
       <c r="I329" s="37"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="13"/>
       <c r="B330" s="19"/>
       <c r="C330" s="4"/>
@@ -8317,7 +8334,7 @@
       <c r="I330" s="37"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="18"/>
       <c r="C331" s="4"/>
@@ -8329,7 +8346,7 @@
       <c r="I331" s="37"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="19"/>
       <c r="C332" s="4"/>
@@ -8341,7 +8358,7 @@
       <c r="I332" s="37"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="18"/>
       <c r="C333" s="4"/>
@@ -8353,7 +8370,7 @@
       <c r="I333" s="37"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="19"/>
       <c r="C334" s="4"/>
@@ -8365,7 +8382,7 @@
       <c r="I334" s="37"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="18"/>
       <c r="C335" s="4"/>
@@ -8377,7 +8394,7 @@
       <c r="I335" s="37"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="19"/>
       <c r="C336" s="4"/>
@@ -8389,7 +8406,7 @@
       <c r="I336" s="37"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="18"/>
       <c r="C337" s="4"/>
@@ -8401,7 +8418,7 @@
       <c r="I337" s="37"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="19"/>
       <c r="C338" s="4"/>
@@ -8413,7 +8430,7 @@
       <c r="I338" s="37"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="18"/>
       <c r="C339" s="4"/>
@@ -8425,7 +8442,7 @@
       <c r="I339" s="37"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="19"/>
       <c r="C340" s="4"/>
@@ -8437,7 +8454,7 @@
       <c r="I340" s="37"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -8449,7 +8466,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -8461,7 +8478,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -8473,7 +8490,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -8485,7 +8502,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -8497,7 +8514,7 @@
       <c r="I345" s="39"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -8509,7 +8526,7 @@
       <c r="I346" s="39"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -8521,7 +8538,7 @@
       <c r="I347" s="39"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -8533,7 +8550,7 @@
       <c r="I348" s="39"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -8545,7 +8562,7 @@
       <c r="I349" s="39"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -8557,7 +8574,7 @@
       <c r="I350" s="39"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -8569,7 +8586,7 @@
       <c r="I351" s="39"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -8581,7 +8598,7 @@
       <c r="I352" s="39"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -8593,7 +8610,7 @@
       <c r="I353" s="39"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -8605,7 +8622,7 @@
       <c r="I354" s="39"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -8617,7 +8634,7 @@
       <c r="I355" s="39"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -8629,7 +8646,7 @@
       <c r="I356" s="39"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -8641,7 +8658,7 @@
       <c r="I357" s="39"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -8653,7 +8670,7 @@
       <c r="I358" s="39"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -8665,7 +8682,7 @@
       <c r="I359" s="39"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -8677,7 +8694,7 @@
       <c r="I360" s="39"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -8689,7 +8706,7 @@
       <c r="I361" s="39"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -8701,7 +8718,7 @@
       <c r="I362" s="39"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -8713,7 +8730,7 @@
       <c r="I363" s="39"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -8725,7 +8742,7 @@
       <c r="I364" s="39"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -8737,7 +8754,7 @@
       <c r="I365" s="39"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -8749,7 +8766,7 @@
       <c r="I366" s="39"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -8761,7 +8778,7 @@
       <c r="I367" s="39"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -8773,7 +8790,7 @@
       <c r="I368" s="39"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -8785,7 +8802,7 @@
       <c r="I369" s="39"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C97856-42C2-47B3-872C-EC22887993FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CF0915-851A-48C5-943E-E0EC792D2E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
@@ -839,7 +839,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,30 +1150,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1212,21 +1188,16 @@
     <xf numFmtId="49" fontId="44" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="44" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1267,6 +1238,30 @@
     </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1589,47 +1584,46 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J188"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="129" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" style="124" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="124" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="124" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="124" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="124" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="124" customWidth="1"/>
-    <col min="14" max="14" width="23" style="124" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="124" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="124" customWidth="1"/>
-    <col min="17" max="17" width="13" style="124" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="124"/>
+    <col min="1" max="1" width="11.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
@@ -1641,35 +1635,35 @@
       <c r="J2" s="71"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
@@ -1681,7 +1675,7 @@
       <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="74" t="s">
@@ -1725,7 +1719,7 @@
       <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="117">
+      <c r="A8" s="109">
         <v>4</v>
       </c>
       <c r="B8" s="88" t="s">
@@ -1738,13 +1732,13 @@
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="142"/>
+      <c r="J8" s="131"/>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="121" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="41"/>
@@ -1754,10 +1748,10 @@
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="142"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="122" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="100" t="s">
@@ -1770,10 +1764,10 @@
       <c r="G10" s="81"/>
       <c r="H10" s="81"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="142"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="52" t="s">
         <v>26</v>
       </c>
@@ -1784,12 +1778,12 @@
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="142">
+      <c r="J11" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="53" t="s">
         <v>32</v>
       </c>
@@ -1801,11 +1795,13 @@
       <c r="F12" s="42"/>
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="142"/>
+      <c r="I12" s="42">
+        <v>1</v>
+      </c>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="122" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -1818,10 +1814,10 @@
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="142"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
@@ -1830,10 +1826,10 @@
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="142"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="52" t="s">
         <v>27</v>
       </c>
@@ -1844,12 +1840,12 @@
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="142">
+      <c r="J15" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="122" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="100" t="s">
@@ -1863,11 +1859,13 @@
       <c r="F16" s="42"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="142"/>
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="52" t="s">
         <v>13</v>
       </c>
@@ -1878,12 +1876,12 @@
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="142">
+      <c r="J17" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="53"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42">
@@ -1893,11 +1891,13 @@
       <c r="F18" s="42"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="142"/>
+      <c r="I18" s="42">
+        <v>2</v>
+      </c>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="52" t="s">
         <v>26</v>
       </c>
@@ -1908,10 +1908,10 @@
       <c r="G19" s="81"/>
       <c r="H19" s="81"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="142"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="53"/>
       <c r="C20" s="41"/>
       <c r="D20" s="42">
@@ -1921,11 +1921,13 @@
       <c r="F20" s="42"/>
       <c r="G20" s="81"/>
       <c r="H20" s="81"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="142"/>
+      <c r="I20" s="42">
+        <v>4</v>
+      </c>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="52" t="s">
         <v>27</v>
       </c>
@@ -1936,10 +1938,10 @@
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="142"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="53"/>
       <c r="C22" s="41"/>
       <c r="D22" s="42">
@@ -1949,11 +1951,13 @@
       <c r="F22" s="42"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="142"/>
+      <c r="I22" s="42">
+        <v>4</v>
+      </c>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="52" t="s">
         <v>28</v>
       </c>
@@ -1964,10 +1968,10 @@
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="142"/>
+      <c r="J23" s="131"/>
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="53"/>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
@@ -1977,11 +1981,13 @@
       <c r="F24" s="42"/>
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="142"/>
+      <c r="I24" s="42">
+        <v>5</v>
+      </c>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
+      <c r="A25" s="122"/>
       <c r="B25" s="52" t="s">
         <v>29</v>
       </c>
@@ -1992,10 +1998,10 @@
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="142"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="53"/>
       <c r="C26" s="41"/>
       <c r="D26" s="42">
@@ -2005,11 +2011,13 @@
       <c r="F26" s="42"/>
       <c r="G26" s="81"/>
       <c r="H26" s="81"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="142"/>
+      <c r="I26" s="42">
+        <v>4</v>
+      </c>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="133"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
@@ -2020,10 +2028,10 @@
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="142"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="53"/>
       <c r="C28" s="41"/>
       <c r="D28" s="42">
@@ -2033,11 +2041,13 @@
       <c r="F28" s="42"/>
       <c r="G28" s="81"/>
       <c r="H28" s="81"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="142"/>
+      <c r="I28" s="42">
+        <v>3</v>
+      </c>
+      <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="52" t="s">
         <v>31</v>
       </c>
@@ -2048,10 +2058,10 @@
       <c r="G29" s="81"/>
       <c r="H29" s="81"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="142"/>
+      <c r="J29" s="131"/>
     </row>
     <row r="30" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
+      <c r="A30" s="122"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
       <c r="D30" s="42">
@@ -2061,11 +2071,13 @@
       <c r="F30" s="42"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="142"/>
+      <c r="I30" s="42">
+        <v>1</v>
+      </c>
+      <c r="J30" s="131"/>
     </row>
     <row r="31" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="133" t="s">
+      <c r="A31" s="122" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="100" t="s">
@@ -2078,10 +2090,10 @@
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="142"/>
+      <c r="J31" s="131"/>
     </row>
     <row r="32" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="52" t="s">
         <v>13</v>
       </c>
@@ -2092,12 +2104,12 @@
       <c r="G32" s="81"/>
       <c r="H32" s="81"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="142">
+      <c r="J32" s="131">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
       <c r="D33" s="42">
@@ -2107,11 +2119,13 @@
       <c r="F33" s="42"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="142"/>
+      <c r="I33" s="42">
+        <v>1</v>
+      </c>
+      <c r="J33" s="131"/>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="52" t="s">
         <v>26</v>
       </c>
@@ -2122,10 +2136,10 @@
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="142"/>
+      <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="53"/>
       <c r="C35" s="41"/>
       <c r="D35" s="42">
@@ -2135,11 +2149,13 @@
       <c r="F35" s="42"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="142"/>
+      <c r="I35" s="42">
+        <v>8</v>
+      </c>
+      <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="52" t="s">
         <v>27</v>
       </c>
@@ -2150,10 +2166,10 @@
       <c r="G36" s="81"/>
       <c r="H36" s="81"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="142"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="53"/>
       <c r="C37" s="41"/>
       <c r="D37" s="42">
@@ -2163,11 +2179,13 @@
       <c r="F37" s="42"/>
       <c r="G37" s="81"/>
       <c r="H37" s="81"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="142"/>
+      <c r="I37" s="42">
+        <v>7</v>
+      </c>
+      <c r="J37" s="131"/>
     </row>
     <row r="38" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
@@ -2178,10 +2196,10 @@
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="142"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
+      <c r="A39" s="122"/>
       <c r="B39" s="53"/>
       <c r="C39" s="41"/>
       <c r="D39" s="42">
@@ -2191,11 +2209,13 @@
       <c r="F39" s="42"/>
       <c r="G39" s="81"/>
       <c r="H39" s="81"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="142"/>
+      <c r="I39" s="42">
+        <v>6</v>
+      </c>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
+      <c r="A40" s="122"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -2206,10 +2226,10 @@
       <c r="G40" s="81"/>
       <c r="H40" s="81"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="142"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="53"/>
       <c r="C41" s="41"/>
       <c r="D41" s="42">
@@ -2219,11 +2239,13 @@
       <c r="F41" s="42"/>
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="142"/>
+      <c r="I41" s="42">
+        <v>6</v>
+      </c>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="52" t="s">
         <v>30</v>
       </c>
@@ -2234,10 +2256,10 @@
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="142"/>
+      <c r="J42" s="131"/>
     </row>
     <row r="43" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="53"/>
       <c r="C43" s="41"/>
       <c r="D43" s="42">
@@ -2247,8 +2269,10 @@
       <c r="F43" s="42"/>
       <c r="G43" s="81"/>
       <c r="H43" s="81"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="142"/>
+      <c r="I43" s="42">
+        <v>6</v>
+      </c>
+      <c r="J43" s="131"/>
     </row>
     <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
@@ -2281,7 +2305,7 @@
       <c r="F45" s="46"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
-      <c r="I45" s="48"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="82">
         <v>2</v>
       </c>
@@ -2295,7 +2319,7 @@
       <c r="F46" s="46"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
-      <c r="I46" s="48"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="82"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,8 +2335,7 @@
       <c r="F47" s="46"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
-      <c r="I47" s="48">
-        <f t="shared" ref="I47" si="0">ROUND(PRODUCT(D47:G47),2)</f>
+      <c r="I47" s="46">
         <v>2</v>
       </c>
       <c r="J47" s="82"/>
@@ -2365,16 +2388,15 @@
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="48">
-        <f t="shared" ref="I50" si="1">ROUND(PRODUCT(D50:G50),2)</f>
         <v>1</v>
       </c>
       <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
+      <c r="A51" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="45"/>
@@ -2387,10 +2409,10 @@
       <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="139" t="s">
+      <c r="A52" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="129" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="47"/>
@@ -2451,7 +2473,6 @@
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
       <c r="I55" s="48">
-        <f t="shared" ref="I55" si="2">ROUND(PRODUCT(D55:G55),2)</f>
         <v>1</v>
       </c>
       <c r="J55" s="46"/>
@@ -2505,7 +2526,6 @@
       <c r="G58" s="47"/>
       <c r="H58" s="47"/>
       <c r="I58" s="48">
-        <f>ROUND(PRODUCT(D58:G58),2)</f>
         <v>1</v>
       </c>
       <c r="J58" s="46"/>
@@ -2538,7 +2558,6 @@
       <c r="G60" s="47"/>
       <c r="H60" s="47"/>
       <c r="I60" s="48">
-        <f t="shared" ref="I60" si="3">ROUND(PRODUCT(D60:G60),2)</f>
         <v>2</v>
       </c>
       <c r="J60" s="46"/>
@@ -2571,7 +2590,6 @@
       <c r="G62" s="47"/>
       <c r="H62" s="47"/>
       <c r="I62" s="48">
-        <f t="shared" ref="I62" si="4">ROUND(PRODUCT(D62:G62),2)</f>
         <v>3</v>
       </c>
       <c r="J62" s="46"/>
@@ -2604,7 +2622,6 @@
       <c r="G64" s="47"/>
       <c r="H64" s="47"/>
       <c r="I64" s="48">
-        <f t="shared" ref="I64" si="5">ROUND(PRODUCT(D64:G64),2)</f>
         <v>2</v>
       </c>
       <c r="J64" s="46"/>
@@ -2637,7 +2654,6 @@
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
       <c r="I66" s="48">
-        <f t="shared" ref="I66" si="6">ROUND(PRODUCT(D66:G66),2)</f>
         <v>2</v>
       </c>
       <c r="J66" s="46"/>
@@ -2670,7 +2686,6 @@
       <c r="G68" s="47"/>
       <c r="H68" s="47"/>
       <c r="I68" s="48">
-        <f t="shared" ref="I68" si="7">ROUND(PRODUCT(D68:G68),2)</f>
         <v>1</v>
       </c>
       <c r="J68" s="46"/>
@@ -2703,16 +2718,15 @@
       <c r="G70" s="47"/>
       <c r="H70" s="47"/>
       <c r="I70" s="48">
-        <f t="shared" ref="I70" si="8">ROUND(PRODUCT(D70:G70),2)</f>
         <v>1</v>
       </c>
       <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="119" t="s">
+      <c r="A71" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="123" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="47"/>
@@ -2725,7 +2739,7 @@
       <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +2755,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="119"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="53" t="s">
         <v>34</v>
       </c>
@@ -2753,11 +2767,13 @@
       <c r="F73" s="48"/>
       <c r="G73" s="47"/>
       <c r="H73" s="47"/>
-      <c r="I73" s="48"/>
+      <c r="I73" s="48">
+        <v>1</v>
+      </c>
       <c r="J73" s="46"/>
     </row>
     <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="52" t="s">
         <v>26</v>
       </c>
@@ -2771,7 +2787,7 @@
       <c r="J74" s="46"/>
     </row>
     <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="119"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="53" t="s">
         <v>34</v>
       </c>
@@ -2783,11 +2799,13 @@
       <c r="F75" s="48"/>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
-      <c r="I75" s="48"/>
+      <c r="I75" s="48">
+        <v>3</v>
+      </c>
       <c r="J75" s="46"/>
     </row>
     <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="119"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="52" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2819,7 @@
       <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="53" t="s">
         <v>34</v>
       </c>
@@ -2813,11 +2831,13 @@
       <c r="F77" s="48"/>
       <c r="G77" s="47"/>
       <c r="H77" s="47"/>
-      <c r="I77" s="48"/>
+      <c r="I77" s="48">
+        <v>6</v>
+      </c>
       <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="119"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="52" t="s">
         <v>28</v>
       </c>
@@ -2831,7 +2851,7 @@
       <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="53" t="s">
         <v>34</v>
       </c>
@@ -2843,11 +2863,13 @@
       <c r="F79" s="48"/>
       <c r="G79" s="47"/>
       <c r="H79" s="47"/>
-      <c r="I79" s="48"/>
+      <c r="I79" s="48">
+        <v>2</v>
+      </c>
       <c r="J79" s="46"/>
     </row>
     <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="52" t="s">
         <v>29</v>
       </c>
@@ -2861,7 +2883,7 @@
       <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="53" t="s">
         <v>34</v>
       </c>
@@ -2873,11 +2895,13 @@
       <c r="F81" s="48"/>
       <c r="G81" s="47"/>
       <c r="H81" s="47"/>
-      <c r="I81" s="48"/>
+      <c r="I81" s="48">
+        <v>2</v>
+      </c>
       <c r="J81" s="46"/>
     </row>
     <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="52" t="s">
         <v>30</v>
       </c>
@@ -2891,7 +2915,7 @@
       <c r="J82" s="46"/>
     </row>
     <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="53" t="s">
         <v>34</v>
       </c>
@@ -2903,11 +2927,13 @@
       <c r="F83" s="48"/>
       <c r="G83" s="47"/>
       <c r="H83" s="47"/>
-      <c r="I83" s="48"/>
+      <c r="I83" s="48">
+        <v>1</v>
+      </c>
       <c r="J83" s="46"/>
     </row>
     <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="52" t="s">
         <v>31</v>
       </c>
@@ -2921,7 +2947,7 @@
       <c r="J84" s="46"/>
     </row>
     <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="53" t="s">
         <v>34</v>
       </c>
@@ -2933,14 +2959,16 @@
       <c r="F85" s="48"/>
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
-      <c r="I85" s="48"/>
+      <c r="I85" s="48">
+        <v>1</v>
+      </c>
       <c r="J85" s="46"/>
     </row>
     <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="123" t="s">
+      <c r="A86" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="137" t="s">
+      <c r="B86" s="126" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="45"/>
@@ -2953,7 +2981,7 @@
       <c r="J86" s="46"/>
     </row>
     <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="124" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="60" t="s">
@@ -2967,11 +2995,11 @@
       <c r="F87" s="48"/>
       <c r="G87" s="47"/>
       <c r="H87" s="47"/>
-      <c r="I87" s="48"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="46"/>
     </row>
     <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="52" t="s">
         <v>13</v>
       </c>
@@ -2981,13 +3009,13 @@
       <c r="F88" s="48"/>
       <c r="G88" s="47"/>
       <c r="H88" s="47"/>
-      <c r="I88" s="48"/>
+      <c r="I88" s="46"/>
       <c r="J88" s="46">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+      <c r="A89" s="111"/>
       <c r="B89" s="53" t="s">
         <v>15</v>
       </c>
@@ -2999,11 +3027,13 @@
       <c r="F89" s="48"/>
       <c r="G89" s="47"/>
       <c r="H89" s="47"/>
-      <c r="I89" s="48"/>
+      <c r="I89" s="46">
+        <v>4</v>
+      </c>
       <c r="J89" s="46"/>
     </row>
     <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
+      <c r="A90" s="111"/>
       <c r="B90" s="52" t="s">
         <v>26</v>
       </c>
@@ -3013,11 +3043,11 @@
       <c r="F90" s="48"/>
       <c r="G90" s="47"/>
       <c r="H90" s="47"/>
-      <c r="I90" s="48"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="46"/>
     </row>
     <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
+      <c r="A91" s="111"/>
       <c r="B91" s="53" t="s">
         <v>15</v>
       </c>
@@ -3029,11 +3059,13 @@
       <c r="F91" s="48"/>
       <c r="G91" s="47"/>
       <c r="H91" s="47"/>
-      <c r="I91" s="48"/>
+      <c r="I91" s="46">
+        <v>5</v>
+      </c>
       <c r="J91" s="46"/>
     </row>
     <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>27</v>
       </c>
@@ -3043,11 +3075,11 @@
       <c r="F92" s="48"/>
       <c r="G92" s="47"/>
       <c r="H92" s="47"/>
-      <c r="I92" s="48"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="46"/>
     </row>
     <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
+      <c r="A93" s="111"/>
       <c r="B93" s="53" t="s">
         <v>15</v>
       </c>
@@ -3059,11 +3091,13 @@
       <c r="F93" s="48"/>
       <c r="G93" s="47"/>
       <c r="H93" s="47"/>
-      <c r="I93" s="48"/>
+      <c r="I93" s="46">
+        <v>6</v>
+      </c>
       <c r="J93" s="46"/>
     </row>
     <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+      <c r="A94" s="111"/>
       <c r="B94" s="52" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3111,7 @@
       <c r="J94" s="46"/>
     </row>
     <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="53" t="s">
         <v>15</v>
       </c>
@@ -3089,11 +3123,13 @@
       <c r="F95" s="48"/>
       <c r="G95" s="47"/>
       <c r="H95" s="47"/>
-      <c r="I95" s="48"/>
+      <c r="I95" s="48">
+        <v>6</v>
+      </c>
       <c r="J95" s="46"/>
     </row>
     <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>29</v>
       </c>
@@ -3119,7 +3155,9 @@
       <c r="F97" s="48"/>
       <c r="G97" s="47"/>
       <c r="H97" s="47"/>
-      <c r="I97" s="48"/>
+      <c r="I97" s="48">
+        <v>5</v>
+      </c>
       <c r="J97" s="46"/>
     </row>
     <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,7 +3187,9 @@
       <c r="F99" s="48"/>
       <c r="G99" s="47"/>
       <c r="H99" s="47"/>
-      <c r="I99" s="48"/>
+      <c r="I99" s="48">
+        <v>5</v>
+      </c>
       <c r="J99" s="46"/>
     </row>
     <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,11 +3219,13 @@
       <c r="F101" s="48"/>
       <c r="G101" s="47"/>
       <c r="H101" s="47"/>
-      <c r="I101" s="48"/>
+      <c r="I101" s="48">
+        <v>1</v>
+      </c>
       <c r="J101" s="46"/>
     </row>
     <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="123"/>
+      <c r="A102" s="115"/>
       <c r="B102" s="53" t="s">
         <v>59</v>
       </c>
@@ -3195,11 +3237,13 @@
       <c r="F102" s="48"/>
       <c r="G102" s="47"/>
       <c r="H102" s="47"/>
-      <c r="I102" s="48"/>
+      <c r="I102" s="48">
+        <v>1</v>
+      </c>
       <c r="J102" s="46"/>
     </row>
     <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="135"/>
+      <c r="A103" s="124"/>
       <c r="B103" s="53" t="s">
         <v>60</v>
       </c>
@@ -3211,14 +3255,16 @@
       <c r="F103" s="48"/>
       <c r="G103" s="47"/>
       <c r="H103" s="47"/>
-      <c r="I103" s="48"/>
+      <c r="I103" s="48">
+        <v>1</v>
+      </c>
       <c r="J103" s="46"/>
     </row>
     <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="118" t="s">
+      <c r="A104" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="138" t="s">
+      <c r="B104" s="127" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="47"/>
@@ -3231,7 +3277,7 @@
       <c r="J104" s="46"/>
     </row>
     <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="135" t="s">
+      <c r="A105" s="124" t="s">
         <v>96</v>
       </c>
       <c r="B105" s="100" t="s">
@@ -3247,7 +3293,7 @@
       <c r="J105" s="46"/>
     </row>
     <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="119"/>
+      <c r="A106" s="111"/>
       <c r="B106" s="52" t="s">
         <v>13</v>
       </c>
@@ -3263,7 +3309,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="119"/>
+      <c r="A107" s="111"/>
       <c r="B107" s="53" t="s">
         <v>34</v>
       </c>
@@ -3275,11 +3321,13 @@
       <c r="F107" s="48"/>
       <c r="G107" s="47"/>
       <c r="H107" s="47"/>
-      <c r="I107" s="48"/>
+      <c r="I107" s="48">
+        <v>6</v>
+      </c>
       <c r="J107" s="46"/>
     </row>
     <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="119"/>
+      <c r="A108" s="111"/>
       <c r="B108" s="52" t="s">
         <v>26</v>
       </c>
@@ -3293,7 +3341,7 @@
       <c r="J108" s="46"/>
     </row>
     <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="119"/>
+      <c r="A109" s="111"/>
       <c r="B109" s="53" t="s">
         <v>34</v>
       </c>
@@ -3305,11 +3353,13 @@
       <c r="F109" s="48"/>
       <c r="G109" s="47"/>
       <c r="H109" s="47"/>
-      <c r="I109" s="48"/>
+      <c r="I109" s="48">
+        <v>10</v>
+      </c>
       <c r="J109" s="46"/>
     </row>
     <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
+      <c r="A110" s="111"/>
       <c r="B110" s="52" t="s">
         <v>27</v>
       </c>
@@ -3323,7 +3373,7 @@
       <c r="J110" s="46"/>
     </row>
     <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="119"/>
+      <c r="A111" s="111"/>
       <c r="B111" s="53" t="s">
         <v>34</v>
       </c>
@@ -3335,11 +3385,13 @@
       <c r="F111" s="48"/>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
-      <c r="I111" s="48"/>
+      <c r="I111" s="48">
+        <v>20</v>
+      </c>
       <c r="J111" s="46"/>
     </row>
     <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="119"/>
+      <c r="A112" s="111"/>
       <c r="B112" s="52" t="s">
         <v>28</v>
       </c>
@@ -3353,7 +3405,7 @@
       <c r="J112" s="46"/>
     </row>
     <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="119"/>
+      <c r="A113" s="111"/>
       <c r="B113" s="53" t="s">
         <v>34</v>
       </c>
@@ -3365,11 +3417,13 @@
       <c r="F113" s="48"/>
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
-      <c r="I113" s="48"/>
+      <c r="I113" s="48">
+        <v>20</v>
+      </c>
       <c r="J113" s="46"/>
     </row>
     <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="119"/>
+      <c r="A114" s="111"/>
       <c r="B114" s="52" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3449,9 @@
       <c r="F115" s="48"/>
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
-      <c r="I115" s="48"/>
+      <c r="I115" s="48">
+        <v>14</v>
+      </c>
       <c r="J115" s="46"/>
     </row>
     <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3425,7 +3481,9 @@
       <c r="F117" s="48"/>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
-      <c r="I117" s="48"/>
+      <c r="I117" s="48">
+        <v>20</v>
+      </c>
       <c r="J117" s="46"/>
     </row>
     <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,11 +3513,13 @@
       <c r="F119" s="48"/>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
-      <c r="I119" s="48"/>
+      <c r="I119" s="48">
+        <v>10</v>
+      </c>
       <c r="J119" s="46"/>
     </row>
     <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="135" t="s">
+      <c r="A120" s="124" t="s">
         <v>98</v>
       </c>
       <c r="B120" s="100" t="s">
@@ -3503,7 +3563,9 @@
       <c r="F122" s="48"/>
       <c r="G122" s="47"/>
       <c r="H122" s="47"/>
-      <c r="I122" s="48"/>
+      <c r="I122" s="48">
+        <v>2</v>
+      </c>
       <c r="J122" s="46"/>
     </row>
     <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,7 +3595,9 @@
       <c r="F124" s="48"/>
       <c r="G124" s="47"/>
       <c r="H124" s="47"/>
-      <c r="I124" s="48"/>
+      <c r="I124" s="48">
+        <v>4</v>
+      </c>
       <c r="J124" s="46"/>
     </row>
     <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3627,9 @@
       <c r="F126" s="48"/>
       <c r="G126" s="47"/>
       <c r="H126" s="47"/>
-      <c r="I126" s="48"/>
+      <c r="I126" s="48">
+        <v>2</v>
+      </c>
       <c r="J126" s="46"/>
     </row>
     <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,7 +3659,9 @@
       <c r="F128" s="48"/>
       <c r="G128" s="47"/>
       <c r="H128" s="47"/>
-      <c r="I128" s="48"/>
+      <c r="I128" s="48">
+        <v>2</v>
+      </c>
       <c r="J128" s="46"/>
     </row>
     <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3623,7 +3691,9 @@
       <c r="F130" s="48"/>
       <c r="G130" s="47"/>
       <c r="H130" s="47"/>
-      <c r="I130" s="48"/>
+      <c r="I130" s="48">
+        <v>2</v>
+      </c>
       <c r="J130" s="46"/>
     </row>
     <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,7 +3723,9 @@
       <c r="F132" s="48"/>
       <c r="G132" s="47"/>
       <c r="H132" s="47"/>
-      <c r="I132" s="48"/>
+      <c r="I132" s="48">
+        <v>2</v>
+      </c>
       <c r="J132" s="46"/>
     </row>
     <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,11 +3755,13 @@
       <c r="F134" s="48"/>
       <c r="G134" s="47"/>
       <c r="H134" s="47"/>
-      <c r="I134" s="48"/>
+      <c r="I134" s="48">
+        <v>1</v>
+      </c>
       <c r="J134" s="46"/>
     </row>
     <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="135" t="s">
+      <c r="A135" s="124" t="s">
         <v>100</v>
       </c>
       <c r="B135" s="100" t="s">
@@ -3729,7 +3803,9 @@
       <c r="F137" s="48"/>
       <c r="G137" s="47"/>
       <c r="H137" s="47"/>
-      <c r="I137" s="48"/>
+      <c r="I137" s="48">
+        <v>1200</v>
+      </c>
       <c r="J137" s="46"/>
     </row>
     <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,7 +3821,7 @@
       <c r="J138" s="46"/>
     </row>
     <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="118" t="s">
+      <c r="A139" s="110" t="s">
         <v>63</v>
       </c>
       <c r="B139" s="102" t="s">
@@ -3761,10 +3837,10 @@
       <c r="J139" s="46"/>
     </row>
     <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="119" t="s">
+      <c r="A140" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B140" s="136" t="s">
+      <c r="B140" s="125" t="s">
         <v>58</v>
       </c>
       <c r="C140" s="45" t="s">
@@ -3781,7 +3857,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119"/>
+      <c r="A141" s="111"/>
       <c r="B141" s="52" t="s">
         <v>26</v>
       </c>
@@ -3807,7 +3883,9 @@
       <c r="F142" s="48"/>
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
-      <c r="I142" s="48"/>
+      <c r="I142" s="48">
+        <v>1</v>
+      </c>
       <c r="J142" s="46"/>
     </row>
     <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3980,7 @@
       <c r="A148" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B148" s="112" t="s">
+      <c r="B148" s="104" t="s">
         <v>107</v>
       </c>
       <c r="C148" s="45"/>
@@ -3963,7 +4041,6 @@
       <c r="G151" s="47"/>
       <c r="H151" s="47"/>
       <c r="I151" s="48">
-        <f t="shared" ref="I151:I163" si="9">ROUND(PRODUCT(D151:G151),2)</f>
         <v>8</v>
       </c>
       <c r="J151" s="46"/>
@@ -3996,7 +4073,6 @@
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
       <c r="I153" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J153" s="46"/>
@@ -4029,7 +4105,6 @@
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J155" s="46"/>
@@ -4062,7 +4137,6 @@
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>
       <c r="I157" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J157" s="46"/>
@@ -4095,7 +4169,6 @@
       <c r="G159" s="47"/>
       <c r="H159" s="47"/>
       <c r="I159" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J159" s="46"/>
@@ -4128,7 +4201,6 @@
       <c r="G161" s="47"/>
       <c r="H161" s="47"/>
       <c r="I161" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J161" s="46"/>
@@ -4161,7 +4233,6 @@
       <c r="G163" s="47"/>
       <c r="H163" s="47"/>
       <c r="I163" s="48">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J163" s="46"/>
@@ -4170,7 +4241,7 @@
       <c r="A164" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B164" s="138" t="s">
+      <c r="B164" s="127" t="s">
         <v>75</v>
       </c>
       <c r="C164" s="45"/>
@@ -4197,7 +4268,7 @@
       <c r="F165" s="46"/>
       <c r="G165" s="51"/>
       <c r="H165" s="51"/>
-      <c r="I165" s="48"/>
+      <c r="I165" s="46"/>
       <c r="J165" s="82">
         <v>2</v>
       </c>
@@ -4213,7 +4284,7 @@
       <c r="F166" s="46"/>
       <c r="G166" s="51"/>
       <c r="H166" s="51"/>
-      <c r="I166" s="48"/>
+      <c r="I166" s="46"/>
       <c r="J166" s="82"/>
     </row>
     <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4229,8 +4300,7 @@
       <c r="F167" s="46"/>
       <c r="G167" s="51"/>
       <c r="H167" s="51"/>
-      <c r="I167" s="48">
-        <f t="shared" ref="I167:I182" si="10">ROUND(PRODUCT(D167:G167),2)</f>
+      <c r="I167" s="46">
         <v>2</v>
       </c>
       <c r="J167" s="46"/>
@@ -4281,7 +4351,6 @@
       <c r="G170" s="47"/>
       <c r="H170" s="47"/>
       <c r="I170" s="48">
-        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J170" s="46"/>
@@ -4334,7 +4403,6 @@
       <c r="G173" s="47"/>
       <c r="H173" s="47"/>
       <c r="I173" s="48">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J173" s="46"/>
@@ -4354,7 +4422,7 @@
       <c r="F174" s="46"/>
       <c r="G174" s="51"/>
       <c r="H174" s="51"/>
-      <c r="I174" s="48"/>
+      <c r="I174" s="46"/>
       <c r="J174" s="82"/>
     </row>
     <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4436,7 @@
       <c r="F175" s="46"/>
       <c r="G175" s="51"/>
       <c r="H175" s="51"/>
-      <c r="I175" s="48"/>
+      <c r="I175" s="46"/>
       <c r="J175" s="82">
         <v>2</v>
       </c>
@@ -4386,8 +4454,7 @@
       <c r="F176" s="46"/>
       <c r="G176" s="51"/>
       <c r="H176" s="51"/>
-      <c r="I176" s="48">
-        <f t="shared" si="10"/>
+      <c r="I176" s="46">
         <v>2</v>
       </c>
       <c r="J176" s="82"/>
@@ -4440,7 +4507,6 @@
       <c r="G179" s="47"/>
       <c r="H179" s="47"/>
       <c r="I179" s="48">
-        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J179" s="46"/>
@@ -4491,7 +4557,6 @@
       <c r="G182" s="47"/>
       <c r="H182" s="47"/>
       <c r="I182" s="48">
-        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J182" s="46">
@@ -4511,7 +4576,7 @@
       <c r="F183" s="46"/>
       <c r="G183" s="51"/>
       <c r="H183" s="51"/>
-      <c r="I183" s="48"/>
+      <c r="I183" s="46"/>
       <c r="J183" s="82"/>
     </row>
     <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4544,7 +4609,6 @@
       <c r="G185" s="47"/>
       <c r="H185" s="47"/>
       <c r="I185" s="48">
-        <f t="shared" ref="I185" si="11">ROUND(PRODUCT(D185:G185),2)</f>
         <v>10</v>
       </c>
       <c r="J185" s="46">
@@ -4612,7 +4676,7 @@
       <c r="J190" s="82"/>
     </row>
     <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
+      <c r="A191" s="112"/>
       <c r="B191" s="52"/>
       <c r="C191" s="45"/>
       <c r="D191" s="46"/>
@@ -4624,7 +4688,7 @@
       <c r="J191" s="82"/>
     </row>
     <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="120"/>
+      <c r="A192" s="112"/>
       <c r="B192" s="53"/>
       <c r="C192" s="45"/>
       <c r="D192" s="46"/>
@@ -4636,7 +4700,7 @@
       <c r="J192" s="82"/>
     </row>
     <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
+      <c r="A193" s="112"/>
       <c r="B193" s="52"/>
       <c r="C193" s="45"/>
       <c r="D193" s="46"/>
@@ -4648,7 +4712,7 @@
       <c r="J193" s="82"/>
     </row>
     <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="120"/>
+      <c r="A194" s="112"/>
       <c r="B194" s="53"/>
       <c r="C194" s="45"/>
       <c r="D194" s="46"/>
@@ -4660,7 +4724,7 @@
       <c r="J194" s="82"/>
     </row>
     <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="120"/>
+      <c r="A195" s="112"/>
       <c r="B195" s="52"/>
       <c r="C195" s="45"/>
       <c r="D195" s="46"/>
@@ -4672,7 +4736,7 @@
       <c r="J195" s="82"/>
     </row>
     <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="120"/>
+      <c r="A196" s="112"/>
       <c r="B196" s="53"/>
       <c r="C196" s="45"/>
       <c r="D196" s="46"/>
@@ -4984,7 +5048,7 @@
       <c r="J221" s="48"/>
     </row>
     <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="121"/>
+      <c r="A222" s="113"/>
       <c r="B222" s="63"/>
       <c r="C222" s="47"/>
       <c r="D222" s="48"/>
@@ -4996,8 +5060,8 @@
       <c r="J222" s="48"/>
     </row>
     <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="119"/>
-      <c r="B223" s="125"/>
+      <c r="A223" s="111"/>
+      <c r="B223" s="116"/>
       <c r="C223" s="45"/>
       <c r="D223" s="48"/>
       <c r="E223" s="47"/>
@@ -5008,7 +5072,7 @@
       <c r="J223" s="48"/>
     </row>
     <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="119"/>
+      <c r="A224" s="111"/>
       <c r="B224" s="52"/>
       <c r="C224" s="47"/>
       <c r="D224" s="48"/>
@@ -5044,7 +5108,7 @@
       <c r="J226" s="48"/>
     </row>
     <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="122"/>
+      <c r="A227" s="114"/>
       <c r="B227" s="65"/>
       <c r="C227" s="47"/>
       <c r="D227" s="48"/>
@@ -5056,7 +5120,7 @@
       <c r="J227" s="48"/>
     </row>
     <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="120"/>
+      <c r="A228" s="112"/>
       <c r="B228" s="60"/>
       <c r="C228" s="45"/>
       <c r="D228" s="46"/>
@@ -5092,7 +5156,7 @@
       <c r="J230" s="48"/>
     </row>
     <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="120"/>
+      <c r="A231" s="112"/>
       <c r="B231" s="66"/>
       <c r="C231" s="45"/>
       <c r="D231" s="46"/>
@@ -5272,304 +5336,304 @@
       <c r="J245" s="48"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="126"/>
-      <c r="D246" s="128"/>
-      <c r="E246" s="127"/>
-      <c r="F246" s="128"/>
-      <c r="G246" s="127"/>
-      <c r="H246" s="127"/>
-      <c r="I246" s="128"/>
-      <c r="J246" s="128"/>
+      <c r="A246" s="117"/>
+      <c r="D246" s="118"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="118"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="118"/>
+      <c r="J246" s="118"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="126"/>
-      <c r="D247" s="128"/>
-      <c r="E247" s="127"/>
-      <c r="F247" s="128"/>
-      <c r="G247" s="127"/>
-      <c r="H247" s="127"/>
-      <c r="I247" s="128"/>
-      <c r="J247" s="128"/>
+      <c r="A247" s="117"/>
+      <c r="D247" s="118"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="118"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="118"/>
+      <c r="J247" s="118"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="126"/>
-      <c r="D248" s="128"/>
-      <c r="E248" s="127"/>
-      <c r="F248" s="128"/>
-      <c r="G248" s="127"/>
-      <c r="H248" s="127"/>
-      <c r="I248" s="128"/>
-      <c r="J248" s="128"/>
+      <c r="A248" s="117"/>
+      <c r="D248" s="118"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="118"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="118"/>
+      <c r="J248" s="118"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="126"/>
-      <c r="D249" s="128"/>
-      <c r="E249" s="127"/>
-      <c r="F249" s="128"/>
-      <c r="G249" s="127"/>
-      <c r="H249" s="127"/>
-      <c r="I249" s="128"/>
-      <c r="J249" s="128"/>
+      <c r="A249" s="117"/>
+      <c r="D249" s="118"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="118"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="118"/>
+      <c r="J249" s="118"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="126"/>
-      <c r="D250" s="128"/>
-      <c r="E250" s="127"/>
-      <c r="F250" s="128"/>
-      <c r="G250" s="127"/>
-      <c r="H250" s="127"/>
-      <c r="I250" s="128"/>
-      <c r="J250" s="128"/>
+      <c r="A250" s="117"/>
+      <c r="D250" s="118"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="118"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="118"/>
+      <c r="J250" s="118"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="126"/>
-      <c r="D251" s="128"/>
-      <c r="E251" s="127"/>
-      <c r="F251" s="128"/>
-      <c r="G251" s="127"/>
-      <c r="H251" s="127"/>
-      <c r="I251" s="128"/>
-      <c r="J251" s="128"/>
+      <c r="A251" s="117"/>
+      <c r="D251" s="118"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="118"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="118"/>
+      <c r="J251" s="118"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="126"/>
-      <c r="D252" s="128"/>
-      <c r="E252" s="127"/>
-      <c r="F252" s="128"/>
-      <c r="G252" s="127"/>
-      <c r="H252" s="127"/>
-      <c r="I252" s="128"/>
-      <c r="J252" s="128"/>
+      <c r="A252" s="117"/>
+      <c r="D252" s="118"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="118"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="118"/>
+      <c r="J252" s="118"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="126"/>
-      <c r="D253" s="128"/>
-      <c r="E253" s="127"/>
-      <c r="F253" s="128"/>
-      <c r="G253" s="127"/>
-      <c r="H253" s="127"/>
-      <c r="I253" s="128"/>
-      <c r="J253" s="128"/>
+      <c r="A253" s="117"/>
+      <c r="D253" s="118"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="118"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="118"/>
+      <c r="J253" s="118"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="126"/>
-      <c r="D254" s="128"/>
-      <c r="E254" s="127"/>
-      <c r="F254" s="128"/>
-      <c r="G254" s="127"/>
-      <c r="H254" s="127"/>
-      <c r="I254" s="128"/>
-      <c r="J254" s="128"/>
+      <c r="A254" s="117"/>
+      <c r="D254" s="118"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="118"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="118"/>
+      <c r="J254" s="118"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="126"/>
-      <c r="D255" s="128"/>
-      <c r="E255" s="127"/>
-      <c r="F255" s="128"/>
-      <c r="G255" s="127"/>
-      <c r="H255" s="127"/>
-      <c r="I255" s="128"/>
-      <c r="J255" s="128"/>
+      <c r="A255" s="117"/>
+      <c r="D255" s="118"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="118"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="118"/>
+      <c r="J255" s="118"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="126"/>
-      <c r="D256" s="128"/>
-      <c r="E256" s="127"/>
-      <c r="F256" s="128"/>
-      <c r="G256" s="127"/>
-      <c r="H256" s="127"/>
-      <c r="I256" s="128"/>
-      <c r="J256" s="128"/>
+      <c r="A256" s="117"/>
+      <c r="D256" s="118"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="118"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="118"/>
+      <c r="J256" s="118"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="126"/>
-      <c r="D257" s="128"/>
-      <c r="E257" s="127"/>
-      <c r="F257" s="128"/>
-      <c r="G257" s="127"/>
-      <c r="H257" s="127"/>
-      <c r="I257" s="128"/>
-      <c r="J257" s="128"/>
+      <c r="A257" s="117"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="118"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="118"/>
+      <c r="J257" s="118"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="126"/>
-      <c r="D258" s="128"/>
-      <c r="E258" s="127"/>
-      <c r="F258" s="128"/>
-      <c r="G258" s="127"/>
-      <c r="H258" s="127"/>
-      <c r="I258" s="128"/>
-      <c r="J258" s="128"/>
+      <c r="A258" s="117"/>
+      <c r="D258" s="118"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="118"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="118"/>
+      <c r="J258" s="118"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="126"/>
-      <c r="D259" s="128"/>
-      <c r="E259" s="127"/>
-      <c r="F259" s="128"/>
-      <c r="G259" s="127"/>
-      <c r="H259" s="127"/>
-      <c r="I259" s="128"/>
-      <c r="J259" s="128"/>
+      <c r="A259" s="117"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="118"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="118"/>
+      <c r="J259" s="118"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="126"/>
-      <c r="D260" s="128"/>
-      <c r="E260" s="127"/>
-      <c r="F260" s="128"/>
-      <c r="G260" s="127"/>
-      <c r="H260" s="127"/>
-      <c r="I260" s="128"/>
-      <c r="J260" s="128"/>
+      <c r="A260" s="117"/>
+      <c r="D260" s="118"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="118"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="118"/>
+      <c r="J260" s="118"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="126"/>
-      <c r="D261" s="128"/>
-      <c r="E261" s="127"/>
-      <c r="F261" s="128"/>
-      <c r="G261" s="127"/>
-      <c r="H261" s="127"/>
-      <c r="I261" s="128"/>
-      <c r="J261" s="128"/>
+      <c r="A261" s="117"/>
+      <c r="D261" s="118"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="118"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="118"/>
+      <c r="J261" s="118"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="126"/>
-      <c r="D262" s="128"/>
-      <c r="E262" s="127"/>
-      <c r="F262" s="128"/>
-      <c r="G262" s="127"/>
-      <c r="H262" s="127"/>
-      <c r="I262" s="128"/>
-      <c r="J262" s="128"/>
+      <c r="A262" s="117"/>
+      <c r="D262" s="118"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="118"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="118"/>
+      <c r="J262" s="118"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="126"/>
-      <c r="D263" s="128"/>
-      <c r="E263" s="127"/>
-      <c r="F263" s="128"/>
-      <c r="G263" s="127"/>
-      <c r="H263" s="127"/>
-      <c r="I263" s="128"/>
-      <c r="J263" s="128"/>
+      <c r="A263" s="117"/>
+      <c r="D263" s="118"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="118"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="118"/>
+      <c r="J263" s="118"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="126"/>
-      <c r="D264" s="128"/>
-      <c r="E264" s="127"/>
-      <c r="F264" s="128"/>
-      <c r="G264" s="127"/>
-      <c r="H264" s="127"/>
-      <c r="I264" s="128"/>
-      <c r="J264" s="128"/>
+      <c r="A264" s="117"/>
+      <c r="D264" s="118"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="118"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="118"/>
+      <c r="J264" s="118"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="126"/>
-      <c r="D265" s="128"/>
-      <c r="E265" s="127"/>
-      <c r="F265" s="128"/>
-      <c r="G265" s="127"/>
-      <c r="H265" s="127"/>
-      <c r="I265" s="128"/>
-      <c r="J265" s="128"/>
+      <c r="A265" s="117"/>
+      <c r="D265" s="118"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="118"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="118"/>
+      <c r="J265" s="118"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="126"/>
-      <c r="D266" s="128"/>
-      <c r="E266" s="127"/>
-      <c r="F266" s="128"/>
-      <c r="G266" s="127"/>
-      <c r="H266" s="127"/>
-      <c r="I266" s="128"/>
-      <c r="J266" s="128"/>
+      <c r="A266" s="117"/>
+      <c r="D266" s="118"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="118"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="118"/>
+      <c r="J266" s="118"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="126"/>
-      <c r="D267" s="128"/>
-      <c r="E267" s="127"/>
-      <c r="F267" s="128"/>
-      <c r="G267" s="127"/>
-      <c r="H267" s="127"/>
-      <c r="I267" s="128"/>
-      <c r="J267" s="128"/>
+      <c r="A267" s="117"/>
+      <c r="D267" s="118"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="118"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="118"/>
+      <c r="J267" s="118"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="126"/>
-      <c r="D268" s="128"/>
-      <c r="E268" s="127"/>
-      <c r="F268" s="128"/>
-      <c r="G268" s="127"/>
-      <c r="H268" s="127"/>
-      <c r="I268" s="128"/>
-      <c r="J268" s="128"/>
+      <c r="A268" s="117"/>
+      <c r="D268" s="118"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="118"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="118"/>
+      <c r="J268" s="118"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="126"/>
-      <c r="D269" s="128"/>
-      <c r="E269" s="127"/>
-      <c r="F269" s="128"/>
-      <c r="G269" s="127"/>
-      <c r="H269" s="127"/>
-      <c r="I269" s="128"/>
-      <c r="J269" s="128"/>
+      <c r="A269" s="117"/>
+      <c r="D269" s="118"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="118"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="118"/>
+      <c r="J269" s="118"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="126"/>
-      <c r="D270" s="128"/>
-      <c r="E270" s="127"/>
-      <c r="F270" s="128"/>
-      <c r="G270" s="127"/>
-      <c r="H270" s="127"/>
-      <c r="I270" s="128"/>
-      <c r="J270" s="128"/>
+      <c r="A270" s="117"/>
+      <c r="D270" s="118"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="118"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="118"/>
+      <c r="J270" s="118"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="126"/>
-      <c r="D271" s="128"/>
-      <c r="E271" s="127"/>
-      <c r="F271" s="128"/>
-      <c r="G271" s="127"/>
-      <c r="H271" s="127"/>
-      <c r="I271" s="128"/>
-      <c r="J271" s="128"/>
+      <c r="A271" s="117"/>
+      <c r="D271" s="118"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="118"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="118"/>
+      <c r="J271" s="118"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="126"/>
-      <c r="D272" s="128"/>
-      <c r="E272" s="127"/>
-      <c r="F272" s="128"/>
-      <c r="G272" s="127"/>
-      <c r="H272" s="127"/>
-      <c r="I272" s="128"/>
-      <c r="J272" s="128"/>
+      <c r="A272" s="117"/>
+      <c r="D272" s="118"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="118"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="118"/>
+      <c r="J272" s="118"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="126"/>
-      <c r="D273" s="128"/>
-      <c r="E273" s="127"/>
-      <c r="F273" s="128"/>
-      <c r="G273" s="127"/>
-      <c r="H273" s="127"/>
-      <c r="I273" s="128"/>
-      <c r="J273" s="128"/>
+      <c r="A273" s="117"/>
+      <c r="D273" s="118"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="118"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="118"/>
+      <c r="J273" s="118"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="126"/>
-      <c r="D274" s="128"/>
-      <c r="E274" s="127"/>
-      <c r="F274" s="128"/>
-      <c r="G274" s="127"/>
-      <c r="H274" s="127"/>
-      <c r="I274" s="128"/>
-      <c r="J274" s="128"/>
+      <c r="A274" s="117"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="118"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="118"/>
+      <c r="J274" s="118"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="126"/>
-      <c r="D275" s="128"/>
-      <c r="E275" s="127"/>
-      <c r="F275" s="128"/>
-      <c r="G275" s="127"/>
-      <c r="H275" s="127"/>
-      <c r="I275" s="128"/>
-      <c r="J275" s="128"/>
+      <c r="A275" s="117"/>
+      <c r="D275" s="118"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="118"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="118"/>
+      <c r="J275" s="118"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J245" xr:uid="{5B0B1A2D-50B0-4651-90F6-F7D39D697E9C}"/>
@@ -5616,18 +5680,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
@@ -5645,29 +5709,29 @@
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C97856-42C2-47B3-872C-EC22887993FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90305C1-4D36-423B-94C2-7BDEC5204D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -839,7 +848,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,30 +1159,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1212,21 +1197,16 @@
     <xf numFmtId="49" fontId="44" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="44" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1267,6 +1247,30 @@
     </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1589,47 +1593,46 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J188"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="129" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" style="124" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="124" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="124" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="124" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="124" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="124" customWidth="1"/>
-    <col min="14" max="14" width="23" style="124" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="124" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="124" customWidth="1"/>
-    <col min="17" max="17" width="13" style="124" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="124"/>
+    <col min="1" max="1" width="11.6640625" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="106"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
@@ -1640,36 +1643,36 @@
       <c r="I2" s="70"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="106"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
@@ -1680,8 +1683,8 @@
       <c r="I5" s="70"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="74" t="s">
@@ -1712,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -1724,8 +1727,8 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="117">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="109">
         <v>4</v>
       </c>
       <c r="B8" s="88" t="s">
@@ -1738,13 +1741,13 @@
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="142"/>
-    </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="J8" s="131"/>
+    </row>
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="121" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="41"/>
@@ -1754,10 +1757,10 @@
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="142"/>
-    </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="J9" s="131"/>
+    </row>
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="122" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="100" t="s">
@@ -1770,10 +1773,10 @@
       <c r="G10" s="81"/>
       <c r="H10" s="81"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="142"/>
-    </row>
-    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+      <c r="J10" s="131"/>
+    </row>
+    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="122"/>
       <c r="B11" s="52" t="s">
         <v>26</v>
       </c>
@@ -1784,12 +1787,12 @@
       <c r="G11" s="81"/>
       <c r="H11" s="81"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="142">
+      <c r="J11" s="131">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="122"/>
       <c r="B12" s="53" t="s">
         <v>32</v>
       </c>
@@ -1802,10 +1805,10 @@
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="142"/>
-    </row>
-    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -1818,10 +1821,10 @@
       <c r="G13" s="81"/>
       <c r="H13" s="81"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="142"/>
-    </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="122"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
@@ -1830,10 +1833,10 @@
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="142"/>
-    </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="J14" s="131"/>
+    </row>
+    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="122"/>
       <c r="B15" s="52" t="s">
         <v>27</v>
       </c>
@@ -1844,12 +1847,12 @@
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="142">
+      <c r="J15" s="131">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="122" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="100" t="s">
@@ -1864,10 +1867,10 @@
       <c r="G16" s="81"/>
       <c r="H16" s="81"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="142"/>
-    </row>
-    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="J16" s="131"/>
+    </row>
+    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
       <c r="B17" s="52" t="s">
         <v>13</v>
       </c>
@@ -1878,12 +1881,12 @@
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="142">
+      <c r="J17" s="131">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
+    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="122"/>
       <c r="B18" s="53"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42">
@@ -1894,10 +1897,10 @@
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="142"/>
-    </row>
-    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="J18" s="131"/>
+    </row>
+    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
       <c r="B19" s="52" t="s">
         <v>26</v>
       </c>
@@ -1908,10 +1911,10 @@
       <c r="G19" s="81"/>
       <c r="H19" s="81"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="142"/>
-    </row>
-    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="J19" s="131"/>
+    </row>
+    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
       <c r="B20" s="53"/>
       <c r="C20" s="41"/>
       <c r="D20" s="42">
@@ -1922,10 +1925,10 @@
       <c r="G20" s="81"/>
       <c r="H20" s="81"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="142"/>
-    </row>
-    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="J20" s="131"/>
+    </row>
+    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="122"/>
       <c r="B21" s="52" t="s">
         <v>27</v>
       </c>
@@ -1936,10 +1939,10 @@
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="142"/>
-    </row>
-    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="J21" s="131"/>
+    </row>
+    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="122"/>
       <c r="B22" s="53"/>
       <c r="C22" s="41"/>
       <c r="D22" s="42">
@@ -1950,10 +1953,10 @@
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="142"/>
-    </row>
-    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
       <c r="B23" s="52" t="s">
         <v>28</v>
       </c>
@@ -1964,10 +1967,10 @@
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="142"/>
-    </row>
-    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
+      <c r="J23" s="131"/>
+    </row>
+    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="122"/>
       <c r="B24" s="53"/>
       <c r="C24" s="41"/>
       <c r="D24" s="42">
@@ -1978,10 +1981,10 @@
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="142"/>
-    </row>
-    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
+      <c r="J24" s="131"/>
+    </row>
+    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="122"/>
       <c r="B25" s="52" t="s">
         <v>29</v>
       </c>
@@ -1992,10 +1995,10 @@
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="142"/>
-    </row>
-    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
+      <c r="J25" s="131"/>
+    </row>
+    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="122"/>
       <c r="B26" s="53"/>
       <c r="C26" s="41"/>
       <c r="D26" s="42">
@@ -2006,10 +2009,10 @@
       <c r="G26" s="81"/>
       <c r="H26" s="81"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="142"/>
-    </row>
-    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="133"/>
+      <c r="J26" s="131"/>
+    </row>
+    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="122"/>
       <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
@@ -2020,10 +2023,10 @@
       <c r="G27" s="81"/>
       <c r="H27" s="81"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="142"/>
-    </row>
-    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
+      <c r="J27" s="131"/>
+    </row>
+    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="122"/>
       <c r="B28" s="53"/>
       <c r="C28" s="41"/>
       <c r="D28" s="42">
@@ -2034,10 +2037,10 @@
       <c r="G28" s="81"/>
       <c r="H28" s="81"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="142"/>
-    </row>
-    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="133"/>
+      <c r="J28" s="131"/>
+    </row>
+    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="122"/>
       <c r="B29" s="52" t="s">
         <v>31</v>
       </c>
@@ -2048,10 +2051,10 @@
       <c r="G29" s="81"/>
       <c r="H29" s="81"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="142"/>
-    </row>
-    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
+      <c r="J29" s="131"/>
+    </row>
+    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="122"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
       <c r="D30" s="42">
@@ -2062,10 +2065,10 @@
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="142"/>
-    </row>
-    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="133" t="s">
+      <c r="J30" s="131"/>
+    </row>
+    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="122" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="100" t="s">
@@ -2078,10 +2081,10 @@
       <c r="G31" s="81"/>
       <c r="H31" s="81"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="142"/>
-    </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
+      <c r="J31" s="131"/>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
       <c r="B32" s="52" t="s">
         <v>13</v>
       </c>
@@ -2092,12 +2095,12 @@
       <c r="G32" s="81"/>
       <c r="H32" s="81"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="142">
+      <c r="J32" s="131">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="133"/>
+    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
       <c r="D33" s="42">
@@ -2108,10 +2111,10 @@
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="142"/>
-    </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="133"/>
+      <c r="J33" s="131"/>
+    </row>
+    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="122"/>
       <c r="B34" s="52" t="s">
         <v>26</v>
       </c>
@@ -2122,10 +2125,10 @@
       <c r="G34" s="81"/>
       <c r="H34" s="81"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="142"/>
-    </row>
-    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="133"/>
+      <c r="J34" s="131"/>
+    </row>
+    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="122"/>
       <c r="B35" s="53"/>
       <c r="C35" s="41"/>
       <c r="D35" s="42">
@@ -2136,10 +2139,10 @@
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="42"/>
-      <c r="J35" s="142"/>
-    </row>
-    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
+      <c r="J35" s="131"/>
+    </row>
+    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="122"/>
       <c r="B36" s="52" t="s">
         <v>27</v>
       </c>
@@ -2150,10 +2153,10 @@
       <c r="G36" s="81"/>
       <c r="H36" s="81"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="142"/>
-    </row>
-    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="133"/>
+      <c r="J36" s="131"/>
+    </row>
+    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="122"/>
       <c r="B37" s="53"/>
       <c r="C37" s="41"/>
       <c r="D37" s="42">
@@ -2164,10 +2167,10 @@
       <c r="G37" s="81"/>
       <c r="H37" s="81"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="142"/>
-    </row>
-    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="133"/>
+      <c r="J37" s="131"/>
+    </row>
+    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="122"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
@@ -2178,10 +2181,10 @@
       <c r="G38" s="81"/>
       <c r="H38" s="81"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="142"/>
-    </row>
-    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="133"/>
+      <c r="J38" s="131"/>
+    </row>
+    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="122"/>
       <c r="B39" s="53"/>
       <c r="C39" s="41"/>
       <c r="D39" s="42">
@@ -2192,10 +2195,10 @@
       <c r="G39" s="81"/>
       <c r="H39" s="81"/>
       <c r="I39" s="42"/>
-      <c r="J39" s="142"/>
-    </row>
-    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="133"/>
+      <c r="J39" s="131"/>
+    </row>
+    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="122"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -2206,10 +2209,10 @@
       <c r="G40" s="81"/>
       <c r="H40" s="81"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="142"/>
-    </row>
-    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="133"/>
+      <c r="J40" s="131"/>
+    </row>
+    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="122"/>
       <c r="B41" s="53"/>
       <c r="C41" s="41"/>
       <c r="D41" s="42">
@@ -2220,10 +2223,10 @@
       <c r="G41" s="81"/>
       <c r="H41" s="81"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="142"/>
-    </row>
-    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="133"/>
+      <c r="J41" s="131"/>
+    </row>
+    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="122"/>
       <c r="B42" s="52" t="s">
         <v>30</v>
       </c>
@@ -2234,10 +2237,10 @@
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="142"/>
-    </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="133"/>
+      <c r="J42" s="131"/>
+    </row>
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="122"/>
       <c r="B43" s="53"/>
       <c r="C43" s="41"/>
       <c r="D43" s="42">
@@ -2248,9 +2251,9 @@
       <c r="G43" s="81"/>
       <c r="H43" s="81"/>
       <c r="I43" s="42"/>
-      <c r="J43" s="142"/>
-    </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="131"/>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2269,7 @@
       <c r="I44" s="48"/>
       <c r="J44" s="46"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="57" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
       <c r="B46" s="50"/>
       <c r="C46" s="45"/>
@@ -2298,7 +2301,7 @@
       <c r="I46" s="48"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="53" t="s">
         <v>32</v>
@@ -2317,7 +2320,7 @@
       </c>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
         <v>103</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="52" t="s">
         <v>26</v>
@@ -2351,7 +2354,7 @@
       <c r="I49" s="48"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57"/>
       <c r="B50" s="53" t="s">
         <v>32</v>
@@ -2370,11 +2373,11 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="141" t="s">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="113" t="s">
+      <c r="B51" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="45"/>
@@ -2386,11 +2389,11 @@
       <c r="I51" s="48"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="139" t="s">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="129" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="47"/>
@@ -2402,7 +2405,7 @@
       <c r="I52" s="48"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>88</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="57"/>
       <c r="B54" s="52" t="s">
         <v>26</v>
@@ -2437,7 +2440,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="57"/>
       <c r="B55" s="53" t="s">
         <v>32</v>
@@ -2456,7 +2459,7 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>89</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="52" t="s">
         <v>13</v>
@@ -2491,7 +2494,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="57"/>
       <c r="B58" s="53" t="s">
         <v>34</v>
@@ -2510,7 +2513,7 @@
       </c>
       <c r="J58" s="46"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="57"/>
       <c r="B59" s="52" t="s">
         <v>26</v>
@@ -2524,7 +2527,7 @@
       <c r="I59" s="48"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="57"/>
       <c r="B60" s="53" t="s">
         <v>34</v>
@@ -2543,7 +2546,7 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57"/>
       <c r="B61" s="52" t="s">
         <v>27</v>
@@ -2557,7 +2560,7 @@
       <c r="I61" s="48"/>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57"/>
       <c r="B62" s="53" t="s">
         <v>34</v>
@@ -2576,7 +2579,7 @@
       </c>
       <c r="J62" s="46"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
       <c r="B63" s="52" t="s">
         <v>28</v>
@@ -2590,7 +2593,7 @@
       <c r="I63" s="48"/>
       <c r="J63" s="46"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="57"/>
       <c r="B64" s="53" t="s">
         <v>34</v>
@@ -2609,7 +2612,7 @@
       </c>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="57"/>
       <c r="B65" s="52" t="s">
         <v>29</v>
@@ -2623,7 +2626,7 @@
       <c r="I65" s="48"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="57"/>
       <c r="B66" s="53" t="s">
         <v>34</v>
@@ -2642,7 +2645,7 @@
       </c>
       <c r="J66" s="46"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
       <c r="B67" s="52" t="s">
         <v>30</v>
@@ -2656,7 +2659,7 @@
       <c r="I67" s="48"/>
       <c r="J67" s="46"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="57"/>
       <c r="B68" s="53" t="s">
         <v>34</v>
@@ -2675,7 +2678,7 @@
       </c>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="57"/>
       <c r="B69" s="52" t="s">
         <v>31</v>
@@ -2689,7 +2692,7 @@
       <c r="I69" s="48"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="57"/>
       <c r="B70" s="53" t="s">
         <v>34</v>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="119" t="s">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="123" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="47"/>
@@ -2724,8 +2727,8 @@
       <c r="I71" s="48"/>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>13</v>
       </c>
@@ -2740,8 +2743,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="119"/>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="111"/>
       <c r="B73" s="53" t="s">
         <v>34</v>
       </c>
@@ -2756,8 +2759,8 @@
       <c r="I73" s="48"/>
       <c r="J73" s="46"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="111"/>
       <c r="B74" s="52" t="s">
         <v>26</v>
       </c>
@@ -2770,8 +2773,8 @@
       <c r="I74" s="48"/>
       <c r="J74" s="46"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="119"/>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="111"/>
       <c r="B75" s="53" t="s">
         <v>34</v>
       </c>
@@ -2786,8 +2789,8 @@
       <c r="I75" s="48"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="119"/>
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="111"/>
       <c r="B76" s="52" t="s">
         <v>27</v>
       </c>
@@ -2800,8 +2803,8 @@
       <c r="I76" s="48"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119"/>
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="111"/>
       <c r="B77" s="53" t="s">
         <v>34</v>
       </c>
@@ -2816,8 +2819,8 @@
       <c r="I77" s="48"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="119"/>
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="111"/>
       <c r="B78" s="52" t="s">
         <v>28</v>
       </c>
@@ -2830,8 +2833,8 @@
       <c r="I78" s="48"/>
       <c r="J78" s="46"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="111"/>
       <c r="B79" s="53" t="s">
         <v>34</v>
       </c>
@@ -2846,8 +2849,8 @@
       <c r="I79" s="48"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="111"/>
       <c r="B80" s="52" t="s">
         <v>29</v>
       </c>
@@ -2860,8 +2863,8 @@
       <c r="I80" s="48"/>
       <c r="J80" s="46"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="111"/>
       <c r="B81" s="53" t="s">
         <v>34</v>
       </c>
@@ -2876,8 +2879,8 @@
       <c r="I81" s="48"/>
       <c r="J81" s="46"/>
     </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="111"/>
       <c r="B82" s="52" t="s">
         <v>30</v>
       </c>
@@ -2890,8 +2893,8 @@
       <c r="I82" s="48"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="111"/>
       <c r="B83" s="53" t="s">
         <v>34</v>
       </c>
@@ -2906,8 +2909,8 @@
       <c r="I83" s="48"/>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="111"/>
       <c r="B84" s="52" t="s">
         <v>31</v>
       </c>
@@ -2920,8 +2923,8 @@
       <c r="I84" s="48"/>
       <c r="J84" s="46"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119"/>
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="111"/>
       <c r="B85" s="53" t="s">
         <v>34</v>
       </c>
@@ -2936,11 +2939,11 @@
       <c r="I85" s="48"/>
       <c r="J85" s="46"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="123" t="s">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="137" t="s">
+      <c r="B86" s="126" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="45"/>
@@ -2952,8 +2955,8 @@
       <c r="I86" s="48"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="135" t="s">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="124" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="60" t="s">
@@ -2970,8 +2973,8 @@
       <c r="I87" s="48"/>
       <c r="J87" s="46"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="111"/>
       <c r="B88" s="52" t="s">
         <v>13</v>
       </c>
@@ -2986,8 +2989,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="111"/>
       <c r="B89" s="53" t="s">
         <v>15</v>
       </c>
@@ -3002,8 +3005,8 @@
       <c r="I89" s="48"/>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="111"/>
       <c r="B90" s="52" t="s">
         <v>26</v>
       </c>
@@ -3016,8 +3019,8 @@
       <c r="I90" s="48"/>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="111"/>
       <c r="B91" s="53" t="s">
         <v>15</v>
       </c>
@@ -3032,8 +3035,8 @@
       <c r="I91" s="48"/>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>27</v>
       </c>
@@ -3046,8 +3049,8 @@
       <c r="I92" s="48"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="111"/>
       <c r="B93" s="53" t="s">
         <v>15</v>
       </c>
@@ -3062,8 +3065,8 @@
       <c r="I93" s="48"/>
       <c r="J93" s="46"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="111"/>
       <c r="B94" s="52" t="s">
         <v>28</v>
       </c>
@@ -3076,8 +3079,8 @@
       <c r="I94" s="48"/>
       <c r="J94" s="46"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="111"/>
       <c r="B95" s="53" t="s">
         <v>15</v>
       </c>
@@ -3092,8 +3095,8 @@
       <c r="I95" s="48"/>
       <c r="J95" s="46"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>29</v>
       </c>
@@ -3106,7 +3109,7 @@
       <c r="I96" s="48"/>
       <c r="J96" s="46"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="57"/>
       <c r="B97" s="53" t="s">
         <v>15</v>
@@ -3122,7 +3125,7 @@
       <c r="I97" s="48"/>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="57"/>
       <c r="B98" s="52" t="s">
         <v>30</v>
@@ -3136,7 +3139,7 @@
       <c r="I98" s="48"/>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="57"/>
       <c r="B99" s="53" t="s">
         <v>15</v>
@@ -3152,7 +3155,7 @@
       <c r="I99" s="48"/>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="57"/>
       <c r="B100" s="52" t="s">
         <v>31</v>
@@ -3166,7 +3169,7 @@
       <c r="I100" s="48"/>
       <c r="J100" s="46"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="57"/>
       <c r="B101" s="53" t="s">
         <v>16</v>
@@ -3182,8 +3185,8 @@
       <c r="I101" s="48"/>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="123"/>
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="115"/>
       <c r="B102" s="53" t="s">
         <v>59</v>
       </c>
@@ -3198,8 +3201,8 @@
       <c r="I102" s="48"/>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="135"/>
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="124"/>
       <c r="B103" s="53" t="s">
         <v>60</v>
       </c>
@@ -3214,11 +3217,11 @@
       <c r="I103" s="48"/>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="118" t="s">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="138" t="s">
+      <c r="B104" s="127" t="s">
         <v>95</v>
       </c>
       <c r="C104" s="47"/>
@@ -3230,8 +3233,8 @@
       <c r="I104" s="48"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="135" t="s">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="124" t="s">
         <v>96</v>
       </c>
       <c r="B105" s="100" t="s">
@@ -3246,8 +3249,8 @@
       <c r="I105" s="48"/>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="119"/>
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="111"/>
       <c r="B106" s="52" t="s">
         <v>13</v>
       </c>
@@ -3262,8 +3265,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="119"/>
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="111"/>
       <c r="B107" s="53" t="s">
         <v>34</v>
       </c>
@@ -3278,8 +3281,8 @@
       <c r="I107" s="48"/>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="119"/>
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="111"/>
       <c r="B108" s="52" t="s">
         <v>26</v>
       </c>
@@ -3292,8 +3295,8 @@
       <c r="I108" s="48"/>
       <c r="J108" s="46"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="119"/>
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="111"/>
       <c r="B109" s="53" t="s">
         <v>34</v>
       </c>
@@ -3308,8 +3311,8 @@
       <c r="I109" s="48"/>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="111"/>
       <c r="B110" s="52" t="s">
         <v>27</v>
       </c>
@@ -3322,8 +3325,8 @@
       <c r="I110" s="48"/>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="119"/>
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="111"/>
       <c r="B111" s="53" t="s">
         <v>34</v>
       </c>
@@ -3338,8 +3341,8 @@
       <c r="I111" s="48"/>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="119"/>
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="111"/>
       <c r="B112" s="52" t="s">
         <v>28</v>
       </c>
@@ -3352,8 +3355,8 @@
       <c r="I112" s="48"/>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="119"/>
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="111"/>
       <c r="B113" s="53" t="s">
         <v>34</v>
       </c>
@@ -3368,8 +3371,8 @@
       <c r="I113" s="48"/>
       <c r="J113" s="46"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="119"/>
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="111"/>
       <c r="B114" s="52" t="s">
         <v>29</v>
       </c>
@@ -3382,7 +3385,7 @@
       <c r="I114" s="48"/>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="57"/>
       <c r="B115" s="53" t="s">
         <v>34</v>
@@ -3398,7 +3401,7 @@
       <c r="I115" s="48"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="57"/>
       <c r="B116" s="52" t="s">
         <v>30</v>
@@ -3412,7 +3415,7 @@
       <c r="I116" s="48"/>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="57"/>
       <c r="B117" s="53" t="s">
         <v>34</v>
@@ -3428,7 +3431,7 @@
       <c r="I117" s="48"/>
       <c r="J117" s="46"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="57"/>
       <c r="B118" s="52" t="s">
         <v>31</v>
@@ -3442,7 +3445,7 @@
       <c r="I118" s="48"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="57"/>
       <c r="B119" s="53" t="s">
         <v>34</v>
@@ -3458,8 +3461,8 @@
       <c r="I119" s="48"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="135" t="s">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="124" t="s">
         <v>98</v>
       </c>
       <c r="B120" s="100" t="s">
@@ -3474,7 +3477,7 @@
       <c r="I120" s="48"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
       <c r="B121" s="52" t="s">
         <v>13</v>
@@ -3490,7 +3493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
       <c r="B122" s="53" t="s">
         <v>34</v>
@@ -3506,7 +3509,7 @@
       <c r="I122" s="48"/>
       <c r="J122" s="46"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
       <c r="B123" s="52" t="s">
         <v>26</v>
@@ -3520,7 +3523,7 @@
       <c r="I123" s="48"/>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
       <c r="B124" s="53" t="s">
         <v>34</v>
@@ -3536,7 +3539,7 @@
       <c r="I124" s="48"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="57"/>
       <c r="B125" s="52" t="s">
         <v>27</v>
@@ -3550,7 +3553,7 @@
       <c r="I125" s="48"/>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
       <c r="B126" s="53" t="s">
         <v>34</v>
@@ -3566,7 +3569,7 @@
       <c r="I126" s="48"/>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
       <c r="B127" s="52" t="s">
         <v>28</v>
@@ -3580,7 +3583,7 @@
       <c r="I127" s="48"/>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="57"/>
       <c r="B128" s="53" t="s">
         <v>34</v>
@@ -3596,7 +3599,7 @@
       <c r="I128" s="48"/>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
       <c r="B129" s="52" t="s">
         <v>29</v>
@@ -3610,7 +3613,7 @@
       <c r="I129" s="48"/>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
       <c r="B130" s="53" t="s">
         <v>34</v>
@@ -3626,7 +3629,7 @@
       <c r="I130" s="48"/>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="57"/>
       <c r="B131" s="52" t="s">
         <v>30</v>
@@ -3640,7 +3643,7 @@
       <c r="I131" s="48"/>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="57"/>
       <c r="B132" s="53" t="s">
         <v>34</v>
@@ -3656,7 +3659,7 @@
       <c r="I132" s="48"/>
       <c r="J132" s="46"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="57"/>
       <c r="B133" s="52" t="s">
         <v>31</v>
@@ -3670,7 +3673,7 @@
       <c r="I133" s="48"/>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="57"/>
       <c r="B134" s="53" t="s">
         <v>34</v>
@@ -3686,8 +3689,8 @@
       <c r="I134" s="48"/>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="135" t="s">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="124" t="s">
         <v>100</v>
       </c>
       <c r="B135" s="100" t="s">
@@ -3702,7 +3705,7 @@
       <c r="I135" s="48"/>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="57"/>
       <c r="B136" s="52" t="s">
         <v>26</v>
@@ -3716,7 +3719,7 @@
       <c r="I136" s="48"/>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="57"/>
       <c r="B137" s="53" t="s">
         <v>102</v>
@@ -3732,7 +3735,7 @@
       <c r="I137" s="48"/>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="57"/>
       <c r="B138" s="53"/>
       <c r="C138" s="47"/>
@@ -3744,8 +3747,8 @@
       <c r="I138" s="48"/>
       <c r="J138" s="46"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="118" t="s">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="110" t="s">
         <v>63</v>
       </c>
       <c r="B139" s="102" t="s">
@@ -3760,11 +3763,11 @@
       <c r="I139" s="48"/>
       <c r="J139" s="46"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="119" t="s">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B140" s="136" t="s">
+      <c r="B140" s="125" t="s">
         <v>58</v>
       </c>
       <c r="C140" s="45" t="s">
@@ -3780,8 +3783,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119"/>
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="111"/>
       <c r="B141" s="52" t="s">
         <v>26</v>
       </c>
@@ -3794,7 +3797,7 @@
       <c r="I141" s="48"/>
       <c r="J141" s="46"/>
     </row>
-    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="57"/>
       <c r="B142" s="53" t="s">
         <v>32</v>
@@ -3810,7 +3813,7 @@
       <c r="I142" s="48"/>
       <c r="J142" s="46"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="55" t="s">
         <v>104</v>
       </c>
@@ -3826,7 +3829,7 @@
       <c r="I143" s="48"/>
       <c r="J143" s="46"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="49" t="s">
         <v>78</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="57"/>
       <c r="B145" s="101" t="s">
         <v>73</v>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="J145" s="46"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="49" t="s">
         <v>79</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="I146" s="48"/>
       <c r="J146" s="46"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="57"/>
       <c r="B147" s="101" t="s">
         <v>73</v>
@@ -3898,11 +3901,11 @@
       </c>
       <c r="J147" s="46"/>
     </row>
-    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B148" s="112" t="s">
+      <c r="B148" s="104" t="s">
         <v>107</v>
       </c>
       <c r="C148" s="45"/>
@@ -3914,7 +3917,7 @@
       <c r="I148" s="46"/>
       <c r="J148" s="82"/>
     </row>
-    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="49" t="s">
         <v>106</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="49"/>
       <c r="B150" s="52" t="s">
         <v>13</v>
@@ -3949,7 +3952,7 @@
       <c r="I150" s="48"/>
       <c r="J150" s="46"/>
     </row>
-    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="49"/>
       <c r="B151" s="53" t="s">
         <v>15</v>
@@ -3968,7 +3971,7 @@
       </c>
       <c r="J151" s="46"/>
     </row>
-    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="49"/>
       <c r="B152" s="52" t="s">
         <v>26</v>
@@ -3982,7 +3985,7 @@
       <c r="I152" s="48"/>
       <c r="J152" s="46"/>
     </row>
-    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="49"/>
       <c r="B153" s="53" t="s">
         <v>15</v>
@@ -4001,7 +4004,7 @@
       </c>
       <c r="J153" s="46"/>
     </row>
-    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="49"/>
       <c r="B154" s="52" t="s">
         <v>27</v>
@@ -4015,7 +4018,7 @@
       <c r="I154" s="48"/>
       <c r="J154" s="46"/>
     </row>
-    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="49"/>
       <c r="B155" s="53" t="s">
         <v>15</v>
@@ -4034,7 +4037,7 @@
       </c>
       <c r="J155" s="46"/>
     </row>
-    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="49"/>
       <c r="B156" s="52" t="s">
         <v>28</v>
@@ -4048,7 +4051,7 @@
       <c r="I156" s="48"/>
       <c r="J156" s="46"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="49"/>
       <c r="B157" s="53" t="s">
         <v>15</v>
@@ -4067,7 +4070,7 @@
       </c>
       <c r="J157" s="46"/>
     </row>
-    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="49"/>
       <c r="B158" s="52" t="s">
         <v>29</v>
@@ -4081,7 +4084,7 @@
       <c r="I158" s="48"/>
       <c r="J158" s="46"/>
     </row>
-    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="49"/>
       <c r="B159" s="53" t="s">
         <v>15</v>
@@ -4100,7 +4103,7 @@
       </c>
       <c r="J159" s="46"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="57"/>
       <c r="B160" s="52" t="s">
         <v>30</v>
@@ -4114,7 +4117,7 @@
       <c r="I160" s="48"/>
       <c r="J160" s="46"/>
     </row>
-    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="57"/>
       <c r="B161" s="53" t="s">
         <v>15</v>
@@ -4133,7 +4136,7 @@
       </c>
       <c r="J161" s="46"/>
     </row>
-    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="57"/>
       <c r="B162" s="52" t="s">
         <v>31</v>
@@ -4147,7 +4150,7 @@
       <c r="I162" s="48"/>
       <c r="J162" s="46"/>
     </row>
-    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="57"/>
       <c r="B163" s="53" t="s">
         <v>15</v>
@@ -4166,11 +4169,11 @@
       </c>
       <c r="J163" s="46"/>
     </row>
-    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B164" s="138" t="s">
+      <c r="B164" s="127" t="s">
         <v>75</v>
       </c>
       <c r="C164" s="45"/>
@@ -4182,7 +4185,7 @@
       <c r="I164" s="46"/>
       <c r="J164" s="82"/>
     </row>
-    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="49" t="s">
         <v>41</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="49"/>
       <c r="B166" s="52" t="s">
         <v>31</v>
@@ -4216,7 +4219,7 @@
       <c r="I166" s="48"/>
       <c r="J166" s="82"/>
     </row>
-    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="49"/>
       <c r="B167" s="53" t="s">
         <v>16</v>
@@ -4235,7 +4238,7 @@
       </c>
       <c r="J167" s="46"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="49" t="s">
         <v>43</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="49"/>
       <c r="B169" s="52" t="s">
         <v>31</v>
@@ -4267,7 +4270,7 @@
       <c r="I169" s="48"/>
       <c r="J169" s="46"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="49"/>
       <c r="B170" s="53" t="s">
         <v>16</v>
@@ -4286,7 +4289,7 @@
       </c>
       <c r="J170" s="46"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="49" t="s">
         <v>45</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="49"/>
       <c r="B172" s="52" t="s">
         <v>31</v>
@@ -4320,7 +4323,7 @@
       <c r="I172" s="48"/>
       <c r="J172" s="46"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="49"/>
       <c r="B173" s="53" t="s">
         <v>16</v>
@@ -4339,7 +4342,7 @@
       </c>
       <c r="J173" s="46"/>
     </row>
-    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="49" t="s">
         <v>47</v>
       </c>
@@ -4357,7 +4360,7 @@
       <c r="I174" s="48"/>
       <c r="J174" s="82"/>
     </row>
-    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="49"/>
       <c r="B175" s="52" t="s">
         <v>31</v>
@@ -4373,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="49"/>
       <c r="B176" s="53" t="s">
         <v>16</v>
@@ -4392,7 +4395,7 @@
       </c>
       <c r="J176" s="82"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="49" t="s">
         <v>49</v>
       </c>
@@ -4410,7 +4413,7 @@
       <c r="I177" s="48"/>
       <c r="J177" s="46"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="49"/>
       <c r="B178" s="52" t="s">
         <v>31</v>
@@ -4426,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="49"/>
       <c r="B179" s="53" t="s">
         <v>16</v>
@@ -4445,7 +4448,7 @@
       </c>
       <c r="J179" s="46"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="49" t="s">
         <v>51</v>
       </c>
@@ -4463,7 +4466,7 @@
       <c r="I180" s="48"/>
       <c r="J180" s="46"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="49"/>
       <c r="B181" s="52" t="s">
         <v>31</v>
@@ -4477,7 +4480,7 @@
       <c r="I181" s="48"/>
       <c r="J181" s="46"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="49"/>
       <c r="B182" s="53" t="s">
         <v>16</v>
@@ -4498,7 +4501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="49" t="s">
         <v>53</v>
       </c>
@@ -4514,7 +4517,7 @@
       <c r="I183" s="48"/>
       <c r="J183" s="82"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="57"/>
       <c r="B184" s="52" t="s">
         <v>31</v>
@@ -4528,7 +4531,7 @@
       <c r="I184" s="48"/>
       <c r="J184" s="46"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="57"/>
       <c r="B185" s="53" t="s">
         <v>16</v>
@@ -4551,7 +4554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="55"/>
       <c r="B186" s="56"/>
       <c r="C186" s="47"/>
@@ -4563,7 +4566,7 @@
       <c r="I186" s="48"/>
       <c r="J186" s="46"/>
     </row>
-    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="49"/>
       <c r="B187" s="60"/>
       <c r="C187" s="45"/>
@@ -4575,7 +4578,7 @@
       <c r="I187" s="46"/>
       <c r="J187" s="82"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="57"/>
       <c r="B188" s="52"/>
       <c r="C188" s="47"/>
@@ -4587,7 +4590,7 @@
       <c r="I188" s="48"/>
       <c r="J188" s="46"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="57"/>
       <c r="B189" s="53"/>
       <c r="C189" s="47"/>
@@ -4599,7 +4602,7 @@
       <c r="I189" s="48"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="49"/>
       <c r="B190" s="60"/>
       <c r="C190" s="45"/>
@@ -4611,8 +4614,8 @@
       <c r="I190" s="46"/>
       <c r="J190" s="82"/>
     </row>
-    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="120"/>
+    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="112"/>
       <c r="B191" s="52"/>
       <c r="C191" s="45"/>
       <c r="D191" s="46"/>
@@ -4623,8 +4626,8 @@
       <c r="I191" s="46"/>
       <c r="J191" s="82"/>
     </row>
-    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="120"/>
+    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="112"/>
       <c r="B192" s="53"/>
       <c r="C192" s="45"/>
       <c r="D192" s="46"/>
@@ -4635,8 +4638,8 @@
       <c r="I192" s="48"/>
       <c r="J192" s="82"/>
     </row>
-    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="120"/>
+    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="112"/>
       <c r="B193" s="52"/>
       <c r="C193" s="45"/>
       <c r="D193" s="46"/>
@@ -4647,8 +4650,8 @@
       <c r="I193" s="48"/>
       <c r="J193" s="82"/>
     </row>
-    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="120"/>
+    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="112"/>
       <c r="B194" s="53"/>
       <c r="C194" s="45"/>
       <c r="D194" s="46"/>
@@ -4659,8 +4662,8 @@
       <c r="I194" s="48"/>
       <c r="J194" s="82"/>
     </row>
-    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="120"/>
+    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="112"/>
       <c r="B195" s="52"/>
       <c r="C195" s="45"/>
       <c r="D195" s="46"/>
@@ -4671,8 +4674,8 @@
       <c r="I195" s="48"/>
       <c r="J195" s="82"/>
     </row>
-    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="120"/>
+    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="112"/>
       <c r="B196" s="53"/>
       <c r="C196" s="45"/>
       <c r="D196" s="46"/>
@@ -4683,7 +4686,7 @@
       <c r="I196" s="48"/>
       <c r="J196" s="82"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="57"/>
       <c r="B197" s="52"/>
       <c r="C197" s="47"/>
@@ -4695,7 +4698,7 @@
       <c r="I197" s="48"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="57"/>
       <c r="B198" s="53"/>
       <c r="C198" s="47"/>
@@ -4707,7 +4710,7 @@
       <c r="I198" s="48"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="57"/>
       <c r="B199" s="52"/>
       <c r="C199" s="47"/>
@@ -4719,7 +4722,7 @@
       <c r="I199" s="48"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="57"/>
       <c r="B200" s="53"/>
       <c r="C200" s="47"/>
@@ -4731,7 +4734,7 @@
       <c r="I200" s="48"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="57"/>
       <c r="B201" s="52"/>
       <c r="C201" s="47"/>
@@ -4743,7 +4746,7 @@
       <c r="I201" s="48"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="57"/>
       <c r="B202" s="53"/>
       <c r="C202" s="47"/>
@@ -4755,7 +4758,7 @@
       <c r="I202" s="48"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="57"/>
       <c r="B203" s="52"/>
       <c r="C203" s="47"/>
@@ -4767,7 +4770,7 @@
       <c r="I203" s="48"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="57"/>
       <c r="B204" s="53"/>
       <c r="C204" s="47"/>
@@ -4779,7 +4782,7 @@
       <c r="I204" s="48"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="57"/>
       <c r="B205" s="53"/>
       <c r="C205" s="47"/>
@@ -4791,7 +4794,7 @@
       <c r="I205" s="48"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="57"/>
       <c r="B206" s="53"/>
       <c r="C206" s="47"/>
@@ -4803,7 +4806,7 @@
       <c r="I206" s="48"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="49"/>
       <c r="B207" s="62"/>
       <c r="C207" s="45"/>
@@ -4815,7 +4818,7 @@
       <c r="I207" s="46"/>
       <c r="J207" s="82"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="57"/>
       <c r="B208" s="52"/>
       <c r="C208" s="47"/>
@@ -4827,7 +4830,7 @@
       <c r="I208" s="48"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="57"/>
       <c r="B209" s="53"/>
       <c r="C209" s="47"/>
@@ -4839,7 +4842,7 @@
       <c r="I209" s="48"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="57"/>
       <c r="B210" s="52"/>
       <c r="C210" s="47"/>
@@ -4851,7 +4854,7 @@
       <c r="I210" s="48"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="57"/>
       <c r="B211" s="53"/>
       <c r="C211" s="47"/>
@@ -4863,7 +4866,7 @@
       <c r="I211" s="48"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="57"/>
       <c r="B212" s="52"/>
       <c r="C212" s="47"/>
@@ -4875,7 +4878,7 @@
       <c r="I212" s="48"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="57"/>
       <c r="B213" s="53"/>
       <c r="C213" s="47"/>
@@ -4887,7 +4890,7 @@
       <c r="I213" s="48"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="57"/>
       <c r="B214" s="52"/>
       <c r="C214" s="47"/>
@@ -4899,7 +4902,7 @@
       <c r="I214" s="48"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="57"/>
       <c r="B215" s="53"/>
       <c r="C215" s="47"/>
@@ -4911,7 +4914,7 @@
       <c r="I215" s="48"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="57"/>
       <c r="B216" s="52"/>
       <c r="C216" s="47"/>
@@ -4923,7 +4926,7 @@
       <c r="I216" s="48"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="57"/>
       <c r="B217" s="53"/>
       <c r="C217" s="47"/>
@@ -4935,7 +4938,7 @@
       <c r="I217" s="48"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="57"/>
       <c r="B218" s="52"/>
       <c r="C218" s="47"/>
@@ -4947,7 +4950,7 @@
       <c r="I218" s="48"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="57"/>
       <c r="B219" s="53"/>
       <c r="C219" s="47"/>
@@ -4959,7 +4962,7 @@
       <c r="I219" s="48"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="57"/>
       <c r="B220" s="52"/>
       <c r="C220" s="47"/>
@@ -4971,7 +4974,7 @@
       <c r="I220" s="48"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="57"/>
       <c r="B221" s="53"/>
       <c r="C221" s="47"/>
@@ -4983,8 +4986,8 @@
       <c r="I221" s="48"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="121"/>
+    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="113"/>
       <c r="B222" s="63"/>
       <c r="C222" s="47"/>
       <c r="D222" s="48"/>
@@ -4995,9 +4998,9 @@
       <c r="I222" s="48"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="119"/>
-      <c r="B223" s="125"/>
+    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="111"/>
+      <c r="B223" s="116"/>
       <c r="C223" s="45"/>
       <c r="D223" s="48"/>
       <c r="E223" s="47"/>
@@ -5007,8 +5010,8 @@
       <c r="I223" s="48"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="119"/>
+    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="111"/>
       <c r="B224" s="52"/>
       <c r="C224" s="47"/>
       <c r="D224" s="48"/>
@@ -5019,7 +5022,7 @@
       <c r="I224" s="48"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="57"/>
       <c r="B225" s="53"/>
       <c r="C225" s="45"/>
@@ -5031,7 +5034,7 @@
       <c r="I225" s="48"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="55"/>
       <c r="B226" s="56"/>
       <c r="C226" s="47"/>
@@ -5043,8 +5046,8 @@
       <c r="I226" s="48"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="122"/>
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="114"/>
       <c r="B227" s="65"/>
       <c r="C227" s="47"/>
       <c r="D227" s="48"/>
@@ -5055,8 +5058,8 @@
       <c r="I227" s="48"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="120"/>
+    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="112"/>
       <c r="B228" s="60"/>
       <c r="C228" s="45"/>
       <c r="D228" s="46"/>
@@ -5067,7 +5070,7 @@
       <c r="I228" s="46"/>
       <c r="J228" s="82"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="57"/>
       <c r="B229" s="52"/>
       <c r="C229" s="47"/>
@@ -5079,7 +5082,7 @@
       <c r="I229" s="48"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="57"/>
       <c r="B230" s="53"/>
       <c r="C230" s="47"/>
@@ -5091,8 +5094,8 @@
       <c r="I230" s="48"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="120"/>
+    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="112"/>
       <c r="B231" s="66"/>
       <c r="C231" s="45"/>
       <c r="D231" s="46"/>
@@ -5103,7 +5106,7 @@
       <c r="I231" s="46"/>
       <c r="J231" s="82"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="57"/>
       <c r="B232" s="52"/>
       <c r="C232" s="47"/>
@@ -5115,7 +5118,7 @@
       <c r="I232" s="48"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="57"/>
       <c r="B233" s="53"/>
       <c r="C233" s="47"/>
@@ -5127,7 +5130,7 @@
       <c r="I233" s="48"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="57"/>
       <c r="B234" s="52"/>
       <c r="C234" s="47"/>
@@ -5139,7 +5142,7 @@
       <c r="I234" s="48"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="57"/>
       <c r="B235" s="53"/>
       <c r="C235" s="47"/>
@@ -5151,7 +5154,7 @@
       <c r="I235" s="48"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="57"/>
       <c r="B236" s="52"/>
       <c r="C236" s="47"/>
@@ -5163,7 +5166,7 @@
       <c r="I236" s="48"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="57"/>
       <c r="B237" s="53"/>
       <c r="C237" s="47"/>
@@ -5175,7 +5178,7 @@
       <c r="I237" s="48"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="57"/>
       <c r="B238" s="52"/>
       <c r="C238" s="47"/>
@@ -5187,7 +5190,7 @@
       <c r="I238" s="48"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="57"/>
       <c r="B239" s="53"/>
       <c r="C239" s="47"/>
@@ -5199,7 +5202,7 @@
       <c r="I239" s="48"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="57"/>
       <c r="B240" s="52"/>
       <c r="C240" s="47"/>
@@ -5211,7 +5214,7 @@
       <c r="I240" s="48"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="57"/>
       <c r="B241" s="53"/>
       <c r="C241" s="47"/>
@@ -5223,7 +5226,7 @@
       <c r="I241" s="48"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="57"/>
       <c r="B242" s="52"/>
       <c r="C242" s="47"/>
@@ -5235,7 +5238,7 @@
       <c r="I242" s="48"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="57"/>
       <c r="B243" s="53"/>
       <c r="C243" s="47"/>
@@ -5247,7 +5250,7 @@
       <c r="I243" s="48"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="57"/>
       <c r="B244" s="52"/>
       <c r="C244" s="47"/>
@@ -5259,7 +5262,7 @@
       <c r="I244" s="48"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="57"/>
       <c r="B245" s="53"/>
       <c r="C245" s="47"/>
@@ -5271,305 +5274,305 @@
       <c r="I245" s="48"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="126"/>
-      <c r="D246" s="128"/>
-      <c r="E246" s="127"/>
-      <c r="F246" s="128"/>
-      <c r="G246" s="127"/>
-      <c r="H246" s="127"/>
-      <c r="I246" s="128"/>
-      <c r="J246" s="128"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="126"/>
-      <c r="D247" s="128"/>
-      <c r="E247" s="127"/>
-      <c r="F247" s="128"/>
-      <c r="G247" s="127"/>
-      <c r="H247" s="127"/>
-      <c r="I247" s="128"/>
-      <c r="J247" s="128"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="126"/>
-      <c r="D248" s="128"/>
-      <c r="E248" s="127"/>
-      <c r="F248" s="128"/>
-      <c r="G248" s="127"/>
-      <c r="H248" s="127"/>
-      <c r="I248" s="128"/>
-      <c r="J248" s="128"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="126"/>
-      <c r="D249" s="128"/>
-      <c r="E249" s="127"/>
-      <c r="F249" s="128"/>
-      <c r="G249" s="127"/>
-      <c r="H249" s="127"/>
-      <c r="I249" s="128"/>
-      <c r="J249" s="128"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="126"/>
-      <c r="D250" s="128"/>
-      <c r="E250" s="127"/>
-      <c r="F250" s="128"/>
-      <c r="G250" s="127"/>
-      <c r="H250" s="127"/>
-      <c r="I250" s="128"/>
-      <c r="J250" s="128"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="126"/>
-      <c r="D251" s="128"/>
-      <c r="E251" s="127"/>
-      <c r="F251" s="128"/>
-      <c r="G251" s="127"/>
-      <c r="H251" s="127"/>
-      <c r="I251" s="128"/>
-      <c r="J251" s="128"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="126"/>
-      <c r="D252" s="128"/>
-      <c r="E252" s="127"/>
-      <c r="F252" s="128"/>
-      <c r="G252" s="127"/>
-      <c r="H252" s="127"/>
-      <c r="I252" s="128"/>
-      <c r="J252" s="128"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="126"/>
-      <c r="D253" s="128"/>
-      <c r="E253" s="127"/>
-      <c r="F253" s="128"/>
-      <c r="G253" s="127"/>
-      <c r="H253" s="127"/>
-      <c r="I253" s="128"/>
-      <c r="J253" s="128"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="126"/>
-      <c r="D254" s="128"/>
-      <c r="E254" s="127"/>
-      <c r="F254" s="128"/>
-      <c r="G254" s="127"/>
-      <c r="H254" s="127"/>
-      <c r="I254" s="128"/>
-      <c r="J254" s="128"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="126"/>
-      <c r="D255" s="128"/>
-      <c r="E255" s="127"/>
-      <c r="F255" s="128"/>
-      <c r="G255" s="127"/>
-      <c r="H255" s="127"/>
-      <c r="I255" s="128"/>
-      <c r="J255" s="128"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="126"/>
-      <c r="D256" s="128"/>
-      <c r="E256" s="127"/>
-      <c r="F256" s="128"/>
-      <c r="G256" s="127"/>
-      <c r="H256" s="127"/>
-      <c r="I256" s="128"/>
-      <c r="J256" s="128"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="126"/>
-      <c r="D257" s="128"/>
-      <c r="E257" s="127"/>
-      <c r="F257" s="128"/>
-      <c r="G257" s="127"/>
-      <c r="H257" s="127"/>
-      <c r="I257" s="128"/>
-      <c r="J257" s="128"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="126"/>
-      <c r="D258" s="128"/>
-      <c r="E258" s="127"/>
-      <c r="F258" s="128"/>
-      <c r="G258" s="127"/>
-      <c r="H258" s="127"/>
-      <c r="I258" s="128"/>
-      <c r="J258" s="128"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="126"/>
-      <c r="D259" s="128"/>
-      <c r="E259" s="127"/>
-      <c r="F259" s="128"/>
-      <c r="G259" s="127"/>
-      <c r="H259" s="127"/>
-      <c r="I259" s="128"/>
-      <c r="J259" s="128"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="126"/>
-      <c r="D260" s="128"/>
-      <c r="E260" s="127"/>
-      <c r="F260" s="128"/>
-      <c r="G260" s="127"/>
-      <c r="H260" s="127"/>
-      <c r="I260" s="128"/>
-      <c r="J260" s="128"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="126"/>
-      <c r="D261" s="128"/>
-      <c r="E261" s="127"/>
-      <c r="F261" s="128"/>
-      <c r="G261" s="127"/>
-      <c r="H261" s="127"/>
-      <c r="I261" s="128"/>
-      <c r="J261" s="128"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="126"/>
-      <c r="D262" s="128"/>
-      <c r="E262" s="127"/>
-      <c r="F262" s="128"/>
-      <c r="G262" s="127"/>
-      <c r="H262" s="127"/>
-      <c r="I262" s="128"/>
-      <c r="J262" s="128"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="126"/>
-      <c r="D263" s="128"/>
-      <c r="E263" s="127"/>
-      <c r="F263" s="128"/>
-      <c r="G263" s="127"/>
-      <c r="H263" s="127"/>
-      <c r="I263" s="128"/>
-      <c r="J263" s="128"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="126"/>
-      <c r="D264" s="128"/>
-      <c r="E264" s="127"/>
-      <c r="F264" s="128"/>
-      <c r="G264" s="127"/>
-      <c r="H264" s="127"/>
-      <c r="I264" s="128"/>
-      <c r="J264" s="128"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="126"/>
-      <c r="D265" s="128"/>
-      <c r="E265" s="127"/>
-      <c r="F265" s="128"/>
-      <c r="G265" s="127"/>
-      <c r="H265" s="127"/>
-      <c r="I265" s="128"/>
-      <c r="J265" s="128"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="126"/>
-      <c r="D266" s="128"/>
-      <c r="E266" s="127"/>
-      <c r="F266" s="128"/>
-      <c r="G266" s="127"/>
-      <c r="H266" s="127"/>
-      <c r="I266" s="128"/>
-      <c r="J266" s="128"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="126"/>
-      <c r="D267" s="128"/>
-      <c r="E267" s="127"/>
-      <c r="F267" s="128"/>
-      <c r="G267" s="127"/>
-      <c r="H267" s="127"/>
-      <c r="I267" s="128"/>
-      <c r="J267" s="128"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="126"/>
-      <c r="D268" s="128"/>
-      <c r="E268" s="127"/>
-      <c r="F268" s="128"/>
-      <c r="G268" s="127"/>
-      <c r="H268" s="127"/>
-      <c r="I268" s="128"/>
-      <c r="J268" s="128"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="126"/>
-      <c r="D269" s="128"/>
-      <c r="E269" s="127"/>
-      <c r="F269" s="128"/>
-      <c r="G269" s="127"/>
-      <c r="H269" s="127"/>
-      <c r="I269" s="128"/>
-      <c r="J269" s="128"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="126"/>
-      <c r="D270" s="128"/>
-      <c r="E270" s="127"/>
-      <c r="F270" s="128"/>
-      <c r="G270" s="127"/>
-      <c r="H270" s="127"/>
-      <c r="I270" s="128"/>
-      <c r="J270" s="128"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="126"/>
-      <c r="D271" s="128"/>
-      <c r="E271" s="127"/>
-      <c r="F271" s="128"/>
-      <c r="G271" s="127"/>
-      <c r="H271" s="127"/>
-      <c r="I271" s="128"/>
-      <c r="J271" s="128"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="126"/>
-      <c r="D272" s="128"/>
-      <c r="E272" s="127"/>
-      <c r="F272" s="128"/>
-      <c r="G272" s="127"/>
-      <c r="H272" s="127"/>
-      <c r="I272" s="128"/>
-      <c r="J272" s="128"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="126"/>
-      <c r="D273" s="128"/>
-      <c r="E273" s="127"/>
-      <c r="F273" s="128"/>
-      <c r="G273" s="127"/>
-      <c r="H273" s="127"/>
-      <c r="I273" s="128"/>
-      <c r="J273" s="128"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="126"/>
-      <c r="D274" s="128"/>
-      <c r="E274" s="127"/>
-      <c r="F274" s="128"/>
-      <c r="G274" s="127"/>
-      <c r="H274" s="127"/>
-      <c r="I274" s="128"/>
-      <c r="J274" s="128"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="126"/>
-      <c r="D275" s="128"/>
-      <c r="E275" s="127"/>
-      <c r="F275" s="128"/>
-      <c r="G275" s="127"/>
-      <c r="H275" s="127"/>
-      <c r="I275" s="128"/>
-      <c r="J275" s="128"/>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="117"/>
+      <c r="D246" s="118"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="118"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="118"/>
+      <c r="J246" s="118"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="117"/>
+      <c r="D247" s="118"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="118"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="118"/>
+      <c r="J247" s="118"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="117"/>
+      <c r="D248" s="118"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="118"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="118"/>
+      <c r="J248" s="118"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="117"/>
+      <c r="D249" s="118"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="118"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="118"/>
+      <c r="J249" s="118"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="117"/>
+      <c r="D250" s="118"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="118"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="118"/>
+      <c r="J250" s="118"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="117"/>
+      <c r="D251" s="118"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="118"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="118"/>
+      <c r="J251" s="118"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="117"/>
+      <c r="D252" s="118"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="118"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="118"/>
+      <c r="J252" s="118"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="117"/>
+      <c r="D253" s="118"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="118"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="118"/>
+      <c r="J253" s="118"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="117"/>
+      <c r="D254" s="118"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="118"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="118"/>
+      <c r="J254" s="118"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="117"/>
+      <c r="D255" s="118"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="118"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="118"/>
+      <c r="J255" s="118"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="117"/>
+      <c r="D256" s="118"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="118"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="118"/>
+      <c r="J256" s="118"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="117"/>
+      <c r="D257" s="118"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="118"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="118"/>
+      <c r="J257" s="118"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="117"/>
+      <c r="D258" s="118"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="118"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="118"/>
+      <c r="J258" s="118"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="117"/>
+      <c r="D259" s="118"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="118"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="118"/>
+      <c r="J259" s="118"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="117"/>
+      <c r="D260" s="118"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="118"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="118"/>
+      <c r="J260" s="118"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="117"/>
+      <c r="D261" s="118"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="118"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="118"/>
+      <c r="J261" s="118"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="117"/>
+      <c r="D262" s="118"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="118"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="118"/>
+      <c r="J262" s="118"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="117"/>
+      <c r="D263" s="118"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="118"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="118"/>
+      <c r="J263" s="118"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="117"/>
+      <c r="D264" s="118"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="118"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="118"/>
+      <c r="J264" s="118"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="117"/>
+      <c r="D265" s="118"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="118"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="118"/>
+      <c r="J265" s="118"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="117"/>
+      <c r="D266" s="118"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="118"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="118"/>
+      <c r="J266" s="118"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="117"/>
+      <c r="D267" s="118"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="118"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="118"/>
+      <c r="J267" s="118"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="117"/>
+      <c r="D268" s="118"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="118"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="118"/>
+      <c r="J268" s="118"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="117"/>
+      <c r="D269" s="118"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="118"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="118"/>
+      <c r="J269" s="118"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="117"/>
+      <c r="D270" s="118"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="118"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="118"/>
+      <c r="J270" s="118"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="117"/>
+      <c r="D271" s="118"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="118"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="118"/>
+      <c r="J271" s="118"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="117"/>
+      <c r="D272" s="118"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="118"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="118"/>
+      <c r="J272" s="118"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="117"/>
+      <c r="D273" s="118"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="118"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="118"/>
+      <c r="J273" s="118"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="117"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="118"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="118"/>
+      <c r="J274" s="118"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="117"/>
+      <c r="D275" s="118"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="118"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="118"/>
+      <c r="J275" s="118"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J245" xr:uid="{5B0B1A2D-50B0-4651-90F6-F7D39D697E9C}"/>
@@ -5600,36 +5603,36 @@
       <selection pane="bottomRight" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -5641,35 +5644,35 @@
       <c r="I2" s="70"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="67"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="72"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -5681,7 +5684,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="84"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -5725,7 +5728,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
         <v>6</v>
       </c>
@@ -5741,7 +5744,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="90">
         <v>6.9</v>
       </c>
@@ -5757,7 +5760,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>39</v>
       </c>
@@ -5773,7 +5776,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>17</v>
       </c>
@@ -5811,7 +5814,7 @@
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>61</v>
       </c>
@@ -5827,7 +5830,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>62</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="52" t="s">
         <v>13</v>
@@ -5862,7 +5865,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="53" t="s">
         <v>15</v>
@@ -5881,7 +5884,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="52" t="s">
         <v>26</v>
@@ -5895,7 +5898,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="53" t="s">
         <v>15</v>
@@ -5914,7 +5917,7 @@
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="52" t="s">
         <v>27</v>
@@ -5928,7 +5931,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="53" t="s">
         <v>15</v>
@@ -5947,7 +5950,7 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="52" t="s">
         <v>28</v>
@@ -5961,7 +5964,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="53" t="s">
         <v>15</v>
@@ -5980,7 +5983,7 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="52" t="s">
         <v>29</v>
@@ -5994,7 +5997,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="53" t="s">
         <v>15</v>
@@ -6013,7 +6016,7 @@
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="52" t="s">
         <v>30</v>
@@ -6027,7 +6030,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="53" t="s">
         <v>15</v>
@@ -6046,7 +6049,7 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="B27" s="97"/>
       <c r="C27" s="47"/>
@@ -6058,7 +6061,7 @@
       <c r="I27" s="48"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98"/>
       <c r="B28" s="61"/>
       <c r="C28" s="51"/>
@@ -6070,7 +6073,7 @@
       <c r="I28" s="48"/>
       <c r="J28" s="51"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="15"/>
@@ -6082,7 +6085,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="15"/>
@@ -6094,7 +6097,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -6106,7 +6109,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -6118,7 +6121,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
@@ -6130,7 +6133,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15"/>
@@ -6142,7 +6145,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -6154,7 +6157,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="15"/>
@@ -6166,7 +6169,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
@@ -6178,7 +6181,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="32"/>
       <c r="C38" s="27"/>
@@ -6190,7 +6193,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="15"/>
@@ -6202,7 +6205,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="15"/>
@@ -6214,7 +6217,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="32"/>
       <c r="C41" s="27"/>
@@ -6226,7 +6229,7 @@
       <c r="I41" s="37"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="15"/>
@@ -6238,7 +6241,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="15"/>
@@ -6250,7 +6253,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="32"/>
       <c r="C44" s="27"/>
@@ -6262,7 +6265,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="15"/>
@@ -6274,7 +6277,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="15"/>
@@ -6286,7 +6289,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="27"/>
@@ -6298,7 +6301,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="15"/>
@@ -6310,7 +6313,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="15"/>
@@ -6322,7 +6325,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="32"/>
       <c r="C50" s="27"/>
@@ -6334,7 +6337,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="15"/>
@@ -6346,7 +6349,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="15"/>
@@ -6358,7 +6361,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="32"/>
       <c r="C53" s="27"/>
@@ -6370,7 +6373,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
@@ -6382,7 +6385,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="15"/>
@@ -6394,7 +6397,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="32"/>
       <c r="C56" s="27"/>
@@ -6406,7 +6409,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="15"/>
@@ -6418,7 +6421,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
       <c r="C58" s="15"/>
@@ -6430,7 +6433,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -6442,7 +6445,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15"/>
@@ -6454,7 +6457,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="32"/>
       <c r="C61" s="27"/>
@@ -6466,7 +6469,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="15"/>
@@ -6478,7 +6481,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="19"/>
       <c r="C63" s="15"/>
@@ -6490,7 +6493,7 @@
       <c r="I63" s="37"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15"/>
@@ -6502,7 +6505,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="15"/>
@@ -6514,7 +6517,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="32"/>
       <c r="C66" s="27"/>
@@ -6526,7 +6529,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="15"/>
@@ -6538,7 +6541,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="15"/>
@@ -6550,7 +6553,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="15"/>
@@ -6562,7 +6565,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="15"/>
@@ -6574,7 +6577,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="15"/>
@@ -6586,7 +6589,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="15"/>
@@ -6598,7 +6601,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="15"/>
@@ -6610,7 +6613,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="15"/>
@@ -6622,7 +6625,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="15"/>
@@ -6634,7 +6637,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="15"/>
@@ -6646,7 +6649,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="15"/>
@@ -6658,7 +6661,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="15"/>
@@ -6670,7 +6673,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="15"/>
@@ -6682,7 +6685,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="15"/>
@@ -6694,7 +6697,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
@@ -6706,7 +6709,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="27"/>
@@ -6718,7 +6721,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="15"/>
@@ -6730,7 +6733,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="15"/>
@@ -6742,7 +6745,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="15"/>
@@ -6754,7 +6757,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="15"/>
@@ -6766,7 +6769,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="15"/>
@@ -6778,7 +6781,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="15"/>
@@ -6790,7 +6793,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="15"/>
@@ -6802,7 +6805,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -6814,7 +6817,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="15"/>
@@ -6826,7 +6829,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -6838,7 +6841,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="15"/>
@@ -6850,7 +6853,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -6862,7 +6865,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="15"/>
@@ -6874,7 +6877,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>
@@ -6886,7 +6889,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="32"/>
       <c r="C97" s="27"/>
@@ -6898,7 +6901,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="15"/>
@@ -6910,7 +6913,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -6922,7 +6925,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="15"/>
@@ -6934,7 +6937,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
@@ -6946,7 +6949,7 @@
       <c r="I101" s="37"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="15"/>
@@ -6958,7 +6961,7 @@
       <c r="I102" s="37"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="15"/>
@@ -6970,7 +6973,7 @@
       <c r="I103" s="37"/>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="15"/>
@@ -6982,7 +6985,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="15"/>
@@ -6994,7 +6997,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="15"/>
@@ -7006,7 +7009,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="15"/>
@@ -7018,7 +7021,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="15"/>
@@ -7030,7 +7033,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="15"/>
@@ -7042,7 +7045,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="15"/>
@@ -7054,7 +7057,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="15"/>
@@ -7066,7 +7069,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34"/>
       <c r="B112" s="32"/>
       <c r="C112" s="27"/>
@@ -7078,7 +7081,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="15"/>
@@ -7090,7 +7093,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="15"/>
@@ -7102,7 +7105,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="15"/>
@@ -7114,7 +7117,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="32"/>
       <c r="C116" s="27"/>
@@ -7126,7 +7129,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="15"/>
@@ -7138,7 +7141,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="15"/>
@@ -7150,7 +7153,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="15"/>
@@ -7162,7 +7165,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="15"/>
@@ -7174,7 +7177,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="15"/>
@@ -7186,7 +7189,7 @@
       <c r="I121" s="37"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="15"/>
@@ -7198,7 +7201,7 @@
       <c r="I122" s="37"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="15"/>
@@ -7210,7 +7213,7 @@
       <c r="I123" s="37"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="15"/>
@@ -7222,7 +7225,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="34"/>
       <c r="B125" s="32"/>
       <c r="C125" s="27"/>
@@ -7234,7 +7237,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="34"/>
       <c r="B126" s="18"/>
       <c r="C126" s="15"/>
@@ -7246,7 +7249,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="15"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="34"/>
       <c r="B127" s="19"/>
       <c r="C127" s="15"/>
@@ -7258,7 +7261,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="15"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="34"/>
       <c r="B128" s="18"/>
       <c r="C128" s="15"/>
@@ -7270,7 +7273,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="34"/>
       <c r="B129" s="19"/>
       <c r="C129" s="15"/>
@@ -7282,7 +7285,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="34"/>
       <c r="B130" s="18"/>
       <c r="C130" s="15"/>
@@ -7294,7 +7297,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="34"/>
       <c r="B131" s="19"/>
       <c r="C131" s="15"/>
@@ -7306,7 +7309,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="18"/>
       <c r="C132" s="15"/>
@@ -7318,7 +7321,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="34"/>
       <c r="B133" s="19"/>
       <c r="C133" s="15"/>
@@ -7330,7 +7333,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34"/>
       <c r="B134" s="18"/>
       <c r="C134" s="15"/>
@@ -7342,7 +7345,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="34"/>
       <c r="B135" s="19"/>
       <c r="C135" s="15"/>
@@ -7354,7 +7357,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
       <c r="C136" s="15"/>
@@ -7366,7 +7369,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="19"/>
       <c r="C137" s="15"/>
@@ -7378,7 +7381,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="18"/>
       <c r="C138" s="15"/>
@@ -7390,7 +7393,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="19"/>
       <c r="C139" s="15"/>
@@ -7402,7 +7405,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="B140" s="23"/>
       <c r="C140" s="15"/>
@@ -7414,7 +7417,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="24"/>
       <c r="C141" s="15"/>
@@ -7426,7 +7429,7 @@
       <c r="I141" s="37"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="32"/>
       <c r="C142" s="27"/>
@@ -7438,7 +7441,7 @@
       <c r="I142" s="37"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="15"/>
@@ -7450,7 +7453,7 @@
       <c r="I143" s="37"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="19"/>
       <c r="C144" s="15"/>
@@ -7462,7 +7465,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="15"/>
@@ -7474,7 +7477,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="15"/>
@@ -7486,7 +7489,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="15"/>
@@ -7498,7 +7501,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
@@ -7510,7 +7513,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="15"/>
@@ -7522,7 +7525,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="15"/>
@@ -7534,7 +7537,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="15"/>
@@ -7546,7 +7549,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="15"/>
@@ -7558,7 +7561,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="15"/>
@@ -7570,7 +7573,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="15"/>
@@ -7582,7 +7585,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="15"/>
@@ -7594,7 +7597,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="19"/>
       <c r="C156" s="15"/>
@@ -7606,7 +7609,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34"/>
       <c r="B157" s="32"/>
       <c r="C157" s="27"/>
@@ -7618,7 +7621,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="15"/>
@@ -7630,7 +7633,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="19"/>
       <c r="C159" s="15"/>
@@ -7642,7 +7645,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32"/>
       <c r="B160" s="18"/>
       <c r="C160" s="27"/>
@@ -7654,7 +7657,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="19"/>
       <c r="C161" s="15"/>
@@ -7666,7 +7669,7 @@
       <c r="I161" s="37"/>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="15"/>
@@ -7678,7 +7681,7 @@
       <c r="I162" s="37"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="15"/>
@@ -7690,7 +7693,7 @@
       <c r="I163" s="37"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="15"/>
@@ -7702,7 +7705,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="15"/>
@@ -7714,7 +7717,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="15"/>
@@ -7726,7 +7729,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
       <c r="B167" s="19"/>
       <c r="C167" s="15"/>
@@ -7738,7 +7741,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="15"/>
@@ -7750,7 +7753,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="19"/>
       <c r="C169" s="15"/>
@@ -7762,7 +7765,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="15"/>
@@ -7774,7 +7777,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="15"/>
@@ -7786,7 +7789,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="34"/>
       <c r="B172" s="32"/>
       <c r="C172" s="27"/>
@@ -7798,7 +7801,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25"/>
       <c r="B173" s="18"/>
       <c r="C173" s="15"/>
@@ -7810,7 +7813,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="15"/>
@@ -7822,7 +7825,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="15"/>
@@ -7834,7 +7837,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="15"/>
@@ -7846,7 +7849,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="15"/>
@@ -7858,7 +7861,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="15"/>
@@ -7870,7 +7873,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25"/>
       <c r="B179" s="18"/>
       <c r="C179" s="15"/>
@@ -7882,7 +7885,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="15"/>
@@ -7894,7 +7897,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="15"/>
@@ -7906,7 +7909,7 @@
       <c r="I181" s="37"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="15"/>
@@ -7918,7 +7921,7 @@
       <c r="I182" s="37"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="15"/>
@@ -7930,7 +7933,7 @@
       <c r="I183" s="37"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="15"/>
@@ -7942,7 +7945,7 @@
       <c r="I184" s="37"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="15"/>
@@ -7954,7 +7957,7 @@
       <c r="I185" s="37"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25"/>
       <c r="B186" s="19"/>
       <c r="C186" s="15"/>
@@ -7966,7 +7969,7 @@
       <c r="I186" s="37"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="34"/>
       <c r="B187" s="32"/>
       <c r="C187" s="35"/>
@@ -7978,7 +7981,7 @@
       <c r="I187" s="38"/>
       <c r="J187" s="35"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="15"/>
@@ -7990,7 +7993,7 @@
       <c r="I188" s="37"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="19"/>
       <c r="C189" s="15"/>
@@ -8002,7 +8005,7 @@
       <c r="I189" s="37"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="15"/>
@@ -8014,7 +8017,7 @@
       <c r="I190" s="37"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="19"/>
       <c r="C191" s="15"/>
@@ -8026,7 +8029,7 @@
       <c r="I191" s="37"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="15"/>
@@ -8038,7 +8041,7 @@
       <c r="I192" s="37"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="25"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15"/>
@@ -8050,7 +8053,7 @@
       <c r="I193" s="37"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="25"/>
       <c r="B194" s="18"/>
       <c r="C194" s="15"/>
@@ -8062,7 +8065,7 @@
       <c r="I194" s="37"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="19"/>
       <c r="C195" s="15"/>
@@ -8074,7 +8077,7 @@
       <c r="I195" s="37"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="15"/>
@@ -8086,7 +8089,7 @@
       <c r="I196" s="37"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="19"/>
       <c r="C197" s="15"/>
@@ -8098,7 +8101,7 @@
       <c r="I197" s="37"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="15"/>
@@ -8110,7 +8113,7 @@
       <c r="I198" s="37"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="19"/>
       <c r="C199" s="15"/>
@@ -8122,7 +8125,7 @@
       <c r="I199" s="37"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="25"/>
       <c r="B200" s="18"/>
       <c r="C200" s="15"/>
@@ -8134,7 +8137,7 @@
       <c r="I200" s="37"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="25"/>
       <c r="B201" s="19"/>
       <c r="C201" s="15"/>
@@ -8146,7 +8149,7 @@
       <c r="I201" s="37"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="34"/>
       <c r="B202" s="32"/>
       <c r="C202" s="27"/>
@@ -8158,7 +8161,7 @@
       <c r="I202" s="37"/>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="15"/>
@@ -8170,7 +8173,7 @@
       <c r="I203" s="37"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="19"/>
       <c r="C204" s="15"/>
@@ -8182,7 +8185,7 @@
       <c r="I204" s="37"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="15"/>
@@ -8194,7 +8197,7 @@
       <c r="I205" s="37"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="19"/>
       <c r="C206" s="15"/>
@@ -8206,7 +8209,7 @@
       <c r="I206" s="37"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="25"/>
       <c r="B207" s="18"/>
       <c r="C207" s="15"/>
@@ -8218,7 +8221,7 @@
       <c r="I207" s="37"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="25"/>
       <c r="B208" s="19"/>
       <c r="C208" s="15"/>
@@ -8230,7 +8233,7 @@
       <c r="I208" s="37"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="15"/>
@@ -8242,7 +8245,7 @@
       <c r="I209" s="37"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="19"/>
       <c r="C210" s="15"/>
@@ -8254,7 +8257,7 @@
       <c r="I210" s="37"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="15"/>
@@ -8266,7 +8269,7 @@
       <c r="I211" s="37"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="19"/>
       <c r="C212" s="15"/>
@@ -8278,7 +8281,7 @@
       <c r="I212" s="37"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="15"/>
@@ -8290,7 +8293,7 @@
       <c r="I213" s="37"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="B214" s="19"/>
       <c r="C214" s="15"/>
@@ -8302,7 +8305,7 @@
       <c r="I214" s="37"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="B215" s="18"/>
       <c r="C215" s="15"/>
@@ -8314,7 +8317,7 @@
       <c r="I215" s="37"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="26"/>
       <c r="B216" s="19"/>
       <c r="C216" s="15"/>
@@ -8326,7 +8329,7 @@
       <c r="I216" s="37"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="34"/>
       <c r="B217" s="32"/>
       <c r="C217" s="27"/>
@@ -8338,7 +8341,7 @@
       <c r="I217" s="37"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="15"/>
@@ -8350,7 +8353,7 @@
       <c r="I218" s="37"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="19"/>
       <c r="C219" s="15"/>
@@ -8362,7 +8365,7 @@
       <c r="I219" s="37"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="15"/>
@@ -8374,7 +8377,7 @@
       <c r="I220" s="37"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="25"/>
       <c r="B221" s="19"/>
       <c r="C221" s="15"/>
@@ -8386,7 +8389,7 @@
       <c r="I221" s="37"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="26"/>
       <c r="B222" s="18"/>
       <c r="C222" s="15"/>
@@ -8399,7 +8402,7 @@
       <c r="J222" s="27"/>
       <c r="K222" s="28"/>
     </row>
-    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -8411,7 +8414,7 @@
       <c r="I223" s="37"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="15"/>
@@ -8423,7 +8426,7 @@
       <c r="I224" s="37"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="19"/>
       <c r="C225" s="15"/>
@@ -8435,7 +8438,7 @@
       <c r="I225" s="37"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="15"/>
@@ -8447,7 +8450,7 @@
       <c r="I226" s="37"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="19"/>
       <c r="C227" s="15"/>
@@ -8459,7 +8462,7 @@
       <c r="I227" s="37"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="25"/>
       <c r="B228" s="18"/>
       <c r="C228" s="15"/>
@@ -8471,7 +8474,7 @@
       <c r="I228" s="37"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="25"/>
       <c r="B229" s="19"/>
       <c r="C229" s="15"/>
@@ -8483,7 +8486,7 @@
       <c r="I229" s="37"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="15"/>
@@ -8495,7 +8498,7 @@
       <c r="I230" s="37"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="19"/>
       <c r="C231" s="15"/>
@@ -8507,7 +8510,7 @@
       <c r="I231" s="37"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
       <c r="B232" s="24"/>
       <c r="C232" s="15"/>
@@ -8519,7 +8522,7 @@
       <c r="I232" s="37"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="34"/>
       <c r="B233" s="32"/>
       <c r="C233" s="27"/>
@@ -8531,7 +8534,7 @@
       <c r="I233" s="37"/>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="15"/>
@@ -8543,7 +8546,7 @@
       <c r="I234" s="37"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="25"/>
       <c r="B235" s="19"/>
       <c r="C235" s="15"/>
@@ -8555,7 +8558,7 @@
       <c r="I235" s="37"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="25"/>
       <c r="B236" s="18"/>
       <c r="C236" s="15"/>
@@ -8567,7 +8570,7 @@
       <c r="I236" s="37"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="19"/>
       <c r="C237" s="15"/>
@@ -8579,7 +8582,7 @@
       <c r="I237" s="37"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="15"/>
@@ -8591,7 +8594,7 @@
       <c r="I238" s="37"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="19"/>
       <c r="C239" s="15"/>
@@ -8603,7 +8606,7 @@
       <c r="I239" s="37"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="34"/>
       <c r="B240" s="32"/>
       <c r="C240" s="27"/>
@@ -8615,7 +8618,7 @@
       <c r="I240" s="37"/>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="15"/>
@@ -8627,7 +8630,7 @@
       <c r="I241" s="37"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" s="19"/>
       <c r="C242" s="15"/>
@@ -8639,7 +8642,7 @@
       <c r="I242" s="37"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" s="18"/>
       <c r="C243" s="15"/>
@@ -8651,7 +8654,7 @@
       <c r="I243" s="37"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="19"/>
       <c r="C244" s="15"/>
@@ -8663,7 +8666,7 @@
       <c r="I244" s="37"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="15"/>
@@ -8675,7 +8678,7 @@
       <c r="I245" s="37"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="19"/>
       <c r="C246" s="15"/>
@@ -8687,7 +8690,7 @@
       <c r="I246" s="37"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="15"/>
@@ -8699,7 +8702,7 @@
       <c r="I247" s="37"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="29"/>
       <c r="B248" s="19"/>
       <c r="C248" s="15"/>
@@ -8711,7 +8714,7 @@
       <c r="I248" s="37"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="26"/>
       <c r="B249" s="18"/>
       <c r="C249" s="15"/>
@@ -8723,7 +8726,7 @@
       <c r="I249" s="37"/>
       <c r="J249" s="27"/>
     </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" s="19"/>
       <c r="C250" s="15"/>
@@ -8735,7 +8738,7 @@
       <c r="I250" s="37"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="15"/>
@@ -8747,7 +8750,7 @@
       <c r="I251" s="37"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="19"/>
       <c r="C252" s="15"/>
@@ -8759,7 +8762,7 @@
       <c r="I252" s="37"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="15"/>
@@ -8771,7 +8774,7 @@
       <c r="I253" s="37"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="19"/>
       <c r="C254" s="15"/>
@@ -8783,7 +8786,7 @@
       <c r="I254" s="37"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
@@ -8795,7 +8798,7 @@
       <c r="I255" s="37"/>
       <c r="J255" s="27"/>
     </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="34"/>
       <c r="B256" s="32"/>
       <c r="C256" s="27"/>
@@ -8807,7 +8810,7 @@
       <c r="I256" s="37"/>
       <c r="J256" s="27"/>
     </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" s="18"/>
       <c r="C257" s="15"/>
@@ -8819,7 +8822,7 @@
       <c r="I257" s="37"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="29"/>
       <c r="B258" s="19"/>
       <c r="C258" s="15"/>
@@ -8831,7 +8834,7 @@
       <c r="I258" s="37"/>
       <c r="J258" s="30"/>
     </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="34"/>
       <c r="B259" s="32"/>
       <c r="C259" s="27"/>
@@ -8843,7 +8846,7 @@
       <c r="I259" s="37"/>
       <c r="J259" s="27"/>
     </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="26"/>
       <c r="B260" s="18"/>
       <c r="C260" s="15"/>
@@ -8855,7 +8858,7 @@
       <c r="I260" s="37"/>
       <c r="J260" s="27"/>
     </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="26"/>
       <c r="B261" s="19"/>
       <c r="C261" s="15"/>
@@ -8867,7 +8870,7 @@
       <c r="I261" s="37"/>
       <c r="J261" s="27"/>
     </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="34"/>
       <c r="B262" s="32"/>
       <c r="C262" s="27"/>
@@ -8879,7 +8882,7 @@
       <c r="I262" s="37"/>
       <c r="J262" s="27"/>
     </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="26"/>
       <c r="B263" s="18"/>
       <c r="C263" s="15"/>
@@ -8891,7 +8894,7 @@
       <c r="I263" s="37"/>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
       <c r="B264" s="19"/>
       <c r="C264" s="15"/>
@@ -8903,7 +8906,7 @@
       <c r="I264" s="37"/>
       <c r="J264" s="27"/>
     </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" s="18"/>
       <c r="C265" s="15"/>
@@ -8915,7 +8918,7 @@
       <c r="I265" s="37"/>
       <c r="J265" s="27"/>
     </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" s="19"/>
       <c r="C266" s="15"/>
@@ -8927,7 +8930,7 @@
       <c r="I266" s="37"/>
       <c r="J266" s="27"/>
     </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" s="18"/>
       <c r="C267" s="15"/>
@@ -8939,7 +8942,7 @@
       <c r="I267" s="37"/>
       <c r="J267" s="27"/>
     </row>
-    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="6"/>
@@ -8951,7 +8954,7 @@
       <c r="I268" s="37"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="18"/>
       <c r="C269" s="6"/>
@@ -8963,7 +8966,7 @@
       <c r="I269" s="37"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="6"/>
@@ -8975,7 +8978,7 @@
       <c r="I270" s="37"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="18"/>
       <c r="C271" s="6"/>
@@ -8987,7 +8990,7 @@
       <c r="I271" s="37"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="6"/>
@@ -8999,7 +9002,7 @@
       <c r="I272" s="37"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="18"/>
       <c r="C273" s="6"/>
@@ -9011,7 +9014,7 @@
       <c r="I273" s="37"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="6"/>
@@ -9023,7 +9026,7 @@
       <c r="I274" s="37"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="18"/>
       <c r="C275" s="6"/>
@@ -9035,7 +9038,7 @@
       <c r="I275" s="37"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="6"/>
@@ -9047,7 +9050,7 @@
       <c r="I276" s="37"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="34"/>
       <c r="B277" s="32"/>
       <c r="C277" s="12"/>
@@ -9059,7 +9062,7 @@
       <c r="I277" s="37"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="18"/>
       <c r="C278" s="6"/>
@@ -9071,7 +9074,7 @@
       <c r="I278" s="37"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="6"/>
@@ -9083,7 +9086,7 @@
       <c r="I279" s="37"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="18"/>
       <c r="C280" s="6"/>
@@ -9095,7 +9098,7 @@
       <c r="I280" s="37"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="6"/>
@@ -9107,7 +9110,7 @@
       <c r="I281" s="37"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="B282" s="18"/>
       <c r="C282" s="6"/>
@@ -9119,7 +9122,7 @@
       <c r="I282" s="37"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="6"/>
@@ -9131,7 +9134,7 @@
       <c r="I283" s="37"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="18"/>
       <c r="C284" s="6"/>
@@ -9143,7 +9146,7 @@
       <c r="I284" s="37"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="6"/>
@@ -9155,7 +9158,7 @@
       <c r="I285" s="37"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="18"/>
       <c r="C286" s="6"/>
@@ -9167,7 +9170,7 @@
       <c r="I286" s="37"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="6"/>
@@ -9179,7 +9182,7 @@
       <c r="I287" s="37"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="18"/>
       <c r="C288" s="6"/>
@@ -9191,7 +9194,7 @@
       <c r="I288" s="37"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="6"/>
@@ -9203,7 +9206,7 @@
       <c r="I289" s="37"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="18"/>
       <c r="C290" s="4"/>
@@ -9215,7 +9218,7 @@
       <c r="I290" s="37"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="4"/>
@@ -9227,7 +9230,7 @@
       <c r="I291" s="37"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="34"/>
       <c r="B292" s="32"/>
       <c r="C292" s="12"/>
@@ -9239,7 +9242,7 @@
       <c r="I292" s="37"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="18"/>
       <c r="C293" s="4"/>
@@ -9251,7 +9254,7 @@
       <c r="I293" s="37"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="19"/>
       <c r="C294" s="4"/>
@@ -9263,7 +9266,7 @@
       <c r="I294" s="37"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="18"/>
       <c r="C295" s="4"/>
@@ -9275,7 +9278,7 @@
       <c r="I295" s="37"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="19"/>
       <c r="C296" s="10"/>
@@ -9287,7 +9290,7 @@
       <c r="I296" s="37"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="18"/>
       <c r="C297" s="4"/>
@@ -9299,7 +9302,7 @@
       <c r="I297" s="37"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="6"/>
@@ -9311,7 +9314,7 @@
       <c r="I298" s="37"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="18"/>
       <c r="C299" s="4"/>
@@ -9323,7 +9326,7 @@
       <c r="I299" s="37"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="19"/>
       <c r="C300" s="4"/>
@@ -9335,7 +9338,7 @@
       <c r="I300" s="37"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="18"/>
       <c r="C301" s="4"/>
@@ -9347,7 +9350,7 @@
       <c r="I301" s="37"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="19"/>
       <c r="C302" s="4"/>
@@ -9359,7 +9362,7 @@
       <c r="I302" s="37"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="18"/>
       <c r="C303" s="4"/>
@@ -9371,7 +9374,7 @@
       <c r="I303" s="37"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
       <c r="B304" s="19"/>
       <c r="C304" s="4"/>
@@ -9383,7 +9386,7 @@
       <c r="I304" s="37"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
       <c r="B305" s="18"/>
       <c r="C305" s="4"/>
@@ -9395,7 +9398,7 @@
       <c r="I305" s="37"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="19"/>
       <c r="C306" s="4"/>
@@ -9407,7 +9410,7 @@
       <c r="I306" s="37"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="34"/>
       <c r="B307" s="32"/>
       <c r="C307" s="12"/>
@@ -9419,7 +9422,7 @@
       <c r="I307" s="37"/>
       <c r="J307" s="12"/>
     </row>
-    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
@@ -9431,7 +9434,7 @@
       <c r="I308" s="37"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="19"/>
       <c r="C309" s="4"/>
@@ -9443,7 +9446,7 @@
       <c r="I309" s="37"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
       <c r="B310" s="24"/>
       <c r="C310" s="4"/>
@@ -9455,7 +9458,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="34"/>
       <c r="B311" s="32"/>
       <c r="C311" s="12"/>
@@ -9467,7 +9470,7 @@
       <c r="I311" s="37"/>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="18"/>
       <c r="C312" s="4"/>
@@ -9479,7 +9482,7 @@
       <c r="I312" s="37"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="19"/>
       <c r="C313" s="4"/>
@@ -9491,7 +9494,7 @@
       <c r="I313" s="37"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="18"/>
       <c r="C314" s="4"/>
@@ -9503,7 +9506,7 @@
       <c r="I314" s="37"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="19"/>
       <c r="C315" s="4"/>
@@ -9515,7 +9518,7 @@
       <c r="I315" s="37"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="18"/>
       <c r="C316" s="4"/>
@@ -9527,7 +9530,7 @@
       <c r="I316" s="37"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="19"/>
       <c r="C317" s="4"/>
@@ -9539,7 +9542,7 @@
       <c r="I317" s="37"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="18"/>
       <c r="C318" s="4"/>
@@ -9551,7 +9554,7 @@
       <c r="I318" s="37"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="19"/>
       <c r="C319" s="4"/>
@@ -9563,7 +9566,7 @@
       <c r="I319" s="37"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="18"/>
       <c r="C320" s="4"/>
@@ -9575,7 +9578,7 @@
       <c r="I320" s="37"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="19"/>
       <c r="C321" s="4"/>
@@ -9587,7 +9590,7 @@
       <c r="I321" s="37"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="18"/>
       <c r="C322" s="4"/>
@@ -9599,7 +9602,7 @@
       <c r="I322" s="37"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="19"/>
       <c r="C323" s="4"/>
@@ -9611,7 +9614,7 @@
       <c r="I323" s="37"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="18"/>
       <c r="C324" s="4"/>
@@ -9623,7 +9626,7 @@
       <c r="I324" s="37"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="19"/>
       <c r="C325" s="4"/>
@@ -9635,7 +9638,7 @@
       <c r="I325" s="37"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="34"/>
       <c r="B326" s="32"/>
       <c r="C326" s="12"/>
@@ -9647,7 +9650,7 @@
       <c r="I326" s="37"/>
       <c r="J326" s="12"/>
     </row>
-    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="18"/>
       <c r="C327" s="4"/>
@@ -9659,7 +9662,7 @@
       <c r="I327" s="37"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="19"/>
       <c r="C328" s="4"/>
@@ -9671,7 +9674,7 @@
       <c r="I328" s="37"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="18"/>
       <c r="C329" s="4"/>
@@ -9683,7 +9686,7 @@
       <c r="I329" s="37"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="13"/>
       <c r="B330" s="19"/>
       <c r="C330" s="4"/>
@@ -9695,7 +9698,7 @@
       <c r="I330" s="37"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="18"/>
       <c r="C331" s="4"/>
@@ -9707,7 +9710,7 @@
       <c r="I331" s="37"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="19"/>
       <c r="C332" s="4"/>
@@ -9719,7 +9722,7 @@
       <c r="I332" s="37"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="18"/>
       <c r="C333" s="4"/>
@@ -9731,7 +9734,7 @@
       <c r="I333" s="37"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="19"/>
       <c r="C334" s="4"/>
@@ -9743,7 +9746,7 @@
       <c r="I334" s="37"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="18"/>
       <c r="C335" s="4"/>
@@ -9755,7 +9758,7 @@
       <c r="I335" s="37"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="19"/>
       <c r="C336" s="4"/>
@@ -9767,7 +9770,7 @@
       <c r="I336" s="37"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="18"/>
       <c r="C337" s="4"/>
@@ -9779,7 +9782,7 @@
       <c r="I337" s="37"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="19"/>
       <c r="C338" s="4"/>
@@ -9791,7 +9794,7 @@
       <c r="I338" s="37"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="18"/>
       <c r="C339" s="4"/>
@@ -9803,7 +9806,7 @@
       <c r="I339" s="37"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="19"/>
       <c r="C340" s="4"/>
@@ -9815,7 +9818,7 @@
       <c r="I340" s="37"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -9827,7 +9830,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -9839,7 +9842,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -9851,7 +9854,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -9863,7 +9866,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -9875,7 +9878,7 @@
       <c r="I345" s="39"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -9887,7 +9890,7 @@
       <c r="I346" s="39"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -9899,7 +9902,7 @@
       <c r="I347" s="39"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -9911,7 +9914,7 @@
       <c r="I348" s="39"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -9923,7 +9926,7 @@
       <c r="I349" s="39"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -9935,7 +9938,7 @@
       <c r="I350" s="39"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -9947,7 +9950,7 @@
       <c r="I351" s="39"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -9959,7 +9962,7 @@
       <c r="I352" s="39"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -9971,7 +9974,7 @@
       <c r="I353" s="39"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -9983,7 +9986,7 @@
       <c r="I354" s="39"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -9995,7 +9998,7 @@
       <c r="I355" s="39"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -10007,7 +10010,7 @@
       <c r="I356" s="39"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -10019,7 +10022,7 @@
       <c r="I357" s="39"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -10031,7 +10034,7 @@
       <c r="I358" s="39"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -10043,7 +10046,7 @@
       <c r="I359" s="39"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -10055,7 +10058,7 @@
       <c r="I360" s="39"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -10067,7 +10070,7 @@
       <c r="I361" s="39"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -10079,7 +10082,7 @@
       <c r="I362" s="39"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -10091,7 +10094,7 @@
       <c r="I363" s="39"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -10103,7 +10106,7 @@
       <c r="I364" s="39"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -10115,7 +10118,7 @@
       <c r="I365" s="39"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -10127,7 +10130,7 @@
       <c r="I366" s="39"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -10139,7 +10142,7 @@
       <c r="I367" s="39"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -10151,7 +10154,7 @@
       <c r="I368" s="39"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -10163,7 +10166,7 @@
       <c r="I369" s="39"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90305C1-4D36-423B-94C2-7BDEC5204D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E74D78-F617-43BE-9541-0377F5985087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="107">
   <si>
     <t>PROYECTO:</t>
   </si>
@@ -167,45 +158,24 @@
     <t>04.02</t>
   </si>
   <si>
-    <t>04.02.07.01</t>
-  </si>
-  <si>
     <t>SISTEMA DSP PARA TECHO</t>
   </si>
   <si>
-    <t>04.02.07.02</t>
-  </si>
-  <si>
     <t>SISTEMA SUB FERRITA DE PISO</t>
   </si>
   <si>
-    <t>04.02.07.03</t>
-  </si>
-  <si>
     <t>INSUMOS PARA INSTALACIONES DEL SISTEMA DE AUDIO</t>
   </si>
   <si>
-    <t>04.02.07.04</t>
-  </si>
-  <si>
     <t>MEZCLADORA DIGITAL DE SONIDO 24 CANALES INCL. EFECTOS</t>
   </si>
   <si>
-    <t>04.02.07.05</t>
-  </si>
-  <si>
     <t>MICRÓFONO DINÁMICO</t>
   </si>
   <si>
-    <t>04.02.07.06</t>
-  </si>
-  <si>
     <t>MICRÓFONO DINÁMICO CARDIOIDE</t>
   </si>
   <si>
-    <t>04.02.07.07</t>
-  </si>
-  <si>
     <t>SERVIDOR DE APLICACIONES</t>
   </si>
   <si>
@@ -366,6 +336,24 @@
   </si>
   <si>
     <t xml:space="preserve">   SISTEMA DE SONIDO AMBIENTAL Y PERIFONEO.</t>
+  </si>
+  <si>
+    <t>04.09.01.02</t>
+  </si>
+  <si>
+    <t>04.09.01.03</t>
+  </si>
+  <si>
+    <t>04.09.01.04</t>
+  </si>
+  <si>
+    <t>04.09.01.05</t>
+  </si>
+  <si>
+    <t>04.09.01.06</t>
+  </si>
+  <si>
+    <t>04.09.01.07</t>
   </si>
 </sst>
 </file>
@@ -1594,30 +1582,30 @@
   <dimension ref="A1:J275"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="23.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1619,7 @@
       <c r="I1" s="135"/>
       <c r="J1" s="136"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="106"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -1643,7 +1631,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1647,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -1671,7 +1659,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="107"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -1683,7 +1671,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -1727,12 +1715,12 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="109">
         <v>4</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -1743,12 +1731,12 @@
       <c r="I8" s="42"/>
       <c r="J8" s="131"/>
     </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="42"/>
@@ -1759,12 +1747,12 @@
       <c r="I9" s="42"/>
       <c r="J9" s="131"/>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
@@ -1775,7 +1763,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="131"/>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
       <c r="B11" s="52" t="s">
         <v>26</v>
@@ -1791,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="122"/>
       <c r="B12" s="53" t="s">
         <v>32</v>
@@ -1807,12 +1795,12 @@
       <c r="I12" s="42"/>
       <c r="J12" s="131"/>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="122" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
@@ -1823,7 +1811,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="131"/>
     </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="122"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41"/>
@@ -1835,7 +1823,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="131"/>
     </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="122"/>
       <c r="B15" s="52" t="s">
         <v>27</v>
@@ -1851,12 +1839,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="42">
@@ -1869,7 +1857,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="131"/>
     </row>
-    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="122"/>
       <c r="B17" s="52" t="s">
         <v>13</v>
@@ -1885,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
       <c r="B18" s="53"/>
       <c r="C18" s="41"/>
@@ -1899,7 +1887,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="131"/>
     </row>
-    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
       <c r="B19" s="52" t="s">
         <v>26</v>
@@ -1913,7 +1901,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="131"/>
     </row>
-    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="122"/>
       <c r="B20" s="53"/>
       <c r="C20" s="41"/>
@@ -1927,7 +1915,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="131"/>
     </row>
-    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="122"/>
       <c r="B21" s="52" t="s">
         <v>27</v>
@@ -1941,7 +1929,7 @@
       <c r="I21" s="42"/>
       <c r="J21" s="131"/>
     </row>
-    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="122"/>
       <c r="B22" s="53"/>
       <c r="C22" s="41"/>
@@ -1955,7 +1943,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="131"/>
     </row>
-    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="122"/>
       <c r="B23" s="52" t="s">
         <v>28</v>
@@ -1969,7 +1957,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="131"/>
     </row>
-    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="53"/>
       <c r="C24" s="41"/>
@@ -1983,7 +1971,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="131"/>
     </row>
-    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
       <c r="B25" s="52" t="s">
         <v>29</v>
@@ -1997,7 +1985,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="131"/>
     </row>
-    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="122"/>
       <c r="B26" s="53"/>
       <c r="C26" s="41"/>
@@ -2011,7 +1999,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="131"/>
     </row>
-    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
       <c r="B27" s="52" t="s">
         <v>30</v>
@@ -2025,7 +2013,7 @@
       <c r="I27" s="42"/>
       <c r="J27" s="131"/>
     </row>
-    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
       <c r="B28" s="53"/>
       <c r="C28" s="41"/>
@@ -2039,7 +2027,7 @@
       <c r="I28" s="42"/>
       <c r="J28" s="131"/>
     </row>
-    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="122"/>
       <c r="B29" s="52" t="s">
         <v>31</v>
@@ -2053,7 +2041,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="131"/>
     </row>
-    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
@@ -2067,12 +2055,12 @@
       <c r="I30" s="42"/>
       <c r="J30" s="131"/>
     </row>
-    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="122" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
@@ -2083,7 +2071,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="131"/>
     </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="122"/>
       <c r="B32" s="52" t="s">
         <v>13</v>
@@ -2099,7 +2087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="122"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
@@ -2113,7 +2101,7 @@
       <c r="I33" s="42"/>
       <c r="J33" s="131"/>
     </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="122"/>
       <c r="B34" s="52" t="s">
         <v>26</v>
@@ -2127,7 +2115,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="131"/>
     </row>
-    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="122"/>
       <c r="B35" s="53"/>
       <c r="C35" s="41"/>
@@ -2141,7 +2129,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="131"/>
     </row>
-    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="122"/>
       <c r="B36" s="52" t="s">
         <v>27</v>
@@ -2155,7 +2143,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="131"/>
     </row>
-    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="122"/>
       <c r="B37" s="53"/>
       <c r="C37" s="41"/>
@@ -2169,7 +2157,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="131"/>
     </row>
-    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="122"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
@@ -2183,7 +2171,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="131"/>
     </row>
-    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="122"/>
       <c r="B39" s="53"/>
       <c r="C39" s="41"/>
@@ -2197,7 +2185,7 @@
       <c r="I39" s="42"/>
       <c r="J39" s="131"/>
     </row>
-    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="122"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
@@ -2211,7 +2199,7 @@
       <c r="I40" s="42"/>
       <c r="J40" s="131"/>
     </row>
-    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="122"/>
       <c r="B41" s="53"/>
       <c r="C41" s="41"/>
@@ -2225,7 +2213,7 @@
       <c r="I41" s="42"/>
       <c r="J41" s="131"/>
     </row>
-    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="122"/>
       <c r="B42" s="52" t="s">
         <v>30</v>
@@ -2239,7 +2227,7 @@
       <c r="I42" s="42"/>
       <c r="J42" s="131"/>
     </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="122"/>
       <c r="B43" s="53"/>
       <c r="C43" s="41"/>
@@ -2253,12 +2241,12 @@
       <c r="I43" s="42"/>
       <c r="J43" s="131"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
@@ -2269,12 +2257,12 @@
       <c r="I44" s="48"/>
       <c r="J44" s="46"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C45" s="45" t="s">
         <v>14</v>
@@ -2289,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="50"/>
       <c r="C46" s="45"/>
@@ -2301,7 +2289,7 @@
       <c r="I46" s="48"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="53" t="s">
         <v>32</v>
@@ -2320,12 +2308,12 @@
       </c>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C48" s="45" t="s">
         <v>14</v>
@@ -2340,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="52" t="s">
         <v>26</v>
@@ -2354,7 +2342,7 @@
       <c r="I49" s="48"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="53" t="s">
         <v>32</v>
@@ -2373,9 +2361,9 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B51" s="105" t="s">
         <v>25</v>
@@ -2389,9 +2377,9 @@
       <c r="I51" s="48"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="128" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B52" s="129" t="s">
         <v>21</v>
@@ -2405,9 +2393,9 @@
       <c r="I52" s="48"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B53" s="60" t="s">
         <v>22</v>
@@ -2426,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="52" t="s">
         <v>26</v>
@@ -2440,7 +2428,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="53" t="s">
         <v>32</v>
@@ -2459,9 +2447,9 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B56" s="60" t="s">
         <v>24</v>
@@ -2480,7 +2468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="52" t="s">
         <v>13</v>
@@ -2494,7 +2482,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="53" t="s">
         <v>34</v>
@@ -2513,7 +2501,7 @@
       </c>
       <c r="J58" s="46"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="52" t="s">
         <v>26</v>
@@ -2527,7 +2515,7 @@
       <c r="I59" s="48"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="53" t="s">
         <v>34</v>
@@ -2546,7 +2534,7 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="52" t="s">
         <v>27</v>
@@ -2560,7 +2548,7 @@
       <c r="I61" s="48"/>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="53" t="s">
         <v>34</v>
@@ -2579,7 +2567,7 @@
       </c>
       <c r="J62" s="46"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="52" t="s">
         <v>28</v>
@@ -2593,7 +2581,7 @@
       <c r="I63" s="48"/>
       <c r="J63" s="46"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="53" t="s">
         <v>34</v>
@@ -2612,7 +2600,7 @@
       </c>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="52" t="s">
         <v>29</v>
@@ -2626,7 +2614,7 @@
       <c r="I65" s="48"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="53" t="s">
         <v>34</v>
@@ -2645,7 +2633,7 @@
       </c>
       <c r="J66" s="46"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="52" t="s">
         <v>30</v>
@@ -2659,7 +2647,7 @@
       <c r="I67" s="48"/>
       <c r="J67" s="46"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="53" t="s">
         <v>34</v>
@@ -2678,7 +2666,7 @@
       </c>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="52" t="s">
         <v>31</v>
@@ -2692,7 +2680,7 @@
       <c r="I69" s="48"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="53" t="s">
         <v>34</v>
@@ -2711,12 +2699,12 @@
       </c>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="111" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="48"/>
@@ -2727,7 +2715,7 @@
       <c r="I71" s="48"/>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>13</v>
@@ -2743,7 +2731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
       <c r="B73" s="53" t="s">
         <v>34</v>
@@ -2759,7 +2747,7 @@
       <c r="I73" s="48"/>
       <c r="J73" s="46"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="111"/>
       <c r="B74" s="52" t="s">
         <v>26</v>
@@ -2773,7 +2761,7 @@
       <c r="I74" s="48"/>
       <c r="J74" s="46"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="111"/>
       <c r="B75" s="53" t="s">
         <v>34</v>
@@ -2789,7 +2777,7 @@
       <c r="I75" s="48"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="111"/>
       <c r="B76" s="52" t="s">
         <v>27</v>
@@ -2803,7 +2791,7 @@
       <c r="I76" s="48"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="111"/>
       <c r="B77" s="53" t="s">
         <v>34</v>
@@ -2819,7 +2807,7 @@
       <c r="I77" s="48"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="111"/>
       <c r="B78" s="52" t="s">
         <v>28</v>
@@ -2833,7 +2821,7 @@
       <c r="I78" s="48"/>
       <c r="J78" s="46"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="111"/>
       <c r="B79" s="53" t="s">
         <v>34</v>
@@ -2849,7 +2837,7 @@
       <c r="I79" s="48"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="111"/>
       <c r="B80" s="52" t="s">
         <v>29</v>
@@ -2863,7 +2851,7 @@
       <c r="I80" s="48"/>
       <c r="J80" s="46"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="111"/>
       <c r="B81" s="53" t="s">
         <v>34</v>
@@ -2879,7 +2867,7 @@
       <c r="I81" s="48"/>
       <c r="J81" s="46"/>
     </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="111"/>
       <c r="B82" s="52" t="s">
         <v>30</v>
@@ -2893,7 +2881,7 @@
       <c r="I82" s="48"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="111"/>
       <c r="B83" s="53" t="s">
         <v>34</v>
@@ -2909,7 +2897,7 @@
       <c r="I83" s="48"/>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="111"/>
       <c r="B84" s="52" t="s">
         <v>31</v>
@@ -2923,7 +2911,7 @@
       <c r="I84" s="48"/>
       <c r="J84" s="46"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="111"/>
       <c r="B85" s="53" t="s">
         <v>34</v>
@@ -2939,12 +2927,12 @@
       <c r="I85" s="48"/>
       <c r="J85" s="46"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="115" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B86" s="126" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="48"/>
@@ -2955,9 +2943,9 @@
       <c r="I86" s="48"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="124" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B87" s="60" t="s">
         <v>23</v>
@@ -2973,7 +2961,7 @@
       <c r="I87" s="48"/>
       <c r="J87" s="46"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="111"/>
       <c r="B88" s="52" t="s">
         <v>13</v>
@@ -2989,7 +2977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="111"/>
       <c r="B89" s="53" t="s">
         <v>15</v>
@@ -3005,7 +2993,7 @@
       <c r="I89" s="48"/>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="111"/>
       <c r="B90" s="52" t="s">
         <v>26</v>
@@ -3019,7 +3007,7 @@
       <c r="I90" s="48"/>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="111"/>
       <c r="B91" s="53" t="s">
         <v>15</v>
@@ -3035,7 +3023,7 @@
       <c r="I91" s="48"/>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>27</v>
@@ -3049,7 +3037,7 @@
       <c r="I92" s="48"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="111"/>
       <c r="B93" s="53" t="s">
         <v>15</v>
@@ -3065,7 +3053,7 @@
       <c r="I93" s="48"/>
       <c r="J93" s="46"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="111"/>
       <c r="B94" s="52" t="s">
         <v>28</v>
@@ -3079,7 +3067,7 @@
       <c r="I94" s="48"/>
       <c r="J94" s="46"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="111"/>
       <c r="B95" s="53" t="s">
         <v>15</v>
@@ -3095,7 +3083,7 @@
       <c r="I95" s="48"/>
       <c r="J95" s="46"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>29</v>
@@ -3109,7 +3097,7 @@
       <c r="I96" s="48"/>
       <c r="J96" s="46"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="53" t="s">
         <v>15</v>
@@ -3125,7 +3113,7 @@
       <c r="I97" s="48"/>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="52" t="s">
         <v>30</v>
@@ -3139,7 +3127,7 @@
       <c r="I98" s="48"/>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="53" t="s">
         <v>15</v>
@@ -3155,7 +3143,7 @@
       <c r="I99" s="48"/>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="52" t="s">
         <v>31</v>
@@ -3169,7 +3157,7 @@
       <c r="I100" s="48"/>
       <c r="J100" s="46"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="57"/>
       <c r="B101" s="53" t="s">
         <v>16</v>
@@ -3185,10 +3173,10 @@
       <c r="I101" s="48"/>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="115"/>
       <c r="B102" s="53" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C102" s="47"/>
       <c r="D102" s="48">
@@ -3201,10 +3189,10 @@
       <c r="I102" s="48"/>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="124"/>
       <c r="B103" s="53" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="48">
@@ -3217,12 +3205,12 @@
       <c r="I103" s="48"/>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="110" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B104" s="127" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="48"/>
@@ -3233,12 +3221,12 @@
       <c r="I104" s="48"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="124" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="48"/>
@@ -3249,7 +3237,7 @@
       <c r="I105" s="48"/>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="111"/>
       <c r="B106" s="52" t="s">
         <v>13</v>
@@ -3265,7 +3253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="111"/>
       <c r="B107" s="53" t="s">
         <v>34</v>
@@ -3281,7 +3269,7 @@
       <c r="I107" s="48"/>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="111"/>
       <c r="B108" s="52" t="s">
         <v>26</v>
@@ -3295,7 +3283,7 @@
       <c r="I108" s="48"/>
       <c r="J108" s="46"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="111"/>
       <c r="B109" s="53" t="s">
         <v>34</v>
@@ -3311,7 +3299,7 @@
       <c r="I109" s="48"/>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111"/>
       <c r="B110" s="52" t="s">
         <v>27</v>
@@ -3325,7 +3313,7 @@
       <c r="I110" s="48"/>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="111"/>
       <c r="B111" s="53" t="s">
         <v>34</v>
@@ -3341,7 +3329,7 @@
       <c r="I111" s="48"/>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="111"/>
       <c r="B112" s="52" t="s">
         <v>28</v>
@@ -3355,7 +3343,7 @@
       <c r="I112" s="48"/>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="111"/>
       <c r="B113" s="53" t="s">
         <v>34</v>
@@ -3371,7 +3359,7 @@
       <c r="I113" s="48"/>
       <c r="J113" s="46"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="111"/>
       <c r="B114" s="52" t="s">
         <v>29</v>
@@ -3385,7 +3373,7 @@
       <c r="I114" s="48"/>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57"/>
       <c r="B115" s="53" t="s">
         <v>34</v>
@@ -3401,7 +3389,7 @@
       <c r="I115" s="48"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="57"/>
       <c r="B116" s="52" t="s">
         <v>30</v>
@@ -3415,7 +3403,7 @@
       <c r="I116" s="48"/>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="57"/>
       <c r="B117" s="53" t="s">
         <v>34</v>
@@ -3431,7 +3419,7 @@
       <c r="I117" s="48"/>
       <c r="J117" s="46"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57"/>
       <c r="B118" s="52" t="s">
         <v>31</v>
@@ -3445,7 +3433,7 @@
       <c r="I118" s="48"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="57"/>
       <c r="B119" s="53" t="s">
         <v>34</v>
@@ -3461,12 +3449,12 @@
       <c r="I119" s="48"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="124" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C120" s="47"/>
       <c r="D120" s="48"/>
@@ -3477,7 +3465,7 @@
       <c r="I120" s="48"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="57"/>
       <c r="B121" s="52" t="s">
         <v>13</v>
@@ -3493,7 +3481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57"/>
       <c r="B122" s="53" t="s">
         <v>34</v>
@@ -3509,7 +3497,7 @@
       <c r="I122" s="48"/>
       <c r="J122" s="46"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="52" t="s">
         <v>26</v>
@@ -3523,7 +3511,7 @@
       <c r="I123" s="48"/>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57"/>
       <c r="B124" s="53" t="s">
         <v>34</v>
@@ -3539,7 +3527,7 @@
       <c r="I124" s="48"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="57"/>
       <c r="B125" s="52" t="s">
         <v>27</v>
@@ -3553,7 +3541,7 @@
       <c r="I125" s="48"/>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57"/>
       <c r="B126" s="53" t="s">
         <v>34</v>
@@ -3569,7 +3557,7 @@
       <c r="I126" s="48"/>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="57"/>
       <c r="B127" s="52" t="s">
         <v>28</v>
@@ -3583,7 +3571,7 @@
       <c r="I127" s="48"/>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="57"/>
       <c r="B128" s="53" t="s">
         <v>34</v>
@@ -3599,7 +3587,7 @@
       <c r="I128" s="48"/>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="57"/>
       <c r="B129" s="52" t="s">
         <v>29</v>
@@ -3613,7 +3601,7 @@
       <c r="I129" s="48"/>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="57"/>
       <c r="B130" s="53" t="s">
         <v>34</v>
@@ -3629,7 +3617,7 @@
       <c r="I130" s="48"/>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="57"/>
       <c r="B131" s="52" t="s">
         <v>30</v>
@@ -3643,7 +3631,7 @@
       <c r="I131" s="48"/>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57"/>
       <c r="B132" s="53" t="s">
         <v>34</v>
@@ -3659,7 +3647,7 @@
       <c r="I132" s="48"/>
       <c r="J132" s="46"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="57"/>
       <c r="B133" s="52" t="s">
         <v>31</v>
@@ -3673,7 +3661,7 @@
       <c r="I133" s="48"/>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57"/>
       <c r="B134" s="53" t="s">
         <v>34</v>
@@ -3689,12 +3677,12 @@
       <c r="I134" s="48"/>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="124" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B135" s="100" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C135" s="47"/>
       <c r="D135" s="48"/>
@@ -3705,7 +3693,7 @@
       <c r="I135" s="48"/>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="57"/>
       <c r="B136" s="52" t="s">
         <v>26</v>
@@ -3719,10 +3707,10 @@
       <c r="I136" s="48"/>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="57"/>
       <c r="B137" s="53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C137" s="47"/>
       <c r="D137" s="48">
@@ -3735,7 +3723,7 @@
       <c r="I137" s="48"/>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="57"/>
       <c r="B138" s="53"/>
       <c r="C138" s="47"/>
@@ -3747,12 +3735,12 @@
       <c r="I138" s="48"/>
       <c r="J138" s="46"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="110" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B139" s="102" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C139" s="47"/>
       <c r="D139" s="48"/>
@@ -3763,12 +3751,12 @@
       <c r="I139" s="48"/>
       <c r="J139" s="46"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="111" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B140" s="125" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C140" s="45" t="s">
         <v>14</v>
@@ -3783,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="111"/>
       <c r="B141" s="52" t="s">
         <v>26</v>
@@ -3797,7 +3785,7 @@
       <c r="I141" s="48"/>
       <c r="J141" s="46"/>
     </row>
-    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="57"/>
       <c r="B142" s="53" t="s">
         <v>32</v>
@@ -3813,12 +3801,12 @@
       <c r="I142" s="48"/>
       <c r="J142" s="46"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C143" s="47"/>
       <c r="D143" s="48"/>
@@ -3829,12 +3817,12 @@
       <c r="I143" s="48"/>
       <c r="J143" s="46"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B144" s="100" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C144" s="45" t="s">
         <v>14</v>
@@ -3849,10 +3837,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="57"/>
       <c r="B145" s="101" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C145" s="47"/>
       <c r="D145" s="48">
@@ -3867,12 +3855,12 @@
       </c>
       <c r="J145" s="46"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B146" s="100" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C146" s="47"/>
       <c r="D146" s="48"/>
@@ -3883,10 +3871,10 @@
       <c r="I146" s="48"/>
       <c r="J146" s="46"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="57"/>
       <c r="B147" s="101" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C147" s="47"/>
       <c r="D147" s="48">
@@ -3901,12 +3889,12 @@
       </c>
       <c r="J147" s="46"/>
     </row>
-    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B148" s="104" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C148" s="45"/>
       <c r="D148" s="46"/>
@@ -3917,12 +3905,12 @@
       <c r="I148" s="46"/>
       <c r="J148" s="82"/>
     </row>
-    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C149" s="51" t="s">
         <v>14</v>
@@ -3938,7 +3926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="52" t="s">
         <v>13</v>
@@ -3952,7 +3940,7 @@
       <c r="I150" s="48"/>
       <c r="J150" s="46"/>
     </row>
-    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="53" t="s">
         <v>15</v>
@@ -3971,7 +3959,7 @@
       </c>
       <c r="J151" s="46"/>
     </row>
-    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="52" t="s">
         <v>26</v>
@@ -3985,7 +3973,7 @@
       <c r="I152" s="48"/>
       <c r="J152" s="46"/>
     </row>
-    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="53" t="s">
         <v>15</v>
@@ -4004,7 +3992,7 @@
       </c>
       <c r="J153" s="46"/>
     </row>
-    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="52" t="s">
         <v>27</v>
@@ -4018,7 +4006,7 @@
       <c r="I154" s="48"/>
       <c r="J154" s="46"/>
     </row>
-    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="53" t="s">
         <v>15</v>
@@ -4037,7 +4025,7 @@
       </c>
       <c r="J155" s="46"/>
     </row>
-    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="52" t="s">
         <v>28</v>
@@ -4051,7 +4039,7 @@
       <c r="I156" s="48"/>
       <c r="J156" s="46"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="53" t="s">
         <v>15</v>
@@ -4070,7 +4058,7 @@
       </c>
       <c r="J157" s="46"/>
     </row>
-    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="52" t="s">
         <v>29</v>
@@ -4084,7 +4072,7 @@
       <c r="I158" s="48"/>
       <c r="J158" s="46"/>
     </row>
-    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="53" t="s">
         <v>15</v>
@@ -4103,7 +4091,7 @@
       </c>
       <c r="J159" s="46"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="57"/>
       <c r="B160" s="52" t="s">
         <v>30</v>
@@ -4117,7 +4105,7 @@
       <c r="I160" s="48"/>
       <c r="J160" s="46"/>
     </row>
-    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="57"/>
       <c r="B161" s="53" t="s">
         <v>15</v>
@@ -4136,7 +4124,7 @@
       </c>
       <c r="J161" s="46"/>
     </row>
-    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="57"/>
       <c r="B162" s="52" t="s">
         <v>31</v>
@@ -4150,7 +4138,7 @@
       <c r="I162" s="48"/>
       <c r="J162" s="46"/>
     </row>
-    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="57"/>
       <c r="B163" s="53" t="s">
         <v>15</v>
@@ -4169,12 +4157,12 @@
       </c>
       <c r="J163" s="46"/>
     </row>
-    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="103" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B164" s="127" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C164" s="45"/>
       <c r="D164" s="46"/>
@@ -4185,12 +4173,12 @@
       <c r="I164" s="46"/>
       <c r="J164" s="82"/>
     </row>
-    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="B165" s="50" t="s">
-        <v>42</v>
       </c>
       <c r="C165" s="51" t="s">
         <v>14</v>
@@ -4205,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="52" t="s">
         <v>31</v>
@@ -4219,7 +4207,7 @@
       <c r="I166" s="48"/>
       <c r="J166" s="82"/>
     </row>
-    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="53" t="s">
         <v>16</v>
@@ -4238,12 +4226,12 @@
       </c>
       <c r="J167" s="46"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B168" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C168" s="51"/>
       <c r="D168" s="48"/>
@@ -4256,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="52" t="s">
         <v>31</v>
@@ -4270,7 +4258,7 @@
       <c r="I169" s="48"/>
       <c r="J169" s="46"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="53" t="s">
         <v>16</v>
@@ -4289,12 +4277,12 @@
       </c>
       <c r="J170" s="46"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="49" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B171" s="50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C171" s="51" t="s">
         <v>14</v>
@@ -4309,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="49"/>
       <c r="B172" s="52" t="s">
         <v>31</v>
@@ -4323,7 +4311,7 @@
       <c r="I172" s="48"/>
       <c r="J172" s="46"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49"/>
       <c r="B173" s="53" t="s">
         <v>16</v>
@@ -4342,12 +4330,12 @@
       </c>
       <c r="J173" s="46"/>
     </row>
-    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B174" s="50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C174" s="51" t="s">
         <v>14</v>
@@ -4360,7 +4348,7 @@
       <c r="I174" s="48"/>
       <c r="J174" s="82"/>
     </row>
-    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="49"/>
       <c r="B175" s="52" t="s">
         <v>31</v>
@@ -4376,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="49"/>
       <c r="B176" s="53" t="s">
         <v>16</v>
@@ -4395,12 +4383,12 @@
       </c>
       <c r="J176" s="82"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B177" s="50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C177" s="51" t="s">
         <v>14</v>
@@ -4413,7 +4401,7 @@
       <c r="I177" s="48"/>
       <c r="J177" s="46"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="49"/>
       <c r="B178" s="52" t="s">
         <v>31</v>
@@ -4429,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="53" t="s">
         <v>16</v>
@@ -4448,12 +4436,12 @@
       </c>
       <c r="J179" s="46"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B180" s="50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C180" s="51" t="s">
         <v>14</v>
@@ -4466,7 +4454,7 @@
       <c r="I180" s="48"/>
       <c r="J180" s="46"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="49"/>
       <c r="B181" s="52" t="s">
         <v>31</v>
@@ -4480,7 +4468,7 @@
       <c r="I181" s="48"/>
       <c r="J181" s="46"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="53" t="s">
         <v>16</v>
@@ -4501,9 +4489,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B183" s="50" t="s">
         <v>33</v>
@@ -4517,7 +4505,7 @@
       <c r="I183" s="48"/>
       <c r="J183" s="82"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="57"/>
       <c r="B184" s="52" t="s">
         <v>31</v>
@@ -4531,7 +4519,7 @@
       <c r="I184" s="48"/>
       <c r="J184" s="46"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="57"/>
       <c r="B185" s="53" t="s">
         <v>16</v>
@@ -4554,7 +4542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="55"/>
       <c r="B186" s="56"/>
       <c r="C186" s="47"/>
@@ -4566,7 +4554,7 @@
       <c r="I186" s="48"/>
       <c r="J186" s="46"/>
     </row>
-    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="60"/>
       <c r="C187" s="45"/>
@@ -4578,7 +4566,7 @@
       <c r="I187" s="46"/>
       <c r="J187" s="82"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="57"/>
       <c r="B188" s="52"/>
       <c r="C188" s="47"/>
@@ -4590,7 +4578,7 @@
       <c r="I188" s="48"/>
       <c r="J188" s="46"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="57"/>
       <c r="B189" s="53"/>
       <c r="C189" s="47"/>
@@ -4602,7 +4590,7 @@
       <c r="I189" s="48"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="60"/>
       <c r="C190" s="45"/>
@@ -4614,7 +4602,7 @@
       <c r="I190" s="46"/>
       <c r="J190" s="82"/>
     </row>
-    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="112"/>
       <c r="B191" s="52"/>
       <c r="C191" s="45"/>
@@ -4626,7 +4614,7 @@
       <c r="I191" s="46"/>
       <c r="J191" s="82"/>
     </row>
-    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="112"/>
       <c r="B192" s="53"/>
       <c r="C192" s="45"/>
@@ -4638,7 +4626,7 @@
       <c r="I192" s="48"/>
       <c r="J192" s="82"/>
     </row>
-    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="112"/>
       <c r="B193" s="52"/>
       <c r="C193" s="45"/>
@@ -4650,7 +4638,7 @@
       <c r="I193" s="48"/>
       <c r="J193" s="82"/>
     </row>
-    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="112"/>
       <c r="B194" s="53"/>
       <c r="C194" s="45"/>
@@ -4662,7 +4650,7 @@
       <c r="I194" s="48"/>
       <c r="J194" s="82"/>
     </row>
-    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="112"/>
       <c r="B195" s="52"/>
       <c r="C195" s="45"/>
@@ -4674,7 +4662,7 @@
       <c r="I195" s="48"/>
       <c r="J195" s="82"/>
     </row>
-    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="112"/>
       <c r="B196" s="53"/>
       <c r="C196" s="45"/>
@@ -4686,7 +4674,7 @@
       <c r="I196" s="48"/>
       <c r="J196" s="82"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="57"/>
       <c r="B197" s="52"/>
       <c r="C197" s="47"/>
@@ -4698,7 +4686,7 @@
       <c r="I197" s="48"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="57"/>
       <c r="B198" s="53"/>
       <c r="C198" s="47"/>
@@ -4710,7 +4698,7 @@
       <c r="I198" s="48"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="57"/>
       <c r="B199" s="52"/>
       <c r="C199" s="47"/>
@@ -4722,7 +4710,7 @@
       <c r="I199" s="48"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="57"/>
       <c r="B200" s="53"/>
       <c r="C200" s="47"/>
@@ -4734,7 +4722,7 @@
       <c r="I200" s="48"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="57"/>
       <c r="B201" s="52"/>
       <c r="C201" s="47"/>
@@ -4746,7 +4734,7 @@
       <c r="I201" s="48"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="57"/>
       <c r="B202" s="53"/>
       <c r="C202" s="47"/>
@@ -4758,7 +4746,7 @@
       <c r="I202" s="48"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="57"/>
       <c r="B203" s="52"/>
       <c r="C203" s="47"/>
@@ -4770,7 +4758,7 @@
       <c r="I203" s="48"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="57"/>
       <c r="B204" s="53"/>
       <c r="C204" s="47"/>
@@ -4782,7 +4770,7 @@
       <c r="I204" s="48"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="57"/>
       <c r="B205" s="53"/>
       <c r="C205" s="47"/>
@@ -4794,7 +4782,7 @@
       <c r="I205" s="48"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="57"/>
       <c r="B206" s="53"/>
       <c r="C206" s="47"/>
@@ -4806,7 +4794,7 @@
       <c r="I206" s="48"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="49"/>
       <c r="B207" s="62"/>
       <c r="C207" s="45"/>
@@ -4818,7 +4806,7 @@
       <c r="I207" s="46"/>
       <c r="J207" s="82"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="57"/>
       <c r="B208" s="52"/>
       <c r="C208" s="47"/>
@@ -4830,7 +4818,7 @@
       <c r="I208" s="48"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="57"/>
       <c r="B209" s="53"/>
       <c r="C209" s="47"/>
@@ -4842,7 +4830,7 @@
       <c r="I209" s="48"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="57"/>
       <c r="B210" s="52"/>
       <c r="C210" s="47"/>
@@ -4854,7 +4842,7 @@
       <c r="I210" s="48"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="57"/>
       <c r="B211" s="53"/>
       <c r="C211" s="47"/>
@@ -4866,7 +4854,7 @@
       <c r="I211" s="48"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="57"/>
       <c r="B212" s="52"/>
       <c r="C212" s="47"/>
@@ -4878,7 +4866,7 @@
       <c r="I212" s="48"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="57"/>
       <c r="B213" s="53"/>
       <c r="C213" s="47"/>
@@ -4890,7 +4878,7 @@
       <c r="I213" s="48"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="57"/>
       <c r="B214" s="52"/>
       <c r="C214" s="47"/>
@@ -4902,7 +4890,7 @@
       <c r="I214" s="48"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="57"/>
       <c r="B215" s="53"/>
       <c r="C215" s="47"/>
@@ -4914,7 +4902,7 @@
       <c r="I215" s="48"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="57"/>
       <c r="B216" s="52"/>
       <c r="C216" s="47"/>
@@ -4926,7 +4914,7 @@
       <c r="I216" s="48"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="57"/>
       <c r="B217" s="53"/>
       <c r="C217" s="47"/>
@@ -4938,7 +4926,7 @@
       <c r="I217" s="48"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="57"/>
       <c r="B218" s="52"/>
       <c r="C218" s="47"/>
@@ -4950,7 +4938,7 @@
       <c r="I218" s="48"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="57"/>
       <c r="B219" s="53"/>
       <c r="C219" s="47"/>
@@ -4962,7 +4950,7 @@
       <c r="I219" s="48"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="57"/>
       <c r="B220" s="52"/>
       <c r="C220" s="47"/>
@@ -4974,7 +4962,7 @@
       <c r="I220" s="48"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="57"/>
       <c r="B221" s="53"/>
       <c r="C221" s="47"/>
@@ -4986,7 +4974,7 @@
       <c r="I221" s="48"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="113"/>
       <c r="B222" s="63"/>
       <c r="C222" s="47"/>
@@ -4998,7 +4986,7 @@
       <c r="I222" s="48"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="111"/>
       <c r="B223" s="116"/>
       <c r="C223" s="45"/>
@@ -5010,7 +4998,7 @@
       <c r="I223" s="48"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="111"/>
       <c r="B224" s="52"/>
       <c r="C224" s="47"/>
@@ -5022,7 +5010,7 @@
       <c r="I224" s="48"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="57"/>
       <c r="B225" s="53"/>
       <c r="C225" s="45"/>
@@ -5034,7 +5022,7 @@
       <c r="I225" s="48"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="55"/>
       <c r="B226" s="56"/>
       <c r="C226" s="47"/>
@@ -5046,7 +5034,7 @@
       <c r="I226" s="48"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="114"/>
       <c r="B227" s="65"/>
       <c r="C227" s="47"/>
@@ -5058,7 +5046,7 @@
       <c r="I227" s="48"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="112"/>
       <c r="B228" s="60"/>
       <c r="C228" s="45"/>
@@ -5070,7 +5058,7 @@
       <c r="I228" s="46"/>
       <c r="J228" s="82"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="57"/>
       <c r="B229" s="52"/>
       <c r="C229" s="47"/>
@@ -5082,7 +5070,7 @@
       <c r="I229" s="48"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="57"/>
       <c r="B230" s="53"/>
       <c r="C230" s="47"/>
@@ -5094,7 +5082,7 @@
       <c r="I230" s="48"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="112"/>
       <c r="B231" s="66"/>
       <c r="C231" s="45"/>
@@ -5106,7 +5094,7 @@
       <c r="I231" s="46"/>
       <c r="J231" s="82"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="57"/>
       <c r="B232" s="52"/>
       <c r="C232" s="47"/>
@@ -5118,7 +5106,7 @@
       <c r="I232" s="48"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="57"/>
       <c r="B233" s="53"/>
       <c r="C233" s="47"/>
@@ -5130,7 +5118,7 @@
       <c r="I233" s="48"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="57"/>
       <c r="B234" s="52"/>
       <c r="C234" s="47"/>
@@ -5142,7 +5130,7 @@
       <c r="I234" s="48"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="57"/>
       <c r="B235" s="53"/>
       <c r="C235" s="47"/>
@@ -5154,7 +5142,7 @@
       <c r="I235" s="48"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="57"/>
       <c r="B236" s="52"/>
       <c r="C236" s="47"/>
@@ -5166,7 +5154,7 @@
       <c r="I236" s="48"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="57"/>
       <c r="B237" s="53"/>
       <c r="C237" s="47"/>
@@ -5178,7 +5166,7 @@
       <c r="I237" s="48"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="57"/>
       <c r="B238" s="52"/>
       <c r="C238" s="47"/>
@@ -5190,7 +5178,7 @@
       <c r="I238" s="48"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="57"/>
       <c r="B239" s="53"/>
       <c r="C239" s="47"/>
@@ -5202,7 +5190,7 @@
       <c r="I239" s="48"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="57"/>
       <c r="B240" s="52"/>
       <c r="C240" s="47"/>
@@ -5214,7 +5202,7 @@
       <c r="I240" s="48"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="57"/>
       <c r="B241" s="53"/>
       <c r="C241" s="47"/>
@@ -5226,7 +5214,7 @@
       <c r="I241" s="48"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="57"/>
       <c r="B242" s="52"/>
       <c r="C242" s="47"/>
@@ -5238,7 +5226,7 @@
       <c r="I242" s="48"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="57"/>
       <c r="B243" s="53"/>
       <c r="C243" s="47"/>
@@ -5250,7 +5238,7 @@
       <c r="I243" s="48"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="57"/>
       <c r="B244" s="52"/>
       <c r="C244" s="47"/>
@@ -5262,7 +5250,7 @@
       <c r="I244" s="48"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="57"/>
       <c r="B245" s="53"/>
       <c r="C245" s="47"/>
@@ -5274,7 +5262,7 @@
       <c r="I245" s="48"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="117"/>
       <c r="D246" s="118"/>
       <c r="E246" s="11"/>
@@ -5284,7 +5272,7 @@
       <c r="I246" s="118"/>
       <c r="J246" s="118"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="117"/>
       <c r="D247" s="118"/>
       <c r="E247" s="11"/>
@@ -5294,7 +5282,7 @@
       <c r="I247" s="118"/>
       <c r="J247" s="118"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="117"/>
       <c r="D248" s="118"/>
       <c r="E248" s="11"/>
@@ -5304,7 +5292,7 @@
       <c r="I248" s="118"/>
       <c r="J248" s="118"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="117"/>
       <c r="D249" s="118"/>
       <c r="E249" s="11"/>
@@ -5314,7 +5302,7 @@
       <c r="I249" s="118"/>
       <c r="J249" s="118"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="117"/>
       <c r="D250" s="118"/>
       <c r="E250" s="11"/>
@@ -5324,7 +5312,7 @@
       <c r="I250" s="118"/>
       <c r="J250" s="118"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="117"/>
       <c r="D251" s="118"/>
       <c r="E251" s="11"/>
@@ -5334,7 +5322,7 @@
       <c r="I251" s="118"/>
       <c r="J251" s="118"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="117"/>
       <c r="D252" s="118"/>
       <c r="E252" s="11"/>
@@ -5344,7 +5332,7 @@
       <c r="I252" s="118"/>
       <c r="J252" s="118"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="117"/>
       <c r="D253" s="118"/>
       <c r="E253" s="11"/>
@@ -5354,7 +5342,7 @@
       <c r="I253" s="118"/>
       <c r="J253" s="118"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="117"/>
       <c r="D254" s="118"/>
       <c r="E254" s="11"/>
@@ -5364,7 +5352,7 @@
       <c r="I254" s="118"/>
       <c r="J254" s="118"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="117"/>
       <c r="D255" s="118"/>
       <c r="E255" s="11"/>
@@ -5374,7 +5362,7 @@
       <c r="I255" s="118"/>
       <c r="J255" s="118"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="117"/>
       <c r="D256" s="118"/>
       <c r="E256" s="11"/>
@@ -5384,7 +5372,7 @@
       <c r="I256" s="118"/>
       <c r="J256" s="118"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="117"/>
       <c r="D257" s="118"/>
       <c r="E257" s="11"/>
@@ -5394,7 +5382,7 @@
       <c r="I257" s="118"/>
       <c r="J257" s="118"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="117"/>
       <c r="D258" s="118"/>
       <c r="E258" s="11"/>
@@ -5404,7 +5392,7 @@
       <c r="I258" s="118"/>
       <c r="J258" s="118"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="117"/>
       <c r="D259" s="118"/>
       <c r="E259" s="11"/>
@@ -5414,7 +5402,7 @@
       <c r="I259" s="118"/>
       <c r="J259" s="118"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="117"/>
       <c r="D260" s="118"/>
       <c r="E260" s="11"/>
@@ -5424,7 +5412,7 @@
       <c r="I260" s="118"/>
       <c r="J260" s="118"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="117"/>
       <c r="D261" s="118"/>
       <c r="E261" s="11"/>
@@ -5434,7 +5422,7 @@
       <c r="I261" s="118"/>
       <c r="J261" s="118"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="117"/>
       <c r="D262" s="118"/>
       <c r="E262" s="11"/>
@@ -5444,7 +5432,7 @@
       <c r="I262" s="118"/>
       <c r="J262" s="118"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="117"/>
       <c r="D263" s="118"/>
       <c r="E263" s="11"/>
@@ -5454,7 +5442,7 @@
       <c r="I263" s="118"/>
       <c r="J263" s="118"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="117"/>
       <c r="D264" s="118"/>
       <c r="E264" s="11"/>
@@ -5464,7 +5452,7 @@
       <c r="I264" s="118"/>
       <c r="J264" s="118"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="117"/>
       <c r="D265" s="118"/>
       <c r="E265" s="11"/>
@@ -5474,7 +5462,7 @@
       <c r="I265" s="118"/>
       <c r="J265" s="118"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="117"/>
       <c r="D266" s="118"/>
       <c r="E266" s="11"/>
@@ -5484,7 +5472,7 @@
       <c r="I266" s="118"/>
       <c r="J266" s="118"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="117"/>
       <c r="D267" s="118"/>
       <c r="E267" s="11"/>
@@ -5494,7 +5482,7 @@
       <c r="I267" s="118"/>
       <c r="J267" s="118"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="117"/>
       <c r="D268" s="118"/>
       <c r="E268" s="11"/>
@@ -5504,7 +5492,7 @@
       <c r="I268" s="118"/>
       <c r="J268" s="118"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="117"/>
       <c r="D269" s="118"/>
       <c r="E269" s="11"/>
@@ -5514,7 +5502,7 @@
       <c r="I269" s="118"/>
       <c r="J269" s="118"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="117"/>
       <c r="D270" s="118"/>
       <c r="E270" s="11"/>
@@ -5524,7 +5512,7 @@
       <c r="I270" s="118"/>
       <c r="J270" s="118"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="117"/>
       <c r="D271" s="118"/>
       <c r="E271" s="11"/>
@@ -5534,7 +5522,7 @@
       <c r="I271" s="118"/>
       <c r="J271" s="118"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="117"/>
       <c r="D272" s="118"/>
       <c r="E272" s="11"/>
@@ -5544,7 +5532,7 @@
       <c r="I272" s="118"/>
       <c r="J272" s="118"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="117"/>
       <c r="D273" s="118"/>
       <c r="E273" s="11"/>
@@ -5554,7 +5542,7 @@
       <c r="I273" s="118"/>
       <c r="J273" s="118"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="117"/>
       <c r="D274" s="118"/>
       <c r="E274" s="11"/>
@@ -5564,7 +5552,7 @@
       <c r="I274" s="118"/>
       <c r="J274" s="118"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="117"/>
       <c r="D275" s="118"/>
       <c r="E275" s="11"/>
@@ -5603,22 +5591,22 @@
       <selection pane="bottomRight" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="137" t="s">
         <v>37</v>
       </c>
@@ -5632,7 +5620,7 @@
       <c r="I1" s="138"/>
       <c r="J1" s="139"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -5644,7 +5632,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -5660,7 +5648,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -5672,7 +5660,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -5684,7 +5672,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="84"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
@@ -5716,7 +5704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -5728,7 +5716,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>6</v>
       </c>
@@ -5744,7 +5732,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>6.9</v>
       </c>
@@ -5760,7 +5748,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>39</v>
       </c>
@@ -5776,7 +5764,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
@@ -5799,7 +5787,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>17</v>
       </c>
@@ -5814,9 +5802,9 @@
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>19</v>
@@ -5830,9 +5818,9 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>20</v>
@@ -5851,7 +5839,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="52" t="s">
         <v>13</v>
@@ -5865,7 +5853,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="53" t="s">
         <v>15</v>
@@ -5884,7 +5872,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="52" t="s">
         <v>26</v>
@@ -5898,7 +5886,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="53" t="s">
         <v>15</v>
@@ -5917,7 +5905,7 @@
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
       <c r="B19" s="52" t="s">
         <v>27</v>
@@ -5931,7 +5919,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="53" t="s">
         <v>15</v>
@@ -5950,7 +5938,7 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="52" t="s">
         <v>28</v>
@@ -5964,7 +5952,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="53" t="s">
         <v>15</v>
@@ -5983,7 +5971,7 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="52" t="s">
         <v>29</v>
@@ -5997,7 +5985,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="53" t="s">
         <v>15</v>
@@ -6016,7 +6004,7 @@
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="52" t="s">
         <v>30</v>
@@ -6030,7 +6018,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="53" t="s">
         <v>15</v>
@@ -6049,7 +6037,7 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="97"/>
       <c r="C27" s="47"/>
@@ -6061,7 +6049,7 @@
       <c r="I27" s="48"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="98"/>
       <c r="B28" s="61"/>
       <c r="C28" s="51"/>
@@ -6073,7 +6061,7 @@
       <c r="I28" s="48"/>
       <c r="J28" s="51"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="15"/>
@@ -6085,7 +6073,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="15"/>
@@ -6097,7 +6085,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -6109,7 +6097,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -6121,7 +6109,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
@@ -6133,7 +6121,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15"/>
@@ -6145,7 +6133,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -6157,7 +6145,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="15"/>
@@ -6169,7 +6157,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
@@ -6181,7 +6169,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="32"/>
       <c r="C38" s="27"/>
@@ -6193,7 +6181,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="15"/>
@@ -6205,7 +6193,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="15"/>
@@ -6217,7 +6205,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="32"/>
       <c r="C41" s="27"/>
@@ -6229,7 +6217,7 @@
       <c r="I41" s="37"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="15"/>
@@ -6241,7 +6229,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="15"/>
@@ -6253,7 +6241,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" s="32"/>
       <c r="C44" s="27"/>
@@ -6265,7 +6253,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="15"/>
@@ -6277,7 +6265,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="15"/>
@@ -6289,7 +6277,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="27"/>
@@ -6301,7 +6289,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="15"/>
@@ -6313,7 +6301,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="15"/>
@@ -6325,7 +6313,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="32"/>
       <c r="C50" s="27"/>
@@ -6337,7 +6325,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="15"/>
@@ -6349,7 +6337,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="15"/>
@@ -6361,7 +6349,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="32"/>
       <c r="C53" s="27"/>
@@ -6373,7 +6361,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
@@ -6385,7 +6373,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="15"/>
@@ -6397,7 +6385,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="32"/>
       <c r="C56" s="27"/>
@@ -6409,7 +6397,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="15"/>
@@ -6421,7 +6409,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
       <c r="C58" s="15"/>
@@ -6433,7 +6421,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -6445,7 +6433,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15"/>
@@ -6457,7 +6445,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="32"/>
       <c r="C61" s="27"/>
@@ -6469,7 +6457,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="15"/>
@@ -6481,7 +6469,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="19"/>
       <c r="C63" s="15"/>
@@ -6493,7 +6481,7 @@
       <c r="I63" s="37"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15"/>
@@ -6505,7 +6493,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="15"/>
@@ -6517,7 +6505,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
       <c r="B66" s="32"/>
       <c r="C66" s="27"/>
@@ -6529,7 +6517,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="15"/>
@@ -6541,7 +6529,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="15"/>
@@ -6553,7 +6541,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="15"/>
@@ -6565,7 +6553,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="15"/>
@@ -6577,7 +6565,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="15"/>
@@ -6589,7 +6577,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="15"/>
@@ -6601,7 +6589,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="15"/>
@@ -6613,7 +6601,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="15"/>
@@ -6625,7 +6613,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="15"/>
@@ -6637,7 +6625,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="15"/>
@@ -6649,7 +6637,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="15"/>
@@ -6661,7 +6649,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="15"/>
@@ -6673,7 +6661,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="15"/>
@@ -6685,7 +6673,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="15"/>
@@ -6697,7 +6685,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
@@ -6709,7 +6697,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="27"/>
@@ -6721,7 +6709,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="15"/>
@@ -6733,7 +6721,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="15"/>
@@ -6745,7 +6733,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="15"/>
@@ -6757,7 +6745,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="15"/>
@@ -6769,7 +6757,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="15"/>
@@ -6781,7 +6769,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="15"/>
@@ -6793,7 +6781,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="15"/>
@@ -6805,7 +6793,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -6817,7 +6805,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="15"/>
@@ -6829,7 +6817,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -6841,7 +6829,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="15"/>
@@ -6853,7 +6841,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -6865,7 +6853,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="15"/>
@@ -6877,7 +6865,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>
@@ -6889,7 +6877,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="34"/>
       <c r="B97" s="32"/>
       <c r="C97" s="27"/>
@@ -6901,7 +6889,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="15"/>
@@ -6913,7 +6901,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -6925,7 +6913,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="15"/>
@@ -6937,7 +6925,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
@@ -6949,7 +6937,7 @@
       <c r="I101" s="37"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="15"/>
@@ -6961,7 +6949,7 @@
       <c r="I102" s="37"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="15"/>
@@ -6973,7 +6961,7 @@
       <c r="I103" s="37"/>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="15"/>
@@ -6985,7 +6973,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="15"/>
@@ -6997,7 +6985,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="15"/>
@@ -7009,7 +6997,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="15"/>
@@ -7021,7 +7009,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="15"/>
@@ -7033,7 +7021,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="15"/>
@@ -7045,7 +7033,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="15"/>
@@ -7057,7 +7045,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="15"/>
@@ -7069,7 +7057,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
       <c r="B112" s="32"/>
       <c r="C112" s="27"/>
@@ -7081,7 +7069,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="15"/>
@@ -7093,7 +7081,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="15"/>
@@ -7105,7 +7093,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="15"/>
@@ -7117,7 +7105,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
       <c r="B116" s="32"/>
       <c r="C116" s="27"/>
@@ -7129,7 +7117,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="15"/>
@@ -7141,7 +7129,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="15"/>
@@ -7153,7 +7141,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="15"/>
@@ -7165,7 +7153,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="15"/>
@@ -7177,7 +7165,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="15"/>
@@ -7189,7 +7177,7 @@
       <c r="I121" s="37"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="15"/>
@@ -7201,7 +7189,7 @@
       <c r="I122" s="37"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="15"/>
@@ -7213,7 +7201,7 @@
       <c r="I123" s="37"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="15"/>
@@ -7225,7 +7213,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
       <c r="B125" s="32"/>
       <c r="C125" s="27"/>
@@ -7237,7 +7225,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="18"/>
       <c r="C126" s="15"/>
@@ -7249,7 +7237,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="15"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
       <c r="B127" s="19"/>
       <c r="C127" s="15"/>
@@ -7261,7 +7249,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="15"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34"/>
       <c r="B128" s="18"/>
       <c r="C128" s="15"/>
@@ -7273,7 +7261,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
       <c r="B129" s="19"/>
       <c r="C129" s="15"/>
@@ -7285,7 +7273,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
       <c r="B130" s="18"/>
       <c r="C130" s="15"/>
@@ -7297,7 +7285,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="19"/>
       <c r="C131" s="15"/>
@@ -7309,7 +7297,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
       <c r="B132" s="18"/>
       <c r="C132" s="15"/>
@@ -7321,7 +7309,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34"/>
       <c r="B133" s="19"/>
       <c r="C133" s="15"/>
@@ -7333,7 +7321,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34"/>
       <c r="B134" s="18"/>
       <c r="C134" s="15"/>
@@ -7345,7 +7333,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34"/>
       <c r="B135" s="19"/>
       <c r="C135" s="15"/>
@@ -7357,7 +7345,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
       <c r="C136" s="15"/>
@@ -7369,7 +7357,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
       <c r="B137" s="19"/>
       <c r="C137" s="15"/>
@@ -7381,7 +7369,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
       <c r="B138" s="18"/>
       <c r="C138" s="15"/>
@@ -7393,7 +7381,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="19"/>
       <c r="C139" s="15"/>
@@ -7405,7 +7393,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="23"/>
       <c r="C140" s="15"/>
@@ -7417,7 +7405,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="24"/>
       <c r="C141" s="15"/>
@@ -7429,7 +7417,7 @@
       <c r="I141" s="37"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="32"/>
       <c r="C142" s="27"/>
@@ -7441,7 +7429,7 @@
       <c r="I142" s="37"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="15"/>
@@ -7453,7 +7441,7 @@
       <c r="I143" s="37"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="19"/>
       <c r="C144" s="15"/>
@@ -7465,7 +7453,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="15"/>
@@ -7477,7 +7465,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="15"/>
@@ -7489,7 +7477,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="15"/>
@@ -7501,7 +7489,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
@@ -7513,7 +7501,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="15"/>
@@ -7525,7 +7513,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="15"/>
@@ -7537,7 +7525,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="15"/>
@@ -7549,7 +7537,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="15"/>
@@ -7561,7 +7549,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="15"/>
@@ -7573,7 +7561,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="15"/>
@@ -7585,7 +7573,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="15"/>
@@ -7597,7 +7585,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="19"/>
       <c r="C156" s="15"/>
@@ -7609,7 +7597,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
       <c r="B157" s="32"/>
       <c r="C157" s="27"/>
@@ -7621,7 +7609,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="15"/>
@@ -7633,7 +7621,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="19"/>
       <c r="C159" s="15"/>
@@ -7645,7 +7633,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
       <c r="B160" s="18"/>
       <c r="C160" s="27"/>
@@ -7657,7 +7645,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="19"/>
       <c r="C161" s="15"/>
@@ -7669,7 +7657,7 @@
       <c r="I161" s="37"/>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="15"/>
@@ -7681,7 +7669,7 @@
       <c r="I162" s="37"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="15"/>
@@ -7693,7 +7681,7 @@
       <c r="I163" s="37"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="15"/>
@@ -7705,7 +7693,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="15"/>
@@ -7717,7 +7705,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="15"/>
@@ -7729,7 +7717,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
       <c r="B167" s="19"/>
       <c r="C167" s="15"/>
@@ -7741,7 +7729,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="15"/>
@@ -7753,7 +7741,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="19"/>
       <c r="C169" s="15"/>
@@ -7765,7 +7753,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="15"/>
@@ -7777,7 +7765,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="15"/>
@@ -7789,7 +7777,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="34"/>
       <c r="B172" s="32"/>
       <c r="C172" s="27"/>
@@ -7801,7 +7789,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="18"/>
       <c r="C173" s="15"/>
@@ -7813,7 +7801,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="15"/>
@@ -7825,7 +7813,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="15"/>
@@ -7837,7 +7825,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="15"/>
@@ -7849,7 +7837,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="15"/>
@@ -7861,7 +7849,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="15"/>
@@ -7873,7 +7861,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="18"/>
       <c r="C179" s="15"/>
@@ -7885,7 +7873,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="15"/>
@@ -7897,7 +7885,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="15"/>
@@ -7909,7 +7897,7 @@
       <c r="I181" s="37"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="15"/>
@@ -7921,7 +7909,7 @@
       <c r="I182" s="37"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="15"/>
@@ -7933,7 +7921,7 @@
       <c r="I183" s="37"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="15"/>
@@ -7945,7 +7933,7 @@
       <c r="I184" s="37"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="15"/>
@@ -7957,7 +7945,7 @@
       <c r="I185" s="37"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="19"/>
       <c r="C186" s="15"/>
@@ -7969,7 +7957,7 @@
       <c r="I186" s="37"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="34"/>
       <c r="B187" s="32"/>
       <c r="C187" s="35"/>
@@ -7981,7 +7969,7 @@
       <c r="I187" s="38"/>
       <c r="J187" s="35"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="15"/>
@@ -7993,7 +7981,7 @@
       <c r="I188" s="37"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="19"/>
       <c r="C189" s="15"/>
@@ -8005,7 +7993,7 @@
       <c r="I189" s="37"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="15"/>
@@ -8017,7 +8005,7 @@
       <c r="I190" s="37"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="19"/>
       <c r="C191" s="15"/>
@@ -8029,7 +8017,7 @@
       <c r="I191" s="37"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="15"/>
@@ -8041,7 +8029,7 @@
       <c r="I192" s="37"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15"/>
@@ -8053,7 +8041,7 @@
       <c r="I193" s="37"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="18"/>
       <c r="C194" s="15"/>
@@ -8065,7 +8053,7 @@
       <c r="I194" s="37"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="19"/>
       <c r="C195" s="15"/>
@@ -8077,7 +8065,7 @@
       <c r="I195" s="37"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="15"/>
@@ -8089,7 +8077,7 @@
       <c r="I196" s="37"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="19"/>
       <c r="C197" s="15"/>
@@ -8101,7 +8089,7 @@
       <c r="I197" s="37"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="15"/>
@@ -8113,7 +8101,7 @@
       <c r="I198" s="37"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="19"/>
       <c r="C199" s="15"/>
@@ -8125,7 +8113,7 @@
       <c r="I199" s="37"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="18"/>
       <c r="C200" s="15"/>
@@ -8137,7 +8125,7 @@
       <c r="I200" s="37"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="19"/>
       <c r="C201" s="15"/>
@@ -8149,7 +8137,7 @@
       <c r="I201" s="37"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="34"/>
       <c r="B202" s="32"/>
       <c r="C202" s="27"/>
@@ -8161,7 +8149,7 @@
       <c r="I202" s="37"/>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="15"/>
@@ -8173,7 +8161,7 @@
       <c r="I203" s="37"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="19"/>
       <c r="C204" s="15"/>
@@ -8185,7 +8173,7 @@
       <c r="I204" s="37"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="15"/>
@@ -8197,7 +8185,7 @@
       <c r="I205" s="37"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="19"/>
       <c r="C206" s="15"/>
@@ -8209,7 +8197,7 @@
       <c r="I206" s="37"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="18"/>
       <c r="C207" s="15"/>
@@ -8221,7 +8209,7 @@
       <c r="I207" s="37"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="19"/>
       <c r="C208" s="15"/>
@@ -8233,7 +8221,7 @@
       <c r="I208" s="37"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="15"/>
@@ -8245,7 +8233,7 @@
       <c r="I209" s="37"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="19"/>
       <c r="C210" s="15"/>
@@ -8257,7 +8245,7 @@
       <c r="I210" s="37"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="15"/>
@@ -8269,7 +8257,7 @@
       <c r="I211" s="37"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="19"/>
       <c r="C212" s="15"/>
@@ -8281,7 +8269,7 @@
       <c r="I212" s="37"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="15"/>
@@ -8293,7 +8281,7 @@
       <c r="I213" s="37"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="25"/>
       <c r="B214" s="19"/>
       <c r="C214" s="15"/>
@@ -8305,7 +8293,7 @@
       <c r="I214" s="37"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="B215" s="18"/>
       <c r="C215" s="15"/>
@@ -8317,7 +8305,7 @@
       <c r="I215" s="37"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="19"/>
       <c r="C216" s="15"/>
@@ -8329,7 +8317,7 @@
       <c r="I216" s="37"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="34"/>
       <c r="B217" s="32"/>
       <c r="C217" s="27"/>
@@ -8341,7 +8329,7 @@
       <c r="I217" s="37"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="15"/>
@@ -8353,7 +8341,7 @@
       <c r="I218" s="37"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="19"/>
       <c r="C219" s="15"/>
@@ -8365,7 +8353,7 @@
       <c r="I219" s="37"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="15"/>
@@ -8377,7 +8365,7 @@
       <c r="I220" s="37"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="19"/>
       <c r="C221" s="15"/>
@@ -8389,7 +8377,7 @@
       <c r="I221" s="37"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="18"/>
       <c r="C222" s="15"/>
@@ -8402,7 +8390,7 @@
       <c r="J222" s="27"/>
       <c r="K222" s="28"/>
     </row>
-    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -8414,7 +8402,7 @@
       <c r="I223" s="37"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="15"/>
@@ -8426,7 +8414,7 @@
       <c r="I224" s="37"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="19"/>
       <c r="C225" s="15"/>
@@ -8438,7 +8426,7 @@
       <c r="I225" s="37"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="15"/>
@@ -8450,7 +8438,7 @@
       <c r="I226" s="37"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="19"/>
       <c r="C227" s="15"/>
@@ -8462,7 +8450,7 @@
       <c r="I227" s="37"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="18"/>
       <c r="C228" s="15"/>
@@ -8474,7 +8462,7 @@
       <c r="I228" s="37"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
       <c r="B229" s="19"/>
       <c r="C229" s="15"/>
@@ -8486,7 +8474,7 @@
       <c r="I229" s="37"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="15"/>
@@ -8498,7 +8486,7 @@
       <c r="I230" s="37"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="19"/>
       <c r="C231" s="15"/>
@@ -8510,7 +8498,7 @@
       <c r="I231" s="37"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="24"/>
       <c r="C232" s="15"/>
@@ -8522,7 +8510,7 @@
       <c r="I232" s="37"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="34"/>
       <c r="B233" s="32"/>
       <c r="C233" s="27"/>
@@ -8534,7 +8522,7 @@
       <c r="I233" s="37"/>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="15"/>
@@ -8546,7 +8534,7 @@
       <c r="I234" s="37"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="19"/>
       <c r="C235" s="15"/>
@@ -8558,7 +8546,7 @@
       <c r="I235" s="37"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="18"/>
       <c r="C236" s="15"/>
@@ -8570,7 +8558,7 @@
       <c r="I236" s="37"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="19"/>
       <c r="C237" s="15"/>
@@ -8582,7 +8570,7 @@
       <c r="I237" s="37"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="15"/>
@@ -8594,7 +8582,7 @@
       <c r="I238" s="37"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="19"/>
       <c r="C239" s="15"/>
@@ -8606,7 +8594,7 @@
       <c r="I239" s="37"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="34"/>
       <c r="B240" s="32"/>
       <c r="C240" s="27"/>
@@ -8618,7 +8606,7 @@
       <c r="I240" s="37"/>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="15"/>
@@ -8630,7 +8618,7 @@
       <c r="I241" s="37"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="19"/>
       <c r="C242" s="15"/>
@@ -8642,7 +8630,7 @@
       <c r="I242" s="37"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="18"/>
       <c r="C243" s="15"/>
@@ -8654,7 +8642,7 @@
       <c r="I243" s="37"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="19"/>
       <c r="C244" s="15"/>
@@ -8666,7 +8654,7 @@
       <c r="I244" s="37"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="15"/>
@@ -8678,7 +8666,7 @@
       <c r="I245" s="37"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="19"/>
       <c r="C246" s="15"/>
@@ -8690,7 +8678,7 @@
       <c r="I246" s="37"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="15"/>
@@ -8702,7 +8690,7 @@
       <c r="I247" s="37"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
       <c r="B248" s="19"/>
       <c r="C248" s="15"/>
@@ -8714,7 +8702,7 @@
       <c r="I248" s="37"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="18"/>
       <c r="C249" s="15"/>
@@ -8726,7 +8714,7 @@
       <c r="I249" s="37"/>
       <c r="J249" s="27"/>
     </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="19"/>
       <c r="C250" s="15"/>
@@ -8738,7 +8726,7 @@
       <c r="I250" s="37"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="15"/>
@@ -8750,7 +8738,7 @@
       <c r="I251" s="37"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="19"/>
       <c r="C252" s="15"/>
@@ -8762,7 +8750,7 @@
       <c r="I252" s="37"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="15"/>
@@ -8774,7 +8762,7 @@
       <c r="I253" s="37"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="19"/>
       <c r="C254" s="15"/>
@@ -8786,7 +8774,7 @@
       <c r="I254" s="37"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
@@ -8798,7 +8786,7 @@
       <c r="I255" s="37"/>
       <c r="J255" s="27"/>
     </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="34"/>
       <c r="B256" s="32"/>
       <c r="C256" s="27"/>
@@ -8810,7 +8798,7 @@
       <c r="I256" s="37"/>
       <c r="J256" s="27"/>
     </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="25"/>
       <c r="B257" s="18"/>
       <c r="C257" s="15"/>
@@ -8822,7 +8810,7 @@
       <c r="I257" s="37"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
       <c r="B258" s="19"/>
       <c r="C258" s="15"/>
@@ -8834,7 +8822,7 @@
       <c r="I258" s="37"/>
       <c r="J258" s="30"/>
     </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="34"/>
       <c r="B259" s="32"/>
       <c r="C259" s="27"/>
@@ -8846,7 +8834,7 @@
       <c r="I259" s="37"/>
       <c r="J259" s="27"/>
     </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="18"/>
       <c r="C260" s="15"/>
@@ -8858,7 +8846,7 @@
       <c r="I260" s="37"/>
       <c r="J260" s="27"/>
     </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="19"/>
       <c r="C261" s="15"/>
@@ -8870,7 +8858,7 @@
       <c r="I261" s="37"/>
       <c r="J261" s="27"/>
     </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="34"/>
       <c r="B262" s="32"/>
       <c r="C262" s="27"/>
@@ -8882,7 +8870,7 @@
       <c r="I262" s="37"/>
       <c r="J262" s="27"/>
     </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="26"/>
       <c r="B263" s="18"/>
       <c r="C263" s="15"/>
@@ -8894,7 +8882,7 @@
       <c r="I263" s="37"/>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="26"/>
       <c r="B264" s="19"/>
       <c r="C264" s="15"/>
@@ -8906,7 +8894,7 @@
       <c r="I264" s="37"/>
       <c r="J264" s="27"/>
     </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="18"/>
       <c r="C265" s="15"/>
@@ -8918,7 +8906,7 @@
       <c r="I265" s="37"/>
       <c r="J265" s="27"/>
     </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="19"/>
       <c r="C266" s="15"/>
@@ -8930,7 +8918,7 @@
       <c r="I266" s="37"/>
       <c r="J266" s="27"/>
     </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="18"/>
       <c r="C267" s="15"/>
@@ -8942,7 +8930,7 @@
       <c r="I267" s="37"/>
       <c r="J267" s="27"/>
     </row>
-    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="6"/>
@@ -8954,7 +8942,7 @@
       <c r="I268" s="37"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="18"/>
       <c r="C269" s="6"/>
@@ -8966,7 +8954,7 @@
       <c r="I269" s="37"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="6"/>
@@ -8978,7 +8966,7 @@
       <c r="I270" s="37"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="18"/>
       <c r="C271" s="6"/>
@@ -8990,7 +8978,7 @@
       <c r="I271" s="37"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="6"/>
@@ -9002,7 +8990,7 @@
       <c r="I272" s="37"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="18"/>
       <c r="C273" s="6"/>
@@ -9014,7 +9002,7 @@
       <c r="I273" s="37"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="6"/>
@@ -9026,7 +9014,7 @@
       <c r="I274" s="37"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="18"/>
       <c r="C275" s="6"/>
@@ -9038,7 +9026,7 @@
       <c r="I275" s="37"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="6"/>
@@ -9050,7 +9038,7 @@
       <c r="I276" s="37"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="34"/>
       <c r="B277" s="32"/>
       <c r="C277" s="12"/>
@@ -9062,7 +9050,7 @@
       <c r="I277" s="37"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="18"/>
       <c r="C278" s="6"/>
@@ -9074,7 +9062,7 @@
       <c r="I278" s="37"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="6"/>
@@ -9086,7 +9074,7 @@
       <c r="I279" s="37"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="18"/>
       <c r="C280" s="6"/>
@@ -9098,7 +9086,7 @@
       <c r="I280" s="37"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="6"/>
@@ -9110,7 +9098,7 @@
       <c r="I281" s="37"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="18"/>
       <c r="C282" s="6"/>
@@ -9122,7 +9110,7 @@
       <c r="I282" s="37"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="6"/>
@@ -9134,7 +9122,7 @@
       <c r="I283" s="37"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="18"/>
       <c r="C284" s="6"/>
@@ -9146,7 +9134,7 @@
       <c r="I284" s="37"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="6"/>
@@ -9158,7 +9146,7 @@
       <c r="I285" s="37"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="18"/>
       <c r="C286" s="6"/>
@@ -9170,7 +9158,7 @@
       <c r="I286" s="37"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="6"/>
@@ -9182,7 +9170,7 @@
       <c r="I287" s="37"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="18"/>
       <c r="C288" s="6"/>
@@ -9194,7 +9182,7 @@
       <c r="I288" s="37"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="6"/>
@@ -9206,7 +9194,7 @@
       <c r="I289" s="37"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="18"/>
       <c r="C290" s="4"/>
@@ -9218,7 +9206,7 @@
       <c r="I290" s="37"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="4"/>
@@ -9230,7 +9218,7 @@
       <c r="I291" s="37"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="34"/>
       <c r="B292" s="32"/>
       <c r="C292" s="12"/>
@@ -9242,7 +9230,7 @@
       <c r="I292" s="37"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="18"/>
       <c r="C293" s="4"/>
@@ -9254,7 +9242,7 @@
       <c r="I293" s="37"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="19"/>
       <c r="C294" s="4"/>
@@ -9266,7 +9254,7 @@
       <c r="I294" s="37"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="18"/>
       <c r="C295" s="4"/>
@@ -9278,7 +9266,7 @@
       <c r="I295" s="37"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="19"/>
       <c r="C296" s="10"/>
@@ -9290,7 +9278,7 @@
       <c r="I296" s="37"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="18"/>
       <c r="C297" s="4"/>
@@ -9302,7 +9290,7 @@
       <c r="I297" s="37"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="6"/>
@@ -9314,7 +9302,7 @@
       <c r="I298" s="37"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="18"/>
       <c r="C299" s="4"/>
@@ -9326,7 +9314,7 @@
       <c r="I299" s="37"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="19"/>
       <c r="C300" s="4"/>
@@ -9338,7 +9326,7 @@
       <c r="I300" s="37"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="18"/>
       <c r="C301" s="4"/>
@@ -9350,7 +9338,7 @@
       <c r="I301" s="37"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="19"/>
       <c r="C302" s="4"/>
@@ -9362,7 +9350,7 @@
       <c r="I302" s="37"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="18"/>
       <c r="C303" s="4"/>
@@ -9374,7 +9362,7 @@
       <c r="I303" s="37"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="19"/>
       <c r="C304" s="4"/>
@@ -9386,7 +9374,7 @@
       <c r="I304" s="37"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="18"/>
       <c r="C305" s="4"/>
@@ -9398,7 +9386,7 @@
       <c r="I305" s="37"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="19"/>
       <c r="C306" s="4"/>
@@ -9410,7 +9398,7 @@
       <c r="I306" s="37"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="34"/>
       <c r="B307" s="32"/>
       <c r="C307" s="12"/>
@@ -9422,7 +9410,7 @@
       <c r="I307" s="37"/>
       <c r="J307" s="12"/>
     </row>
-    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
@@ -9434,7 +9422,7 @@
       <c r="I308" s="37"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="19"/>
       <c r="C309" s="4"/>
@@ -9446,7 +9434,7 @@
       <c r="I309" s="37"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="21"/>
       <c r="B310" s="24"/>
       <c r="C310" s="4"/>
@@ -9458,7 +9446,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="34"/>
       <c r="B311" s="32"/>
       <c r="C311" s="12"/>
@@ -9470,7 +9458,7 @@
       <c r="I311" s="37"/>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="18"/>
       <c r="C312" s="4"/>
@@ -9482,7 +9470,7 @@
       <c r="I312" s="37"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="19"/>
       <c r="C313" s="4"/>
@@ -9494,7 +9482,7 @@
       <c r="I313" s="37"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="18"/>
       <c r="C314" s="4"/>
@@ -9506,7 +9494,7 @@
       <c r="I314" s="37"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="19"/>
       <c r="C315" s="4"/>
@@ -9518,7 +9506,7 @@
       <c r="I315" s="37"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="18"/>
       <c r="C316" s="4"/>
@@ -9530,7 +9518,7 @@
       <c r="I316" s="37"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="19"/>
       <c r="C317" s="4"/>
@@ -9542,7 +9530,7 @@
       <c r="I317" s="37"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="18"/>
       <c r="C318" s="4"/>
@@ -9554,7 +9542,7 @@
       <c r="I318" s="37"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="19"/>
       <c r="C319" s="4"/>
@@ -9566,7 +9554,7 @@
       <c r="I319" s="37"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="18"/>
       <c r="C320" s="4"/>
@@ -9578,7 +9566,7 @@
       <c r="I320" s="37"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="19"/>
       <c r="C321" s="4"/>
@@ -9590,7 +9578,7 @@
       <c r="I321" s="37"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="18"/>
       <c r="C322" s="4"/>
@@ -9602,7 +9590,7 @@
       <c r="I322" s="37"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="19"/>
       <c r="C323" s="4"/>
@@ -9614,7 +9602,7 @@
       <c r="I323" s="37"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="18"/>
       <c r="C324" s="4"/>
@@ -9626,7 +9614,7 @@
       <c r="I324" s="37"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="19"/>
       <c r="C325" s="4"/>
@@ -9638,7 +9626,7 @@
       <c r="I325" s="37"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="34"/>
       <c r="B326" s="32"/>
       <c r="C326" s="12"/>
@@ -9650,7 +9638,7 @@
       <c r="I326" s="37"/>
       <c r="J326" s="12"/>
     </row>
-    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="18"/>
       <c r="C327" s="4"/>
@@ -9662,7 +9650,7 @@
       <c r="I327" s="37"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="19"/>
       <c r="C328" s="4"/>
@@ -9674,7 +9662,7 @@
       <c r="I328" s="37"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="18"/>
       <c r="C329" s="4"/>
@@ -9686,7 +9674,7 @@
       <c r="I329" s="37"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="19"/>
       <c r="C330" s="4"/>
@@ -9698,7 +9686,7 @@
       <c r="I330" s="37"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="18"/>
       <c r="C331" s="4"/>
@@ -9710,7 +9698,7 @@
       <c r="I331" s="37"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="19"/>
       <c r="C332" s="4"/>
@@ -9722,7 +9710,7 @@
       <c r="I332" s="37"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="18"/>
       <c r="C333" s="4"/>
@@ -9734,7 +9722,7 @@
       <c r="I333" s="37"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="19"/>
       <c r="C334" s="4"/>
@@ -9746,7 +9734,7 @@
       <c r="I334" s="37"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="18"/>
       <c r="C335" s="4"/>
@@ -9758,7 +9746,7 @@
       <c r="I335" s="37"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="19"/>
       <c r="C336" s="4"/>
@@ -9770,7 +9758,7 @@
       <c r="I336" s="37"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="18"/>
       <c r="C337" s="4"/>
@@ -9782,7 +9770,7 @@
       <c r="I337" s="37"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="19"/>
       <c r="C338" s="4"/>
@@ -9794,7 +9782,7 @@
       <c r="I338" s="37"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="18"/>
       <c r="C339" s="4"/>
@@ -9806,7 +9794,7 @@
       <c r="I339" s="37"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="19"/>
       <c r="C340" s="4"/>
@@ -9818,7 +9806,7 @@
       <c r="I340" s="37"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -9830,7 +9818,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -9842,7 +9830,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -9854,7 +9842,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -9866,7 +9854,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -9878,7 +9866,7 @@
       <c r="I345" s="39"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -9890,7 +9878,7 @@
       <c r="I346" s="39"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -9902,7 +9890,7 @@
       <c r="I347" s="39"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -9914,7 +9902,7 @@
       <c r="I348" s="39"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -9926,7 +9914,7 @@
       <c r="I349" s="39"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -9938,7 +9926,7 @@
       <c r="I350" s="39"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -9950,7 +9938,7 @@
       <c r="I351" s="39"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -9962,7 +9950,7 @@
       <c r="I352" s="39"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -9974,7 +9962,7 @@
       <c r="I353" s="39"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -9986,7 +9974,7 @@
       <c r="I354" s="39"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -9998,7 +9986,7 @@
       <c r="I355" s="39"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -10010,7 +9998,7 @@
       <c r="I356" s="39"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -10022,7 +10010,7 @@
       <c r="I357" s="39"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -10034,7 +10022,7 @@
       <c r="I358" s="39"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -10046,7 +10034,7 @@
       <c r="I359" s="39"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -10058,7 +10046,7 @@
       <c r="I360" s="39"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -10070,7 +10058,7 @@
       <c r="I361" s="39"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -10082,7 +10070,7 @@
       <c r="I362" s="39"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -10094,7 +10082,7 @@
       <c r="I363" s="39"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -10106,7 +10094,7 @@
       <c r="I364" s="39"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -10118,7 +10106,7 @@
       <c r="I365" s="39"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -10130,7 +10118,7 @@
       <c r="I366" s="39"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -10142,7 +10130,7 @@
       <c r="I367" s="39"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -10154,7 +10142,7 @@
       <c r="I368" s="39"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -10166,7 +10154,7 @@
       <c r="I369" s="39"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E74D78-F617-43BE-9541-0377F5985087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512C34A-C2B5-4F32-9D9F-1FCC0011C3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PN!$A$6:$J$245</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">MM!$A$1:$J$340</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">MM!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PN!$A$1:$J$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1581,31 +1590,32 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="134" t="s">
         <v>38</v>
       </c>
@@ -1619,7 +1629,7 @@
       <c r="I1" s="135"/>
       <c r="J1" s="136"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="106"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -1631,7 +1641,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1657,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="106"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -1659,7 +1669,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="107"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -1671,7 +1681,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -1715,7 +1725,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="109">
         <v>4</v>
       </c>
@@ -1731,7 +1741,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="131"/>
     </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
         <v>60</v>
       </c>
@@ -1747,7 +1757,7 @@
       <c r="I9" s="42"/>
       <c r="J9" s="131"/>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="122" t="s">
         <v>49</v>
       </c>
@@ -1763,7 +1773,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="131"/>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
       <c r="B11" s="52" t="s">
         <v>26</v>
@@ -1779,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="122"/>
       <c r="B12" s="53" t="s">
         <v>32</v>
@@ -1795,7 +1805,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="131"/>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="122" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1821,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="131"/>
     </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41"/>
@@ -1823,7 +1833,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="131"/>
     </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="122"/>
       <c r="B15" s="52" t="s">
         <v>27</v>
@@ -1839,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="122" t="s">
         <v>76</v>
       </c>
@@ -1857,7 +1867,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="131"/>
     </row>
-    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="122"/>
       <c r="B17" s="52" t="s">
         <v>13</v>
@@ -1873,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="122"/>
       <c r="B18" s="53"/>
       <c r="C18" s="41"/>
@@ -1887,7 +1897,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="131"/>
     </row>
-    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="122"/>
       <c r="B19" s="52" t="s">
         <v>26</v>
@@ -1901,7 +1911,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="131"/>
     </row>
-    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="122"/>
       <c r="B20" s="53"/>
       <c r="C20" s="41"/>
@@ -1915,7 +1925,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="131"/>
     </row>
-    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="122"/>
       <c r="B21" s="52" t="s">
         <v>27</v>
@@ -1929,7 +1939,7 @@
       <c r="I21" s="42"/>
       <c r="J21" s="131"/>
     </row>
-    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="53"/>
       <c r="C22" s="41"/>
@@ -1943,7 +1953,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="131"/>
     </row>
-    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="122"/>
       <c r="B23" s="52" t="s">
         <v>28</v>
@@ -1957,7 +1967,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="131"/>
     </row>
-    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="122"/>
       <c r="B24" s="53"/>
       <c r="C24" s="41"/>
@@ -1971,7 +1981,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="131"/>
     </row>
-    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="122"/>
       <c r="B25" s="52" t="s">
         <v>29</v>
@@ -1985,7 +1995,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="131"/>
     </row>
-    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="122"/>
       <c r="B26" s="53"/>
       <c r="C26" s="41"/>
@@ -1999,7 +2009,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="131"/>
     </row>
-    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="122"/>
       <c r="B27" s="52" t="s">
         <v>30</v>
@@ -2013,7 +2023,7 @@
       <c r="I27" s="42"/>
       <c r="J27" s="131"/>
     </row>
-    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="53"/>
       <c r="C28" s="41"/>
@@ -2027,7 +2037,7 @@
       <c r="I28" s="42"/>
       <c r="J28" s="131"/>
     </row>
-    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="122"/>
       <c r="B29" s="52" t="s">
         <v>31</v>
@@ -2041,7 +2051,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="131"/>
     </row>
-    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="122"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
@@ -2055,7 +2065,7 @@
       <c r="I30" s="42"/>
       <c r="J30" s="131"/>
     </row>
-    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="122" t="s">
         <v>78</v>
       </c>
@@ -2071,7 +2081,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="131"/>
     </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="122"/>
       <c r="B32" s="52" t="s">
         <v>13</v>
@@ -2087,7 +2097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
@@ -2101,7 +2111,7 @@
       <c r="I33" s="42"/>
       <c r="J33" s="131"/>
     </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="122"/>
       <c r="B34" s="52" t="s">
         <v>26</v>
@@ -2115,7 +2125,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="131"/>
     </row>
-    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="122"/>
       <c r="B35" s="53"/>
       <c r="C35" s="41"/>
@@ -2129,7 +2139,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="131"/>
     </row>
-    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="122"/>
       <c r="B36" s="52" t="s">
         <v>27</v>
@@ -2143,7 +2153,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="131"/>
     </row>
-    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="122"/>
       <c r="B37" s="53"/>
       <c r="C37" s="41"/>
@@ -2157,7 +2167,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="131"/>
     </row>
-    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="122"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
@@ -2171,7 +2181,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="131"/>
     </row>
-    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="122"/>
       <c r="B39" s="53"/>
       <c r="C39" s="41"/>
@@ -2185,7 +2195,7 @@
       <c r="I39" s="42"/>
       <c r="J39" s="131"/>
     </row>
-    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="122"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
@@ -2199,7 +2209,7 @@
       <c r="I40" s="42"/>
       <c r="J40" s="131"/>
     </row>
-    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="122"/>
       <c r="B41" s="53"/>
       <c r="C41" s="41"/>
@@ -2213,7 +2223,7 @@
       <c r="I41" s="42"/>
       <c r="J41" s="131"/>
     </row>
-    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="122"/>
       <c r="B42" s="52" t="s">
         <v>30</v>
@@ -2227,7 +2237,7 @@
       <c r="I42" s="42"/>
       <c r="J42" s="131"/>
     </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="122"/>
       <c r="B43" s="53"/>
       <c r="C43" s="41"/>
@@ -2241,7 +2251,7 @@
       <c r="I43" s="42"/>
       <c r="J43" s="131"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>40</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="I44" s="48"/>
       <c r="J44" s="46"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="57" t="s">
         <v>62</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
       <c r="B46" s="50"/>
       <c r="C46" s="45"/>
@@ -2289,7 +2299,7 @@
       <c r="I46" s="48"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="53" t="s">
         <v>32</v>
@@ -2308,7 +2318,7 @@
       </c>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
         <v>96</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="52" t="s">
         <v>26</v>
@@ -2342,7 +2352,7 @@
       <c r="I49" s="48"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57"/>
       <c r="B50" s="53" t="s">
         <v>32</v>
@@ -2361,7 +2371,7 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="130" t="s">
         <v>80</v>
       </c>
@@ -2377,7 +2387,7 @@
       <c r="I51" s="48"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="128" t="s">
         <v>67</v>
       </c>
@@ -2393,7 +2403,7 @@
       <c r="I52" s="48"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>81</v>
       </c>
@@ -2414,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="57"/>
       <c r="B54" s="52" t="s">
         <v>26</v>
@@ -2428,7 +2438,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="57"/>
       <c r="B55" s="53" t="s">
         <v>32</v>
@@ -2447,7 +2457,7 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="49" t="s">
         <v>82</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="52" t="s">
         <v>13</v>
@@ -2482,7 +2492,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="57"/>
       <c r="B58" s="53" t="s">
         <v>34</v>
@@ -2501,7 +2511,7 @@
       </c>
       <c r="J58" s="46"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="57"/>
       <c r="B59" s="52" t="s">
         <v>26</v>
@@ -2515,7 +2525,7 @@
       <c r="I59" s="48"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="57"/>
       <c r="B60" s="53" t="s">
         <v>34</v>
@@ -2534,7 +2544,7 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57"/>
       <c r="B61" s="52" t="s">
         <v>27</v>
@@ -2548,7 +2558,7 @@
       <c r="I61" s="48"/>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57"/>
       <c r="B62" s="53" t="s">
         <v>34</v>
@@ -2567,7 +2577,7 @@
       </c>
       <c r="J62" s="46"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
       <c r="B63" s="52" t="s">
         <v>28</v>
@@ -2581,7 +2591,7 @@
       <c r="I63" s="48"/>
       <c r="J63" s="46"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="57"/>
       <c r="B64" s="53" t="s">
         <v>34</v>
@@ -2600,7 +2610,7 @@
       </c>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="57"/>
       <c r="B65" s="52" t="s">
         <v>29</v>
@@ -2614,7 +2624,7 @@
       <c r="I65" s="48"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="57"/>
       <c r="B66" s="53" t="s">
         <v>34</v>
@@ -2633,7 +2643,7 @@
       </c>
       <c r="J66" s="46"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="57"/>
       <c r="B67" s="52" t="s">
         <v>30</v>
@@ -2647,7 +2657,7 @@
       <c r="I67" s="48"/>
       <c r="J67" s="46"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="57"/>
       <c r="B68" s="53" t="s">
         <v>34</v>
@@ -2666,7 +2676,7 @@
       </c>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="57"/>
       <c r="B69" s="52" t="s">
         <v>31</v>
@@ -2680,7 +2690,7 @@
       <c r="I69" s="48"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="57"/>
       <c r="B70" s="53" t="s">
         <v>34</v>
@@ -2699,7 +2709,7 @@
       </c>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="111" t="s">
         <v>83</v>
       </c>
@@ -2715,7 +2725,7 @@
       <c r="I71" s="48"/>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>13</v>
@@ -2731,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="111"/>
       <c r="B73" s="53" t="s">
         <v>34</v>
@@ -2747,7 +2757,7 @@
       <c r="I73" s="48"/>
       <c r="J73" s="46"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="111"/>
       <c r="B74" s="52" t="s">
         <v>26</v>
@@ -2761,7 +2771,7 @@
       <c r="I74" s="48"/>
       <c r="J74" s="46"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="111"/>
       <c r="B75" s="53" t="s">
         <v>34</v>
@@ -2777,7 +2787,7 @@
       <c r="I75" s="48"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="111"/>
       <c r="B76" s="52" t="s">
         <v>27</v>
@@ -2791,7 +2801,7 @@
       <c r="I76" s="48"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="111"/>
       <c r="B77" s="53" t="s">
         <v>34</v>
@@ -2807,7 +2817,7 @@
       <c r="I77" s="48"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="111"/>
       <c r="B78" s="52" t="s">
         <v>28</v>
@@ -2821,7 +2831,7 @@
       <c r="I78" s="48"/>
       <c r="J78" s="46"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="111"/>
       <c r="B79" s="53" t="s">
         <v>34</v>
@@ -2837,7 +2847,7 @@
       <c r="I79" s="48"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="111"/>
       <c r="B80" s="52" t="s">
         <v>29</v>
@@ -2851,7 +2861,7 @@
       <c r="I80" s="48"/>
       <c r="J80" s="46"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="111"/>
       <c r="B81" s="53" t="s">
         <v>34</v>
@@ -2867,7 +2877,7 @@
       <c r="I81" s="48"/>
       <c r="J81" s="46"/>
     </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="111"/>
       <c r="B82" s="52" t="s">
         <v>30</v>
@@ -2881,7 +2891,7 @@
       <c r="I82" s="48"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="111"/>
       <c r="B83" s="53" t="s">
         <v>34</v>
@@ -2897,7 +2907,7 @@
       <c r="I83" s="48"/>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="111"/>
       <c r="B84" s="52" t="s">
         <v>31</v>
@@ -2911,7 +2921,7 @@
       <c r="I84" s="48"/>
       <c r="J84" s="46"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="111"/>
       <c r="B85" s="53" t="s">
         <v>34</v>
@@ -2927,7 +2937,7 @@
       <c r="I85" s="48"/>
       <c r="J85" s="46"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115" t="s">
         <v>85</v>
       </c>
@@ -2943,7 +2953,7 @@
       <c r="I86" s="48"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="124" t="s">
         <v>86</v>
       </c>
@@ -2961,7 +2971,7 @@
       <c r="I87" s="48"/>
       <c r="J87" s="46"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="111"/>
       <c r="B88" s="52" t="s">
         <v>13</v>
@@ -2977,7 +2987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="111"/>
       <c r="B89" s="53" t="s">
         <v>15</v>
@@ -2993,7 +3003,7 @@
       <c r="I89" s="48"/>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="111"/>
       <c r="B90" s="52" t="s">
         <v>26</v>
@@ -3007,7 +3017,7 @@
       <c r="I90" s="48"/>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="111"/>
       <c r="B91" s="53" t="s">
         <v>15</v>
@@ -3023,7 +3033,7 @@
       <c r="I91" s="48"/>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>27</v>
@@ -3037,7 +3047,7 @@
       <c r="I92" s="48"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="111"/>
       <c r="B93" s="53" t="s">
         <v>15</v>
@@ -3053,7 +3063,7 @@
       <c r="I93" s="48"/>
       <c r="J93" s="46"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="111"/>
       <c r="B94" s="52" t="s">
         <v>28</v>
@@ -3067,7 +3077,7 @@
       <c r="I94" s="48"/>
       <c r="J94" s="46"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="111"/>
       <c r="B95" s="53" t="s">
         <v>15</v>
@@ -3083,7 +3093,7 @@
       <c r="I95" s="48"/>
       <c r="J95" s="46"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>29</v>
@@ -3097,7 +3107,7 @@
       <c r="I96" s="48"/>
       <c r="J96" s="46"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="57"/>
       <c r="B97" s="53" t="s">
         <v>15</v>
@@ -3113,7 +3123,7 @@
       <c r="I97" s="48"/>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="57"/>
       <c r="B98" s="52" t="s">
         <v>30</v>
@@ -3127,7 +3137,7 @@
       <c r="I98" s="48"/>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="57"/>
       <c r="B99" s="53" t="s">
         <v>15</v>
@@ -3143,7 +3153,7 @@
       <c r="I99" s="48"/>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="57"/>
       <c r="B100" s="52" t="s">
         <v>31</v>
@@ -3157,7 +3167,7 @@
       <c r="I100" s="48"/>
       <c r="J100" s="46"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="57"/>
       <c r="B101" s="53" t="s">
         <v>16</v>
@@ -3173,7 +3183,7 @@
       <c r="I101" s="48"/>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="115"/>
       <c r="B102" s="53" t="s">
         <v>52</v>
@@ -3189,7 +3199,7 @@
       <c r="I102" s="48"/>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="124"/>
       <c r="B103" s="53" t="s">
         <v>53</v>
@@ -3205,7 +3215,7 @@
       <c r="I103" s="48"/>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110" t="s">
         <v>87</v>
       </c>
@@ -3221,7 +3231,7 @@
       <c r="I104" s="48"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="124" t="s">
         <v>89</v>
       </c>
@@ -3237,7 +3247,7 @@
       <c r="I105" s="48"/>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="111"/>
       <c r="B106" s="52" t="s">
         <v>13</v>
@@ -3253,7 +3263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="111"/>
       <c r="B107" s="53" t="s">
         <v>34</v>
@@ -3269,7 +3279,7 @@
       <c r="I107" s="48"/>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="111"/>
       <c r="B108" s="52" t="s">
         <v>26</v>
@@ -3283,7 +3293,7 @@
       <c r="I108" s="48"/>
       <c r="J108" s="46"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="111"/>
       <c r="B109" s="53" t="s">
         <v>34</v>
@@ -3299,7 +3309,7 @@
       <c r="I109" s="48"/>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="111"/>
       <c r="B110" s="52" t="s">
         <v>27</v>
@@ -3313,7 +3323,7 @@
       <c r="I110" s="48"/>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="111"/>
       <c r="B111" s="53" t="s">
         <v>34</v>
@@ -3329,7 +3339,7 @@
       <c r="I111" s="48"/>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="111"/>
       <c r="B112" s="52" t="s">
         <v>28</v>
@@ -3343,7 +3353,7 @@
       <c r="I112" s="48"/>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="111"/>
       <c r="B113" s="53" t="s">
         <v>34</v>
@@ -3359,7 +3369,7 @@
       <c r="I113" s="48"/>
       <c r="J113" s="46"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="111"/>
       <c r="B114" s="52" t="s">
         <v>29</v>
@@ -3373,7 +3383,7 @@
       <c r="I114" s="48"/>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="57"/>
       <c r="B115" s="53" t="s">
         <v>34</v>
@@ -3389,7 +3399,7 @@
       <c r="I115" s="48"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="57"/>
       <c r="B116" s="52" t="s">
         <v>30</v>
@@ -3403,7 +3413,7 @@
       <c r="I116" s="48"/>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="57"/>
       <c r="B117" s="53" t="s">
         <v>34</v>
@@ -3419,7 +3429,7 @@
       <c r="I117" s="48"/>
       <c r="J117" s="46"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="57"/>
       <c r="B118" s="52" t="s">
         <v>31</v>
@@ -3433,7 +3443,7 @@
       <c r="I118" s="48"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="57"/>
       <c r="B119" s="53" t="s">
         <v>34</v>
@@ -3449,7 +3459,7 @@
       <c r="I119" s="48"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="124" t="s">
         <v>91</v>
       </c>
@@ -3465,7 +3475,7 @@
       <c r="I120" s="48"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
       <c r="B121" s="52" t="s">
         <v>13</v>
@@ -3481,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
       <c r="B122" s="53" t="s">
         <v>34</v>
@@ -3497,7 +3507,7 @@
       <c r="I122" s="48"/>
       <c r="J122" s="46"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
       <c r="B123" s="52" t="s">
         <v>26</v>
@@ -3511,7 +3521,7 @@
       <c r="I123" s="48"/>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
       <c r="B124" s="53" t="s">
         <v>34</v>
@@ -3527,7 +3537,7 @@
       <c r="I124" s="48"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="57"/>
       <c r="B125" s="52" t="s">
         <v>27</v>
@@ -3541,7 +3551,7 @@
       <c r="I125" s="48"/>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
       <c r="B126" s="53" t="s">
         <v>34</v>
@@ -3557,7 +3567,7 @@
       <c r="I126" s="48"/>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
       <c r="B127" s="52" t="s">
         <v>28</v>
@@ -3571,7 +3581,7 @@
       <c r="I127" s="48"/>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="57"/>
       <c r="B128" s="53" t="s">
         <v>34</v>
@@ -3587,7 +3597,7 @@
       <c r="I128" s="48"/>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
       <c r="B129" s="52" t="s">
         <v>29</v>
@@ -3601,7 +3611,7 @@
       <c r="I129" s="48"/>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
       <c r="B130" s="53" t="s">
         <v>34</v>
@@ -3617,7 +3627,7 @@
       <c r="I130" s="48"/>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="57"/>
       <c r="B131" s="52" t="s">
         <v>30</v>
@@ -3631,7 +3641,7 @@
       <c r="I131" s="48"/>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="57"/>
       <c r="B132" s="53" t="s">
         <v>34</v>
@@ -3647,7 +3657,7 @@
       <c r="I132" s="48"/>
       <c r="J132" s="46"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="57"/>
       <c r="B133" s="52" t="s">
         <v>31</v>
@@ -3661,7 +3671,7 @@
       <c r="I133" s="48"/>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="57"/>
       <c r="B134" s="53" t="s">
         <v>34</v>
@@ -3677,7 +3687,7 @@
       <c r="I134" s="48"/>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="124" t="s">
         <v>93</v>
       </c>
@@ -3693,7 +3703,7 @@
       <c r="I135" s="48"/>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="57"/>
       <c r="B136" s="52" t="s">
         <v>26</v>
@@ -3707,7 +3717,7 @@
       <c r="I136" s="48"/>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="57"/>
       <c r="B137" s="53" t="s">
         <v>95</v>
@@ -3723,7 +3733,7 @@
       <c r="I137" s="48"/>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="57"/>
       <c r="B138" s="53"/>
       <c r="C138" s="47"/>
@@ -3735,7 +3745,7 @@
       <c r="I138" s="48"/>
       <c r="J138" s="46"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="110" t="s">
         <v>56</v>
       </c>
@@ -3751,7 +3761,7 @@
       <c r="I139" s="48"/>
       <c r="J139" s="46"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="111" t="s">
         <v>57</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="111"/>
       <c r="B141" s="52" t="s">
         <v>26</v>
@@ -3785,7 +3795,7 @@
       <c r="I141" s="48"/>
       <c r="J141" s="46"/>
     </row>
-    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="57"/>
       <c r="B142" s="53" t="s">
         <v>32</v>
@@ -3801,7 +3811,7 @@
       <c r="I142" s="48"/>
       <c r="J142" s="46"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="55" t="s">
         <v>97</v>
       </c>
@@ -3817,7 +3827,7 @@
       <c r="I143" s="48"/>
       <c r="J143" s="46"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="49" t="s">
         <v>71</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="57"/>
       <c r="B145" s="101" t="s">
         <v>66</v>
@@ -3855,7 +3865,7 @@
       </c>
       <c r="J145" s="46"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="49" t="s">
         <v>72</v>
       </c>
@@ -3871,7 +3881,7 @@
       <c r="I146" s="48"/>
       <c r="J146" s="46"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="57"/>
       <c r="B147" s="101" t="s">
         <v>66</v>
@@ -3889,7 +3899,7 @@
       </c>
       <c r="J147" s="46"/>
     </row>
-    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43" t="s">
         <v>98</v>
       </c>
@@ -3905,7 +3915,7 @@
       <c r="I148" s="46"/>
       <c r="J148" s="82"/>
     </row>
-    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -3926,7 +3936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="49"/>
       <c r="B150" s="52" t="s">
         <v>13</v>
@@ -3940,7 +3950,7 @@
       <c r="I150" s="48"/>
       <c r="J150" s="46"/>
     </row>
-    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="49"/>
       <c r="B151" s="53" t="s">
         <v>15</v>
@@ -3959,7 +3969,7 @@
       </c>
       <c r="J151" s="46"/>
     </row>
-    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="49"/>
       <c r="B152" s="52" t="s">
         <v>26</v>
@@ -3973,7 +3983,7 @@
       <c r="I152" s="48"/>
       <c r="J152" s="46"/>
     </row>
-    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="49"/>
       <c r="B153" s="53" t="s">
         <v>15</v>
@@ -3992,7 +4002,7 @@
       </c>
       <c r="J153" s="46"/>
     </row>
-    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="49"/>
       <c r="B154" s="52" t="s">
         <v>27</v>
@@ -4006,7 +4016,7 @@
       <c r="I154" s="48"/>
       <c r="J154" s="46"/>
     </row>
-    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="49"/>
       <c r="B155" s="53" t="s">
         <v>15</v>
@@ -4025,7 +4035,7 @@
       </c>
       <c r="J155" s="46"/>
     </row>
-    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="49"/>
       <c r="B156" s="52" t="s">
         <v>28</v>
@@ -4039,7 +4049,7 @@
       <c r="I156" s="48"/>
       <c r="J156" s="46"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="49"/>
       <c r="B157" s="53" t="s">
         <v>15</v>
@@ -4058,7 +4068,7 @@
       </c>
       <c r="J157" s="46"/>
     </row>
-    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="49"/>
       <c r="B158" s="52" t="s">
         <v>29</v>
@@ -4072,7 +4082,7 @@
       <c r="I158" s="48"/>
       <c r="J158" s="46"/>
     </row>
-    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="49"/>
       <c r="B159" s="53" t="s">
         <v>15</v>
@@ -4091,7 +4101,7 @@
       </c>
       <c r="J159" s="46"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="57"/>
       <c r="B160" s="52" t="s">
         <v>30</v>
@@ -4105,7 +4115,7 @@
       <c r="I160" s="48"/>
       <c r="J160" s="46"/>
     </row>
-    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="57"/>
       <c r="B161" s="53" t="s">
         <v>15</v>
@@ -4124,7 +4134,7 @@
       </c>
       <c r="J161" s="46"/>
     </row>
-    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="57"/>
       <c r="B162" s="52" t="s">
         <v>31</v>
@@ -4138,7 +4148,7 @@
       <c r="I162" s="48"/>
       <c r="J162" s="46"/>
     </row>
-    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="57"/>
       <c r="B163" s="53" t="s">
         <v>15</v>
@@ -4157,7 +4167,7 @@
       </c>
       <c r="J163" s="46"/>
     </row>
-    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="103" t="s">
         <v>54</v>
       </c>
@@ -4173,7 +4183,7 @@
       <c r="I164" s="46"/>
       <c r="J164" s="82"/>
     </row>
-    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="49" t="s">
         <v>55</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="49"/>
       <c r="B166" s="52" t="s">
         <v>31</v>
@@ -4207,7 +4217,7 @@
       <c r="I166" s="48"/>
       <c r="J166" s="82"/>
     </row>
-    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="49"/>
       <c r="B167" s="53" t="s">
         <v>16</v>
@@ -4226,7 +4236,7 @@
       </c>
       <c r="J167" s="46"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="49" t="s">
         <v>101</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="49"/>
       <c r="B169" s="52" t="s">
         <v>31</v>
@@ -4258,7 +4268,7 @@
       <c r="I169" s="48"/>
       <c r="J169" s="46"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="49"/>
       <c r="B170" s="53" t="s">
         <v>16</v>
@@ -4277,7 +4287,7 @@
       </c>
       <c r="J170" s="46"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="49" t="s">
         <v>102</v>
       </c>
@@ -4297,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="49"/>
       <c r="B172" s="52" t="s">
         <v>31</v>
@@ -4311,7 +4321,7 @@
       <c r="I172" s="48"/>
       <c r="J172" s="46"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="49"/>
       <c r="B173" s="53" t="s">
         <v>16</v>
@@ -4330,7 +4340,7 @@
       </c>
       <c r="J173" s="46"/>
     </row>
-    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="49" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4358,7 @@
       <c r="I174" s="48"/>
       <c r="J174" s="82"/>
     </row>
-    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="49"/>
       <c r="B175" s="52" t="s">
         <v>31</v>
@@ -4364,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="49"/>
       <c r="B176" s="53" t="s">
         <v>16</v>
@@ -4383,7 +4393,7 @@
       </c>
       <c r="J176" s="82"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="49" t="s">
         <v>104</v>
       </c>
@@ -4401,7 +4411,7 @@
       <c r="I177" s="48"/>
       <c r="J177" s="46"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="49"/>
       <c r="B178" s="52" t="s">
         <v>31</v>
@@ -4417,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="49"/>
       <c r="B179" s="53" t="s">
         <v>16</v>
@@ -4436,7 +4446,7 @@
       </c>
       <c r="J179" s="46"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="49" t="s">
         <v>105</v>
       </c>
@@ -4454,7 +4464,7 @@
       <c r="I180" s="48"/>
       <c r="J180" s="46"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="49"/>
       <c r="B181" s="52" t="s">
         <v>31</v>
@@ -4468,7 +4478,7 @@
       <c r="I181" s="48"/>
       <c r="J181" s="46"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="49"/>
       <c r="B182" s="53" t="s">
         <v>16</v>
@@ -4489,7 +4499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="49" t="s">
         <v>106</v>
       </c>
@@ -4505,7 +4515,7 @@
       <c r="I183" s="48"/>
       <c r="J183" s="82"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="57"/>
       <c r="B184" s="52" t="s">
         <v>31</v>
@@ -4519,7 +4529,7 @@
       <c r="I184" s="48"/>
       <c r="J184" s="46"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="57"/>
       <c r="B185" s="53" t="s">
         <v>16</v>
@@ -4542,7 +4552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="55"/>
       <c r="B186" s="56"/>
       <c r="C186" s="47"/>
@@ -4554,7 +4564,7 @@
       <c r="I186" s="48"/>
       <c r="J186" s="46"/>
     </row>
-    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="49"/>
       <c r="B187" s="60"/>
       <c r="C187" s="45"/>
@@ -4566,7 +4576,7 @@
       <c r="I187" s="46"/>
       <c r="J187" s="82"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="57"/>
       <c r="B188" s="52"/>
       <c r="C188" s="47"/>
@@ -4578,7 +4588,7 @@
       <c r="I188" s="48"/>
       <c r="J188" s="46"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="57"/>
       <c r="B189" s="53"/>
       <c r="C189" s="47"/>
@@ -4590,7 +4600,7 @@
       <c r="I189" s="48"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="49"/>
       <c r="B190" s="60"/>
       <c r="C190" s="45"/>
@@ -4602,7 +4612,7 @@
       <c r="I190" s="46"/>
       <c r="J190" s="82"/>
     </row>
-    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="112"/>
       <c r="B191" s="52"/>
       <c r="C191" s="45"/>
@@ -4614,7 +4624,7 @@
       <c r="I191" s="46"/>
       <c r="J191" s="82"/>
     </row>
-    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="112"/>
       <c r="B192" s="53"/>
       <c r="C192" s="45"/>
@@ -4626,7 +4636,7 @@
       <c r="I192" s="48"/>
       <c r="J192" s="82"/>
     </row>
-    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="112"/>
       <c r="B193" s="52"/>
       <c r="C193" s="45"/>
@@ -4638,7 +4648,7 @@
       <c r="I193" s="48"/>
       <c r="J193" s="82"/>
     </row>
-    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="112"/>
       <c r="B194" s="53"/>
       <c r="C194" s="45"/>
@@ -4650,7 +4660,7 @@
       <c r="I194" s="48"/>
       <c r="J194" s="82"/>
     </row>
-    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="112"/>
       <c r="B195" s="52"/>
       <c r="C195" s="45"/>
@@ -4662,7 +4672,7 @@
       <c r="I195" s="48"/>
       <c r="J195" s="82"/>
     </row>
-    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="112"/>
       <c r="B196" s="53"/>
       <c r="C196" s="45"/>
@@ -4674,7 +4684,7 @@
       <c r="I196" s="48"/>
       <c r="J196" s="82"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="57"/>
       <c r="B197" s="52"/>
       <c r="C197" s="47"/>
@@ -4686,7 +4696,7 @@
       <c r="I197" s="48"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="57"/>
       <c r="B198" s="53"/>
       <c r="C198" s="47"/>
@@ -4698,7 +4708,7 @@
       <c r="I198" s="48"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="57"/>
       <c r="B199" s="52"/>
       <c r="C199" s="47"/>
@@ -4710,7 +4720,7 @@
       <c r="I199" s="48"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="57"/>
       <c r="B200" s="53"/>
       <c r="C200" s="47"/>
@@ -4722,7 +4732,7 @@
       <c r="I200" s="48"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="57"/>
       <c r="B201" s="52"/>
       <c r="C201" s="47"/>
@@ -4734,7 +4744,7 @@
       <c r="I201" s="48"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="57"/>
       <c r="B202" s="53"/>
       <c r="C202" s="47"/>
@@ -4746,7 +4756,7 @@
       <c r="I202" s="48"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="57"/>
       <c r="B203" s="52"/>
       <c r="C203" s="47"/>
@@ -4758,7 +4768,7 @@
       <c r="I203" s="48"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="57"/>
       <c r="B204" s="53"/>
       <c r="C204" s="47"/>
@@ -4770,7 +4780,7 @@
       <c r="I204" s="48"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="57"/>
       <c r="B205" s="53"/>
       <c r="C205" s="47"/>
@@ -4782,7 +4792,7 @@
       <c r="I205" s="48"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="57"/>
       <c r="B206" s="53"/>
       <c r="C206" s="47"/>
@@ -4794,7 +4804,7 @@
       <c r="I206" s="48"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="49"/>
       <c r="B207" s="62"/>
       <c r="C207" s="45"/>
@@ -4806,7 +4816,7 @@
       <c r="I207" s="46"/>
       <c r="J207" s="82"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="57"/>
       <c r="B208" s="52"/>
       <c r="C208" s="47"/>
@@ -4818,7 +4828,7 @@
       <c r="I208" s="48"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="57"/>
       <c r="B209" s="53"/>
       <c r="C209" s="47"/>
@@ -4830,7 +4840,7 @@
       <c r="I209" s="48"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="57"/>
       <c r="B210" s="52"/>
       <c r="C210" s="47"/>
@@ -4842,7 +4852,7 @@
       <c r="I210" s="48"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="57"/>
       <c r="B211" s="53"/>
       <c r="C211" s="47"/>
@@ -4854,7 +4864,7 @@
       <c r="I211" s="48"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="57"/>
       <c r="B212" s="52"/>
       <c r="C212" s="47"/>
@@ -4866,7 +4876,7 @@
       <c r="I212" s="48"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="57"/>
       <c r="B213" s="53"/>
       <c r="C213" s="47"/>
@@ -4878,7 +4888,7 @@
       <c r="I213" s="48"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="57"/>
       <c r="B214" s="52"/>
       <c r="C214" s="47"/>
@@ -4890,7 +4900,7 @@
       <c r="I214" s="48"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="57"/>
       <c r="B215" s="53"/>
       <c r="C215" s="47"/>
@@ -4902,7 +4912,7 @@
       <c r="I215" s="48"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="57"/>
       <c r="B216" s="52"/>
       <c r="C216" s="47"/>
@@ -4914,7 +4924,7 @@
       <c r="I216" s="48"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="57"/>
       <c r="B217" s="53"/>
       <c r="C217" s="47"/>
@@ -4926,7 +4936,7 @@
       <c r="I217" s="48"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="57"/>
       <c r="B218" s="52"/>
       <c r="C218" s="47"/>
@@ -4938,7 +4948,7 @@
       <c r="I218" s="48"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="57"/>
       <c r="B219" s="53"/>
       <c r="C219" s="47"/>
@@ -4950,7 +4960,7 @@
       <c r="I219" s="48"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="57"/>
       <c r="B220" s="52"/>
       <c r="C220" s="47"/>
@@ -4962,7 +4972,7 @@
       <c r="I220" s="48"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="57"/>
       <c r="B221" s="53"/>
       <c r="C221" s="47"/>
@@ -4974,7 +4984,7 @@
       <c r="I221" s="48"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="113"/>
       <c r="B222" s="63"/>
       <c r="C222" s="47"/>
@@ -4986,7 +4996,7 @@
       <c r="I222" s="48"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="111"/>
       <c r="B223" s="116"/>
       <c r="C223" s="45"/>
@@ -4998,7 +5008,7 @@
       <c r="I223" s="48"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="111"/>
       <c r="B224" s="52"/>
       <c r="C224" s="47"/>
@@ -5010,7 +5020,7 @@
       <c r="I224" s="48"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="57"/>
       <c r="B225" s="53"/>
       <c r="C225" s="45"/>
@@ -5022,7 +5032,7 @@
       <c r="I225" s="48"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="55"/>
       <c r="B226" s="56"/>
       <c r="C226" s="47"/>
@@ -5034,7 +5044,7 @@
       <c r="I226" s="48"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="114"/>
       <c r="B227" s="65"/>
       <c r="C227" s="47"/>
@@ -5046,7 +5056,7 @@
       <c r="I227" s="48"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="112"/>
       <c r="B228" s="60"/>
       <c r="C228" s="45"/>
@@ -5058,7 +5068,7 @@
       <c r="I228" s="46"/>
       <c r="J228" s="82"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="57"/>
       <c r="B229" s="52"/>
       <c r="C229" s="47"/>
@@ -5070,7 +5080,7 @@
       <c r="I229" s="48"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="57"/>
       <c r="B230" s="53"/>
       <c r="C230" s="47"/>
@@ -5082,7 +5092,7 @@
       <c r="I230" s="48"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="112"/>
       <c r="B231" s="66"/>
       <c r="C231" s="45"/>
@@ -5094,7 +5104,7 @@
       <c r="I231" s="46"/>
       <c r="J231" s="82"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="57"/>
       <c r="B232" s="52"/>
       <c r="C232" s="47"/>
@@ -5106,7 +5116,7 @@
       <c r="I232" s="48"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="57"/>
       <c r="B233" s="53"/>
       <c r="C233" s="47"/>
@@ -5118,7 +5128,7 @@
       <c r="I233" s="48"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="57"/>
       <c r="B234" s="52"/>
       <c r="C234" s="47"/>
@@ -5130,7 +5140,7 @@
       <c r="I234" s="48"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="57"/>
       <c r="B235" s="53"/>
       <c r="C235" s="47"/>
@@ -5142,7 +5152,7 @@
       <c r="I235" s="48"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="57"/>
       <c r="B236" s="52"/>
       <c r="C236" s="47"/>
@@ -5154,7 +5164,7 @@
       <c r="I236" s="48"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="57"/>
       <c r="B237" s="53"/>
       <c r="C237" s="47"/>
@@ -5166,7 +5176,7 @@
       <c r="I237" s="48"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="57"/>
       <c r="B238" s="52"/>
       <c r="C238" s="47"/>
@@ -5178,7 +5188,7 @@
       <c r="I238" s="48"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="57"/>
       <c r="B239" s="53"/>
       <c r="C239" s="47"/>
@@ -5190,7 +5200,7 @@
       <c r="I239" s="48"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="57"/>
       <c r="B240" s="52"/>
       <c r="C240" s="47"/>
@@ -5202,7 +5212,7 @@
       <c r="I240" s="48"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="57"/>
       <c r="B241" s="53"/>
       <c r="C241" s="47"/>
@@ -5214,7 +5224,7 @@
       <c r="I241" s="48"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="57"/>
       <c r="B242" s="52"/>
       <c r="C242" s="47"/>
@@ -5226,7 +5236,7 @@
       <c r="I242" s="48"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="57"/>
       <c r="B243" s="53"/>
       <c r="C243" s="47"/>
@@ -5238,7 +5248,7 @@
       <c r="I243" s="48"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="57"/>
       <c r="B244" s="52"/>
       <c r="C244" s="47"/>
@@ -5250,7 +5260,7 @@
       <c r="I244" s="48"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="57"/>
       <c r="B245" s="53"/>
       <c r="C245" s="47"/>
@@ -5262,7 +5272,7 @@
       <c r="I245" s="48"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="117"/>
       <c r="D246" s="118"/>
       <c r="E246" s="11"/>
@@ -5272,7 +5282,7 @@
       <c r="I246" s="118"/>
       <c r="J246" s="118"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="117"/>
       <c r="D247" s="118"/>
       <c r="E247" s="11"/>
@@ -5282,7 +5292,7 @@
       <c r="I247" s="118"/>
       <c r="J247" s="118"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="117"/>
       <c r="D248" s="118"/>
       <c r="E248" s="11"/>
@@ -5292,7 +5302,7 @@
       <c r="I248" s="118"/>
       <c r="J248" s="118"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="117"/>
       <c r="D249" s="118"/>
       <c r="E249" s="11"/>
@@ -5302,7 +5312,7 @@
       <c r="I249" s="118"/>
       <c r="J249" s="118"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="117"/>
       <c r="D250" s="118"/>
       <c r="E250" s="11"/>
@@ -5312,7 +5322,7 @@
       <c r="I250" s="118"/>
       <c r="J250" s="118"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="117"/>
       <c r="D251" s="118"/>
       <c r="E251" s="11"/>
@@ -5322,7 +5332,7 @@
       <c r="I251" s="118"/>
       <c r="J251" s="118"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="117"/>
       <c r="D252" s="118"/>
       <c r="E252" s="11"/>
@@ -5332,7 +5342,7 @@
       <c r="I252" s="118"/>
       <c r="J252" s="118"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="117"/>
       <c r="D253" s="118"/>
       <c r="E253" s="11"/>
@@ -5342,7 +5352,7 @@
       <c r="I253" s="118"/>
       <c r="J253" s="118"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="117"/>
       <c r="D254" s="118"/>
       <c r="E254" s="11"/>
@@ -5352,7 +5362,7 @@
       <c r="I254" s="118"/>
       <c r="J254" s="118"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="117"/>
       <c r="D255" s="118"/>
       <c r="E255" s="11"/>
@@ -5362,7 +5372,7 @@
       <c r="I255" s="118"/>
       <c r="J255" s="118"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="117"/>
       <c r="D256" s="118"/>
       <c r="E256" s="11"/>
@@ -5372,7 +5382,7 @@
       <c r="I256" s="118"/>
       <c r="J256" s="118"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="117"/>
       <c r="D257" s="118"/>
       <c r="E257" s="11"/>
@@ -5382,7 +5392,7 @@
       <c r="I257" s="118"/>
       <c r="J257" s="118"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="117"/>
       <c r="D258" s="118"/>
       <c r="E258" s="11"/>
@@ -5392,7 +5402,7 @@
       <c r="I258" s="118"/>
       <c r="J258" s="118"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="117"/>
       <c r="D259" s="118"/>
       <c r="E259" s="11"/>
@@ -5402,7 +5412,7 @@
       <c r="I259" s="118"/>
       <c r="J259" s="118"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="117"/>
       <c r="D260" s="118"/>
       <c r="E260" s="11"/>
@@ -5412,7 +5422,7 @@
       <c r="I260" s="118"/>
       <c r="J260" s="118"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="117"/>
       <c r="D261" s="118"/>
       <c r="E261" s="11"/>
@@ -5422,7 +5432,7 @@
       <c r="I261" s="118"/>
       <c r="J261" s="118"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="117"/>
       <c r="D262" s="118"/>
       <c r="E262" s="11"/>
@@ -5432,7 +5442,7 @@
       <c r="I262" s="118"/>
       <c r="J262" s="118"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="117"/>
       <c r="D263" s="118"/>
       <c r="E263" s="11"/>
@@ -5442,7 +5452,7 @@
       <c r="I263" s="118"/>
       <c r="J263" s="118"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="117"/>
       <c r="D264" s="118"/>
       <c r="E264" s="11"/>
@@ -5452,7 +5462,7 @@
       <c r="I264" s="118"/>
       <c r="J264" s="118"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="117"/>
       <c r="D265" s="118"/>
       <c r="E265" s="11"/>
@@ -5462,7 +5472,7 @@
       <c r="I265" s="118"/>
       <c r="J265" s="118"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="117"/>
       <c r="D266" s="118"/>
       <c r="E266" s="11"/>
@@ -5472,7 +5482,7 @@
       <c r="I266" s="118"/>
       <c r="J266" s="118"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="117"/>
       <c r="D267" s="118"/>
       <c r="E267" s="11"/>
@@ -5482,7 +5492,7 @@
       <c r="I267" s="118"/>
       <c r="J267" s="118"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="117"/>
       <c r="D268" s="118"/>
       <c r="E268" s="11"/>
@@ -5492,7 +5502,7 @@
       <c r="I268" s="118"/>
       <c r="J268" s="118"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="117"/>
       <c r="D269" s="118"/>
       <c r="E269" s="11"/>
@@ -5502,7 +5512,7 @@
       <c r="I269" s="118"/>
       <c r="J269" s="118"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="117"/>
       <c r="D270" s="118"/>
       <c r="E270" s="11"/>
@@ -5512,7 +5522,7 @@
       <c r="I270" s="118"/>
       <c r="J270" s="118"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="117"/>
       <c r="D271" s="118"/>
       <c r="E271" s="11"/>
@@ -5522,7 +5532,7 @@
       <c r="I271" s="118"/>
       <c r="J271" s="118"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="117"/>
       <c r="D272" s="118"/>
       <c r="E272" s="11"/>
@@ -5532,7 +5542,7 @@
       <c r="I272" s="118"/>
       <c r="J272" s="118"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="117"/>
       <c r="D273" s="118"/>
       <c r="E273" s="11"/>
@@ -5542,7 +5552,7 @@
       <c r="I273" s="118"/>
       <c r="J273" s="118"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="117"/>
       <c r="D274" s="118"/>
       <c r="E274" s="11"/>
@@ -5552,7 +5562,7 @@
       <c r="I274" s="118"/>
       <c r="J274" s="118"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="117"/>
       <c r="D275" s="118"/>
       <c r="E275" s="11"/>
@@ -5584,29 +5594,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3912A-C8F7-4029-AE54-522015EA0FE3}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:J26"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
         <v>37</v>
       </c>
@@ -5620,7 +5630,7 @@
       <c r="I1" s="138"/>
       <c r="J1" s="139"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -5632,7 +5642,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5658,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="67"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -5660,7 +5670,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="72"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -5672,7 +5682,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="84"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -5716,7 +5726,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
         <v>6</v>
       </c>
@@ -5732,7 +5742,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="90">
         <v>6.9</v>
       </c>
@@ -5748,7 +5758,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>39</v>
       </c>
@@ -5764,7 +5774,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>17</v>
       </c>
@@ -5802,7 +5812,7 @@
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>54</v>
       </c>
@@ -5818,7 +5828,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>55</v>
       </c>
@@ -5839,7 +5849,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="52" t="s">
         <v>13</v>
@@ -5853,7 +5863,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="53" t="s">
         <v>15</v>
@@ -5872,7 +5882,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="52" t="s">
         <v>26</v>
@@ -5886,7 +5896,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="53" t="s">
         <v>15</v>
@@ -5905,7 +5915,7 @@
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="52" t="s">
         <v>27</v>
@@ -5919,7 +5929,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="53" t="s">
         <v>15</v>
@@ -5938,7 +5948,7 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="52" t="s">
         <v>28</v>
@@ -5952,7 +5962,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="54"/>
       <c r="B22" s="53" t="s">
         <v>15</v>
@@ -5971,7 +5981,7 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="52" t="s">
         <v>29</v>
@@ -5985,7 +5995,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="53" t="s">
         <v>15</v>
@@ -6004,7 +6014,7 @@
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="52" t="s">
         <v>30</v>
@@ -6018,7 +6028,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="54"/>
       <c r="B26" s="53" t="s">
         <v>15</v>
@@ -6037,7 +6047,7 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="B27" s="97"/>
       <c r="C27" s="47"/>
@@ -6049,7 +6059,7 @@
       <c r="I27" s="48"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98"/>
       <c r="B28" s="61"/>
       <c r="C28" s="51"/>
@@ -6061,7 +6071,7 @@
       <c r="I28" s="48"/>
       <c r="J28" s="51"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="15"/>
@@ -6073,7 +6083,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="15"/>
@@ -6085,7 +6095,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -6097,7 +6107,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -6109,7 +6119,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
@@ -6121,7 +6131,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15"/>
@@ -6133,7 +6143,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -6145,7 +6155,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="15"/>
@@ -6157,7 +6167,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
@@ -6169,7 +6179,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="32"/>
       <c r="C38" s="27"/>
@@ -6181,7 +6191,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="15"/>
@@ -6193,7 +6203,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="15"/>
@@ -6205,7 +6215,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="32"/>
       <c r="C41" s="27"/>
@@ -6217,7 +6227,7 @@
       <c r="I41" s="37"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="15"/>
@@ -6229,7 +6239,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="15"/>
@@ -6241,7 +6251,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="32"/>
       <c r="C44" s="27"/>
@@ -6253,7 +6263,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="15"/>
@@ -6265,7 +6275,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="15"/>
@@ -6277,7 +6287,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="27"/>
@@ -6289,7 +6299,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="15"/>
@@ -6301,7 +6311,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="15"/>
@@ -6313,7 +6323,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="32"/>
       <c r="C50" s="27"/>
@@ -6325,7 +6335,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="15"/>
@@ -6337,7 +6347,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="15"/>
@@ -6349,7 +6359,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="32"/>
       <c r="C53" s="27"/>
@@ -6361,7 +6371,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
@@ -6373,7 +6383,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="15"/>
@@ -6385,7 +6395,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="32"/>
       <c r="C56" s="27"/>
@@ -6397,7 +6407,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="15"/>
@@ -6409,7 +6419,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
       <c r="C58" s="15"/>
@@ -6421,7 +6431,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -6433,7 +6443,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15"/>
@@ -6445,7 +6455,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="32"/>
       <c r="C61" s="27"/>
@@ -6457,7 +6467,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="15"/>
@@ -6469,7 +6479,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="19"/>
       <c r="C63" s="15"/>
@@ -6481,7 +6491,7 @@
       <c r="I63" s="37"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15"/>
@@ -6493,7 +6503,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="15"/>
@@ -6505,7 +6515,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="32"/>
       <c r="C66" s="27"/>
@@ -6517,7 +6527,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="15"/>
@@ -6529,7 +6539,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="15"/>
@@ -6541,7 +6551,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="15"/>
@@ -6553,7 +6563,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="15"/>
@@ -6565,7 +6575,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="15"/>
@@ -6577,7 +6587,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="15"/>
@@ -6589,7 +6599,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="15"/>
@@ -6601,7 +6611,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="15"/>
@@ -6613,7 +6623,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="15"/>
@@ -6625,7 +6635,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="15"/>
@@ -6637,7 +6647,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="15"/>
@@ -6649,7 +6659,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="15"/>
@@ -6661,7 +6671,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="15"/>
@@ -6673,7 +6683,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="15"/>
@@ -6685,7 +6695,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
@@ -6697,7 +6707,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="27"/>
@@ -6709,7 +6719,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="15"/>
@@ -6721,7 +6731,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="15"/>
@@ -6733,7 +6743,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="15"/>
@@ -6745,7 +6755,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="15"/>
@@ -6757,7 +6767,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="15"/>
@@ -6769,7 +6779,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="15"/>
@@ -6781,7 +6791,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="15"/>
@@ -6793,7 +6803,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -6805,7 +6815,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="15"/>
@@ -6817,7 +6827,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -6829,7 +6839,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="15"/>
@@ -6841,7 +6851,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -6853,7 +6863,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="15"/>
@@ -6865,7 +6875,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>
@@ -6877,7 +6887,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="32"/>
       <c r="C97" s="27"/>
@@ -6889,7 +6899,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="15"/>
@@ -6901,7 +6911,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -6913,7 +6923,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="15"/>
@@ -6925,7 +6935,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
@@ -6937,7 +6947,7 @@
       <c r="I101" s="37"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="15"/>
@@ -6949,7 +6959,7 @@
       <c r="I102" s="37"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="15"/>
@@ -6961,7 +6971,7 @@
       <c r="I103" s="37"/>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="15"/>
@@ -6973,7 +6983,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="15"/>
@@ -6985,7 +6995,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="15"/>
@@ -6997,7 +7007,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="15"/>
@@ -7009,7 +7019,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="15"/>
@@ -7021,7 +7031,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="15"/>
@@ -7033,7 +7043,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="15"/>
@@ -7045,7 +7055,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="15"/>
@@ -7057,7 +7067,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34"/>
       <c r="B112" s="32"/>
       <c r="C112" s="27"/>
@@ -7069,7 +7079,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="15"/>
@@ -7081,7 +7091,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="15"/>
@@ -7093,7 +7103,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="15"/>
@@ -7105,7 +7115,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="32"/>
       <c r="C116" s="27"/>
@@ -7117,7 +7127,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="15"/>
@@ -7129,7 +7139,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="15"/>
@@ -7141,7 +7151,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="15"/>
@@ -7153,7 +7163,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="15"/>
@@ -7165,7 +7175,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="15"/>
@@ -7177,7 +7187,7 @@
       <c r="I121" s="37"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="15"/>
@@ -7189,7 +7199,7 @@
       <c r="I122" s="37"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="15"/>
@@ -7201,7 +7211,7 @@
       <c r="I123" s="37"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="15"/>
@@ -7213,7 +7223,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="34"/>
       <c r="B125" s="32"/>
       <c r="C125" s="27"/>
@@ -7225,7 +7235,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="34"/>
       <c r="B126" s="18"/>
       <c r="C126" s="15"/>
@@ -7237,7 +7247,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="15"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="34"/>
       <c r="B127" s="19"/>
       <c r="C127" s="15"/>
@@ -7249,7 +7259,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="15"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="34"/>
       <c r="B128" s="18"/>
       <c r="C128" s="15"/>
@@ -7261,7 +7271,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="34"/>
       <c r="B129" s="19"/>
       <c r="C129" s="15"/>
@@ -7273,7 +7283,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="34"/>
       <c r="B130" s="18"/>
       <c r="C130" s="15"/>
@@ -7285,7 +7295,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="34"/>
       <c r="B131" s="19"/>
       <c r="C131" s="15"/>
@@ -7297,7 +7307,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="18"/>
       <c r="C132" s="15"/>
@@ -7309,7 +7319,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="34"/>
       <c r="B133" s="19"/>
       <c r="C133" s="15"/>
@@ -7321,7 +7331,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34"/>
       <c r="B134" s="18"/>
       <c r="C134" s="15"/>
@@ -7333,7 +7343,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="34"/>
       <c r="B135" s="19"/>
       <c r="C135" s="15"/>
@@ -7345,7 +7355,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
       <c r="C136" s="15"/>
@@ -7357,7 +7367,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="19"/>
       <c r="C137" s="15"/>
@@ -7369,7 +7379,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="18"/>
       <c r="C138" s="15"/>
@@ -7381,7 +7391,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="19"/>
       <c r="C139" s="15"/>
@@ -7393,7 +7403,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="B140" s="23"/>
       <c r="C140" s="15"/>
@@ -7405,7 +7415,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="24"/>
       <c r="C141" s="15"/>
@@ -7417,7 +7427,7 @@
       <c r="I141" s="37"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="32"/>
       <c r="C142" s="27"/>
@@ -7429,7 +7439,7 @@
       <c r="I142" s="37"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="15"/>
@@ -7441,7 +7451,7 @@
       <c r="I143" s="37"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="19"/>
       <c r="C144" s="15"/>
@@ -7453,7 +7463,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="15"/>
@@ -7465,7 +7475,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="15"/>
@@ -7477,7 +7487,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="15"/>
@@ -7489,7 +7499,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
@@ -7501,7 +7511,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="15"/>
@@ -7513,7 +7523,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="15"/>
@@ -7525,7 +7535,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="15"/>
@@ -7537,7 +7547,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="15"/>
@@ -7549,7 +7559,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="15"/>
@@ -7561,7 +7571,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="15"/>
@@ -7573,7 +7583,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="15"/>
@@ -7585,7 +7595,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="19"/>
       <c r="C156" s="15"/>
@@ -7597,7 +7607,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="34"/>
       <c r="B157" s="32"/>
       <c r="C157" s="27"/>
@@ -7609,7 +7619,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="15"/>
@@ -7621,7 +7631,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="19"/>
       <c r="C159" s="15"/>
@@ -7633,7 +7643,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32"/>
       <c r="B160" s="18"/>
       <c r="C160" s="27"/>
@@ -7645,7 +7655,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="19"/>
       <c r="C161" s="15"/>
@@ -7657,7 +7667,7 @@
       <c r="I161" s="37"/>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="15"/>
@@ -7669,7 +7679,7 @@
       <c r="I162" s="37"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="15"/>
@@ -7681,7 +7691,7 @@
       <c r="I163" s="37"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="15"/>
@@ -7693,7 +7703,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="15"/>
@@ -7705,7 +7715,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="15"/>
@@ -7717,7 +7727,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
       <c r="B167" s="19"/>
       <c r="C167" s="15"/>
@@ -7729,7 +7739,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="15"/>
@@ -7741,7 +7751,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="19"/>
       <c r="C169" s="15"/>
@@ -7753,7 +7763,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="15"/>
@@ -7765,7 +7775,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="15"/>
@@ -7777,7 +7787,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="34"/>
       <c r="B172" s="32"/>
       <c r="C172" s="27"/>
@@ -7789,7 +7799,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25"/>
       <c r="B173" s="18"/>
       <c r="C173" s="15"/>
@@ -7801,7 +7811,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="15"/>
@@ -7813,7 +7823,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="15"/>
@@ -7825,7 +7835,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="15"/>
@@ -7837,7 +7847,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="15"/>
@@ -7849,7 +7859,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="15"/>
@@ -7861,7 +7871,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25"/>
       <c r="B179" s="18"/>
       <c r="C179" s="15"/>
@@ -7873,7 +7883,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="15"/>
@@ -7885,7 +7895,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="15"/>
@@ -7897,7 +7907,7 @@
       <c r="I181" s="37"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="15"/>
@@ -7909,7 +7919,7 @@
       <c r="I182" s="37"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="15"/>
@@ -7921,7 +7931,7 @@
       <c r="I183" s="37"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="15"/>
@@ -7933,7 +7943,7 @@
       <c r="I184" s="37"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="15"/>
@@ -7945,7 +7955,7 @@
       <c r="I185" s="37"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25"/>
       <c r="B186" s="19"/>
       <c r="C186" s="15"/>
@@ -7957,7 +7967,7 @@
       <c r="I186" s="37"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="34"/>
       <c r="B187" s="32"/>
       <c r="C187" s="35"/>
@@ -7969,7 +7979,7 @@
       <c r="I187" s="38"/>
       <c r="J187" s="35"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="15"/>
@@ -7981,7 +7991,7 @@
       <c r="I188" s="37"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="19"/>
       <c r="C189" s="15"/>
@@ -7993,7 +8003,7 @@
       <c r="I189" s="37"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="15"/>
@@ -8005,7 +8015,7 @@
       <c r="I190" s="37"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="19"/>
       <c r="C191" s="15"/>
@@ -8017,7 +8027,7 @@
       <c r="I191" s="37"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="15"/>
@@ -8029,7 +8039,7 @@
       <c r="I192" s="37"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="25"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15"/>
@@ -8041,7 +8051,7 @@
       <c r="I193" s="37"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="25"/>
       <c r="B194" s="18"/>
       <c r="C194" s="15"/>
@@ -8053,7 +8063,7 @@
       <c r="I194" s="37"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="19"/>
       <c r="C195" s="15"/>
@@ -8065,7 +8075,7 @@
       <c r="I195" s="37"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="15"/>
@@ -8077,7 +8087,7 @@
       <c r="I196" s="37"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="19"/>
       <c r="C197" s="15"/>
@@ -8089,7 +8099,7 @@
       <c r="I197" s="37"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="15"/>
@@ -8101,7 +8111,7 @@
       <c r="I198" s="37"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="19"/>
       <c r="C199" s="15"/>
@@ -8113,7 +8123,7 @@
       <c r="I199" s="37"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="25"/>
       <c r="B200" s="18"/>
       <c r="C200" s="15"/>
@@ -8125,7 +8135,7 @@
       <c r="I200" s="37"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="25"/>
       <c r="B201" s="19"/>
       <c r="C201" s="15"/>
@@ -8137,7 +8147,7 @@
       <c r="I201" s="37"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="34"/>
       <c r="B202" s="32"/>
       <c r="C202" s="27"/>
@@ -8149,7 +8159,7 @@
       <c r="I202" s="37"/>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="15"/>
@@ -8161,7 +8171,7 @@
       <c r="I203" s="37"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="19"/>
       <c r="C204" s="15"/>
@@ -8173,7 +8183,7 @@
       <c r="I204" s="37"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="15"/>
@@ -8185,7 +8195,7 @@
       <c r="I205" s="37"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="19"/>
       <c r="C206" s="15"/>
@@ -8197,7 +8207,7 @@
       <c r="I206" s="37"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="25"/>
       <c r="B207" s="18"/>
       <c r="C207" s="15"/>
@@ -8209,7 +8219,7 @@
       <c r="I207" s="37"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="25"/>
       <c r="B208" s="19"/>
       <c r="C208" s="15"/>
@@ -8221,7 +8231,7 @@
       <c r="I208" s="37"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="15"/>
@@ -8233,7 +8243,7 @@
       <c r="I209" s="37"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="19"/>
       <c r="C210" s="15"/>
@@ -8245,7 +8255,7 @@
       <c r="I210" s="37"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="15"/>
@@ -8257,7 +8267,7 @@
       <c r="I211" s="37"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="19"/>
       <c r="C212" s="15"/>
@@ -8269,7 +8279,7 @@
       <c r="I212" s="37"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="15"/>
@@ -8281,7 +8291,7 @@
       <c r="I213" s="37"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="B214" s="19"/>
       <c r="C214" s="15"/>
@@ -8293,7 +8303,7 @@
       <c r="I214" s="37"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="B215" s="18"/>
       <c r="C215" s="15"/>
@@ -8305,7 +8315,7 @@
       <c r="I215" s="37"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="26"/>
       <c r="B216" s="19"/>
       <c r="C216" s="15"/>
@@ -8317,7 +8327,7 @@
       <c r="I216" s="37"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="34"/>
       <c r="B217" s="32"/>
       <c r="C217" s="27"/>
@@ -8329,7 +8339,7 @@
       <c r="I217" s="37"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="15"/>
@@ -8341,7 +8351,7 @@
       <c r="I218" s="37"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="19"/>
       <c r="C219" s="15"/>
@@ -8353,7 +8363,7 @@
       <c r="I219" s="37"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="15"/>
@@ -8365,7 +8375,7 @@
       <c r="I220" s="37"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="25"/>
       <c r="B221" s="19"/>
       <c r="C221" s="15"/>
@@ -8377,7 +8387,7 @@
       <c r="I221" s="37"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="26"/>
       <c r="B222" s="18"/>
       <c r="C222" s="15"/>
@@ -8390,7 +8400,7 @@
       <c r="J222" s="27"/>
       <c r="K222" s="28"/>
     </row>
-    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -8402,7 +8412,7 @@
       <c r="I223" s="37"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="15"/>
@@ -8414,7 +8424,7 @@
       <c r="I224" s="37"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="19"/>
       <c r="C225" s="15"/>
@@ -8426,7 +8436,7 @@
       <c r="I225" s="37"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="15"/>
@@ -8438,7 +8448,7 @@
       <c r="I226" s="37"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="19"/>
       <c r="C227" s="15"/>
@@ -8450,7 +8460,7 @@
       <c r="I227" s="37"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="25"/>
       <c r="B228" s="18"/>
       <c r="C228" s="15"/>
@@ -8462,7 +8472,7 @@
       <c r="I228" s="37"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="25"/>
       <c r="B229" s="19"/>
       <c r="C229" s="15"/>
@@ -8474,7 +8484,7 @@
       <c r="I229" s="37"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="15"/>
@@ -8486,7 +8496,7 @@
       <c r="I230" s="37"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="19"/>
       <c r="C231" s="15"/>
@@ -8498,7 +8508,7 @@
       <c r="I231" s="37"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
       <c r="B232" s="24"/>
       <c r="C232" s="15"/>
@@ -8510,7 +8520,7 @@
       <c r="I232" s="37"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="34"/>
       <c r="B233" s="32"/>
       <c r="C233" s="27"/>
@@ -8522,7 +8532,7 @@
       <c r="I233" s="37"/>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="15"/>
@@ -8534,7 +8544,7 @@
       <c r="I234" s="37"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="25"/>
       <c r="B235" s="19"/>
       <c r="C235" s="15"/>
@@ -8546,7 +8556,7 @@
       <c r="I235" s="37"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="25"/>
       <c r="B236" s="18"/>
       <c r="C236" s="15"/>
@@ -8558,7 +8568,7 @@
       <c r="I236" s="37"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="19"/>
       <c r="C237" s="15"/>
@@ -8570,7 +8580,7 @@
       <c r="I237" s="37"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="15"/>
@@ -8582,7 +8592,7 @@
       <c r="I238" s="37"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="19"/>
       <c r="C239" s="15"/>
@@ -8594,7 +8604,7 @@
       <c r="I239" s="37"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="34"/>
       <c r="B240" s="32"/>
       <c r="C240" s="27"/>
@@ -8606,7 +8616,7 @@
       <c r="I240" s="37"/>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="15"/>
@@ -8618,7 +8628,7 @@
       <c r="I241" s="37"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" s="19"/>
       <c r="C242" s="15"/>
@@ -8630,7 +8640,7 @@
       <c r="I242" s="37"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" s="18"/>
       <c r="C243" s="15"/>
@@ -8642,7 +8652,7 @@
       <c r="I243" s="37"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="19"/>
       <c r="C244" s="15"/>
@@ -8654,7 +8664,7 @@
       <c r="I244" s="37"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="15"/>
@@ -8666,7 +8676,7 @@
       <c r="I245" s="37"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="19"/>
       <c r="C246" s="15"/>
@@ -8678,7 +8688,7 @@
       <c r="I246" s="37"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="15"/>
@@ -8690,7 +8700,7 @@
       <c r="I247" s="37"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="29"/>
       <c r="B248" s="19"/>
       <c r="C248" s="15"/>
@@ -8702,7 +8712,7 @@
       <c r="I248" s="37"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="26"/>
       <c r="B249" s="18"/>
       <c r="C249" s="15"/>
@@ -8714,7 +8724,7 @@
       <c r="I249" s="37"/>
       <c r="J249" s="27"/>
     </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" s="19"/>
       <c r="C250" s="15"/>
@@ -8726,7 +8736,7 @@
       <c r="I250" s="37"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="15"/>
@@ -8738,7 +8748,7 @@
       <c r="I251" s="37"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="19"/>
       <c r="C252" s="15"/>
@@ -8750,7 +8760,7 @@
       <c r="I252" s="37"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="15"/>
@@ -8762,7 +8772,7 @@
       <c r="I253" s="37"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="19"/>
       <c r="C254" s="15"/>
@@ -8774,7 +8784,7 @@
       <c r="I254" s="37"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
@@ -8786,7 +8796,7 @@
       <c r="I255" s="37"/>
       <c r="J255" s="27"/>
     </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="34"/>
       <c r="B256" s="32"/>
       <c r="C256" s="27"/>
@@ -8798,7 +8808,7 @@
       <c r="I256" s="37"/>
       <c r="J256" s="27"/>
     </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="25"/>
       <c r="B257" s="18"/>
       <c r="C257" s="15"/>
@@ -8810,7 +8820,7 @@
       <c r="I257" s="37"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="29"/>
       <c r="B258" s="19"/>
       <c r="C258" s="15"/>
@@ -8822,7 +8832,7 @@
       <c r="I258" s="37"/>
       <c r="J258" s="30"/>
     </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="34"/>
       <c r="B259" s="32"/>
       <c r="C259" s="27"/>
@@ -8834,7 +8844,7 @@
       <c r="I259" s="37"/>
       <c r="J259" s="27"/>
     </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="26"/>
       <c r="B260" s="18"/>
       <c r="C260" s="15"/>
@@ -8846,7 +8856,7 @@
       <c r="I260" s="37"/>
       <c r="J260" s="27"/>
     </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="26"/>
       <c r="B261" s="19"/>
       <c r="C261" s="15"/>
@@ -8858,7 +8868,7 @@
       <c r="I261" s="37"/>
       <c r="J261" s="27"/>
     </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="34"/>
       <c r="B262" s="32"/>
       <c r="C262" s="27"/>
@@ -8870,7 +8880,7 @@
       <c r="I262" s="37"/>
       <c r="J262" s="27"/>
     </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="26"/>
       <c r="B263" s="18"/>
       <c r="C263" s="15"/>
@@ -8882,7 +8892,7 @@
       <c r="I263" s="37"/>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
       <c r="B264" s="19"/>
       <c r="C264" s="15"/>
@@ -8894,7 +8904,7 @@
       <c r="I264" s="37"/>
       <c r="J264" s="27"/>
     </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" s="18"/>
       <c r="C265" s="15"/>
@@ -8906,7 +8916,7 @@
       <c r="I265" s="37"/>
       <c r="J265" s="27"/>
     </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" s="19"/>
       <c r="C266" s="15"/>
@@ -8918,7 +8928,7 @@
       <c r="I266" s="37"/>
       <c r="J266" s="27"/>
     </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" s="18"/>
       <c r="C267" s="15"/>
@@ -8930,7 +8940,7 @@
       <c r="I267" s="37"/>
       <c r="J267" s="27"/>
     </row>
-    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="6"/>
@@ -8942,7 +8952,7 @@
       <c r="I268" s="37"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="18"/>
       <c r="C269" s="6"/>
@@ -8954,7 +8964,7 @@
       <c r="I269" s="37"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="6"/>
@@ -8966,7 +8976,7 @@
       <c r="I270" s="37"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="18"/>
       <c r="C271" s="6"/>
@@ -8978,7 +8988,7 @@
       <c r="I271" s="37"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="6"/>
@@ -8990,7 +9000,7 @@
       <c r="I272" s="37"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="18"/>
       <c r="C273" s="6"/>
@@ -9002,7 +9012,7 @@
       <c r="I273" s="37"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="6"/>
@@ -9014,7 +9024,7 @@
       <c r="I274" s="37"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="18"/>
       <c r="C275" s="6"/>
@@ -9026,7 +9036,7 @@
       <c r="I275" s="37"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="6"/>
@@ -9038,7 +9048,7 @@
       <c r="I276" s="37"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="34"/>
       <c r="B277" s="32"/>
       <c r="C277" s="12"/>
@@ -9050,7 +9060,7 @@
       <c r="I277" s="37"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="18"/>
       <c r="C278" s="6"/>
@@ -9062,7 +9072,7 @@
       <c r="I278" s="37"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="6"/>
@@ -9074,7 +9084,7 @@
       <c r="I279" s="37"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="18"/>
       <c r="C280" s="6"/>
@@ -9086,7 +9096,7 @@
       <c r="I280" s="37"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="6"/>
@@ -9098,7 +9108,7 @@
       <c r="I281" s="37"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="B282" s="18"/>
       <c r="C282" s="6"/>
@@ -9110,7 +9120,7 @@
       <c r="I282" s="37"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="6"/>
@@ -9122,7 +9132,7 @@
       <c r="I283" s="37"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="18"/>
       <c r="C284" s="6"/>
@@ -9134,7 +9144,7 @@
       <c r="I284" s="37"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="6"/>
@@ -9146,7 +9156,7 @@
       <c r="I285" s="37"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="18"/>
       <c r="C286" s="6"/>
@@ -9158,7 +9168,7 @@
       <c r="I286" s="37"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="6"/>
@@ -9170,7 +9180,7 @@
       <c r="I287" s="37"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="18"/>
       <c r="C288" s="6"/>
@@ -9182,7 +9192,7 @@
       <c r="I288" s="37"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="6"/>
@@ -9194,7 +9204,7 @@
       <c r="I289" s="37"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="18"/>
       <c r="C290" s="4"/>
@@ -9206,7 +9216,7 @@
       <c r="I290" s="37"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="4"/>
@@ -9218,7 +9228,7 @@
       <c r="I291" s="37"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="34"/>
       <c r="B292" s="32"/>
       <c r="C292" s="12"/>
@@ -9230,7 +9240,7 @@
       <c r="I292" s="37"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="18"/>
       <c r="C293" s="4"/>
@@ -9242,7 +9252,7 @@
       <c r="I293" s="37"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="19"/>
       <c r="C294" s="4"/>
@@ -9254,7 +9264,7 @@
       <c r="I294" s="37"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="18"/>
       <c r="C295" s="4"/>
@@ -9266,7 +9276,7 @@
       <c r="I295" s="37"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="19"/>
       <c r="C296" s="10"/>
@@ -9278,7 +9288,7 @@
       <c r="I296" s="37"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="18"/>
       <c r="C297" s="4"/>
@@ -9290,7 +9300,7 @@
       <c r="I297" s="37"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="6"/>
@@ -9302,7 +9312,7 @@
       <c r="I298" s="37"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="18"/>
       <c r="C299" s="4"/>
@@ -9314,7 +9324,7 @@
       <c r="I299" s="37"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="19"/>
       <c r="C300" s="4"/>
@@ -9326,7 +9336,7 @@
       <c r="I300" s="37"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="18"/>
       <c r="C301" s="4"/>
@@ -9338,7 +9348,7 @@
       <c r="I301" s="37"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="19"/>
       <c r="C302" s="4"/>
@@ -9350,7 +9360,7 @@
       <c r="I302" s="37"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="18"/>
       <c r="C303" s="4"/>
@@ -9362,7 +9372,7 @@
       <c r="I303" s="37"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
       <c r="B304" s="19"/>
       <c r="C304" s="4"/>
@@ -9374,7 +9384,7 @@
       <c r="I304" s="37"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
       <c r="B305" s="18"/>
       <c r="C305" s="4"/>
@@ -9386,7 +9396,7 @@
       <c r="I305" s="37"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="19"/>
       <c r="C306" s="4"/>
@@ -9398,7 +9408,7 @@
       <c r="I306" s="37"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="34"/>
       <c r="B307" s="32"/>
       <c r="C307" s="12"/>
@@ -9410,7 +9420,7 @@
       <c r="I307" s="37"/>
       <c r="J307" s="12"/>
     </row>
-    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
@@ -9422,7 +9432,7 @@
       <c r="I308" s="37"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="19"/>
       <c r="C309" s="4"/>
@@ -9434,7 +9444,7 @@
       <c r="I309" s="37"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
       <c r="B310" s="24"/>
       <c r="C310" s="4"/>
@@ -9446,7 +9456,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="34"/>
       <c r="B311" s="32"/>
       <c r="C311" s="12"/>
@@ -9458,7 +9468,7 @@
       <c r="I311" s="37"/>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="18"/>
       <c r="C312" s="4"/>
@@ -9470,7 +9480,7 @@
       <c r="I312" s="37"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="19"/>
       <c r="C313" s="4"/>
@@ -9482,7 +9492,7 @@
       <c r="I313" s="37"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="18"/>
       <c r="C314" s="4"/>
@@ -9494,7 +9504,7 @@
       <c r="I314" s="37"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="19"/>
       <c r="C315" s="4"/>
@@ -9506,7 +9516,7 @@
       <c r="I315" s="37"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="18"/>
       <c r="C316" s="4"/>
@@ -9518,7 +9528,7 @@
       <c r="I316" s="37"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="19"/>
       <c r="C317" s="4"/>
@@ -9530,7 +9540,7 @@
       <c r="I317" s="37"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="18"/>
       <c r="C318" s="4"/>
@@ -9542,7 +9552,7 @@
       <c r="I318" s="37"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="19"/>
       <c r="C319" s="4"/>
@@ -9554,7 +9564,7 @@
       <c r="I319" s="37"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="18"/>
       <c r="C320" s="4"/>
@@ -9566,7 +9576,7 @@
       <c r="I320" s="37"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="19"/>
       <c r="C321" s="4"/>
@@ -9578,7 +9588,7 @@
       <c r="I321" s="37"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="18"/>
       <c r="C322" s="4"/>
@@ -9590,7 +9600,7 @@
       <c r="I322" s="37"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="19"/>
       <c r="C323" s="4"/>
@@ -9602,7 +9612,7 @@
       <c r="I323" s="37"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="18"/>
       <c r="C324" s="4"/>
@@ -9614,7 +9624,7 @@
       <c r="I324" s="37"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="19"/>
       <c r="C325" s="4"/>
@@ -9626,7 +9636,7 @@
       <c r="I325" s="37"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="34"/>
       <c r="B326" s="32"/>
       <c r="C326" s="12"/>
@@ -9638,7 +9648,7 @@
       <c r="I326" s="37"/>
       <c r="J326" s="12"/>
     </row>
-    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="18"/>
       <c r="C327" s="4"/>
@@ -9650,7 +9660,7 @@
       <c r="I327" s="37"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="19"/>
       <c r="C328" s="4"/>
@@ -9662,7 +9672,7 @@
       <c r="I328" s="37"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="18"/>
       <c r="C329" s="4"/>
@@ -9674,7 +9684,7 @@
       <c r="I329" s="37"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="13"/>
       <c r="B330" s="19"/>
       <c r="C330" s="4"/>
@@ -9686,7 +9696,7 @@
       <c r="I330" s="37"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="18"/>
       <c r="C331" s="4"/>
@@ -9698,7 +9708,7 @@
       <c r="I331" s="37"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="19"/>
       <c r="C332" s="4"/>
@@ -9710,7 +9720,7 @@
       <c r="I332" s="37"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="18"/>
       <c r="C333" s="4"/>
@@ -9722,7 +9732,7 @@
       <c r="I333" s="37"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="19"/>
       <c r="C334" s="4"/>
@@ -9734,7 +9744,7 @@
       <c r="I334" s="37"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="18"/>
       <c r="C335" s="4"/>
@@ -9746,7 +9756,7 @@
       <c r="I335" s="37"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="19"/>
       <c r="C336" s="4"/>
@@ -9758,7 +9768,7 @@
       <c r="I336" s="37"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="18"/>
       <c r="C337" s="4"/>
@@ -9770,7 +9780,7 @@
       <c r="I337" s="37"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="19"/>
       <c r="C338" s="4"/>
@@ -9782,7 +9792,7 @@
       <c r="I338" s="37"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="18"/>
       <c r="C339" s="4"/>
@@ -9794,7 +9804,7 @@
       <c r="I339" s="37"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="19"/>
       <c r="C340" s="4"/>
@@ -9806,7 +9816,7 @@
       <c r="I340" s="37"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -9818,7 +9828,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -9830,7 +9840,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -9842,7 +9852,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -9854,7 +9864,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -9866,7 +9876,7 @@
       <c r="I345" s="39"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -9878,7 +9888,7 @@
       <c r="I346" s="39"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -9890,7 +9900,7 @@
       <c r="I347" s="39"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -9902,7 +9912,7 @@
       <c r="I348" s="39"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -9914,7 +9924,7 @@
       <c r="I349" s="39"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -9926,7 +9936,7 @@
       <c r="I350" s="39"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -9938,7 +9948,7 @@
       <c r="I351" s="39"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -9950,7 +9960,7 @@
       <c r="I352" s="39"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -9962,7 +9972,7 @@
       <c r="I353" s="39"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -9974,7 +9984,7 @@
       <c r="I354" s="39"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -9986,7 +9996,7 @@
       <c r="I355" s="39"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -9998,7 +10008,7 @@
       <c r="I356" s="39"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -10010,7 +10020,7 @@
       <c r="I357" s="39"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -10022,7 +10032,7 @@
       <c r="I358" s="39"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -10034,7 +10044,7 @@
       <c r="I359" s="39"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -10046,7 +10056,7 @@
       <c r="I360" s="39"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -10058,7 +10068,7 @@
       <c r="I361" s="39"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -10070,7 +10080,7 @@
       <c r="I362" s="39"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -10082,7 +10092,7 @@
       <c r="I363" s="39"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -10094,7 +10104,7 @@
       <c r="I364" s="39"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -10106,7 +10116,7 @@
       <c r="I365" s="39"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -10118,7 +10128,7 @@
       <c r="I366" s="39"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -10130,7 +10140,7 @@
       <c r="I367" s="39"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -10142,7 +10152,7 @@
       <c r="I368" s="39"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -10154,7 +10164,7 @@
       <c r="I369" s="39"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>

--- a/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
+++ b/AMPLIACION 05 TIC/03. METRADOS TIC/03. PLANILLA DE METRADOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Desktop\Repositorio\Palacio 2024\TIC-PALACIO\AMPLIACION 05 TIC\03. METRADOS TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512C34A-C2B5-4F32-9D9F-1FCC0011C3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A8E3C5-E210-4F9C-9CDC-EACCD6FF4B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79362163-D2DF-44D0-9B6B-4BA39541FF23}"/>
   </bookViews>
   <sheets>
     <sheet name="PN" sheetId="1" r:id="rId1"/>
@@ -1590,32 +1590,32 @@
   </sheetPr>
   <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="119" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="23.88671875" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>38</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="I1" s="135"/>
       <c r="J1" s="136"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="106"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -1641,7 +1641,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -1669,7 +1669,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="107"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -1681,7 +1681,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -1725,7 +1725,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="109">
         <v>4</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="131"/>
     </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
         <v>60</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="I9" s="42"/>
       <c r="J9" s="131"/>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>49</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="131"/>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
       <c r="B11" s="52" t="s">
         <v>26</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="122"/>
       <c r="B12" s="53" t="s">
         <v>32</v>
@@ -1805,7 +1805,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="131"/>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="122" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="131"/>
     </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="122"/>
       <c r="B14" s="53"/>
       <c r="C14" s="41"/>
@@ -1833,7 +1833,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="131"/>
     </row>
-    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="122"/>
       <c r="B15" s="52" t="s">
         <v>27</v>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
         <v>76</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="131"/>
     </row>
-    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="122"/>
       <c r="B17" s="52" t="s">
         <v>13</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
       <c r="B18" s="53"/>
       <c r="C18" s="41"/>
@@ -1897,7 +1897,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="131"/>
     </row>
-    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
       <c r="B19" s="52" t="s">
         <v>26</v>
@@ -1911,7 +1911,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="131"/>
     </row>
-    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="122"/>
       <c r="B20" s="53"/>
       <c r="C20" s="41"/>
@@ -1925,7 +1925,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="131"/>
     </row>
-    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="122"/>
       <c r="B21" s="52" t="s">
         <v>27</v>
@@ -1939,7 +1939,7 @@
       <c r="I21" s="42"/>
       <c r="J21" s="131"/>
     </row>
-    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="122"/>
       <c r="B22" s="53"/>
       <c r="C22" s="41"/>
@@ -1953,7 +1953,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="131"/>
     </row>
-    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="122"/>
       <c r="B23" s="52" t="s">
         <v>28</v>
@@ -1967,7 +1967,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="131"/>
     </row>
-    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="53"/>
       <c r="C24" s="41"/>
@@ -1981,7 +1981,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="131"/>
     </row>
-    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
       <c r="B25" s="52" t="s">
         <v>29</v>
@@ -1995,7 +1995,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="131"/>
     </row>
-    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="122"/>
       <c r="B26" s="53"/>
       <c r="C26" s="41"/>
@@ -2009,7 +2009,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="131"/>
     </row>
-    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
       <c r="B27" s="52" t="s">
         <v>30</v>
@@ -2023,7 +2023,7 @@
       <c r="I27" s="42"/>
       <c r="J27" s="131"/>
     </row>
-    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
       <c r="B28" s="53"/>
       <c r="C28" s="41"/>
@@ -2037,7 +2037,7 @@
       <c r="I28" s="42"/>
       <c r="J28" s="131"/>
     </row>
-    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="122"/>
       <c r="B29" s="52" t="s">
         <v>31</v>
@@ -2051,7 +2051,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="131"/>
     </row>
-    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
       <c r="B30" s="53"/>
       <c r="C30" s="41"/>
@@ -2065,7 +2065,7 @@
       <c r="I30" s="42"/>
       <c r="J30" s="131"/>
     </row>
-    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="122" t="s">
         <v>78</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="131"/>
     </row>
-    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="122"/>
       <c r="B32" s="52" t="s">
         <v>13</v>
@@ -2097,7 +2097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="122"/>
       <c r="B33" s="53"/>
       <c r="C33" s="41"/>
@@ -2111,7 +2111,7 @@
       <c r="I33" s="42"/>
       <c r="J33" s="131"/>
     </row>
-    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="122"/>
       <c r="B34" s="52" t="s">
         <v>26</v>
@@ -2125,7 +2125,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="131"/>
     </row>
-    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="122"/>
       <c r="B35" s="53"/>
       <c r="C35" s="41"/>
@@ -2139,7 +2139,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="131"/>
     </row>
-    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="122"/>
       <c r="B36" s="52" t="s">
         <v>27</v>
@@ -2153,7 +2153,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="131"/>
     </row>
-    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="122"/>
       <c r="B37" s="53"/>
       <c r="C37" s="41"/>
@@ -2167,7 +2167,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="131"/>
     </row>
-    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="122"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
@@ -2181,7 +2181,7 @@
       <c r="I38" s="42"/>
       <c r="J38" s="131"/>
     </row>
-    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="122"/>
       <c r="B39" s="53"/>
       <c r="C39" s="41"/>
@@ -2195,7 +2195,7 @@
       <c r="I39" s="42"/>
       <c r="J39" s="131"/>
     </row>
-    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="122"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
@@ -2209,7 +2209,7 @@
       <c r="I40" s="42"/>
       <c r="J40" s="131"/>
     </row>
-    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="122"/>
       <c r="B41" s="53"/>
       <c r="C41" s="41"/>
@@ -2223,7 +2223,7 @@
       <c r="I41" s="42"/>
       <c r="J41" s="131"/>
     </row>
-    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="122"/>
       <c r="B42" s="52" t="s">
         <v>30</v>
@@ -2237,7 +2237,7 @@
       <c r="I42" s="42"/>
       <c r="J42" s="131"/>
     </row>
-    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="122"/>
       <c r="B43" s="53"/>
       <c r="C43" s="41"/>
@@ -2251,7 +2251,7 @@
       <c r="I43" s="42"/>
       <c r="J43" s="131"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
         <v>40</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="I44" s="48"/>
       <c r="J44" s="46"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>62</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="50"/>
       <c r="C46" s="45"/>
@@ -2299,7 +2299,7 @@
       <c r="I46" s="48"/>
       <c r="J46" s="82"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="53" t="s">
         <v>32</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="J47" s="82"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>96</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="52" t="s">
         <v>26</v>
@@ -2352,7 +2352,7 @@
       <c r="I49" s="48"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="53" t="s">
         <v>32</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
         <v>80</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="I51" s="48"/>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="128" t="s">
         <v>67</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="I52" s="48"/>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>81</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="52" t="s">
         <v>26</v>
@@ -2438,7 +2438,7 @@
       <c r="I54" s="48"/>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="53" t="s">
         <v>32</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>82</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57"/>
       <c r="B57" s="52" t="s">
         <v>13</v>
@@ -2492,7 +2492,7 @@
       <c r="I57" s="48"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="53" t="s">
         <v>34</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="J58" s="46"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="52" t="s">
         <v>26</v>
@@ -2525,7 +2525,7 @@
       <c r="I59" s="48"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="53" t="s">
         <v>34</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="52" t="s">
         <v>27</v>
@@ -2558,7 +2558,7 @@
       <c r="I61" s="48"/>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="53" t="s">
         <v>34</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="J62" s="46"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
       <c r="B63" s="52" t="s">
         <v>28</v>
@@ -2591,7 +2591,7 @@
       <c r="I63" s="48"/>
       <c r="J63" s="46"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="53" t="s">
         <v>34</v>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="52" t="s">
         <v>29</v>
@@ -2624,7 +2624,7 @@
       <c r="I65" s="48"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
       <c r="B66" s="53" t="s">
         <v>34</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="J66" s="46"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="52" t="s">
         <v>30</v>
@@ -2657,7 +2657,7 @@
       <c r="I67" s="48"/>
       <c r="J67" s="46"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="53" t="s">
         <v>34</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="52" t="s">
         <v>31</v>
@@ -2690,7 +2690,7 @@
       <c r="I69" s="48"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="53" t="s">
         <v>34</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="111" t="s">
         <v>83</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="I71" s="48"/>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>13</v>
@@ -2741,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
       <c r="B73" s="53" t="s">
         <v>34</v>
@@ -2757,7 +2757,7 @@
       <c r="I73" s="48"/>
       <c r="J73" s="46"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="111"/>
       <c r="B74" s="52" t="s">
         <v>26</v>
@@ -2771,7 +2771,7 @@
       <c r="I74" s="48"/>
       <c r="J74" s="46"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="111"/>
       <c r="B75" s="53" t="s">
         <v>34</v>
@@ -2787,7 +2787,7 @@
       <c r="I75" s="48"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="111"/>
       <c r="B76" s="52" t="s">
         <v>27</v>
@@ -2801,7 +2801,7 @@
       <c r="I76" s="48"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="111"/>
       <c r="B77" s="53" t="s">
         <v>34</v>
@@ -2817,7 +2817,7 @@
       <c r="I77" s="48"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="111"/>
       <c r="B78" s="52" t="s">
         <v>28</v>
@@ -2831,7 +2831,7 @@
       <c r="I78" s="48"/>
       <c r="J78" s="46"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="111"/>
       <c r="B79" s="53" t="s">
         <v>34</v>
@@ -2847,7 +2847,7 @@
       <c r="I79" s="48"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="111"/>
       <c r="B80" s="52" t="s">
         <v>29</v>
@@ -2861,7 +2861,7 @@
       <c r="I80" s="48"/>
       <c r="J80" s="46"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="111"/>
       <c r="B81" s="53" t="s">
         <v>34</v>
@@ -2877,7 +2877,7 @@
       <c r="I81" s="48"/>
       <c r="J81" s="46"/>
     </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="111"/>
       <c r="B82" s="52" t="s">
         <v>30</v>
@@ -2891,7 +2891,7 @@
       <c r="I82" s="48"/>
       <c r="J82" s="46"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="111"/>
       <c r="B83" s="53" t="s">
         <v>34</v>
@@ -2907,7 +2907,7 @@
       <c r="I83" s="48"/>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="111"/>
       <c r="B84" s="52" t="s">
         <v>31</v>
@@ -2921,7 +2921,7 @@
       <c r="I84" s="48"/>
       <c r="J84" s="46"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="111"/>
       <c r="B85" s="53" t="s">
         <v>34</v>
@@ -2937,7 +2937,7 @@
       <c r="I85" s="48"/>
       <c r="J85" s="46"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="115" t="s">
         <v>85</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="I86" s="48"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="124" t="s">
         <v>86</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="I87" s="48"/>
       <c r="J87" s="46"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="111"/>
       <c r="B88" s="52" t="s">
         <v>13</v>
@@ -2987,7 +2987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="111"/>
       <c r="B89" s="53" t="s">
         <v>15</v>
@@ -3003,7 +3003,7 @@
       <c r="I89" s="48"/>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="111"/>
       <c r="B90" s="52" t="s">
         <v>26</v>
@@ -3017,7 +3017,7 @@
       <c r="I90" s="48"/>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="111"/>
       <c r="B91" s="53" t="s">
         <v>15</v>
@@ -3033,7 +3033,7 @@
       <c r="I91" s="48"/>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>27</v>
@@ -3047,7 +3047,7 @@
       <c r="I92" s="48"/>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="111"/>
       <c r="B93" s="53" t="s">
         <v>15</v>
@@ -3063,7 +3063,7 @@
       <c r="I93" s="48"/>
       <c r="J93" s="46"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="111"/>
       <c r="B94" s="52" t="s">
         <v>28</v>
@@ -3077,7 +3077,7 @@
       <c r="I94" s="48"/>
       <c r="J94" s="46"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="111"/>
       <c r="B95" s="53" t="s">
         <v>15</v>
@@ -3093,7 +3093,7 @@
       <c r="I95" s="48"/>
       <c r="J95" s="46"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>29</v>
@@ -3107,7 +3107,7 @@
       <c r="I96" s="48"/>
       <c r="J96" s="46"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="53" t="s">
         <v>15</v>
@@ -3123,7 +3123,7 @@
       <c r="I97" s="48"/>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="52" t="s">
         <v>30</v>
@@ -3137,7 +3137,7 @@
       <c r="I98" s="48"/>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
       <c r="B99" s="53" t="s">
         <v>15</v>
@@ -3153,7 +3153,7 @@
       <c r="I99" s="48"/>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="52" t="s">
         <v>31</v>
@@ -3167,7 +3167,7 @@
       <c r="I100" s="48"/>
       <c r="J100" s="46"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="57"/>
       <c r="B101" s="53" t="s">
         <v>16</v>
@@ -3183,7 +3183,7 @@
       <c r="I101" s="48"/>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="115"/>
       <c r="B102" s="53" t="s">
         <v>52</v>
@@ -3199,7 +3199,7 @@
       <c r="I102" s="48"/>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="124"/>
       <c r="B103" s="53" t="s">
         <v>53</v>
@@ -3215,7 +3215,7 @@
       <c r="I103" s="48"/>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="110" t="s">
         <v>87</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="I104" s="48"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="124" t="s">
         <v>89</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="I105" s="48"/>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="111"/>
       <c r="B106" s="52" t="s">
         <v>13</v>
@@ -3263,7 +3263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="111"/>
       <c r="B107" s="53" t="s">
         <v>34</v>
@@ -3279,7 +3279,7 @@
       <c r="I107" s="48"/>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="111"/>
       <c r="B108" s="52" t="s">
         <v>26</v>
@@ -3293,7 +3293,7 @@
       <c r="I108" s="48"/>
       <c r="J108" s="46"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="111"/>
       <c r="B109" s="53" t="s">
         <v>34</v>
@@ -3309,7 +3309,7 @@
       <c r="I109" s="48"/>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111"/>
       <c r="B110" s="52" t="s">
         <v>27</v>
@@ -3323,7 +3323,7 @@
       <c r="I110" s="48"/>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="111"/>
       <c r="B111" s="53" t="s">
         <v>34</v>
@@ -3339,7 +3339,7 @@
       <c r="I111" s="48"/>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="111"/>
       <c r="B112" s="52" t="s">
         <v>28</v>
@@ -3353,7 +3353,7 @@
       <c r="I112" s="48"/>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="111"/>
       <c r="B113" s="53" t="s">
         <v>34</v>
@@ -3369,7 +3369,7 @@
       <c r="I113" s="48"/>
       <c r="J113" s="46"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="111"/>
       <c r="B114" s="52" t="s">
         <v>29</v>
@@ -3383,7 +3383,7 @@
       <c r="I114" s="48"/>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57"/>
       <c r="B115" s="53" t="s">
         <v>34</v>
@@ -3399,7 +3399,7 @@
       <c r="I115" s="48"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="57"/>
       <c r="B116" s="52" t="s">
         <v>30</v>
@@ -3413,7 +3413,7 @@
       <c r="I116" s="48"/>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="57"/>
       <c r="B117" s="53" t="s">
         <v>34</v>
@@ -3429,7 +3429,7 @@
       <c r="I117" s="48"/>
       <c r="J117" s="46"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57"/>
       <c r="B118" s="52" t="s">
         <v>31</v>
@@ -3443,7 +3443,7 @@
       <c r="I118" s="48"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="57"/>
       <c r="B119" s="53" t="s">
         <v>34</v>
@@ -3459,7 +3459,7 @@
       <c r="I119" s="48"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="124" t="s">
         <v>91</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="I120" s="48"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="57"/>
       <c r="B121" s="52" t="s">
         <v>13</v>
@@ -3491,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57"/>
       <c r="B122" s="53" t="s">
         <v>34</v>
@@ -3507,7 +3507,7 @@
       <c r="I122" s="48"/>
       <c r="J122" s="46"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="52" t="s">
         <v>26</v>
@@ -3521,7 +3521,7 @@
       <c r="I123" s="48"/>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57"/>
       <c r="B124" s="53" t="s">
         <v>34</v>
@@ -3537,7 +3537,7 @@
       <c r="I124" s="48"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="57"/>
       <c r="B125" s="52" t="s">
         <v>27</v>
@@ -3551,7 +3551,7 @@
       <c r="I125" s="48"/>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57"/>
       <c r="B126" s="53" t="s">
         <v>34</v>
@@ -3567,7 +3567,7 @@
       <c r="I126" s="48"/>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="57"/>
       <c r="B127" s="52" t="s">
         <v>28</v>
@@ -3581,7 +3581,7 @@
       <c r="I127" s="48"/>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="57"/>
       <c r="B128" s="53" t="s">
         <v>34</v>
@@ -3597,7 +3597,7 @@
       <c r="I128" s="48"/>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="57"/>
       <c r="B129" s="52" t="s">
         <v>29</v>
@@ -3611,7 +3611,7 @@
       <c r="I129" s="48"/>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="57"/>
       <c r="B130" s="53" t="s">
         <v>34</v>
@@ -3627,7 +3627,7 @@
       <c r="I130" s="48"/>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="57"/>
       <c r="B131" s="52" t="s">
         <v>30</v>
@@ -3641,7 +3641,7 @@
       <c r="I131" s="48"/>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57"/>
       <c r="B132" s="53" t="s">
         <v>34</v>
@@ -3657,7 +3657,7 @@
       <c r="I132" s="48"/>
       <c r="J132" s="46"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="57"/>
       <c r="B133" s="52" t="s">
         <v>31</v>
@@ -3671,7 +3671,7 @@
       <c r="I133" s="48"/>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57"/>
       <c r="B134" s="53" t="s">
         <v>34</v>
@@ -3687,7 +3687,7 @@
       <c r="I134" s="48"/>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="124" t="s">
         <v>93</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="I135" s="48"/>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="57"/>
       <c r="B136" s="52" t="s">
         <v>26</v>
@@ -3717,7 +3717,7 @@
       <c r="I136" s="48"/>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="57"/>
       <c r="B137" s="53" t="s">
         <v>95</v>
@@ -3733,7 +3733,7 @@
       <c r="I137" s="48"/>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="57"/>
       <c r="B138" s="53"/>
       <c r="C138" s="47"/>
@@ -3745,7 +3745,7 @@
       <c r="I138" s="48"/>
       <c r="J138" s="46"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="110" t="s">
         <v>56</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="I139" s="48"/>
       <c r="J139" s="46"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="111" t="s">
         <v>57</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="111"/>
       <c r="B141" s="52" t="s">
         <v>26</v>
@@ -3795,7 +3795,7 @@
       <c r="I141" s="48"/>
       <c r="J141" s="46"/>
     </row>
-    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="57"/>
       <c r="B142" s="53" t="s">
         <v>32</v>
@@ -3811,7 +3811,7 @@
       <c r="I142" s="48"/>
       <c r="J142" s="46"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="55" t="s">
         <v>97</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="I143" s="48"/>
       <c r="J143" s="46"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="57"/>
       <c r="B145" s="101" t="s">
         <v>66</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="J145" s="46"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
         <v>72</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="I146" s="48"/>
       <c r="J146" s="46"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="57"/>
       <c r="B147" s="101" t="s">
         <v>66</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="J147" s="46"/>
     </row>
-    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
         <v>98</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="I148" s="46"/>
       <c r="J148" s="82"/>
     </row>
-    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
         <v>99</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="52" t="s">
         <v>13</v>
@@ -3950,7 +3950,7 @@
       <c r="I150" s="48"/>
       <c r="J150" s="46"/>
     </row>
-    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="53" t="s">
         <v>15</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="J151" s="46"/>
     </row>
-    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="52" t="s">
         <v>26</v>
@@ -3983,7 +3983,7 @@
       <c r="I152" s="48"/>
       <c r="J152" s="46"/>
     </row>
-    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="53" t="s">
         <v>15</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="J153" s="46"/>
     </row>
-    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="52" t="s">
         <v>27</v>
@@ -4016,7 +4016,7 @@
       <c r="I154" s="48"/>
       <c r="J154" s="46"/>
     </row>
-    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="53" t="s">
         <v>15</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="J155" s="46"/>
     </row>
-    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49"/>
       <c r="B156" s="52" t="s">
         <v>28</v>
@@ -4049,7 +4049,7 @@
       <c r="I156" s="48"/>
       <c r="J156" s="46"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="53" t="s">
         <v>15</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="J157" s="46"/>
     </row>
-    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="52" t="s">
         <v>29</v>
@@ -4082,7 +4082,7 @@
       <c r="I158" s="48"/>
       <c r="J158" s="46"/>
     </row>
-    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49"/>
       <c r="B159" s="53" t="s">
         <v>15</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J159" s="46"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="57"/>
       <c r="B160" s="52" t="s">
         <v>30</v>
@@ -4115,7 +4115,7 @@
       <c r="I160" s="48"/>
       <c r="J160" s="46"/>
     </row>
-    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="57"/>
       <c r="B161" s="53" t="s">
         <v>15</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="J161" s="46"/>
     </row>
-    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="57"/>
       <c r="B162" s="52" t="s">
         <v>31</v>
@@ -4148,7 +4148,7 @@
       <c r="I162" s="48"/>
       <c r="J162" s="46"/>
     </row>
-    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="57"/>
       <c r="B163" s="53" t="s">
         <v>15</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="J163" s="46"/>
     </row>
-    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="103" t="s">
         <v>54</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="I164" s="46"/>
       <c r="J164" s="82"/>
     </row>
-    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="49" t="s">
         <v>55</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="52" t="s">
         <v>31</v>
@@ -4217,7 +4217,7 @@
       <c r="I166" s="48"/>
       <c r="J166" s="82"/>
     </row>
-    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="53" t="s">
         <v>16</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="J167" s="46"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
         <v>101</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="52" t="s">
         <v>31</v>
@@ -4268,7 +4268,7 @@
       <c r="I169" s="48"/>
       <c r="J169" s="46"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="53" t="s">
         <v>16</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J170" s="46"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="49" t="s">
         <v>102</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="49"/>
       <c r="B172" s="52" t="s">
         <v>31</v>
@@ -4321,7 +4321,7 @@
       <c r="I172" s="48"/>
       <c r="J172" s="46"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49"/>
       <c r="B173" s="53" t="s">
         <v>16</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="J173" s="46"/>
     </row>
-    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49" t="s">
         <v>103</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="I174" s="48"/>
       <c r="J174" s="82"/>
     </row>
-    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="49"/>
       <c r="B175" s="52" t="s">
         <v>31</v>
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="49"/>
       <c r="B176" s="53" t="s">
         <v>16</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="J176" s="82"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49" t="s">
         <v>104</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="I177" s="48"/>
       <c r="J177" s="46"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="49"/>
       <c r="B178" s="52" t="s">
         <v>31</v>
@@ -4427,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="53" t="s">
         <v>16</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="J179" s="46"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49" t="s">
         <v>105</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="I180" s="48"/>
       <c r="J180" s="46"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="49"/>
       <c r="B181" s="52" t="s">
         <v>31</v>
@@ -4478,7 +4478,7 @@
       <c r="I181" s="48"/>
       <c r="J181" s="46"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="53" t="s">
         <v>16</v>
@@ -4499,7 +4499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49" t="s">
         <v>106</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="I183" s="48"/>
       <c r="J183" s="82"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="57"/>
       <c r="B184" s="52" t="s">
         <v>31</v>
@@ -4529,7 +4529,7 @@
       <c r="I184" s="48"/>
       <c r="J184" s="46"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="57"/>
       <c r="B185" s="53" t="s">
         <v>16</v>
@@ -4552,7 +4552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="55"/>
       <c r="B186" s="56"/>
       <c r="C186" s="47"/>
@@ -4564,7 +4564,7 @@
       <c r="I186" s="48"/>
       <c r="J186" s="46"/>
     </row>
-    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="60"/>
       <c r="C187" s="45"/>
@@ -4576,7 +4576,7 @@
       <c r="I187" s="46"/>
       <c r="J187" s="82"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="57"/>
       <c r="B188" s="52"/>
       <c r="C188" s="47"/>
@@ -4588,7 +4588,7 @@
       <c r="I188" s="48"/>
       <c r="J188" s="46"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="57"/>
       <c r="B189" s="53"/>
       <c r="C189" s="47"/>
@@ -4600,7 +4600,7 @@
       <c r="I189" s="48"/>
       <c r="J189" s="48"/>
     </row>
-    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="60"/>
       <c r="C190" s="45"/>
@@ -4612,7 +4612,7 @@
       <c r="I190" s="46"/>
       <c r="J190" s="82"/>
     </row>
-    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="112"/>
       <c r="B191" s="52"/>
       <c r="C191" s="45"/>
@@ -4624,7 +4624,7 @@
       <c r="I191" s="46"/>
       <c r="J191" s="82"/>
     </row>
-    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="112"/>
       <c r="B192" s="53"/>
       <c r="C192" s="45"/>
@@ -4636,7 +4636,7 @@
       <c r="I192" s="48"/>
       <c r="J192" s="82"/>
     </row>
-    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="112"/>
       <c r="B193" s="52"/>
       <c r="C193" s="45"/>
@@ -4648,7 +4648,7 @@
       <c r="I193" s="48"/>
       <c r="J193" s="82"/>
     </row>
-    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="112"/>
       <c r="B194" s="53"/>
       <c r="C194" s="45"/>
@@ -4660,7 +4660,7 @@
       <c r="I194" s="48"/>
       <c r="J194" s="82"/>
     </row>
-    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="112"/>
       <c r="B195" s="52"/>
       <c r="C195" s="45"/>
@@ -4672,7 +4672,7 @@
       <c r="I195" s="48"/>
       <c r="J195" s="82"/>
     </row>
-    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="112"/>
       <c r="B196" s="53"/>
       <c r="C196" s="45"/>
@@ -4684,7 +4684,7 @@
       <c r="I196" s="48"/>
       <c r="J196" s="82"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="57"/>
       <c r="B197" s="52"/>
       <c r="C197" s="47"/>
@@ -4696,7 +4696,7 @@
       <c r="I197" s="48"/>
       <c r="J197" s="48"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="57"/>
       <c r="B198" s="53"/>
       <c r="C198" s="47"/>
@@ -4708,7 +4708,7 @@
       <c r="I198" s="48"/>
       <c r="J198" s="48"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="57"/>
       <c r="B199" s="52"/>
       <c r="C199" s="47"/>
@@ -4720,7 +4720,7 @@
       <c r="I199" s="48"/>
       <c r="J199" s="48"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="57"/>
       <c r="B200" s="53"/>
       <c r="C200" s="47"/>
@@ -4732,7 +4732,7 @@
       <c r="I200" s="48"/>
       <c r="J200" s="48"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="57"/>
       <c r="B201" s="52"/>
       <c r="C201" s="47"/>
@@ -4744,7 +4744,7 @@
       <c r="I201" s="48"/>
       <c r="J201" s="48"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="57"/>
       <c r="B202" s="53"/>
       <c r="C202" s="47"/>
@@ -4756,7 +4756,7 @@
       <c r="I202" s="48"/>
       <c r="J202" s="48"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="57"/>
       <c r="B203" s="52"/>
       <c r="C203" s="47"/>
@@ -4768,7 +4768,7 @@
       <c r="I203" s="48"/>
       <c r="J203" s="48"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="57"/>
       <c r="B204" s="53"/>
       <c r="C204" s="47"/>
@@ -4780,7 +4780,7 @@
       <c r="I204" s="48"/>
       <c r="J204" s="48"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="57"/>
       <c r="B205" s="53"/>
       <c r="C205" s="47"/>
@@ -4792,7 +4792,7 @@
       <c r="I205" s="48"/>
       <c r="J205" s="48"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="57"/>
       <c r="B206" s="53"/>
       <c r="C206" s="47"/>
@@ -4804,7 +4804,7 @@
       <c r="I206" s="48"/>
       <c r="J206" s="48"/>
     </row>
-    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="49"/>
       <c r="B207" s="62"/>
       <c r="C207" s="45"/>
@@ -4816,7 +4816,7 @@
       <c r="I207" s="46"/>
       <c r="J207" s="82"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="57"/>
       <c r="B208" s="52"/>
       <c r="C208" s="47"/>
@@ -4828,7 +4828,7 @@
       <c r="I208" s="48"/>
       <c r="J208" s="48"/>
     </row>
-    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="57"/>
       <c r="B209" s="53"/>
       <c r="C209" s="47"/>
@@ -4840,7 +4840,7 @@
       <c r="I209" s="48"/>
       <c r="J209" s="48"/>
     </row>
-    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="57"/>
       <c r="B210" s="52"/>
       <c r="C210" s="47"/>
@@ -4852,7 +4852,7 @@
       <c r="I210" s="48"/>
       <c r="J210" s="48"/>
     </row>
-    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="57"/>
       <c r="B211" s="53"/>
       <c r="C211" s="47"/>
@@ -4864,7 +4864,7 @@
       <c r="I211" s="48"/>
       <c r="J211" s="48"/>
     </row>
-    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="57"/>
       <c r="B212" s="52"/>
       <c r="C212" s="47"/>
@@ -4876,7 +4876,7 @@
       <c r="I212" s="48"/>
       <c r="J212" s="48"/>
     </row>
-    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="57"/>
       <c r="B213" s="53"/>
       <c r="C213" s="47"/>
@@ -4888,7 +4888,7 @@
       <c r="I213" s="48"/>
       <c r="J213" s="48"/>
     </row>
-    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="57"/>
       <c r="B214" s="52"/>
       <c r="C214" s="47"/>
@@ -4900,7 +4900,7 @@
       <c r="I214" s="48"/>
       <c r="J214" s="48"/>
     </row>
-    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="57"/>
       <c r="B215" s="53"/>
       <c r="C215" s="47"/>
@@ -4912,7 +4912,7 @@
       <c r="I215" s="48"/>
       <c r="J215" s="48"/>
     </row>
-    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="57"/>
       <c r="B216" s="52"/>
       <c r="C216" s="47"/>
@@ -4924,7 +4924,7 @@
       <c r="I216" s="48"/>
       <c r="J216" s="48"/>
     </row>
-    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="57"/>
       <c r="B217" s="53"/>
       <c r="C217" s="47"/>
@@ -4936,7 +4936,7 @@
       <c r="I217" s="48"/>
       <c r="J217" s="48"/>
     </row>
-    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="57"/>
       <c r="B218" s="52"/>
       <c r="C218" s="47"/>
@@ -4948,7 +4948,7 @@
       <c r="I218" s="48"/>
       <c r="J218" s="48"/>
     </row>
-    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="57"/>
       <c r="B219" s="53"/>
       <c r="C219" s="47"/>
@@ -4960,7 +4960,7 @@
       <c r="I219" s="48"/>
       <c r="J219" s="48"/>
     </row>
-    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="57"/>
       <c r="B220" s="52"/>
       <c r="C220" s="47"/>
@@ -4972,7 +4972,7 @@
       <c r="I220" s="48"/>
       <c r="J220" s="48"/>
     </row>
-    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="57"/>
       <c r="B221" s="53"/>
       <c r="C221" s="47"/>
@@ -4984,7 +4984,7 @@
       <c r="I221" s="48"/>
       <c r="J221" s="48"/>
     </row>
-    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="113"/>
       <c r="B222" s="63"/>
       <c r="C222" s="47"/>
@@ -4996,7 +4996,7 @@
       <c r="I222" s="48"/>
       <c r="J222" s="48"/>
     </row>
-    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="111"/>
       <c r="B223" s="116"/>
       <c r="C223" s="45"/>
@@ -5008,7 +5008,7 @@
       <c r="I223" s="48"/>
       <c r="J223" s="48"/>
     </row>
-    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="111"/>
       <c r="B224" s="52"/>
       <c r="C224" s="47"/>
@@ -5020,7 +5020,7 @@
       <c r="I224" s="48"/>
       <c r="J224" s="48"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="57"/>
       <c r="B225" s="53"/>
       <c r="C225" s="45"/>
@@ -5032,7 +5032,7 @@
       <c r="I225" s="48"/>
       <c r="J225" s="48"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="55"/>
       <c r="B226" s="56"/>
       <c r="C226" s="47"/>
@@ -5044,7 +5044,7 @@
       <c r="I226" s="48"/>
       <c r="J226" s="48"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="114"/>
       <c r="B227" s="65"/>
       <c r="C227" s="47"/>
@@ -5056,7 +5056,7 @@
       <c r="I227" s="48"/>
       <c r="J227" s="48"/>
     </row>
-    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="112"/>
       <c r="B228" s="60"/>
       <c r="C228" s="45"/>
@@ -5068,7 +5068,7 @@
       <c r="I228" s="46"/>
       <c r="J228" s="82"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="57"/>
       <c r="B229" s="52"/>
       <c r="C229" s="47"/>
@@ -5080,7 +5080,7 @@
       <c r="I229" s="48"/>
       <c r="J229" s="48"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="57"/>
       <c r="B230" s="53"/>
       <c r="C230" s="47"/>
@@ -5092,7 +5092,7 @@
       <c r="I230" s="48"/>
       <c r="J230" s="48"/>
     </row>
-    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="112"/>
       <c r="B231" s="66"/>
       <c r="C231" s="45"/>
@@ -5104,7 +5104,7 @@
       <c r="I231" s="46"/>
       <c r="J231" s="82"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="57"/>
       <c r="B232" s="52"/>
       <c r="C232" s="47"/>
@@ -5116,7 +5116,7 @@
       <c r="I232" s="48"/>
       <c r="J232" s="48"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="57"/>
       <c r="B233" s="53"/>
       <c r="C233" s="47"/>
@@ -5128,7 +5128,7 @@
       <c r="I233" s="48"/>
       <c r="J233" s="48"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="57"/>
       <c r="B234" s="52"/>
       <c r="C234" s="47"/>
@@ -5140,7 +5140,7 @@
       <c r="I234" s="48"/>
       <c r="J234" s="48"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="57"/>
       <c r="B235" s="53"/>
       <c r="C235" s="47"/>
@@ -5152,7 +5152,7 @@
       <c r="I235" s="48"/>
       <c r="J235" s="48"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="57"/>
       <c r="B236" s="52"/>
       <c r="C236" s="47"/>
@@ -5164,7 +5164,7 @@
       <c r="I236" s="48"/>
       <c r="J236" s="48"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="57"/>
       <c r="B237" s="53"/>
       <c r="C237" s="47"/>
@@ -5176,7 +5176,7 @@
       <c r="I237" s="48"/>
       <c r="J237" s="48"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="57"/>
       <c r="B238" s="52"/>
       <c r="C238" s="47"/>
@@ -5188,7 +5188,7 @@
       <c r="I238" s="48"/>
       <c r="J238" s="48"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="57"/>
       <c r="B239" s="53"/>
       <c r="C239" s="47"/>
@@ -5200,7 +5200,7 @@
       <c r="I239" s="48"/>
       <c r="J239" s="48"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="57"/>
       <c r="B240" s="52"/>
       <c r="C240" s="47"/>
@@ -5212,7 +5212,7 @@
       <c r="I240" s="48"/>
       <c r="J240" s="48"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="57"/>
       <c r="B241" s="53"/>
       <c r="C241" s="47"/>
@@ -5224,7 +5224,7 @@
       <c r="I241" s="48"/>
       <c r="J241" s="48"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="57"/>
       <c r="B242" s="52"/>
       <c r="C242" s="47"/>
@@ -5236,7 +5236,7 @@
       <c r="I242" s="48"/>
       <c r="J242" s="48"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="57"/>
       <c r="B243" s="53"/>
       <c r="C243" s="47"/>
@@ -5248,7 +5248,7 @@
       <c r="I243" s="48"/>
       <c r="J243" s="48"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="57"/>
       <c r="B244" s="52"/>
       <c r="C244" s="47"/>
@@ -5260,7 +5260,7 @@
       <c r="I244" s="48"/>
       <c r="J244" s="48"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="57"/>
       <c r="B245" s="53"/>
       <c r="C245" s="47"/>
@@ -5272,7 +5272,7 @@
       <c r="I245" s="48"/>
       <c r="J245" s="48"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="117"/>
       <c r="D246" s="118"/>
       <c r="E246" s="11"/>
@@ -5282,7 +5282,7 @@
       <c r="I246" s="118"/>
       <c r="J246" s="118"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="117"/>
       <c r="D247" s="118"/>
       <c r="E247" s="11"/>
@@ -5292,7 +5292,7 @@
       <c r="I247" s="118"/>
       <c r="J247" s="118"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="117"/>
       <c r="D248" s="118"/>
       <c r="E248" s="11"/>
@@ -5302,7 +5302,7 @@
       <c r="I248" s="118"/>
       <c r="J248" s="118"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="117"/>
       <c r="D249" s="118"/>
       <c r="E249" s="11"/>
@@ -5312,7 +5312,7 @@
       <c r="I249" s="118"/>
       <c r="J249" s="118"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="117"/>
       <c r="D250" s="118"/>
       <c r="E250" s="11"/>
@@ -5322,7 +5322,7 @@
       <c r="I250" s="118"/>
       <c r="J250" s="118"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="117"/>
       <c r="D251" s="118"/>
       <c r="E251" s="11"/>
@@ -5332,7 +5332,7 @@
       <c r="I251" s="118"/>
       <c r="J251" s="118"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="117"/>
       <c r="D252" s="118"/>
       <c r="E252" s="11"/>
@@ -5342,7 +5342,7 @@
       <c r="I252" s="118"/>
       <c r="J252" s="118"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="117"/>
       <c r="D253" s="118"/>
       <c r="E253" s="11"/>
@@ -5352,7 +5352,7 @@
       <c r="I253" s="118"/>
       <c r="J253" s="118"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="117"/>
       <c r="D254" s="118"/>
       <c r="E254" s="11"/>
@@ -5362,7 +5362,7 @@
       <c r="I254" s="118"/>
       <c r="J254" s="118"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="117"/>
       <c r="D255" s="118"/>
       <c r="E255" s="11"/>
@@ -5372,7 +5372,7 @@
       <c r="I255" s="118"/>
       <c r="J255" s="118"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="117"/>
       <c r="D256" s="118"/>
       <c r="E256" s="11"/>
@@ -5382,7 +5382,7 @@
       <c r="I256" s="118"/>
       <c r="J256" s="118"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="117"/>
       <c r="D257" s="118"/>
       <c r="E257" s="11"/>
@@ -5392,7 +5392,7 @@
       <c r="I257" s="118"/>
       <c r="J257" s="118"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="117"/>
       <c r="D258" s="118"/>
       <c r="E258" s="11"/>
@@ -5402,7 +5402,7 @@
       <c r="I258" s="118"/>
       <c r="J258" s="118"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="117"/>
       <c r="D259" s="118"/>
       <c r="E259" s="11"/>
@@ -5412,7 +5412,7 @@
       <c r="I259" s="118"/>
       <c r="J259" s="118"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="117"/>
       <c r="D260" s="118"/>
       <c r="E260" s="11"/>
@@ -5422,7 +5422,7 @@
       <c r="I260" s="118"/>
       <c r="J260" s="118"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="117"/>
       <c r="D261" s="118"/>
       <c r="E261" s="11"/>
@@ -5432,7 +5432,7 @@
       <c r="I261" s="118"/>
       <c r="J261" s="118"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="117"/>
       <c r="D262" s="118"/>
       <c r="E262" s="11"/>
@@ -5442,7 +5442,7 @@
       <c r="I262" s="118"/>
       <c r="J262" s="118"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="117"/>
       <c r="D263" s="118"/>
       <c r="E263" s="11"/>
@@ -5452,7 +5452,7 @@
       <c r="I263" s="118"/>
       <c r="J263" s="118"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="117"/>
       <c r="D264" s="118"/>
       <c r="E264" s="11"/>
@@ -5462,7 +5462,7 @@
       <c r="I264" s="118"/>
       <c r="J264" s="118"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="117"/>
       <c r="D265" s="118"/>
       <c r="E265" s="11"/>
@@ -5472,7 +5472,7 @@
       <c r="I265" s="118"/>
       <c r="J265" s="118"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="117"/>
       <c r="D266" s="118"/>
       <c r="E266" s="11"/>
@@ -5482,7 +5482,7 @@
       <c r="I266" s="118"/>
       <c r="J266" s="118"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="117"/>
       <c r="D267" s="118"/>
       <c r="E267" s="11"/>
@@ -5492,7 +5492,7 @@
       <c r="I267" s="118"/>
       <c r="J267" s="118"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="117"/>
       <c r="D268" s="118"/>
       <c r="E268" s="11"/>
@@ -5502,7 +5502,7 @@
       <c r="I268" s="118"/>
       <c r="J268" s="118"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="117"/>
       <c r="D269" s="118"/>
       <c r="E269" s="11"/>
@@ -5512,7 +5512,7 @@
       <c r="I269" s="118"/>
       <c r="J269" s="118"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="117"/>
       <c r="D270" s="118"/>
       <c r="E270" s="11"/>
@@ -5522,7 +5522,7 @@
       <c r="I270" s="118"/>
       <c r="J270" s="118"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="117"/>
       <c r="D271" s="118"/>
       <c r="E271" s="11"/>
@@ -5532,7 +5532,7 @@
       <c r="I271" s="118"/>
       <c r="J271" s="118"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="117"/>
       <c r="D272" s="118"/>
       <c r="E272" s="11"/>
@@ -5542,7 +5542,7 @@
       <c r="I272" s="118"/>
       <c r="J272" s="118"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="117"/>
       <c r="D273" s="118"/>
       <c r="E273" s="11"/>
@@ -5552,7 +5552,7 @@
       <c r="I273" s="118"/>
       <c r="J273" s="118"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="117"/>
       <c r="D274" s="118"/>
       <c r="E274" s="11"/>
@@ -5562,7 +5562,7 @@
       <c r="I274" s="118"/>
       <c r="J274" s="118"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="117"/>
       <c r="D275" s="118"/>
       <c r="E275" s="11"/>
@@ -5594,29 +5594,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3912A-C8F7-4029-AE54-522015EA0FE3}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="137" t="s">
         <v>37</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="I1" s="138"/>
       <c r="J1" s="139"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="67"/>
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
@@ -5642,7 +5642,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="I3" s="132"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="67"/>
       <c r="B4" s="132"/>
       <c r="C4" s="132"/>
@@ -5670,7 +5670,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -5682,7 +5682,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="84"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="77"/>
       <c r="B7" s="78"/>
       <c r="C7" s="79"/>
@@ -5726,7 +5726,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>6</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="89"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>6.9</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="92"/>
     </row>
-    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>39</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
         <v>35</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>17</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="H12" s="47"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>54</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>55</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="52" t="s">
         <v>13</v>
@@ -5863,7 +5863,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="53" t="s">
         <v>15</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="52" t="s">
         <v>26</v>
@@ -5896,7 +5896,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="53" t="s">
         <v>15</v>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
       <c r="B19" s="52" t="s">
         <v>27</v>
@@ -5929,7 +5929,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="53" t="s">
         <v>15</v>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="52" t="s">
         <v>28</v>
@@ -5962,7 +5962,7 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
       <c r="B22" s="53" t="s">
         <v>15</v>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
       <c r="B23" s="52" t="s">
         <v>29</v>
@@ -5995,7 +5995,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="53" t="s">
         <v>15</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="J24" s="48"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="52" t="s">
         <v>30</v>
@@ -6028,7 +6028,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="53" t="s">
         <v>15</v>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="J26" s="48"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="97"/>
       <c r="C27" s="47"/>
@@ -6059,7 +6059,7 @@
       <c r="I27" s="48"/>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="98"/>
       <c r="B28" s="61"/>
       <c r="C28" s="51"/>
@@ -6071,7 +6071,7 @@
       <c r="I28" s="48"/>
       <c r="J28" s="51"/>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="15"/>
@@ -6083,7 +6083,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="15"/>
@@ -6095,7 +6095,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="15"/>
@@ -6107,7 +6107,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
@@ -6119,7 +6119,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
@@ -6131,7 +6131,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15"/>
@@ -6143,7 +6143,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="32"/>
       <c r="C35" s="27"/>
@@ -6155,7 +6155,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="15"/>
@@ -6167,7 +6167,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="15"/>
@@ -6179,7 +6179,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="32"/>
       <c r="C38" s="27"/>
@@ -6191,7 +6191,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="15"/>
@@ -6203,7 +6203,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="15"/>
@@ -6215,7 +6215,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="32"/>
       <c r="C41" s="27"/>
@@ -6227,7 +6227,7 @@
       <c r="I41" s="37"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="15"/>
@@ -6239,7 +6239,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="15"/>
@@ -6251,7 +6251,7 @@
       <c r="I43" s="37"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" s="32"/>
       <c r="C44" s="27"/>
@@ -6263,7 +6263,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="27"/>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="15"/>
@@ -6275,7 +6275,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="15"/>
@@ -6287,7 +6287,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="27"/>
@@ -6299,7 +6299,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="27"/>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="15"/>
@@ -6311,7 +6311,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="15"/>
@@ -6323,7 +6323,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="32"/>
       <c r="C50" s="27"/>
@@ -6335,7 +6335,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="27"/>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="15"/>
@@ -6347,7 +6347,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="15"/>
@@ -6359,7 +6359,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="32"/>
       <c r="C53" s="27"/>
@@ -6371,7 +6371,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
@@ -6383,7 +6383,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="19"/>
       <c r="C55" s="15"/>
@@ -6395,7 +6395,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="32"/>
       <c r="C56" s="27"/>
@@ -6407,7 +6407,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="27"/>
     </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="15"/>
@@ -6419,7 +6419,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
       <c r="C58" s="15"/>
@@ -6431,7 +6431,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -6443,7 +6443,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15"/>
@@ -6455,7 +6455,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="32"/>
       <c r="C61" s="27"/>
@@ -6467,7 +6467,7 @@
       <c r="I61" s="37"/>
       <c r="J61" s="27"/>
     </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="15"/>
@@ -6479,7 +6479,7 @@
       <c r="I62" s="37"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="19"/>
       <c r="C63" s="15"/>
@@ -6491,7 +6491,7 @@
       <c r="I63" s="37"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="20"/>
       <c r="C64" s="15"/>
@@ -6503,7 +6503,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="15"/>
@@ -6515,7 +6515,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
       <c r="B66" s="32"/>
       <c r="C66" s="27"/>
@@ -6527,7 +6527,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="27"/>
     </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="15"/>
@@ -6539,7 +6539,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="19"/>
       <c r="C68" s="15"/>
@@ -6551,7 +6551,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="15"/>
@@ -6563,7 +6563,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="19"/>
       <c r="C70" s="15"/>
@@ -6575,7 +6575,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="15"/>
@@ -6587,7 +6587,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="19"/>
       <c r="C72" s="15"/>
@@ -6599,7 +6599,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="15"/>
@@ -6611,7 +6611,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="19"/>
       <c r="C74" s="15"/>
@@ -6623,7 +6623,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="15"/>
@@ -6635,7 +6635,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="19"/>
       <c r="C76" s="15"/>
@@ -6647,7 +6647,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="15"/>
@@ -6659,7 +6659,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="19"/>
       <c r="C78" s="15"/>
@@ -6671,7 +6671,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="15"/>
@@ -6683,7 +6683,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="19"/>
       <c r="C80" s="15"/>
@@ -6695,7 +6695,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
@@ -6707,7 +6707,7 @@
       <c r="I81" s="37"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
       <c r="B82" s="32"/>
       <c r="C82" s="27"/>
@@ -6719,7 +6719,7 @@
       <c r="I82" s="37"/>
       <c r="J82" s="27"/>
     </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="15"/>
@@ -6731,7 +6731,7 @@
       <c r="I83" s="37"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="19"/>
       <c r="C84" s="15"/>
@@ -6743,7 +6743,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="15"/>
@@ -6755,7 +6755,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="19"/>
       <c r="C86" s="15"/>
@@ -6767,7 +6767,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="15"/>
@@ -6779,7 +6779,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="19"/>
       <c r="C88" s="15"/>
@@ -6791,7 +6791,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="15"/>
@@ -6803,7 +6803,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -6815,7 +6815,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="15"/>
@@ -6827,7 +6827,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -6839,7 +6839,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="15"/>
@@ -6851,7 +6851,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -6863,7 +6863,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="15"/>
@@ -6875,7 +6875,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>
@@ -6887,7 +6887,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="15"/>
     </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="34"/>
       <c r="B97" s="32"/>
       <c r="C97" s="27"/>
@@ -6899,7 +6899,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="27"/>
     </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="15"/>
@@ -6911,7 +6911,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -6923,7 +6923,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="15"/>
@@ -6935,7 +6935,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
@@ -6947,7 +6947,7 @@
       <c r="I101" s="37"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="15"/>
@@ -6959,7 +6959,7 @@
       <c r="I102" s="37"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="19"/>
       <c r="C103" s="15"/>
@@ -6971,7 +6971,7 @@
       <c r="I103" s="37"/>
       <c r="J103" s="15"/>
     </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="15"/>
@@ -6983,7 +6983,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="19"/>
       <c r="C105" s="15"/>
@@ -6995,7 +6995,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="15"/>
@@ -7007,7 +7007,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="19"/>
       <c r="C107" s="15"/>
@@ -7019,7 +7019,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="15"/>
@@ -7031,7 +7031,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="19"/>
       <c r="C109" s="15"/>
@@ -7043,7 +7043,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="15"/>
@@ -7055,7 +7055,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="15"/>
@@ -7067,7 +7067,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
       <c r="B112" s="32"/>
       <c r="C112" s="27"/>
@@ -7079,7 +7079,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="15"/>
@@ -7091,7 +7091,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="19"/>
       <c r="C114" s="15"/>
@@ -7103,7 +7103,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="19"/>
       <c r="C115" s="15"/>
@@ -7115,7 +7115,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
       <c r="B116" s="32"/>
       <c r="C116" s="27"/>
@@ -7127,7 +7127,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="15"/>
@@ -7139,7 +7139,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="19"/>
       <c r="C118" s="15"/>
@@ -7151,7 +7151,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="15"/>
@@ -7163,7 +7163,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="19"/>
       <c r="C120" s="15"/>
@@ -7175,7 +7175,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="15"/>
@@ -7187,7 +7187,7 @@
       <c r="I121" s="37"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="19"/>
       <c r="C122" s="15"/>
@@ -7199,7 +7199,7 @@
       <c r="I122" s="37"/>
       <c r="J122" s="15"/>
     </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="15"/>
@@ -7211,7 +7211,7 @@
       <c r="I123" s="37"/>
       <c r="J123" s="15"/>
     </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="19"/>
       <c r="C124" s="15"/>
@@ -7223,7 +7223,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
       <c r="B125" s="32"/>
       <c r="C125" s="27"/>
@@ -7235,7 +7235,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="18"/>
       <c r="C126" s="15"/>
@@ -7247,7 +7247,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="15"/>
     </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
       <c r="B127" s="19"/>
       <c r="C127" s="15"/>
@@ -7259,7 +7259,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="15"/>
     </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="34"/>
       <c r="B128" s="18"/>
       <c r="C128" s="15"/>
@@ -7271,7 +7271,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
       <c r="B129" s="19"/>
       <c r="C129" s="15"/>
@@ -7283,7 +7283,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="15"/>
     </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
       <c r="B130" s="18"/>
       <c r="C130" s="15"/>
@@ -7295,7 +7295,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="15"/>
     </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
       <c r="B131" s="19"/>
       <c r="C131" s="15"/>
@@ -7307,7 +7307,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
       <c r="B132" s="18"/>
       <c r="C132" s="15"/>
@@ -7319,7 +7319,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="34"/>
       <c r="B133" s="19"/>
       <c r="C133" s="15"/>
@@ -7331,7 +7331,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34"/>
       <c r="B134" s="18"/>
       <c r="C134" s="15"/>
@@ -7343,7 +7343,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34"/>
       <c r="B135" s="19"/>
       <c r="C135" s="15"/>
@@ -7355,7 +7355,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
       <c r="B136" s="18"/>
       <c r="C136" s="15"/>
@@ -7367,7 +7367,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
       <c r="B137" s="19"/>
       <c r="C137" s="15"/>
@@ -7379,7 +7379,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="15"/>
     </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
       <c r="B138" s="18"/>
       <c r="C138" s="15"/>
@@ -7391,7 +7391,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="19"/>
       <c r="C139" s="15"/>
@@ -7403,7 +7403,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="15"/>
     </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="23"/>
       <c r="C140" s="15"/>
@@ -7415,7 +7415,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="15"/>
     </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="24"/>
       <c r="C141" s="15"/>
@@ -7427,7 +7427,7 @@
       <c r="I141" s="37"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="32"/>
       <c r="C142" s="27"/>
@@ -7439,7 +7439,7 @@
       <c r="I142" s="37"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="15"/>
@@ -7451,7 +7451,7 @@
       <c r="I143" s="37"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="19"/>
       <c r="C144" s="15"/>
@@ -7463,7 +7463,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="15"/>
@@ -7475,7 +7475,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="19"/>
       <c r="C146" s="15"/>
@@ -7487,7 +7487,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="15"/>
@@ -7499,7 +7499,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
@@ -7511,7 +7511,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="15"/>
@@ -7523,7 +7523,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="19"/>
       <c r="C150" s="15"/>
@@ -7535,7 +7535,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="15"/>
@@ -7547,7 +7547,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="19"/>
       <c r="C152" s="15"/>
@@ -7559,7 +7559,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="15"/>
@@ -7571,7 +7571,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="19"/>
       <c r="C154" s="15"/>
@@ -7583,7 +7583,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="15"/>
@@ -7595,7 +7595,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="19"/>
       <c r="C156" s="15"/>
@@ -7607,7 +7607,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
       <c r="B157" s="32"/>
       <c r="C157" s="27"/>
@@ -7619,7 +7619,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="15"/>
@@ -7631,7 +7631,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="19"/>
       <c r="C159" s="15"/>
@@ -7643,7 +7643,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
       <c r="B160" s="18"/>
       <c r="C160" s="27"/>
@@ -7655,7 +7655,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="19"/>
       <c r="C161" s="15"/>
@@ -7667,7 +7667,7 @@
       <c r="I161" s="37"/>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="15"/>
@@ -7679,7 +7679,7 @@
       <c r="I162" s="37"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="19"/>
       <c r="C163" s="15"/>
@@ -7691,7 +7691,7 @@
       <c r="I163" s="37"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="15"/>
@@ -7703,7 +7703,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="19"/>
       <c r="C165" s="15"/>
@@ -7715,7 +7715,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="15"/>
@@ -7727,7 +7727,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
       <c r="B167" s="19"/>
       <c r="C167" s="15"/>
@@ -7739,7 +7739,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="15"/>
@@ -7751,7 +7751,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="19"/>
       <c r="C169" s="15"/>
@@ -7763,7 +7763,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="15"/>
@@ -7775,7 +7775,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="19"/>
       <c r="C171" s="15"/>
@@ -7787,7 +7787,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="34"/>
       <c r="B172" s="32"/>
       <c r="C172" s="27"/>
@@ -7799,7 +7799,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="18"/>
       <c r="C173" s="15"/>
@@ -7811,7 +7811,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="19"/>
       <c r="C174" s="15"/>
@@ -7823,7 +7823,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="15"/>
@@ -7835,7 +7835,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="19"/>
       <c r="C176" s="15"/>
@@ -7847,7 +7847,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="15"/>
@@ -7859,7 +7859,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="15"/>
     </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="19"/>
       <c r="C178" s="15"/>
@@ -7871,7 +7871,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="15"/>
     </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="18"/>
       <c r="C179" s="15"/>
@@ -7883,7 +7883,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="15"/>
     </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="19"/>
       <c r="C180" s="15"/>
@@ -7895,7 +7895,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="15"/>
     </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="15"/>
@@ -7907,7 +7907,7 @@
       <c r="I181" s="37"/>
       <c r="J181" s="15"/>
     </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="19"/>
       <c r="C182" s="15"/>
@@ -7919,7 +7919,7 @@
       <c r="I182" s="37"/>
       <c r="J182" s="15"/>
     </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="15"/>
@@ -7931,7 +7931,7 @@
       <c r="I183" s="37"/>
       <c r="J183" s="15"/>
     </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="19"/>
       <c r="C184" s="15"/>
@@ -7943,7 +7943,7 @@
       <c r="I184" s="37"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="15"/>
@@ -7955,7 +7955,7 @@
       <c r="I185" s="37"/>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="19"/>
       <c r="C186" s="15"/>
@@ -7967,7 +7967,7 @@
       <c r="I186" s="37"/>
       <c r="J186" s="15"/>
     </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="34"/>
       <c r="B187" s="32"/>
       <c r="C187" s="35"/>
@@ -7979,7 +7979,7 @@
       <c r="I187" s="38"/>
       <c r="J187" s="35"/>
     </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="15"/>
@@ -7991,7 +7991,7 @@
       <c r="I188" s="37"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="19"/>
       <c r="C189" s="15"/>
@@ -8003,7 +8003,7 @@
       <c r="I189" s="37"/>
       <c r="J189" s="15"/>
     </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="15"/>
@@ -8015,7 +8015,7 @@
       <c r="I190" s="37"/>
       <c r="J190" s="15"/>
     </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="19"/>
       <c r="C191" s="15"/>
@@ -8027,7 +8027,7 @@
       <c r="I191" s="37"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="15"/>
@@ -8039,7 +8039,7 @@
       <c r="I192" s="37"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="19"/>
       <c r="C193" s="15"/>
@@ -8051,7 +8051,7 @@
       <c r="I193" s="37"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="18"/>
       <c r="C194" s="15"/>
@@ -8063,7 +8063,7 @@
       <c r="I194" s="37"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="19"/>
       <c r="C195" s="15"/>
@@ -8075,7 +8075,7 @@
       <c r="I195" s="37"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="15"/>
@@ -8087,7 +8087,7 @@
       <c r="I196" s="37"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="19"/>
       <c r="C197" s="15"/>
@@ -8099,7 +8099,7 @@
       <c r="I197" s="37"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="15"/>
@@ -8111,7 +8111,7 @@
       <c r="I198" s="37"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="19"/>
       <c r="C199" s="15"/>
@@ -8123,7 +8123,7 @@
       <c r="I199" s="37"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="18"/>
       <c r="C200" s="15"/>
@@ -8135,7 +8135,7 @@
       <c r="I200" s="37"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="19"/>
       <c r="C201" s="15"/>
@@ -8147,7 +8147,7 @@
       <c r="I201" s="37"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="34"/>
       <c r="B202" s="32"/>
       <c r="C202" s="27"/>
@@ -8159,7 +8159,7 @@
       <c r="I202" s="37"/>
       <c r="J202" s="27"/>
     </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="15"/>
@@ -8171,7 +8171,7 @@
       <c r="I203" s="37"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="19"/>
       <c r="C204" s="15"/>
@@ -8183,7 +8183,7 @@
       <c r="I204" s="37"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="15"/>
@@ -8195,7 +8195,7 @@
       <c r="I205" s="37"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="19"/>
       <c r="C206" s="15"/>
@@ -8207,7 +8207,7 @@
       <c r="I206" s="37"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="18"/>
       <c r="C207" s="15"/>
@@ -8219,7 +8219,7 @@
       <c r="I207" s="37"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="19"/>
       <c r="C208" s="15"/>
@@ -8231,7 +8231,7 @@
       <c r="I208" s="37"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="15"/>
@@ -8243,7 +8243,7 @@
       <c r="I209" s="37"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="19"/>
       <c r="C210" s="15"/>
@@ -8255,7 +8255,7 @@
       <c r="I210" s="37"/>
       <c r="J210" s="15"/>
     </row>
-    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="15"/>
@@ -8267,7 +8267,7 @@
       <c r="I211" s="37"/>
       <c r="J211" s="15"/>
     </row>
-    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="19"/>
       <c r="C212" s="15"/>
@@ -8279,7 +8279,7 @@
       <c r="I212" s="37"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="15"/>
@@ -8291,7 +8291,7 @@
       <c r="I213" s="37"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="25"/>
       <c r="B214" s="19"/>
       <c r="C214" s="15"/>
@@ -8303,7 +8303,7 @@
       <c r="I214" s="37"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="B215" s="18"/>
       <c r="C215" s="15"/>
@@ -8315,7 +8315,7 @@
       <c r="I215" s="37"/>
       <c r="J215" s="15"/>
     </row>
-    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="19"/>
       <c r="C216" s="15"/>
@@ -8327,7 +8327,7 @@
       <c r="I216" s="37"/>
       <c r="J216" s="27"/>
     </row>
-    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="34"/>
       <c r="B217" s="32"/>
       <c r="C217" s="27"/>
@@ -8339,7 +8339,7 @@
       <c r="I217" s="37"/>
       <c r="J217" s="27"/>
     </row>
-    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="15"/>
@@ -8351,7 +8351,7 @@
       <c r="I218" s="37"/>
       <c r="J218" s="15"/>
     </row>
-    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="19"/>
       <c r="C219" s="15"/>
@@ -8363,7 +8363,7 @@
       <c r="I219" s="37"/>
       <c r="J219" s="15"/>
     </row>
-    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="15"/>
@@ -8375,7 +8375,7 @@
       <c r="I220" s="37"/>
       <c r="J220" s="15"/>
     </row>
-    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="19"/>
       <c r="C221" s="15"/>
@@ -8387,7 +8387,7 @@
       <c r="I221" s="37"/>
       <c r="J221" s="15"/>
     </row>
-    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="18"/>
       <c r="C222" s="15"/>
@@ -8400,7 +8400,7 @@
       <c r="J222" s="27"/>
       <c r="K222" s="28"/>
     </row>
-    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="19"/>
       <c r="C223" s="15"/>
@@ -8412,7 +8412,7 @@
       <c r="I223" s="37"/>
       <c r="J223" s="15"/>
     </row>
-    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="15"/>
@@ -8424,7 +8424,7 @@
       <c r="I224" s="37"/>
       <c r="J224" s="15"/>
     </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="19"/>
       <c r="C225" s="15"/>
@@ -8436,7 +8436,7 @@
       <c r="I225" s="37"/>
       <c r="J225" s="15"/>
     </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="15"/>
@@ -8448,7 +8448,7 @@
       <c r="I226" s="37"/>
       <c r="J226" s="15"/>
     </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="19"/>
       <c r="C227" s="15"/>
@@ -8460,7 +8460,7 @@
       <c r="I227" s="37"/>
       <c r="J227" s="15"/>
     </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="18"/>
       <c r="C228" s="15"/>
@@ -8472,7 +8472,7 @@
       <c r="I228" s="37"/>
       <c r="J228" s="15"/>
     </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
       <c r="B229" s="19"/>
       <c r="C229" s="15"/>
@@ -8484,7 +8484,7 @@
       <c r="I229" s="37"/>
       <c r="J229" s="15"/>
     </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="15"/>
@@ -8496,7 +8496,7 @@
       <c r="I230" s="37"/>
       <c r="J230" s="15"/>
     </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="19"/>
       <c r="C231" s="15"/>
@@ -8508,7 +8508,7 @@
       <c r="I231" s="37"/>
       <c r="J231" s="15"/>
     </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="24"/>
       <c r="C232" s="15"/>
@@ -8520,7 +8520,7 @@
       <c r="I232" s="37"/>
       <c r="J232" s="15"/>
     </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="34"/>
       <c r="B233" s="32"/>
       <c r="C233" s="27"/>
@@ -8532,7 +8532,7 @@
       <c r="I233" s="37"/>
       <c r="J233" s="27"/>
     </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="15"/>
@@ -8544,7 +8544,7 @@
       <c r="I234" s="37"/>
       <c r="J234" s="15"/>
     </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="19"/>
       <c r="C235" s="15"/>
@@ -8556,7 +8556,7 @@
       <c r="I235" s="37"/>
       <c r="J235" s="15"/>
     </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="18"/>
       <c r="C236" s="15"/>
@@ -8568,7 +8568,7 @@
       <c r="I236" s="37"/>
       <c r="J236" s="15"/>
     </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="19"/>
       <c r="C237" s="15"/>
@@ -8580,7 +8580,7 @@
       <c r="I237" s="37"/>
       <c r="J237" s="15"/>
     </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="15"/>
@@ -8592,7 +8592,7 @@
       <c r="I238" s="37"/>
       <c r="J238" s="15"/>
     </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="19"/>
       <c r="C239" s="15"/>
@@ -8604,7 +8604,7 @@
       <c r="I239" s="37"/>
       <c r="J239" s="15"/>
     </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="34"/>
       <c r="B240" s="32"/>
       <c r="C240" s="27"/>
@@ -8616,7 +8616,7 @@
       <c r="I240" s="37"/>
       <c r="J240" s="27"/>
     </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="15"/>
@@ -8628,7 +8628,7 @@
       <c r="I241" s="37"/>
       <c r="J241" s="15"/>
     </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="19"/>
       <c r="C242" s="15"/>
@@ -8640,7 +8640,7 @@
       <c r="I242" s="37"/>
       <c r="J242" s="15"/>
     </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="18"/>
       <c r="C243" s="15"/>
@@ -8652,7 +8652,7 @@
       <c r="I243" s="37"/>
       <c r="J243" s="15"/>
     </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="19"/>
       <c r="C244" s="15"/>
@@ -8664,7 +8664,7 @@
       <c r="I244" s="37"/>
       <c r="J244" s="15"/>
     </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="15"/>
@@ -8676,7 +8676,7 @@
       <c r="I245" s="37"/>
       <c r="J245" s="15"/>
     </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="19"/>
       <c r="C246" s="15"/>
@@ -8688,7 +8688,7 @@
       <c r="I246" s="37"/>
       <c r="J246" s="15"/>
     </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="15"/>
@@ -8700,7 +8700,7 @@
       <c r="I247" s="37"/>
       <c r="J247" s="15"/>
     </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
       <c r="B248" s="19"/>
       <c r="C248" s="15"/>
@@ -8712,7 +8712,7 @@
       <c r="I248" s="37"/>
       <c r="J248" s="15"/>
     </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="18"/>
       <c r="C249" s="15"/>
@@ -8724,7 +8724,7 @@
       <c r="I249" s="37"/>
       <c r="J249" s="27"/>
     </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="19"/>
       <c r="C250" s="15"/>
@@ -8736,7 +8736,7 @@
       <c r="I250" s="37"/>
       <c r="J250" s="15"/>
     </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="15"/>
@@ -8748,7 +8748,7 @@
       <c r="I251" s="37"/>
       <c r="J251" s="15"/>
     </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="19"/>
       <c r="C252" s="15"/>
@@ -8760,7 +8760,7 @@
       <c r="I252" s="37"/>
       <c r="J252" s="15"/>
     </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="15"/>
@@ -8772,7 +8772,7 @@
       <c r="I253" s="37"/>
       <c r="J253" s="15"/>
     </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="19"/>
       <c r="C254" s="15"/>
@@ -8784,7 +8784,7 @@
       <c r="I254" s="37"/>
       <c r="J254" s="15"/>
     </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="24"/>
       <c r="C255" s="15"/>
@@ -8796,7 +8796,7 @@
       <c r="I255" s="37"/>
       <c r="J255" s="27"/>
     </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="34"/>
       <c r="B256" s="32"/>
       <c r="C256" s="27"/>
@@ -8808,7 +8808,7 @@
       <c r="I256" s="37"/>
       <c r="J256" s="27"/>
     </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="25"/>
       <c r="B257" s="18"/>
       <c r="C257" s="15"/>
@@ -8820,7 +8820,7 @@
       <c r="I257" s="37"/>
       <c r="J257" s="15"/>
     </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
       <c r="B258" s="19"/>
       <c r="C258" s="15"/>
@@ -8832,7 +8832,7 @@
       <c r="I258" s="37"/>
       <c r="J258" s="30"/>
     </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="34"/>
       <c r="B259" s="32"/>
       <c r="C259" s="27"/>
@@ -8844,7 +8844,7 @@
       <c r="I259" s="37"/>
       <c r="J259" s="27"/>
     </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="18"/>
       <c r="C260" s="15"/>
@@ -8856,7 +8856,7 @@
       <c r="I260" s="37"/>
       <c r="J260" s="27"/>
     </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="19"/>
       <c r="C261" s="15"/>
@@ -8868,7 +8868,7 @@
       <c r="I261" s="37"/>
       <c r="J261" s="27"/>
     </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="34"/>
       <c r="B262" s="32"/>
       <c r="C262" s="27"/>
@@ -8880,7 +8880,7 @@
       <c r="I262" s="37"/>
       <c r="J262" s="27"/>
     </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="26"/>
       <c r="B263" s="18"/>
       <c r="C263" s="15"/>
@@ -8892,7 +8892,7 @@
       <c r="I263" s="37"/>
       <c r="J263" s="27"/>
     </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="26"/>
       <c r="B264" s="19"/>
       <c r="C264" s="15"/>
@@ -8904,7 +8904,7 @@
       <c r="I264" s="37"/>
       <c r="J264" s="27"/>
     </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="18"/>
       <c r="C265" s="15"/>
@@ -8916,7 +8916,7 @@
       <c r="I265" s="37"/>
       <c r="J265" s="27"/>
     </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="19"/>
       <c r="C266" s="15"/>
@@ -8928,7 +8928,7 @@
       <c r="I266" s="37"/>
       <c r="J266" s="27"/>
     </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="18"/>
       <c r="C267" s="15"/>
@@ -8940,7 +8940,7 @@
       <c r="I267" s="37"/>
       <c r="J267" s="27"/>
     </row>
-    <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="6"/>
@@ -8952,7 +8952,7 @@
       <c r="I268" s="37"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="18"/>
       <c r="C269" s="6"/>
@@ -8964,7 +8964,7 @@
       <c r="I269" s="37"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="6"/>
@@ -8976,7 +8976,7 @@
       <c r="I270" s="37"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="18"/>
       <c r="C271" s="6"/>
@@ -8988,7 +8988,7 @@
       <c r="I271" s="37"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="6"/>
@@ -9000,7 +9000,7 @@
       <c r="I272" s="37"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="18"/>
       <c r="C273" s="6"/>
@@ -9012,7 +9012,7 @@
       <c r="I273" s="37"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="6"/>
@@ -9024,7 +9024,7 @@
       <c r="I274" s="37"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="18"/>
       <c r="C275" s="6"/>
@@ -9036,7 +9036,7 @@
       <c r="I275" s="37"/>
       <c r="J275" s="12"/>
     </row>
-    <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="6"/>
@@ -9048,7 +9048,7 @@
       <c r="I276" s="37"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="34"/>
       <c r="B277" s="32"/>
       <c r="C277" s="12"/>
@@ -9060,7 +9060,7 @@
       <c r="I277" s="37"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="18"/>
       <c r="C278" s="6"/>
@@ -9072,7 +9072,7 @@
       <c r="I278" s="37"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="6"/>
@@ -9084,7 +9084,7 @@
       <c r="I279" s="37"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="18"/>
       <c r="C280" s="6"/>
@@ -9096,7 +9096,7 @@
       <c r="I280" s="37"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="6"/>
@@ -9108,7 +9108,7 @@
       <c r="I281" s="37"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="18"/>
       <c r="C282" s="6"/>
@@ -9120,7 +9120,7 @@
       <c r="I282" s="37"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="6"/>
@@ -9132,7 +9132,7 @@
       <c r="I283" s="37"/>
       <c r="J283" s="12"/>
     </row>
-    <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="18"/>
       <c r="C284" s="6"/>
@@ -9144,7 +9144,7 @@
       <c r="I284" s="37"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="6"/>
@@ -9156,7 +9156,7 @@
       <c r="I285" s="37"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="18"/>
       <c r="C286" s="6"/>
@@ -9168,7 +9168,7 @@
       <c r="I286" s="37"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="6"/>
@@ -9180,7 +9180,7 @@
       <c r="I287" s="37"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="18"/>
       <c r="C288" s="6"/>
@@ -9192,7 +9192,7 @@
       <c r="I288" s="37"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="6"/>
@@ -9204,7 +9204,7 @@
       <c r="I289" s="37"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="18"/>
       <c r="C290" s="4"/>
@@ -9216,7 +9216,7 @@
       <c r="I290" s="37"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="4"/>
@@ -9228,7 +9228,7 @@
       <c r="I291" s="37"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="34"/>
       <c r="B292" s="32"/>
       <c r="C292" s="12"/>
@@ -9240,7 +9240,7 @@
       <c r="I292" s="37"/>
       <c r="J292" s="12"/>
     </row>
-    <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="18"/>
       <c r="C293" s="4"/>
@@ -9252,7 +9252,7 @@
       <c r="I293" s="37"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="19"/>
       <c r="C294" s="4"/>
@@ -9264,7 +9264,7 @@
       <c r="I294" s="37"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="18"/>
       <c r="C295" s="4"/>
@@ -9276,7 +9276,7 @@
       <c r="I295" s="37"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="19"/>
       <c r="C296" s="10"/>
@@ -9288,7 +9288,7 @@
       <c r="I296" s="37"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="18"/>
       <c r="C297" s="4"/>
@@ -9300,7 +9300,7 @@
       <c r="I297" s="37"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="6"/>
@@ -9312,7 +9312,7 @@
       <c r="I298" s="37"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="18"/>
       <c r="C299" s="4"/>
@@ -9324,7 +9324,7 @@
       <c r="I299" s="37"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="19"/>
       <c r="C300" s="4"/>
@@ -9336,7 +9336,7 @@
       <c r="I300" s="37"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="18"/>
       <c r="C301" s="4"/>
@@ -9348,7 +9348,7 @@
       <c r="I301" s="37"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="19"/>
       <c r="C302" s="4"/>
@@ -9360,7 +9360,7 @@
       <c r="I302" s="37"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="18"/>
       <c r="C303" s="4"/>
@@ -9372,7 +9372,7 @@
       <c r="I303" s="37"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="19"/>
       <c r="C304" s="4"/>
@@ -9384,7 +9384,7 @@
       <c r="I304" s="37"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="18"/>
       <c r="C305" s="4"/>
@@ -9396,7 +9396,7 @@
       <c r="I305" s="37"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="19"/>
       <c r="C306" s="4"/>
@@ -9408,7 +9408,7 @@
       <c r="I306" s="37"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="34"/>
       <c r="B307" s="32"/>
       <c r="C307" s="12"/>
@@ -9420,7 +9420,7 @@
       <c r="I307" s="37"/>
       <c r="J307" s="12"/>
     </row>
-    <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
@@ -9432,7 +9432,7 @@
       <c r="I308" s="37"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="19"/>
       <c r="C309" s="4"/>
@@ -9444,7 +9444,7 @@
       <c r="I309" s="37"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="21"/>
       <c r="B310" s="24"/>
       <c r="C310" s="4"/>
@@ -9456,7 +9456,7 @@
       <c r="I310" s="37"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="34"/>
       <c r="B311" s="32"/>
       <c r="C311" s="12"/>
@@ -9468,7 +9468,7 @@
       <c r="I311" s="37"/>
       <c r="J311" s="12"/>
     </row>
-    <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="18"/>
       <c r="C312" s="4"/>
@@ -9480,7 +9480,7 @@
       <c r="I312" s="37"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="19"/>
       <c r="C313" s="4"/>
@@ -9492,7 +9492,7 @@
       <c r="I313" s="37"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="18"/>
       <c r="C314" s="4"/>
@@ -9504,7 +9504,7 @@
       <c r="I314" s="37"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="19"/>
       <c r="C315" s="4"/>
@@ -9516,7 +9516,7 @@
       <c r="I315" s="37"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="18"/>
       <c r="C316" s="4"/>
@@ -9528,7 +9528,7 @@
       <c r="I316" s="37"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="19"/>
       <c r="C317" s="4"/>
@@ -9540,7 +9540,7 @@
       <c r="I317" s="37"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="18"/>
       <c r="C318" s="4"/>
@@ -9552,7 +9552,7 @@
       <c r="I318" s="37"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="19"/>
       <c r="C319" s="4"/>
@@ -9564,7 +9564,7 @@
       <c r="I319" s="37"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="18"/>
       <c r="C320" s="4"/>
@@ -9576,7 +9576,7 @@
       <c r="I320" s="37"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="19"/>
       <c r="C321" s="4"/>
@@ -9588,7 +9588,7 @@
       <c r="I321" s="37"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="18"/>
       <c r="C322" s="4"/>
@@ -9600,7 +9600,7 @@
       <c r="I322" s="37"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="19"/>
       <c r="C323" s="4"/>
@@ -9612,7 +9612,7 @@
       <c r="I323" s="37"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="18"/>
       <c r="C324" s="4"/>
@@ -9624,7 +9624,7 @@
       <c r="I324" s="37"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="19"/>
       <c r="C325" s="4"/>
@@ -9636,7 +9636,7 @@
       <c r="I325" s="37"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="34"/>
       <c r="B326" s="32"/>
       <c r="C326" s="12"/>
@@ -9648,7 +9648,7 @@
       <c r="I326" s="37"/>
       <c r="J326" s="12"/>
     </row>
-    <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="18"/>
       <c r="C327" s="4"/>
@@ -9660,7 +9660,7 @@
       <c r="I327" s="37"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="19"/>
       <c r="C328" s="4"/>
@@ -9672,7 +9672,7 @@
       <c r="I328" s="37"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="18"/>
       <c r="C329" s="4"/>
@@ -9684,7 +9684,7 @@
       <c r="I329" s="37"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="19"/>
       <c r="C330" s="4"/>
@@ -9696,7 +9696,7 @@
       <c r="I330" s="37"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="18"/>
       <c r="C331" s="4"/>
@@ -9708,7 +9708,7 @@
       <c r="I331" s="37"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="19"/>
       <c r="C332" s="4"/>
@@ -9720,7 +9720,7 @@
       <c r="I332" s="37"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="18"/>
       <c r="C333" s="4"/>
@@ -9732,7 +9732,7 @@
       <c r="I333" s="37"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="19"/>
       <c r="C334" s="4"/>
@@ -9744,7 +9744,7 @@
       <c r="I334" s="37"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="18"/>
       <c r="C335" s="4"/>
@@ -9756,7 +9756,7 @@
       <c r="I335" s="37"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="19"/>
       <c r="C336" s="4"/>
@@ -9768,7 +9768,7 @@
       <c r="I336" s="37"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="18"/>
       <c r="C337" s="4"/>
@@ -9780,7 +9780,7 @@
       <c r="I337" s="37"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="19"/>
       <c r="C338" s="4"/>
@@ -9792,7 +9792,7 @@
       <c r="I338" s="37"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="18"/>
       <c r="C339" s="4"/>
@@ -9804,7 +9804,7 @@
       <c r="I339" s="37"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="19"/>
       <c r="C340" s="4"/>
@@ -9816,7 +9816,7 @@
       <c r="I340" s="37"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
@@ -9828,7 +9828,7 @@
       <c r="I341" s="39"/>
       <c r="J341" s="3"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
@@ -9840,7 +9840,7 @@
       <c r="I342" s="39"/>
       <c r="J342" s="3"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
@@ -9852,7 +9852,7 @@
       <c r="I343" s="39"/>
       <c r="J343" s="3"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
@@ -9864,7 +9864,7 @@
       <c r="I344" s="39"/>
       <c r="J344" s="3"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
@@ -9876,7 +9876,7 @@
       <c r="I345" s="39"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -9888,7 +9888,7 @@
       <c r="I346" s="39"/>
       <c r="J346" s="3"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -9900,7 +9900,7 @@
       <c r="I347" s="39"/>
       <c r="J347" s="3"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -9912,7 +9912,7 @@
       <c r="I348" s="39"/>
       <c r="J348" s="3"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -9924,7 +9924,7 @@
       <c r="I349" s="39"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -9936,7 +9936,7 @@
       <c r="I350" s="39"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -9948,7 +9948,7 @@
       <c r="I351" s="39"/>
       <c r="J351" s="3"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -9960,7 +9960,7 @@
       <c r="I352" s="39"/>
       <c r="J352" s="3"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -9972,7 +9972,7 @@
       <c r="I353" s="39"/>
       <c r="J353" s="3"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -9984,7 +9984,7 @@
       <c r="I354" s="39"/>
       <c r="J354" s="3"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -9996,7 +9996,7 @@
       <c r="I355" s="39"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -10008,7 +10008,7 @@
       <c r="I356" s="39"/>
       <c r="J356" s="3"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -10020,7 +10020,7 @@
       <c r="I357" s="39"/>
       <c r="J357" s="3"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -10032,7 +10032,7 @@
       <c r="I358" s="39"/>
       <c r="J358" s="3"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -10044,7 +10044,7 @@
       <c r="I359" s="39"/>
       <c r="J359" s="3"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -10056,7 +10056,7 @@
       <c r="I360" s="39"/>
       <c r="J360" s="3"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -10068,7 +10068,7 @@
       <c r="I361" s="39"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -10080,7 +10080,7 @@
       <c r="I362" s="39"/>
       <c r="J362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -10092,7 +10092,7 @@
       <c r="I363" s="39"/>
       <c r="J363" s="3"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -10104,7 +10104,7 @@
       <c r="I364" s="39"/>
       <c r="J364" s="3"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -10116,7 +10116,7 @@
       <c r="I365" s="39"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -10128,7 +10128,7 @@
       <c r="I366" s="39"/>
       <c r="J366" s="3"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -10140,7 +10140,7 @@
       <c r="I367" s="39"/>
       <c r="J367" s="3"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -10152,7 +10152,7 @@
       <c r="I368" s="39"/>
       <c r="J368" s="3"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -10164,7 +10164,7 @@
       <c r="I369" s="39"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
